--- a/seed.xlsx
+++ b/seed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zacharymargolies/Desktop/coding/coding-question-trivia-server/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CB69B24-53F6-9C46-AF66-08E3DC50820C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1707B8E9-B5AD-C742-81E7-7B2E66F5ECCE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{8EE8C5F5-3429-944F-8017-847E4B6E56BE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{8EE8C5F5-3429-944F-8017-847E4B6E56BE}"/>
   </bookViews>
   <sheets>
     <sheet name="facts" sheetId="5" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="171">
   <si>
     <t>id</t>
   </si>
@@ -483,13 +483,73 @@
   </si>
   <si>
     <t>path, fs, http</t>
+  </si>
+  <si>
+    <t>JAVASCRIPT FILLER FACT - 1</t>
+  </si>
+  <si>
+    <t>JAVASCRIPT FILLER FACT - 2</t>
+  </si>
+  <si>
+    <t>JAVASCRIPT FILLER FACT - 3</t>
+  </si>
+  <si>
+    <t>JAVASCRIPT FILLER FACT - 4</t>
+  </si>
+  <si>
+    <t>JAVASCRIPT FILLER FACT - 5</t>
+  </si>
+  <si>
+    <t>NODEJS FILLER FACT - 1</t>
+  </si>
+  <si>
+    <t>NODEJS FILLER FACT - 2</t>
+  </si>
+  <si>
+    <t>NODEJS FILLER FACT - 3</t>
+  </si>
+  <si>
+    <t>NODEJS FILLER FACT - 4</t>
+  </si>
+  <si>
+    <t>NODEJS FILLER FACT - 5</t>
+  </si>
+  <si>
+    <t>EXPRESSJS FILLER FACT - 1</t>
+  </si>
+  <si>
+    <t>EXPRESSJS FILLER FACT - 2</t>
+  </si>
+  <si>
+    <t>EXPRESSJS FILLER FACT - 3</t>
+  </si>
+  <si>
+    <t>EXPRESSJS FILLER FACT - 4</t>
+  </si>
+  <si>
+    <t>EXPRESSJS FILLER FACT - 5</t>
+  </si>
+  <si>
+    <t>REDUXJS FILLER FACT - 1</t>
+  </si>
+  <si>
+    <t>REDUXJS FILLER FACT - 2</t>
+  </si>
+  <si>
+    <t>REDUXJS FILLER FACT - 3</t>
+  </si>
+  <si>
+    <t>REDUXJS FILLER FACT - 4</t>
+  </si>
+  <si>
+    <t>REDUXJS FILLER FACT - 5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -866,18 +926,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA9898A5-FB44-9A4A-8450-7EC9003AEE57}">
-  <dimension ref="C2:N17"/>
+  <dimension ref="C2:N37"/>
   <sheetViews>
-    <sheetView zoomScale="108" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:N17"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="61" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16:C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="4" max="4" width="60.5" customWidth="1"/>
+    <col min="5" max="5" width="72.83203125" customWidth="1"/>
+    <col min="6" max="6" width="31.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="3:14">
       <c r="C2" t="s">
         <v>0</v>
       </c>
@@ -915,7 +977,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="3:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="3:14" ht="17">
       <c r="C3" s="2">
         <v>1</v>
       </c>
@@ -951,7 +1013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="3:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:14" ht="17">
       <c r="C4" s="2">
         <v>2</v>
       </c>
@@ -987,7 +1049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="3:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:14" ht="17">
       <c r="C5" s="2">
         <v>3</v>
       </c>
@@ -1023,7 +1085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="3:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:14" ht="17">
       <c r="C6" s="2">
         <v>4</v>
       </c>
@@ -1059,7 +1121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="3:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:14" ht="34">
       <c r="C7" s="2">
         <v>5</v>
       </c>
@@ -1095,7 +1157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="3:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:14" ht="34">
       <c r="C8" s="2">
         <v>6</v>
       </c>
@@ -1131,7 +1193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="3:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:14" ht="17">
       <c r="C9" s="2">
         <v>7</v>
       </c>
@@ -1167,7 +1229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="3:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:14" ht="17">
       <c r="C10" s="2">
         <v>8</v>
       </c>
@@ -1203,7 +1265,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="3:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:14" ht="34">
       <c r="C11" s="2">
         <v>9</v>
       </c>
@@ -1239,7 +1301,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="3:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="12" spans="3:14" ht="51">
       <c r="C12" s="2">
         <v>10</v>
       </c>
@@ -1275,7 +1337,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="3:14" ht="136" x14ac:dyDescent="0.2">
+    <row r="13" spans="3:14" ht="136">
       <c r="C13" s="2">
         <v>11</v>
       </c>
@@ -1311,7 +1373,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="3:14" ht="119" x14ac:dyDescent="0.2">
+    <row r="14" spans="3:14" ht="119">
       <c r="C14" s="2">
         <v>12</v>
       </c>
@@ -1347,7 +1409,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="3:14" ht="102" x14ac:dyDescent="0.2">
+    <row r="15" spans="3:14" ht="102">
       <c r="C15" s="2">
         <v>13</v>
       </c>
@@ -1383,7 +1445,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="3:14" ht="170" x14ac:dyDescent="0.2">
+    <row r="16" spans="3:14" ht="170">
       <c r="C16" s="2">
         <v>14</v>
       </c>
@@ -1419,7 +1481,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="3:14" ht="136" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:14" ht="85">
       <c r="C17" s="2">
         <v>15</v>
       </c>
@@ -1453,6 +1515,726 @@
       </c>
       <c r="N17" s="2">
         <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" ht="51">
+      <c r="C18" s="2">
+        <v>16</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18">
+        <v>0.4</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L18" t="s">
+        <v>34</v>
+      </c>
+      <c r="M18" t="s">
+        <v>34</v>
+      </c>
+      <c r="N18" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" ht="51">
+      <c r="C19" s="2">
+        <v>17</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19">
+        <v>0.4</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K19" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L19" t="s">
+        <v>34</v>
+      </c>
+      <c r="M19" t="s">
+        <v>34</v>
+      </c>
+      <c r="N19" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="3:14" ht="51">
+      <c r="C20" s="2">
+        <v>18</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20">
+        <v>0.4</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L20" t="s">
+        <v>34</v>
+      </c>
+      <c r="M20" t="s">
+        <v>34</v>
+      </c>
+      <c r="N20" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" ht="51">
+      <c r="C21" s="2">
+        <v>19</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21">
+        <v>0.4</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L21" t="s">
+        <v>34</v>
+      </c>
+      <c r="M21" t="s">
+        <v>34</v>
+      </c>
+      <c r="N21" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" ht="51">
+      <c r="C22" s="2">
+        <v>20</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22">
+        <v>0.4</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K22" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L22" t="s">
+        <v>34</v>
+      </c>
+      <c r="M22" t="s">
+        <v>34</v>
+      </c>
+      <c r="N22" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" ht="51">
+      <c r="C23" s="2">
+        <v>21</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23">
+        <v>0.4</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K23" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L23" t="s">
+        <v>34</v>
+      </c>
+      <c r="M23" t="s">
+        <v>34</v>
+      </c>
+      <c r="N23" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" ht="51">
+      <c r="C24" s="2">
+        <v>22</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24">
+        <v>0.4</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K24" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L24" t="s">
+        <v>34</v>
+      </c>
+      <c r="M24" t="s">
+        <v>34</v>
+      </c>
+      <c r="N24" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" ht="51">
+      <c r="C25" s="2">
+        <v>23</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25">
+        <v>0.4</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K25" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L25" t="s">
+        <v>34</v>
+      </c>
+      <c r="M25" t="s">
+        <v>34</v>
+      </c>
+      <c r="N25" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" ht="51">
+      <c r="C26" s="2">
+        <v>24</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26">
+        <v>0.4</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K26" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L26" t="s">
+        <v>34</v>
+      </c>
+      <c r="M26" t="s">
+        <v>34</v>
+      </c>
+      <c r="N26" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" ht="51">
+      <c r="C27" s="2">
+        <v>25</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27">
+        <v>0.4</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K27" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L27" t="s">
+        <v>34</v>
+      </c>
+      <c r="M27" t="s">
+        <v>34</v>
+      </c>
+      <c r="N27" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" ht="51">
+      <c r="C28" s="2">
+        <v>26</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28">
+        <v>0.4</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K28" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L28" t="s">
+        <v>34</v>
+      </c>
+      <c r="M28" t="s">
+        <v>34</v>
+      </c>
+      <c r="N28" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" ht="51">
+      <c r="C29" s="2">
+        <v>27</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29">
+        <v>0.4</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K29" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L29" t="s">
+        <v>34</v>
+      </c>
+      <c r="M29" t="s">
+        <v>34</v>
+      </c>
+      <c r="N29" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" ht="51">
+      <c r="C30" s="2">
+        <v>28</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30">
+        <v>0.4</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K30" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L30" t="s">
+        <v>34</v>
+      </c>
+      <c r="M30" t="s">
+        <v>34</v>
+      </c>
+      <c r="N30" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" ht="51">
+      <c r="C31" s="2">
+        <v>29</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31">
+        <v>0.4</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K31" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L31" t="s">
+        <v>34</v>
+      </c>
+      <c r="M31" t="s">
+        <v>34</v>
+      </c>
+      <c r="N31" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" ht="51">
+      <c r="C32" s="2">
+        <v>30</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32">
+        <v>0.4</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K32" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L32" t="s">
+        <v>34</v>
+      </c>
+      <c r="M32" t="s">
+        <v>34</v>
+      </c>
+      <c r="N32" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="3:14" ht="51">
+      <c r="C33" s="2">
+        <v>31</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33">
+        <v>0.4</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K33" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L33" t="s">
+        <v>34</v>
+      </c>
+      <c r="M33" t="s">
+        <v>34</v>
+      </c>
+      <c r="N33" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="3:14" ht="51">
+      <c r="C34" s="2">
+        <v>32</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34">
+        <v>0.4</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K34" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L34" t="s">
+        <v>34</v>
+      </c>
+      <c r="M34" t="s">
+        <v>34</v>
+      </c>
+      <c r="N34" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="3:14" ht="51">
+      <c r="C35" s="2">
+        <v>33</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35">
+        <v>0.4</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K35" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L35" t="s">
+        <v>34</v>
+      </c>
+      <c r="M35" t="s">
+        <v>34</v>
+      </c>
+      <c r="N35" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="3:14" ht="51">
+      <c r="C36" s="2">
+        <v>34</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36">
+        <v>0.4</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K36" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L36" t="s">
+        <v>34</v>
+      </c>
+      <c r="M36" t="s">
+        <v>34</v>
+      </c>
+      <c r="N36" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="3:14" ht="51">
+      <c r="C37" s="2">
+        <v>35</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G37">
+        <v>0.4</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K37" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L37" t="s">
+        <v>34</v>
+      </c>
+      <c r="M37" t="s">
+        <v>34</v>
+      </c>
+      <c r="N37" s="2">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1465,17 +2247,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0553221-9327-324C-8DFE-9BF0AE85A558}">
   <dimension ref="C2:H45"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C39" sqref="C39:H45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="4" max="4" width="79.83203125" customWidth="1"/>
     <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="3:8">
       <c r="C2" t="s">
         <v>0</v>
       </c>
@@ -1495,7 +2277,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="3:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="3" spans="3:8" ht="51">
       <c r="C3" s="2">
         <v>1</v>
       </c>
@@ -1515,7 +2297,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:8" ht="17">
       <c r="C4" s="2">
         <v>2</v>
       </c>
@@ -1535,7 +2317,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:8" ht="17">
       <c r="C5" s="2">
         <v>3</v>
       </c>
@@ -1555,7 +2337,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="3:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:8" ht="34">
       <c r="C6" s="6">
         <v>4</v>
       </c>
@@ -1575,7 +2357,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="3:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:8" ht="34">
       <c r="C7" s="2">
         <v>5</v>
       </c>
@@ -1595,7 +2377,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="3:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:8" ht="34">
       <c r="C8" s="2">
         <v>6</v>
       </c>
@@ -1615,7 +2397,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="3:8" ht="85" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:8" ht="85">
       <c r="C9" s="6">
         <v>7</v>
       </c>
@@ -1635,7 +2417,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="3:8" ht="85" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:8" ht="85">
       <c r="C10" s="6">
         <v>8</v>
       </c>
@@ -1655,7 +2437,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="3:8" ht="85" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:8" ht="85">
       <c r="C11" s="6">
         <v>9</v>
       </c>
@@ -1675,7 +2457,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="3:8" ht="17">
       <c r="C12" s="6">
         <v>10</v>
       </c>
@@ -1695,7 +2477,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="3:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="13" spans="3:8" ht="51">
       <c r="C13" s="6">
         <v>11</v>
       </c>
@@ -1715,7 +2497,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="3:8" ht="17">
       <c r="C14" s="2">
         <v>12</v>
       </c>
@@ -1735,7 +2517,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="3:8" ht="17">
       <c r="C15" s="2">
         <v>13</v>
       </c>
@@ -1755,7 +2537,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="3:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="16" spans="3:8" ht="51">
       <c r="C16" s="2">
         <v>14</v>
       </c>
@@ -1775,7 +2557,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:8" ht="17">
       <c r="C17" s="2">
         <v>15</v>
       </c>
@@ -1795,7 +2577,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:8" ht="17">
       <c r="C18" s="2">
         <v>16</v>
       </c>
@@ -1815,7 +2597,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="3:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:8" ht="34">
       <c r="C19" s="2">
         <v>17</v>
       </c>
@@ -1835,7 +2617,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="3:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:8" ht="34">
       <c r="C20" s="2">
         <v>18</v>
       </c>
@@ -1855,7 +2637,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="3:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:8" ht="34">
       <c r="C21" s="2">
         <v>19</v>
       </c>
@@ -1875,7 +2657,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="3:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:8" ht="34">
       <c r="C22" s="2">
         <v>20</v>
       </c>
@@ -1895,7 +2677,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="3:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:8" ht="34">
       <c r="C23" s="2">
         <v>21</v>
       </c>
@@ -1915,7 +2697,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="3:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:8" ht="34">
       <c r="C24" s="6">
         <v>22</v>
       </c>
@@ -1935,7 +2717,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="3:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:8" ht="51">
       <c r="C25" s="2">
         <v>23</v>
       </c>
@@ -1955,7 +2737,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="3:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:8" ht="17" customHeight="1">
       <c r="C26" s="6">
         <v>24</v>
       </c>
@@ -1975,7 +2757,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="3:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:8" ht="51">
       <c r="C27" s="2">
         <v>25</v>
       </c>
@@ -1995,7 +2777,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="3:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:8" ht="34">
       <c r="C28" s="2">
         <v>26</v>
       </c>
@@ -2015,7 +2797,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="3:8" ht="85" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:8" ht="85">
       <c r="C29" s="6">
         <v>27</v>
       </c>
@@ -2035,7 +2817,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="3:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:8" ht="34">
       <c r="C30" s="2">
         <v>28</v>
       </c>
@@ -2055,7 +2837,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:8" ht="17">
       <c r="C31" s="2">
         <v>29</v>
       </c>
@@ -2075,7 +2857,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:8" ht="17">
       <c r="C32" s="2">
         <v>30</v>
       </c>
@@ -2095,7 +2877,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="3:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:8" ht="51">
       <c r="C33" s="2">
         <v>31</v>
       </c>
@@ -2115,7 +2897,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="3:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:8" ht="34">
       <c r="C34" s="2">
         <v>32</v>
       </c>
@@ -2135,7 +2917,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="3:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:8" ht="51">
       <c r="C35" s="2">
         <v>33</v>
       </c>
@@ -2155,7 +2937,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="3:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:8" ht="68">
       <c r="C36" s="6">
         <v>34</v>
       </c>
@@ -2175,7 +2957,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="3:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:8" ht="34">
       <c r="C37" s="2">
         <v>35</v>
       </c>
@@ -2195,7 +2977,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="3:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:8" ht="34">
       <c r="C38" s="2">
         <v>36</v>
       </c>
@@ -2215,7 +2997,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="3:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:8" ht="34">
       <c r="C39" s="6">
         <v>37</v>
       </c>
@@ -2235,7 +3017,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="3:8" ht="153" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:8" ht="153">
       <c r="C40" s="2">
         <v>38</v>
       </c>
@@ -2255,7 +3037,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="3:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:8" ht="68">
       <c r="C41" s="2">
         <v>39</v>
       </c>
@@ -2275,7 +3057,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="3:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:8" ht="34">
       <c r="C42" s="6">
         <v>40</v>
       </c>
@@ -2295,7 +3077,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="3:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:8" ht="68">
       <c r="C43" s="2">
         <v>41</v>
       </c>
@@ -2315,7 +3097,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="3:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:8" ht="34">
       <c r="C44" s="2">
         <v>42</v>
       </c>
@@ -2335,7 +3117,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:8" ht="17">
       <c r="C45" s="6">
         <v>43</v>
       </c>
@@ -2365,17 +3147,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F25128E-E10B-984A-B2D5-CACC46F1645A}">
   <dimension ref="B3:J46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="B4" sqref="B4:J46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="3" max="3" width="61.33203125" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:10">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -2404,7 +3186,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:10" ht="17">
       <c r="B4" s="2">
         <v>1</v>
       </c>
@@ -2431,7 +3213,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:10" ht="17">
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -2458,7 +3240,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10" ht="17">
       <c r="B6" s="2">
         <v>3</v>
       </c>
@@ -2485,7 +3267,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:10" ht="17">
       <c r="B7" s="2">
         <v>4</v>
       </c>
@@ -2512,7 +3294,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:10" ht="17">
       <c r="B8" s="2">
         <v>5</v>
       </c>
@@ -2539,7 +3321,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10" ht="17">
       <c r="B9" s="2">
         <v>6</v>
       </c>
@@ -2566,7 +3348,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:10" ht="17">
       <c r="B10" s="2">
         <v>7</v>
       </c>
@@ -2593,7 +3375,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:10" ht="17">
       <c r="B11" s="2">
         <v>8</v>
       </c>
@@ -2620,7 +3402,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:10" ht="17">
       <c r="B12" s="2">
         <v>9</v>
       </c>
@@ -2647,7 +3429,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="2:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:10" ht="34">
       <c r="B13" s="2">
         <v>10</v>
       </c>
@@ -2674,7 +3456,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:10" ht="17">
       <c r="B14" s="2">
         <v>11</v>
       </c>
@@ -2701,7 +3483,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:10" ht="17">
       <c r="B15" s="2">
         <v>12</v>
       </c>
@@ -2728,7 +3510,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="2:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:10" ht="34">
       <c r="B16" s="2">
         <v>13</v>
       </c>
@@ -2755,7 +3537,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:10" ht="17">
       <c r="B17" s="2">
         <v>14</v>
       </c>
@@ -2782,7 +3564,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="2:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:10" ht="34">
       <c r="B18" s="2">
         <v>15</v>
       </c>
@@ -2809,7 +3591,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="2:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:10" ht="34">
       <c r="B19" s="2">
         <v>16</v>
       </c>
@@ -2836,7 +3618,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:10" ht="17">
       <c r="B20" s="2">
         <v>17</v>
       </c>
@@ -2863,7 +3645,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:10" ht="17">
       <c r="B21" s="2">
         <v>18</v>
       </c>
@@ -2890,7 +3672,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:10" ht="17">
       <c r="B22" s="2">
         <v>19</v>
       </c>
@@ -2917,7 +3699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:10" ht="17">
       <c r="B23" s="2">
         <v>20</v>
       </c>
@@ -2944,7 +3726,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:10" ht="17">
       <c r="B24" s="2">
         <v>21</v>
       </c>
@@ -2971,7 +3753,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:10" ht="17">
       <c r="B25" s="2">
         <v>22</v>
       </c>
@@ -2998,7 +3780,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:10" ht="17">
       <c r="B26" s="2">
         <v>23</v>
       </c>
@@ -3025,7 +3807,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:10" ht="17">
       <c r="B27" s="2">
         <v>24</v>
       </c>
@@ -3052,7 +3834,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:10" ht="17">
       <c r="B28" s="2">
         <v>25</v>
       </c>
@@ -3079,7 +3861,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:10" ht="17">
       <c r="B29" s="2">
         <v>26</v>
       </c>
@@ -3106,7 +3888,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="2:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:10" ht="34">
       <c r="B30" s="2">
         <v>27</v>
       </c>
@@ -3133,7 +3915,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:10" ht="17">
       <c r="B31" s="2">
         <v>28</v>
       </c>
@@ -3160,7 +3942,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:10" ht="17">
       <c r="B32" s="2">
         <v>29</v>
       </c>
@@ -3187,7 +3969,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:10" ht="17">
       <c r="B33" s="2">
         <v>30</v>
       </c>
@@ -3214,7 +3996,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:10" ht="17">
       <c r="B34" s="2">
         <v>31</v>
       </c>
@@ -3241,7 +4023,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:10" ht="17">
       <c r="B35" s="2">
         <v>32</v>
       </c>
@@ -3268,7 +4050,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:10" ht="17">
       <c r="B36" s="2">
         <v>33</v>
       </c>
@@ -3295,7 +4077,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:10" ht="17">
       <c r="B37" s="2">
         <v>34</v>
       </c>
@@ -3322,7 +4104,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="2:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:10" ht="34">
       <c r="B38" s="2">
         <v>35</v>
       </c>
@@ -3349,7 +4131,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:10" ht="17">
       <c r="B39" s="2">
         <v>36</v>
       </c>
@@ -3376,7 +4158,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:10" ht="17">
       <c r="B40" s="2">
         <v>37</v>
       </c>
@@ -3403,7 +4185,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:10" ht="17">
       <c r="B41" s="2">
         <v>38</v>
       </c>
@@ -3430,7 +4212,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:10" ht="17">
       <c r="B42" s="2">
         <v>39</v>
       </c>
@@ -3457,7 +4239,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:10" ht="17">
       <c r="B43" s="2">
         <v>40</v>
       </c>
@@ -3484,7 +4266,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:10" ht="17">
       <c r="B44" s="2">
         <v>41</v>
       </c>
@@ -3511,7 +4293,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:10" ht="17">
       <c r="B45" s="2">
         <v>42</v>
       </c>
@@ -3538,7 +4320,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:10" ht="17">
       <c r="B46" s="2">
         <v>43</v>
       </c>
@@ -3575,17 +4357,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF94098B-57D7-5D4B-907A-FD6DCF16AF45}">
   <dimension ref="C2:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:H13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="62.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="3:8">
       <c r="C2" s="5" t="s">
         <v>0</v>
       </c>
@@ -3605,7 +4387,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="3:8">
       <c r="C3" s="2">
         <v>1</v>
       </c>
@@ -3623,7 +4405,7 @@
       </c>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:8">
       <c r="C4" s="2">
         <v>2</v>
       </c>
@@ -3641,7 +4423,7 @@
       </c>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:8">
       <c r="C5" s="2">
         <v>3</v>
       </c>
@@ -3659,7 +4441,7 @@
       </c>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:8">
       <c r="C6" s="2">
         <v>4</v>
       </c>
@@ -3677,7 +4459,7 @@
       </c>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:8">
       <c r="C7" s="2">
         <v>5</v>
       </c>
@@ -3695,7 +4477,7 @@
       </c>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:8">
       <c r="C8" s="2">
         <v>6</v>
       </c>
@@ -3713,7 +4495,7 @@
       </c>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:8">
       <c r="C9" s="2">
         <v>7</v>
       </c>
@@ -3731,7 +4513,7 @@
       </c>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:8">
       <c r="C10" s="2">
         <v>8</v>
       </c>
@@ -3749,7 +4531,7 @@
       </c>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:8">
       <c r="C11" s="2">
         <v>9</v>
       </c>
@@ -3767,7 +4549,7 @@
       </c>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="3:8">
       <c r="C12" s="2">
         <v>10</v>
       </c>
@@ -3785,7 +4567,7 @@
       </c>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="3:8">
       <c r="C13" s="2">
         <v>11</v>
       </c>

--- a/seed.xlsx
+++ b/seed.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11209"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="29005"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zacharymargolies/Desktop/coding/coding-question-trivia-server/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1707B8E9-B5AD-C742-81E7-7B2E66F5ECCE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{8EE8C5F5-3429-944F-8017-847E4B6E56BE}"/>
+    <workbookView xWindow="2240" yWindow="460" windowWidth="38840" windowHeight="26720" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="facts" sheetId="5" r:id="rId1"/>
@@ -18,17 +17,47 @@
     <sheet name="questions" sheetId="2" r:id="rId3"/>
     <sheet name="topics" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <definedNames>
+    <definedName name="Quizlet_Questions" localSheetId="2">questions!#REF!</definedName>
+    <definedName name="Quizlet_Questions_1" localSheetId="2">questions!$C$47:$D$206</definedName>
+  </definedNames>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="Quizlet Questions" type="6" refreshedVersion="0" background="1">
+    <textPr fileType="mac" sourceFile="/Users/zacharymargolies/Desktop/Quizlet Questions.rtf" tab="0" comma="1">
+      <textFields>
+        <textField type="text"/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="2" name="Quizlet Questions1" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="/Users/zacharymargolies/Desktop/Quizlet Questions.rtf" tab="0" delimiter="*">
+      <textFields count="2">
+        <textField type="text"/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="345">
   <si>
     <t>id</t>
   </si>
@@ -543,13 +572,535 @@
   </si>
   <si>
     <t>REDUXJS FILLER FACT - 5</t>
+  </si>
+  <si>
+    <t>What is grid layout and how do you use it?</t>
+  </si>
+  <si>
+    <t>Define HTML. Where/how is it used?</t>
+  </si>
+  <si>
+    <t>Define CSS. Where/how is it used?</t>
+  </si>
+  <si>
+    <t>Define SQL. Where/how is it used?</t>
+  </si>
+  <si>
+    <t>Define Regex. Where/how is it used?</t>
+  </si>
+  <si>
+    <t>Where does express belong in the 'stack' of web technologies? What problem does it solve and how?</t>
+  </si>
+  <si>
+    <t>Where does mocha belong in the 'stack' of web technologies? What problem does it solve and how?</t>
+  </si>
+  <si>
+    <t>Where does fs belong in the 'stack' of web technologies? What problem does it solve and how?</t>
+  </si>
+  <si>
+    <t>Where does passport belong in the 'stack' of web technologies? What problem does it solve and how?</t>
+  </si>
+  <si>
+    <t>Where does socket.io belong in the 'stack' of web technologies? What problem does it solve and how?</t>
+  </si>
+  <si>
+    <t>Where does sequelize belong in the 'stack' of web technologies? What problem does it solve and how?</t>
+  </si>
+  <si>
+    <t>Where does bluebird belong in the 'stack' of web technologies? What problem does it solve and how?</t>
+  </si>
+  <si>
+    <t>Where does react belong in the 'stack' of web technologies? What problem does it solve and how?</t>
+  </si>
+  <si>
+    <t>Where does react-router belong in the 'stack' of web technologies? What problem does it solve and how?</t>
+  </si>
+  <si>
+    <t>Where does redux belong in the 'stack' of web technologies? What problem does it solve and how?</t>
+  </si>
+  <si>
+    <t>Where does react-redux belong in the 'stack' of web technologies? What problem does it solve and how?</t>
+  </si>
+  <si>
+    <t>Where does crypto belong in the 'stack' of web technologies? What problem does it solve and how?</t>
+  </si>
+  <si>
+    <t>Where does https belong in the 'stack' of web technologies? What problem does it solve and how?</t>
+  </si>
+  <si>
+    <t>Define CRUD. How does it help guide or improve your code or coding process?</t>
+  </si>
+  <si>
+    <t>Define DRY. How does it help guide or improve your code or coding process?</t>
+  </si>
+  <si>
+    <t>Define SOLID (we haven't told you about this). How does it help guide or improve your code or coding process?</t>
+  </si>
+  <si>
+    <t>Define REST. How does it help guide or improve your code or coding process?</t>
+  </si>
+  <si>
+    <t>Define library. What differentiates it from a framework, an API, or a protocol?</t>
+  </si>
+  <si>
+    <t>Define framework. What differentiates it from a libary, an API, or a protocol?</t>
+  </si>
+  <si>
+    <t>Define API. What differentiates it from a library, a framework, or a protocol?</t>
+  </si>
+  <si>
+    <t>Define protocol. What differentiates it from a library, a framework, or an API?</t>
+  </si>
+  <si>
+    <t>Define operating system. What differentiates it from a runtime environment or an interpreter/engine/VM?</t>
+  </si>
+  <si>
+    <t>Define runtime environment. What differentiates it from an operating system or an interpreter/engine/VM?</t>
+  </si>
+  <si>
+    <t>Define interpreter/engine/VM. What differentiates it from an operating system or a runtime environment?</t>
+  </si>
+  <si>
+    <t>Define modularity. Provide what you believe to be a quintessential example.</t>
+  </si>
+  <si>
+    <t>Define object-oriented programming. Provide what you believe to be a quintessential example.</t>
+  </si>
+  <si>
+    <t>Define functional programming. Provide what you believe to be a quintessential example.</t>
+  </si>
+  <si>
+    <t>Define recursion. Provide what you believe to be a quintessential example.</t>
+  </si>
+  <si>
+    <t>Define closure. Provide what you believe to be a quintessential example.</t>
+  </si>
+  <si>
+    <t>Define inheritance. Provide what you believe to be a quintessential example.</t>
+  </si>
+  <si>
+    <t>Define first-class functions. Provide what you believe to be a quintessential example.</t>
+  </si>
+  <si>
+    <t>Define higher-order functions. Provide what you believe to be a quintessential example.</t>
+  </si>
+  <si>
+    <t>Name at least two sorting algorithms you know and detail the differences between/among them.</t>
+  </si>
+  <si>
+    <t>What are the two types of computational complexity? How does big O notation represent differences between algorithms?</t>
+  </si>
+  <si>
+    <t>Define a linked list and give an example use case. Describe the runtime complexity of 'set' and 'get' operations on it.</t>
+  </si>
+  <si>
+    <t>Define a hash table and give an example use case. Describe the runtime complexity of 'set' and 'get' operations on it.</t>
+  </si>
+  <si>
+    <t>Define a binary search tree and give an example use case. Describe the runtime complexity of 'set' and 'get' operations on it.</t>
+  </si>
+  <si>
+    <t>What cellular automaton is a famous 'game'? How have cellular automata factored into the history and development of computer science?</t>
+  </si>
+  <si>
+    <t>What are prototypes? How do you assign behavior to them? How do they differ from other inheritance systems in computer science?</t>
+  </si>
+  <si>
+    <t>What are the five primitive JavaScript types? What is the sixth 'universal' type?</t>
+  </si>
+  <si>
+    <t>What is this? Provide examples of how it differs in different contexts.</t>
+  </si>
+  <si>
+    <t>Define chaining. Provide what you believe to be a quintessential example.</t>
+  </si>
+  <si>
+    <t>What role does the console serve? Provide examples.</t>
+  </si>
+  <si>
+    <t>What role does the inspector serve? Provide examples.</t>
+  </si>
+  <si>
+    <t>What role does the style panel serve? Provide examples.</t>
+  </si>
+  <si>
+    <t>What role does the network tab serve? Provide examples.</t>
+  </si>
+  <si>
+    <t>What role does the debugger statement serve? Provide examples.</t>
+  </si>
+  <si>
+    <t>What are node modules? How do you export and import data in a node file? What is the difference between module.exports and exports?</t>
+  </si>
+  <si>
+    <t>What problem does npm solve and how?</t>
+  </si>
+  <si>
+    <t>What purpose does your package.json serve?</t>
+  </si>
+  <si>
+    <t>Describe how dependencies are different in backend vs frontent JS.</t>
+  </si>
+  <si>
+    <t>Describe how persistence are different in backend vs frontent JS.</t>
+  </si>
+  <si>
+    <t>Describe how environment APIs are different in backend vs frontent JS.</t>
+  </si>
+  <si>
+    <t>What other things are different in backend vs frontent JS?</t>
+  </si>
+  <si>
+    <t>Compare blocking and non-blocking. Give a real-world metaphorical example. Which one describes JavaScript?</t>
+  </si>
+  <si>
+    <t>Describe event handlers by providing an example use case (pseudo-code encouraged).</t>
+  </si>
+  <si>
+    <t>Describe asynchronous callbacks by providing an example use case (pseudo-code encouraged).</t>
+  </si>
+  <si>
+    <t>Describe promises by providing an example use case (pseudo-code encouraged).</t>
+  </si>
+  <si>
+    <t>Describe middleware by providing an example use case (pseudo-code encouraged).</t>
+  </si>
+  <si>
+    <t>What are some advantages of promises over callbacks?</t>
+  </si>
+  <si>
+    <t>What is the purpose of the then method?</t>
+  </si>
+  <si>
+    <t>How do success and error bubbling work?</t>
+  </si>
+  <si>
+    <t>Explain the role of the event loop in the V8 ecosystem.</t>
+  </si>
+  <si>
+    <t>Explain the role of the function call stack in the V8 ecosystem.</t>
+  </si>
+  <si>
+    <t>Explain the role of the environment APIs in the V8 ecosystem.</t>
+  </si>
+  <si>
+    <t>Describe, broadly, how DNSs resolve IP addresses.</t>
+  </si>
+  <si>
+    <t>Define an internet node (not node.js).</t>
+  </si>
+  <si>
+    <t>Define client.</t>
+  </si>
+  <si>
+    <t>Define server.</t>
+  </si>
+  <si>
+    <t>Explain TCP/IP and its realtionship to other subjects in this topic.</t>
+  </si>
+  <si>
+    <t>Explain HTTP and its realtionship to other subjects in this topic.</t>
+  </si>
+  <si>
+    <t>Explain Web Socket and its realtionship to other subjects in this topic.</t>
+  </si>
+  <si>
+    <t>Describe WebRTC, comparing it to other subjects in this topic.</t>
+  </si>
+  <si>
+    <t>Describe AJAX, comparing it to browser-level HTTP.</t>
+  </si>
+  <si>
+    <t>Define request.</t>
+  </si>
+  <si>
+    <t>Define response.</t>
+  </si>
+  <si>
+    <t>Define request-response cycle.</t>
+  </si>
+  <si>
+    <t>Describe HTTP verbs/methods and list the common ones.</t>
+  </si>
+  <si>
+    <t>Describe HTTP headers and list the common ones.</t>
+  </si>
+  <si>
+    <t>Describe HTTP status response codes and list the common ones.</t>
+  </si>
+  <si>
+    <t>What are cookies and what purpose do they serve?</t>
+  </si>
+  <si>
+    <t>How do routes and filepaths differ?</t>
+  </si>
+  <si>
+    <t>What's the difference between app.use and app.&lt;verb&gt; (such as app.get, app.post, etc)?</t>
+  </si>
+  <si>
+    <t>What are express routers? How and why would you implement one?</t>
+  </si>
+  <si>
+    <t>What is the standard approach to error handling in an express app? Provide code.</t>
+  </si>
+  <si>
+    <t>Describe the role of morgan in the middleware stack.</t>
+  </si>
+  <si>
+    <t>Describe the role of body-parser in the middleware stack.</t>
+  </si>
+  <si>
+    <t>Describe the role of express-session in the middleware stack.</t>
+  </si>
+  <si>
+    <t>Describe the role of express.static in the middleware stack.</t>
+  </si>
+  <si>
+    <t>Define database.</t>
+  </si>
+  <si>
+    <t>What does ACID stand for? What does each mean?</t>
+  </si>
+  <si>
+    <t>Define relational v non-relational.</t>
+  </si>
+  <si>
+    <t>What is the CAP thereom? What are its implications?</t>
+  </si>
+  <si>
+    <t>Define and describe SQL.</t>
+  </si>
+  <si>
+    <t>Define and describe PostgreSQL.</t>
+  </si>
+  <si>
+    <t>What is a schema?</t>
+  </si>
+  <si>
+    <t>Define ORM.</t>
+  </si>
+  <si>
+    <t>What is database indexing and why is it useful?</t>
+  </si>
+  <si>
+    <t>Describe SQL tables.</t>
+  </si>
+  <si>
+    <t>Describe SQL rows.</t>
+  </si>
+  <si>
+    <t>Describe SQL columns.</t>
+  </si>
+  <si>
+    <t>Describe SQL primary keys.</t>
+  </si>
+  <si>
+    <t>What types of joins exist in SQL? How do they differ?</t>
+  </si>
+  <si>
+    <t>Define models and provide a code example. How do sequelize models differ from SQL schemas?</t>
+  </si>
+  <si>
+    <t>Describe sequelize validations and provide a code example.</t>
+  </si>
+  <si>
+    <t>Describe how sequelize enables relationships between tables and models. Provide a code example.</t>
+  </si>
+  <si>
+    <t>Define eager loading in sequelize and provide a code example.</t>
+  </si>
+  <si>
+    <t>Define sequelize virtuals and provide a code example.</t>
+  </si>
+  <si>
+    <t>Define sequelize hooks and provide a code example.</t>
+  </si>
+  <si>
+    <t>Compare sequelize class methods and instance methods.</t>
+  </si>
+  <si>
+    <t>Describe test driven development and detail its benefits.</t>
+  </si>
+  <si>
+    <t>Compare and contrast unit, service, and end-to-end testing.</t>
+  </si>
+  <si>
+    <t>Define assertions.</t>
+  </si>
+  <si>
+    <t>Define spies.</t>
+  </si>
+  <si>
+    <t>Should tests focus on behavior or implementation (or both)?</t>
+  </si>
+  <si>
+    <t>What would you say makes for 'good' tests? Why?</t>
+  </si>
+  <si>
+    <t>What is the meaning of behavior in the context of frontend development? What language does it correspond to?</t>
+  </si>
+  <si>
+    <t>What is the DOM? Where does it exist? How is it different from a web page's HTML? How is it different from the global window object?</t>
+  </si>
+  <si>
+    <t>What is event bubbling? What is event delegation?</t>
+  </si>
+  <si>
+    <t>Define tag in terms of HTML. Compare it with the others in this topic.</t>
+  </si>
+  <si>
+    <t>Define attribute in terms of HTML. Compare it with the others in this topic.</t>
+  </si>
+  <si>
+    <t>Define class in terms of HTML. Compare it with the others in this topic.</t>
+  </si>
+  <si>
+    <t>Define id in terms of HTML. Compare it with the others in this topic</t>
+  </si>
+  <si>
+    <t>How do forms work and how can they be configured to send HTTP requests?</t>
+  </si>
+  <si>
+    <t>What are the four 'areas' in the box model?</t>
+  </si>
+  <si>
+    <t>How do inline and block elements differ?</t>
+  </si>
+  <si>
+    <t>When an element is styled by more than one rule, how does the browser determine specificity give precedence?</t>
+  </si>
+  <si>
+    <t>What problem do media queries solve and how?</t>
+  </si>
+  <si>
+    <t>Describe the main concept of flex box. What are some of the common CSS properties associated flex box, and what do they do?</t>
+  </si>
+  <si>
+    <t>What is a React component?</t>
+  </si>
+  <si>
+    <t>What is JSX?</t>
+  </si>
+  <si>
+    <t>What's the difference between state and props? How do we change state? How do we pass props?</t>
+  </si>
+  <si>
+    <t>Describe a component's lifecycle methods. When should you fetch data?</t>
+  </si>
+  <si>
+    <t>What is a stateless component?</t>
+  </si>
+  <si>
+    <t>What is a Redux store? How do you create one?</t>
+  </si>
+  <si>
+    <t>Describe an action creator versus an asynchronous action creator.</t>
+  </si>
+  <si>
+    <t>What is a reducer? How do you use combineReducers?</t>
+  </si>
+  <si>
+    <t>What does it mean to "dispatch an action"?</t>
+  </si>
+  <si>
+    <t>What does the connect method do, and how do we use it?</t>
+  </si>
+  <si>
+    <t>What's the difference between authentication and authorization?</t>
+  </si>
+  <si>
+    <t>How is HTTPS different from HTTP? What are SSL certificates?</t>
+  </si>
+  <si>
+    <t>What's the difference between hashing and encryption? Provide contrasting use cases.</t>
+  </si>
+  <si>
+    <t>How do cookies enable sever-side sessions, and how do sessions enable persistent login?</t>
+  </si>
+  <si>
+    <t>How does access control differ between the frontend and the backend?</t>
+  </si>
+  <si>
+    <t>Describe, broadly, the OAuth protocol. Separately, what problems does it solve?</t>
+  </si>
+  <si>
+    <t>What distinguishes JavaScript from other languages that fill a similar role (like Ruby, Python, Java, etc)?</t>
+  </si>
+  <si>
+    <t>What is the difference between == and === forms of equality? ,=== is strictly equal where both the type and value has to be the same. == is loosely equal js will try to convert comparison in to a common type before comparing the values. ( ex. 77 == '77' will be true but 77 === '77' will be false\</t>
+  </si>
+  <si>
+    <t>What happens when you? Return a value from a then handler?</t>
+  </si>
+  <si>
+    <t>What happens when you? Return a promise from a then handler?</t>
+  </si>
+  <si>
+    <t>What happens when you? Throw an error from a then handler?</t>
+  </si>
+  <si>
+    <t>What is the meaning of style in the context of frontend development? What language does it correspond to?</t>
+  </si>
+  <si>
+    <t>What is the meaning of layout in the context of frontend development? What language does it correspond to?</t>
+  </si>
+  <si>
+    <t>Explain Transmission Control Protocol (TCP).</t>
+  </si>
+  <si>
+    <t>Which is immutable? State or props?</t>
+  </si>
+  <si>
+    <t>Sequelize</t>
+  </si>
+  <si>
+    <t>Principles</t>
+  </si>
+  <si>
+    <t>The Internet</t>
+  </si>
+  <si>
+    <t>Databases</t>
+  </si>
+  <si>
+    <t>Git</t>
+  </si>
+  <si>
+    <t>Project Management</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>http://docs.sequelizejs.com/manual/asset/logo-small.png</t>
+  </si>
+  <si>
+    <t>https://cdn0.tnwcdn.com/wp-content/blogs.dir/1/files/2017/09/bUcvrRc-1-796x398.jpg</t>
+  </si>
+  <si>
+    <t>https://gitforwindows.org/img/git_logo.png</t>
+  </si>
+  <si>
+    <t>https://atlassianblog.wpengine.com/wp-content/uploads/buildingagileteams.png</t>
+  </si>
+  <si>
+    <t>https://cdn.auth0.com/blog/https/logo.png</t>
+  </si>
+  <si>
+    <t>https://www.lifewire.com/thmb/ZaULlpCnVW7-aeHRU7GIJ7EQIqI=/768x0/filters:no_upscale():max_bytes(150000):strip_icc()/467771121-crop-copy-56a6a4815f9b58b7d0e41c09.jpg</t>
+  </si>
+  <si>
+    <t>https://www.excelero.com/wp-content/uploads/2018/02/databases-hero.svg</t>
+  </si>
+  <si>
+    <t>Compare and contrast the request query, params, and body. Provide examples.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -577,6 +1128,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -595,10 +1162,170 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="161">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -612,8 +1339,169 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="161">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -627,6 +1515,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Quizlet Questions_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -925,21 +1817,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA9898A5-FB44-9A4A-8450-7EC9003AEE57}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="61" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16:C37"/>
+    <sheetView zoomScale="61" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:N37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="60.5" customWidth="1"/>
     <col min="5" max="5" width="72.83203125" customWidth="1"/>
     <col min="6" max="6" width="31.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:14">
+    <row r="2" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
         <v>0</v>
       </c>
@@ -977,7 +1869,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="3:14" ht="17">
+    <row r="3" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C3" s="2">
         <v>1</v>
       </c>
@@ -1013,7 +1905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="3:14" ht="17">
+    <row r="4" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C4" s="2">
         <v>2</v>
       </c>
@@ -1049,7 +1941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="3:14" ht="17">
+    <row r="5" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C5" s="2">
         <v>3</v>
       </c>
@@ -1085,7 +1977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="3:14" ht="17">
+    <row r="6" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C6" s="2">
         <v>4</v>
       </c>
@@ -1121,7 +2013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="3:14" ht="34">
+    <row r="7" spans="3:14" ht="32" x14ac:dyDescent="0.2">
       <c r="C7" s="2">
         <v>5</v>
       </c>
@@ -1157,7 +2049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="3:14" ht="34">
+    <row r="8" spans="3:14" ht="32" x14ac:dyDescent="0.2">
       <c r="C8" s="2">
         <v>6</v>
       </c>
@@ -1193,7 +2085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="3:14" ht="17">
+    <row r="9" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C9" s="2">
         <v>7</v>
       </c>
@@ -1229,7 +2121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="3:14" ht="17">
+    <row r="10" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C10" s="2">
         <v>8</v>
       </c>
@@ -1265,7 +2157,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="3:14" ht="34">
+    <row r="11" spans="3:14" ht="32" x14ac:dyDescent="0.2">
       <c r="C11" s="2">
         <v>9</v>
       </c>
@@ -1301,7 +2193,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="3:14" ht="51">
+    <row r="12" spans="3:14" ht="48" x14ac:dyDescent="0.2">
       <c r="C12" s="2">
         <v>10</v>
       </c>
@@ -1337,7 +2229,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="3:14" ht="136">
+    <row r="13" spans="3:14" ht="80" x14ac:dyDescent="0.2">
       <c r="C13" s="2">
         <v>11</v>
       </c>
@@ -1373,7 +2265,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="3:14" ht="119">
+    <row r="14" spans="3:14" ht="112" x14ac:dyDescent="0.2">
       <c r="C14" s="2">
         <v>12</v>
       </c>
@@ -1409,7 +2301,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="3:14" ht="102">
+    <row r="15" spans="3:14" ht="96" x14ac:dyDescent="0.2">
       <c r="C15" s="2">
         <v>13</v>
       </c>
@@ -1445,7 +2337,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="3:14" ht="170">
+    <row r="16" spans="3:14" ht="128" x14ac:dyDescent="0.2">
       <c r="C16" s="2">
         <v>14</v>
       </c>
@@ -1481,7 +2373,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="3:14" ht="85">
+    <row r="17" spans="3:14" ht="80" x14ac:dyDescent="0.2">
       <c r="C17" s="2">
         <v>15</v>
       </c>
@@ -1517,7 +2409,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="3:14" ht="51">
+    <row r="18" spans="3:14" ht="48" x14ac:dyDescent="0.2">
       <c r="C18" s="2">
         <v>16</v>
       </c>
@@ -1553,7 +2445,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="3:14" ht="51">
+    <row r="19" spans="3:14" ht="48" x14ac:dyDescent="0.2">
       <c r="C19" s="2">
         <v>17</v>
       </c>
@@ -1589,7 +2481,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="3:14" ht="51">
+    <row r="20" spans="3:14" ht="48" x14ac:dyDescent="0.2">
       <c r="C20" s="2">
         <v>18</v>
       </c>
@@ -1625,7 +2517,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="3:14" ht="51">
+    <row r="21" spans="3:14" ht="48" x14ac:dyDescent="0.2">
       <c r="C21" s="2">
         <v>19</v>
       </c>
@@ -1661,7 +2553,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="3:14" ht="51">
+    <row r="22" spans="3:14" ht="48" x14ac:dyDescent="0.2">
       <c r="C22" s="2">
         <v>20</v>
       </c>
@@ -1697,7 +2589,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="3:14" ht="51">
+    <row r="23" spans="3:14" ht="48" x14ac:dyDescent="0.2">
       <c r="C23" s="2">
         <v>21</v>
       </c>
@@ -1733,7 +2625,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="3:14" ht="51">
+    <row r="24" spans="3:14" ht="48" x14ac:dyDescent="0.2">
       <c r="C24" s="2">
         <v>22</v>
       </c>
@@ -1769,7 +2661,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="3:14" ht="51">
+    <row r="25" spans="3:14" ht="48" x14ac:dyDescent="0.2">
       <c r="C25" s="2">
         <v>23</v>
       </c>
@@ -1805,7 +2697,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="3:14" ht="51">
+    <row r="26" spans="3:14" ht="48" x14ac:dyDescent="0.2">
       <c r="C26" s="2">
         <v>24</v>
       </c>
@@ -1841,7 +2733,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="3:14" ht="51">
+    <row r="27" spans="3:14" ht="48" x14ac:dyDescent="0.2">
       <c r="C27" s="2">
         <v>25</v>
       </c>
@@ -1877,7 +2769,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="3:14" ht="51">
+    <row r="28" spans="3:14" ht="48" x14ac:dyDescent="0.2">
       <c r="C28" s="2">
         <v>26</v>
       </c>
@@ -1913,7 +2805,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="3:14" ht="51">
+    <row r="29" spans="3:14" ht="48" x14ac:dyDescent="0.2">
       <c r="C29" s="2">
         <v>27</v>
       </c>
@@ -1949,7 +2841,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="3:14" ht="51">
+    <row r="30" spans="3:14" ht="48" x14ac:dyDescent="0.2">
       <c r="C30" s="2">
         <v>28</v>
       </c>
@@ -1985,7 +2877,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="3:14" ht="51">
+    <row r="31" spans="3:14" ht="48" x14ac:dyDescent="0.2">
       <c r="C31" s="2">
         <v>29</v>
       </c>
@@ -2021,7 +2913,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="3:14" ht="51">
+    <row r="32" spans="3:14" ht="48" x14ac:dyDescent="0.2">
       <c r="C32" s="2">
         <v>30</v>
       </c>
@@ -2057,7 +2949,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="3:14" ht="51">
+    <row r="33" spans="3:14" ht="48" x14ac:dyDescent="0.2">
       <c r="C33" s="2">
         <v>31</v>
       </c>
@@ -2093,7 +2985,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="3:14" ht="51">
+    <row r="34" spans="3:14" ht="48" x14ac:dyDescent="0.2">
       <c r="C34" s="2">
         <v>32</v>
       </c>
@@ -2129,7 +3021,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="3:14" ht="51">
+    <row r="35" spans="3:14" ht="48" x14ac:dyDescent="0.2">
       <c r="C35" s="2">
         <v>33</v>
       </c>
@@ -2165,7 +3057,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="3:14" ht="51">
+    <row r="36" spans="3:14" ht="48" x14ac:dyDescent="0.2">
       <c r="C36" s="2">
         <v>34</v>
       </c>
@@ -2201,7 +3093,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="3:14" ht="51">
+    <row r="37" spans="3:14" ht="48" x14ac:dyDescent="0.2">
       <c r="C37" s="2">
         <v>35</v>
       </c>
@@ -2244,20 +3136,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0553221-9327-324C-8DFE-9BF0AE85A558}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:H45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A20" workbookViewId="0">
       <selection activeCell="C39" sqref="C39:H45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="79.83203125" customWidth="1"/>
     <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:8">
+    <row r="2" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
         <v>0</v>
       </c>
@@ -2277,7 +3169,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="3:8" ht="51">
+    <row r="3" spans="3:8" ht="48" x14ac:dyDescent="0.2">
       <c r="C3" s="2">
         <v>1</v>
       </c>
@@ -2297,7 +3189,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="3:8" ht="17">
+    <row r="4" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C4" s="2">
         <v>2</v>
       </c>
@@ -2317,7 +3209,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="3:8" ht="17">
+    <row r="5" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C5" s="2">
         <v>3</v>
       </c>
@@ -2337,7 +3229,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="3:8" ht="34">
+    <row r="6" spans="3:8" ht="32" x14ac:dyDescent="0.2">
       <c r="C6" s="6">
         <v>4</v>
       </c>
@@ -2357,7 +3249,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="3:8" ht="34">
+    <row r="7" spans="3:8" ht="32" x14ac:dyDescent="0.2">
       <c r="C7" s="2">
         <v>5</v>
       </c>
@@ -2377,7 +3269,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="3:8" ht="34">
+    <row r="8" spans="3:8" ht="32" x14ac:dyDescent="0.2">
       <c r="C8" s="2">
         <v>6</v>
       </c>
@@ -2397,7 +3289,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="3:8" ht="85">
+    <row r="9" spans="3:8" ht="80" x14ac:dyDescent="0.2">
       <c r="C9" s="6">
         <v>7</v>
       </c>
@@ -2417,7 +3309,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="3:8" ht="85">
+    <row r="10" spans="3:8" ht="80" x14ac:dyDescent="0.2">
       <c r="C10" s="6">
         <v>8</v>
       </c>
@@ -2437,7 +3329,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="3:8" ht="85">
+    <row r="11" spans="3:8" ht="80" x14ac:dyDescent="0.2">
       <c r="C11" s="6">
         <v>9</v>
       </c>
@@ -2457,7 +3349,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="3:8" ht="17">
+    <row r="12" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C12" s="6">
         <v>10</v>
       </c>
@@ -2477,7 +3369,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="3:8" ht="51">
+    <row r="13" spans="3:8" ht="48" x14ac:dyDescent="0.2">
       <c r="C13" s="6">
         <v>11</v>
       </c>
@@ -2497,7 +3389,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="3:8" ht="17">
+    <row r="14" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C14" s="2">
         <v>12</v>
       </c>
@@ -2517,7 +3409,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="3:8" ht="17">
+    <row r="15" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C15" s="2">
         <v>13</v>
       </c>
@@ -2537,7 +3429,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="3:8" ht="51">
+    <row r="16" spans="3:8" ht="48" x14ac:dyDescent="0.2">
       <c r="C16" s="2">
         <v>14</v>
       </c>
@@ -2557,7 +3449,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="3:8" ht="17">
+    <row r="17" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C17" s="2">
         <v>15</v>
       </c>
@@ -2577,7 +3469,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="3:8" ht="17">
+    <row r="18" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C18" s="2">
         <v>16</v>
       </c>
@@ -2597,7 +3489,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="3:8" ht="34">
+    <row r="19" spans="3:8" ht="32" x14ac:dyDescent="0.2">
       <c r="C19" s="2">
         <v>17</v>
       </c>
@@ -2617,7 +3509,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="3:8" ht="34">
+    <row r="20" spans="3:8" ht="32" x14ac:dyDescent="0.2">
       <c r="C20" s="2">
         <v>18</v>
       </c>
@@ -2637,7 +3529,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="3:8" ht="34">
+    <row r="21" spans="3:8" ht="32" x14ac:dyDescent="0.2">
       <c r="C21" s="2">
         <v>19</v>
       </c>
@@ -2657,7 +3549,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="3:8" ht="34">
+    <row r="22" spans="3:8" ht="32" x14ac:dyDescent="0.2">
       <c r="C22" s="2">
         <v>20</v>
       </c>
@@ -2677,7 +3569,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="3:8" ht="34">
+    <row r="23" spans="3:8" ht="32" x14ac:dyDescent="0.2">
       <c r="C23" s="2">
         <v>21</v>
       </c>
@@ -2697,7 +3589,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="3:8" ht="34">
+    <row r="24" spans="3:8" ht="32" x14ac:dyDescent="0.2">
       <c r="C24" s="6">
         <v>22</v>
       </c>
@@ -2717,7 +3609,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="3:8" ht="51">
+    <row r="25" spans="3:8" ht="48" x14ac:dyDescent="0.2">
       <c r="C25" s="2">
         <v>23</v>
       </c>
@@ -2737,7 +3629,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="3:8" ht="17" customHeight="1">
+    <row r="26" spans="3:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C26" s="6">
         <v>24</v>
       </c>
@@ -2757,7 +3649,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="3:8" ht="51">
+    <row r="27" spans="3:8" ht="48" x14ac:dyDescent="0.2">
       <c r="C27" s="2">
         <v>25</v>
       </c>
@@ -2777,7 +3669,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="3:8" ht="34">
+    <row r="28" spans="3:8" ht="32" x14ac:dyDescent="0.2">
       <c r="C28" s="2">
         <v>26</v>
       </c>
@@ -2797,7 +3689,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="3:8" ht="85">
+    <row r="29" spans="3:8" ht="64" x14ac:dyDescent="0.2">
       <c r="C29" s="6">
         <v>27</v>
       </c>
@@ -2817,7 +3709,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="3:8" ht="34">
+    <row r="30" spans="3:8" ht="32" x14ac:dyDescent="0.2">
       <c r="C30" s="2">
         <v>28</v>
       </c>
@@ -2837,7 +3729,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="3:8" ht="17">
+    <row r="31" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C31" s="2">
         <v>29</v>
       </c>
@@ -2857,7 +3749,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="3:8" ht="17">
+    <row r="32" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C32" s="2">
         <v>30</v>
       </c>
@@ -2877,7 +3769,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="3:8" ht="51">
+    <row r="33" spans="3:8" ht="48" x14ac:dyDescent="0.2">
       <c r="C33" s="2">
         <v>31</v>
       </c>
@@ -2897,7 +3789,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="3:8" ht="34">
+    <row r="34" spans="3:8" ht="32" x14ac:dyDescent="0.2">
       <c r="C34" s="2">
         <v>32</v>
       </c>
@@ -2917,7 +3809,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="3:8" ht="51">
+    <row r="35" spans="3:8" ht="48" x14ac:dyDescent="0.2">
       <c r="C35" s="2">
         <v>33</v>
       </c>
@@ -2937,7 +3829,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="3:8" ht="68">
+    <row r="36" spans="3:8" ht="64" x14ac:dyDescent="0.2">
       <c r="C36" s="6">
         <v>34</v>
       </c>
@@ -2957,7 +3849,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="3:8" ht="34">
+    <row r="37" spans="3:8" ht="32" x14ac:dyDescent="0.2">
       <c r="C37" s="2">
         <v>35</v>
       </c>
@@ -2977,7 +3869,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="3:8" ht="34">
+    <row r="38" spans="3:8" ht="32" x14ac:dyDescent="0.2">
       <c r="C38" s="2">
         <v>36</v>
       </c>
@@ -2997,7 +3889,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="3:8" ht="34">
+    <row r="39" spans="3:8" ht="32" x14ac:dyDescent="0.2">
       <c r="C39" s="6">
         <v>37</v>
       </c>
@@ -3017,7 +3909,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="3:8" ht="153">
+    <row r="40" spans="3:8" ht="128" x14ac:dyDescent="0.2">
       <c r="C40" s="2">
         <v>38</v>
       </c>
@@ -3037,7 +3929,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="3:8" ht="68">
+    <row r="41" spans="3:8" ht="48" x14ac:dyDescent="0.2">
       <c r="C41" s="2">
         <v>39</v>
       </c>
@@ -3057,7 +3949,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="3:8" ht="34">
+    <row r="42" spans="3:8" ht="32" x14ac:dyDescent="0.2">
       <c r="C42" s="6">
         <v>40</v>
       </c>
@@ -3077,7 +3969,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="3:8" ht="68">
+    <row r="43" spans="3:8" ht="64" x14ac:dyDescent="0.2">
       <c r="C43" s="2">
         <v>41</v>
       </c>
@@ -3097,7 +3989,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="3:8" ht="34">
+    <row r="44" spans="3:8" ht="32" x14ac:dyDescent="0.2">
       <c r="C44" s="2">
         <v>42</v>
       </c>
@@ -3117,7 +4009,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="3:8" ht="17">
+    <row r="45" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C45" s="6">
         <v>43</v>
       </c>
@@ -3144,20 +4036,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F25128E-E10B-984A-B2D5-CACC46F1645A}">
-  <dimension ref="B3:J46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:J206"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:J46"/>
+    <sheetView tabSelected="1" topLeftCell="A147" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C160" sqref="C160"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="61.33203125" customWidth="1"/>
-    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="93" customWidth="1"/>
+    <col min="4" max="4" width="18.1640625" customWidth="1"/>
+    <col min="5" max="5" width="28.1640625" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" customWidth="1"/>
+    <col min="8" max="11" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -3186,7 +4082,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="17">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
         <v>1</v>
       </c>
@@ -3194,7 +4090,7 @@
         <v>63</v>
       </c>
       <c r="D4" s="2">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>101</v>
@@ -3213,7 +4109,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="17">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -3240,7 +4136,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="17">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6" s="2">
         <v>3</v>
       </c>
@@ -3267,7 +4163,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="17">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" s="2">
         <v>4</v>
       </c>
@@ -3275,7 +4171,7 @@
         <v>66</v>
       </c>
       <c r="D7" s="2">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>101</v>
@@ -3294,7 +4190,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="2:10" ht="17">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8" s="2">
         <v>5</v>
       </c>
@@ -3321,7 +4217,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="17">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" s="2">
         <v>6</v>
       </c>
@@ -3329,7 +4225,7 @@
         <v>68</v>
       </c>
       <c r="D9" s="2">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>101</v>
@@ -3348,7 +4244,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="2:10" ht="17">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" s="2">
         <v>7</v>
       </c>
@@ -3356,7 +4252,7 @@
         <v>69</v>
       </c>
       <c r="D10" s="2">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>101</v>
@@ -3375,7 +4271,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="2:10" ht="17">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11" s="2">
         <v>8</v>
       </c>
@@ -3383,7 +4279,7 @@
         <v>70</v>
       </c>
       <c r="D11" s="2">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>101</v>
@@ -3402,7 +4298,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="2:10" ht="17">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" s="2">
         <v>9</v>
       </c>
@@ -3410,7 +4306,7 @@
         <v>71</v>
       </c>
       <c r="D12" s="2">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>101</v>
@@ -3429,7 +4325,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="2:10" ht="34">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" s="2">
         <v>10</v>
       </c>
@@ -3437,7 +4333,7 @@
         <v>72</v>
       </c>
       <c r="D13" s="2">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>101</v>
@@ -3456,7 +4352,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:10" ht="17">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" s="2">
         <v>11</v>
       </c>
@@ -3464,7 +4360,7 @@
         <v>73</v>
       </c>
       <c r="D14" s="2">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>101</v>
@@ -3483,7 +4379,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="2:10" ht="17">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15" s="2">
         <v>12</v>
       </c>
@@ -3491,7 +4387,7 @@
         <v>74</v>
       </c>
       <c r="D15" s="2">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>101</v>
@@ -3510,7 +4406,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="2:10" ht="34">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B16" s="2">
         <v>13</v>
       </c>
@@ -3518,7 +4414,7 @@
         <v>75</v>
       </c>
       <c r="D16" s="2">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>101</v>
@@ -3537,7 +4433,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="2:10" ht="17">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="2">
         <v>14</v>
       </c>
@@ -3545,7 +4441,7 @@
         <v>76</v>
       </c>
       <c r="D17" s="2">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>101</v>
@@ -3564,7 +4460,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="2:10" ht="34">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="2">
         <v>15</v>
       </c>
@@ -3572,7 +4468,7 @@
         <v>77</v>
       </c>
       <c r="D18" s="2">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>101</v>
@@ -3591,7 +4487,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="2:10" ht="34">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" s="2">
         <v>16</v>
       </c>
@@ -3599,7 +4495,7 @@
         <v>78</v>
       </c>
       <c r="D19" s="2">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>101</v>
@@ -3618,7 +4514,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="17">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" s="2">
         <v>17</v>
       </c>
@@ -3626,7 +4522,7 @@
         <v>79</v>
       </c>
       <c r="D20" s="2">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>101</v>
@@ -3645,7 +4541,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="2:10" ht="17">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21" s="2">
         <v>18</v>
       </c>
@@ -3653,7 +4549,7 @@
         <v>80</v>
       </c>
       <c r="D21" s="2">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>101</v>
@@ -3672,7 +4568,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="2:10" ht="17">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22" s="2">
         <v>19</v>
       </c>
@@ -3680,7 +4576,7 @@
         <v>81</v>
       </c>
       <c r="D22" s="2">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>101</v>
@@ -3699,7 +4595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="17">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B23" s="2">
         <v>20</v>
       </c>
@@ -3707,7 +4603,7 @@
         <v>82</v>
       </c>
       <c r="D23" s="2">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>101</v>
@@ -3726,7 +4622,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="2:10" ht="17">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B24" s="2">
         <v>21</v>
       </c>
@@ -3734,7 +4630,7 @@
         <v>83</v>
       </c>
       <c r="D24" s="2">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>101</v>
@@ -3753,7 +4649,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="2:10" ht="17">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B25" s="2">
         <v>22</v>
       </c>
@@ -3761,7 +4657,7 @@
         <v>84</v>
       </c>
       <c r="D25" s="2">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>101</v>
@@ -3780,7 +4676,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="17">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B26" s="2">
         <v>23</v>
       </c>
@@ -3788,7 +4684,7 @@
         <v>85</v>
       </c>
       <c r="D26" s="2">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>101</v>
@@ -3807,7 +4703,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="17">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B27" s="2">
         <v>24</v>
       </c>
@@ -3815,7 +4711,7 @@
         <v>86</v>
       </c>
       <c r="D27" s="2">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>101</v>
@@ -3834,7 +4730,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="17">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B28" s="2">
         <v>25</v>
       </c>
@@ -3842,7 +4738,7 @@
         <v>87</v>
       </c>
       <c r="D28" s="2">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>101</v>
@@ -3861,7 +4757,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="17">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B29" s="2">
         <v>26</v>
       </c>
@@ -3869,7 +4765,7 @@
         <v>88</v>
       </c>
       <c r="D29" s="2">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>101</v>
@@ -3888,7 +4784,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="2:10" ht="34">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B30" s="2">
         <v>27</v>
       </c>
@@ -3915,7 +4811,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="2:10" ht="17">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B31" s="2">
         <v>28</v>
       </c>
@@ -3923,7 +4819,7 @@
         <v>90</v>
       </c>
       <c r="D31" s="2">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>101</v>
@@ -3942,7 +4838,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="2:10" ht="17">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B32" s="2">
         <v>29</v>
       </c>
@@ -3950,7 +4846,7 @@
         <v>91</v>
       </c>
       <c r="D32" s="2">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>101</v>
@@ -3969,7 +4865,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="2:10" ht="17">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B33" s="2">
         <v>30</v>
       </c>
@@ -3977,7 +4873,7 @@
         <v>92</v>
       </c>
       <c r="D33" s="2">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>101</v>
@@ -3996,7 +4892,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="2:10" ht="17">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B34" s="2">
         <v>31</v>
       </c>
@@ -4004,7 +4900,7 @@
         <v>93</v>
       </c>
       <c r="D34" s="2">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>101</v>
@@ -4023,7 +4919,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="2:10" ht="17">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B35" s="2">
         <v>32</v>
       </c>
@@ -4031,7 +4927,7 @@
         <v>94</v>
       </c>
       <c r="D35" s="2">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>101</v>
@@ -4050,7 +4946,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="2:10" ht="17">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B36" s="2">
         <v>33</v>
       </c>
@@ -4058,7 +4954,7 @@
         <v>95</v>
       </c>
       <c r="D36" s="2">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>101</v>
@@ -4077,7 +4973,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="2:10" ht="17">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B37" s="2">
         <v>34</v>
       </c>
@@ -4085,7 +4981,7 @@
         <v>96</v>
       </c>
       <c r="D37" s="2">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>101</v>
@@ -4104,7 +5000,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="2:10" ht="34">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B38" s="2">
         <v>35</v>
       </c>
@@ -4131,7 +5027,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="2:10" ht="17">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B39" s="2">
         <v>36</v>
       </c>
@@ -4139,7 +5035,7 @@
         <v>98</v>
       </c>
       <c r="D39" s="2">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>101</v>
@@ -4158,7 +5054,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="2:10" ht="17">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B40" s="2">
         <v>37</v>
       </c>
@@ -4185,7 +5081,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="2:10" ht="17">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B41" s="2">
         <v>38</v>
       </c>
@@ -4212,7 +5108,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="2:10" ht="17">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B42" s="2">
         <v>39</v>
       </c>
@@ -4239,7 +5135,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="2:10" ht="17">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B43" s="2">
         <v>40</v>
       </c>
@@ -4266,7 +5162,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="2:10" ht="17">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B44" s="2">
         <v>41</v>
       </c>
@@ -4293,7 +5189,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="2:10" ht="17">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B45" s="2">
         <v>42</v>
       </c>
@@ -4320,7 +5216,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="2:10" ht="17">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B46" s="2">
         <v>43</v>
       </c>
@@ -4328,7 +5224,7 @@
         <v>143</v>
       </c>
       <c r="D46" s="2">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>101</v>
@@ -4346,6 +5242,4008 @@
       <c r="J46" s="2">
         <v>43</v>
       </c>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B47" s="2">
+        <v>44</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="D47" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2">
+        <v>3</v>
+      </c>
+      <c r="J47" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B48" s="2">
+        <v>45</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="D48" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2">
+        <v>1</v>
+      </c>
+      <c r="J48" s="2"/>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B49" s="2">
+        <v>46</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D49" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2">
+        <v>2</v>
+      </c>
+      <c r="J49" s="2"/>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B50" s="2">
+        <v>47</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="D50" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2">
+        <v>12</v>
+      </c>
+      <c r="J50" s="2"/>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B51" s="2">
+        <v>48</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="D51" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2">
+        <v>10</v>
+      </c>
+      <c r="J51" s="2"/>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B52" s="2">
+        <v>49</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="D52" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2">
+        <v>5</v>
+      </c>
+      <c r="J52" s="2"/>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B53" s="2">
+        <v>50</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="D53" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2">
+        <v>9</v>
+      </c>
+      <c r="J53" s="2"/>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B54" s="2">
+        <v>51</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D54" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2">
+        <v>5</v>
+      </c>
+      <c r="J54" s="2"/>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B55" s="2">
+        <v>52</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="D55" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2">
+        <v>10</v>
+      </c>
+      <c r="J55" s="2"/>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B56" s="2">
+        <v>53</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="D56" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2">
+        <v>10</v>
+      </c>
+      <c r="J56" s="2"/>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B57" s="2">
+        <v>54</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="D57" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2">
+        <v>12</v>
+      </c>
+      <c r="J57" s="2"/>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B58" s="2">
+        <v>55</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D58" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2">
+        <v>10</v>
+      </c>
+      <c r="J58" s="2"/>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B59" s="2">
+        <v>56</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="D59" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2">
+        <v>7</v>
+      </c>
+      <c r="J59" s="2"/>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B60" s="2">
+        <v>57</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="D60" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2">
+        <v>7</v>
+      </c>
+      <c r="J60" s="2"/>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B61" s="2">
+        <v>58</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="D61" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2">
+        <v>6</v>
+      </c>
+      <c r="J61" s="2"/>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B62" s="2">
+        <v>59</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="D62" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2">
+        <v>6</v>
+      </c>
+      <c r="J62" s="2"/>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B63" s="2">
+        <v>60</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="D63" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2">
+        <v>10</v>
+      </c>
+      <c r="J63" s="2"/>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B64" s="2">
+        <v>61</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="D64" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2">
+        <v>10</v>
+      </c>
+      <c r="J64" s="2"/>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B65" s="2">
+        <v>62</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="D65" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2">
+        <v>13</v>
+      </c>
+      <c r="J65" s="2"/>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B66" s="2">
+        <v>63</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="D66" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2">
+        <v>13</v>
+      </c>
+      <c r="J66" s="2"/>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B67" s="2">
+        <v>64</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="D67" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2">
+        <v>13</v>
+      </c>
+      <c r="J67" s="2"/>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B68" s="2">
+        <v>65</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="D68" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2">
+        <v>13</v>
+      </c>
+      <c r="J68" s="2"/>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B69" s="2">
+        <v>66</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="D69" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2">
+        <v>13</v>
+      </c>
+      <c r="J69" s="2"/>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B70" s="2">
+        <v>67</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D70" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2">
+        <v>13</v>
+      </c>
+      <c r="J70" s="2"/>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B71" s="2">
+        <v>68</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="D71" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2">
+        <v>13</v>
+      </c>
+      <c r="J71" s="2"/>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B72" s="2">
+        <v>69</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="D72" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2">
+        <v>13</v>
+      </c>
+      <c r="J72" s="2"/>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B73" s="2">
+        <v>70</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="D73" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2">
+        <v>13</v>
+      </c>
+      <c r="J73" s="2"/>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B74" s="2">
+        <v>71</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="D74" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2">
+        <v>13</v>
+      </c>
+      <c r="J74" s="2"/>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B75" s="2">
+        <v>72</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="D75" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2">
+        <v>13</v>
+      </c>
+      <c r="J75" s="2"/>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B76" s="2">
+        <v>73</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="D76" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2">
+        <v>13</v>
+      </c>
+      <c r="J76" s="2"/>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B77" s="2">
+        <v>74</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="D77" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2">
+        <v>13</v>
+      </c>
+      <c r="J77" s="2"/>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B78" s="2">
+        <v>75</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="D78" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2">
+        <v>13</v>
+      </c>
+      <c r="J78" s="2"/>
+    </row>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B79" s="2">
+        <v>76</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="D79" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2">
+        <v>13</v>
+      </c>
+      <c r="J79" s="2"/>
+    </row>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B80" s="2">
+        <v>77</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="D80" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2">
+        <v>3</v>
+      </c>
+      <c r="J80" s="2"/>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B81" s="2">
+        <v>78</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="D81" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H81" s="2"/>
+      <c r="I81" s="2">
+        <v>13</v>
+      </c>
+      <c r="J81" s="2"/>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B82" s="2">
+        <v>79</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="D82" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2">
+        <v>3</v>
+      </c>
+      <c r="J82" s="2"/>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B83" s="2">
+        <v>80</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="D83" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H83" s="2"/>
+      <c r="I83" s="2">
+        <v>3</v>
+      </c>
+      <c r="J83" s="2"/>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B84" s="2">
+        <v>81</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="D84" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H84" s="2"/>
+      <c r="I84" s="2">
+        <v>8</v>
+      </c>
+      <c r="J84" s="2"/>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B85" s="2">
+        <v>82</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="D85" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H85" s="2"/>
+      <c r="I85" s="2">
+        <v>8</v>
+      </c>
+      <c r="J85" s="2"/>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B86" s="2">
+        <v>83</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="D86" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H86" s="2"/>
+      <c r="I86" s="2">
+        <v>8</v>
+      </c>
+      <c r="J86" s="2"/>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B87" s="2">
+        <v>84</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="D87" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H87" s="2"/>
+      <c r="I87" s="2">
+        <v>8</v>
+      </c>
+      <c r="J87" s="2"/>
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B88" s="2">
+        <v>85</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="D88" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H88" s="2"/>
+      <c r="I88" s="2">
+        <v>8</v>
+      </c>
+      <c r="J88" s="2"/>
+    </row>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B89" s="2">
+        <v>86</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="D89" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H89" s="2"/>
+      <c r="I89" s="2">
+        <v>13</v>
+      </c>
+      <c r="J89" s="2"/>
+    </row>
+    <row r="90" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B90" s="2">
+        <v>87</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="D90" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H90" s="2"/>
+      <c r="I90" s="2">
+        <v>3</v>
+      </c>
+      <c r="J90" s="2"/>
+    </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B91" s="2">
+        <v>88</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="D91" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H91" s="2"/>
+      <c r="I91" s="2">
+        <v>3</v>
+      </c>
+      <c r="J91" s="2"/>
+    </row>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B92" s="2">
+        <v>89</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="D92" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H92" s="2"/>
+      <c r="I92" s="2">
+        <v>3</v>
+      </c>
+      <c r="J92" s="2"/>
+    </row>
+    <row r="93" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B93" s="2">
+        <v>90</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="D93" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H93" s="2"/>
+      <c r="I93" s="2">
+        <v>3</v>
+      </c>
+      <c r="J93" s="2"/>
+    </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B94" s="2">
+        <v>91</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="D94" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H94" s="2"/>
+      <c r="I94" s="2">
+        <v>3</v>
+      </c>
+      <c r="J94" s="2"/>
+    </row>
+    <row r="95" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B95" s="2">
+        <v>92</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="D95" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H95" s="2"/>
+      <c r="I95" s="2">
+        <v>10</v>
+      </c>
+      <c r="J95" s="2"/>
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B96" s="2">
+        <v>93</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="D96" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H96" s="2"/>
+      <c r="I96" s="2">
+        <v>10</v>
+      </c>
+      <c r="J96" s="2"/>
+    </row>
+    <row r="97" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B97" s="2">
+        <v>94</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="D97" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H97" s="2"/>
+      <c r="I97" s="2">
+        <v>10</v>
+      </c>
+      <c r="J97" s="2"/>
+    </row>
+    <row r="98" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B98" s="2">
+        <v>95</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="D98" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H98" s="2"/>
+      <c r="I98" s="2">
+        <v>10</v>
+      </c>
+      <c r="J98" s="2"/>
+    </row>
+    <row r="99" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B99" s="2">
+        <v>96</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="D99" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H99" s="2"/>
+      <c r="I99" s="2">
+        <v>10</v>
+      </c>
+      <c r="J99" s="2"/>
+    </row>
+    <row r="100" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B100" s="2">
+        <v>97</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="D100" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H100" s="2"/>
+      <c r="I100" s="2">
+        <v>4</v>
+      </c>
+      <c r="J100" s="2"/>
+    </row>
+    <row r="101" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B101" s="2">
+        <v>98</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="D101" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H101" s="2"/>
+      <c r="I101" s="2">
+        <v>10</v>
+      </c>
+      <c r="J101" s="2"/>
+    </row>
+    <row r="102" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B102" s="2">
+        <v>99</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="D102" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H102" s="2"/>
+      <c r="I102" s="2">
+        <v>3</v>
+      </c>
+      <c r="J102" s="2"/>
+    </row>
+    <row r="103" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B103" s="2">
+        <v>100</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="D103" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H103" s="2"/>
+      <c r="I103" s="2">
+        <v>3</v>
+      </c>
+      <c r="J103" s="2"/>
+    </row>
+    <row r="104" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B104" s="2">
+        <v>101</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="D104" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H104" s="2"/>
+      <c r="I104" s="2">
+        <v>3</v>
+      </c>
+      <c r="J104" s="2"/>
+    </row>
+    <row r="105" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B105" s="2">
+        <v>102</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="D105" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H105" s="2"/>
+      <c r="I105" s="2">
+        <v>3</v>
+      </c>
+      <c r="J105" s="2"/>
+    </row>
+    <row r="106" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B106" s="2">
+        <v>103</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="D106" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H106" s="2"/>
+      <c r="I106" s="2">
+        <v>13</v>
+      </c>
+      <c r="J106" s="2"/>
+    </row>
+    <row r="107" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B107" s="2">
+        <v>104</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="D107" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H107" s="2"/>
+      <c r="I107" s="2">
+        <v>3</v>
+      </c>
+      <c r="J107" s="2"/>
+    </row>
+    <row r="108" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B108" s="2">
+        <v>105</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="D108" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H108" s="2"/>
+      <c r="I108" s="2">
+        <v>3</v>
+      </c>
+      <c r="J108" s="2"/>
+    </row>
+    <row r="109" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B109" s="2">
+        <v>106</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D109" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H109" s="2"/>
+      <c r="I109" s="2">
+        <v>3</v>
+      </c>
+      <c r="J109" s="2"/>
+    </row>
+    <row r="110" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B110" s="2">
+        <v>107</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="D110" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H110" s="2"/>
+      <c r="I110" s="2">
+        <v>3</v>
+      </c>
+      <c r="J110" s="2"/>
+    </row>
+    <row r="111" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B111" s="2">
+        <v>108</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D111" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H111" s="2"/>
+      <c r="I111" s="2">
+        <v>3</v>
+      </c>
+      <c r="J111" s="2"/>
+    </row>
+    <row r="112" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B112" s="2">
+        <v>109</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="D112" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H112" s="2"/>
+      <c r="I112" s="2">
+        <v>3</v>
+      </c>
+      <c r="J112" s="2"/>
+    </row>
+    <row r="113" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B113" s="2">
+        <v>110</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="D113" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H113" s="2"/>
+      <c r="I113" s="2">
+        <v>3</v>
+      </c>
+      <c r="J113" s="2"/>
+    </row>
+    <row r="114" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B114" s="2">
+        <v>111</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="D114" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H114" s="2"/>
+      <c r="I114" s="2">
+        <v>3</v>
+      </c>
+      <c r="J114" s="2"/>
+    </row>
+    <row r="115" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B115" s="2">
+        <v>112</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="D115" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H115" s="2"/>
+      <c r="I115" s="2">
+        <v>3</v>
+      </c>
+      <c r="J115" s="2"/>
+    </row>
+    <row r="116" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B116" s="2">
+        <v>113</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="D116" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H116" s="2"/>
+      <c r="I116" s="2">
+        <v>3</v>
+      </c>
+      <c r="J116" s="2"/>
+    </row>
+    <row r="117" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B117" s="2">
+        <v>114</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="D117" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H117" s="2"/>
+      <c r="I117" s="2">
+        <v>3</v>
+      </c>
+      <c r="J117" s="2"/>
+    </row>
+    <row r="118" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B118" s="2">
+        <v>115</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="D118" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H118" s="2"/>
+      <c r="I118" s="2">
+        <v>3</v>
+      </c>
+      <c r="J118" s="2"/>
+    </row>
+    <row r="119" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B119" s="2">
+        <v>116</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="D119" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H119" s="2"/>
+      <c r="I119" s="2">
+        <v>3</v>
+      </c>
+      <c r="J119" s="2"/>
+    </row>
+    <row r="120" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B120" s="2">
+        <v>117</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="D120" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H120" s="2"/>
+      <c r="I120" s="2">
+        <v>3</v>
+      </c>
+      <c r="J120" s="2"/>
+    </row>
+    <row r="121" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B121" s="2">
+        <v>118</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="D121" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H121" s="2"/>
+      <c r="I121" s="2">
+        <v>14</v>
+      </c>
+      <c r="J121" s="2"/>
+    </row>
+    <row r="122" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B122" s="2">
+        <v>119</v>
+      </c>
+      <c r="C122" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="D122" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H122" s="2"/>
+      <c r="I122" s="2">
+        <v>14</v>
+      </c>
+      <c r="J122" s="2"/>
+    </row>
+    <row r="123" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B123" s="2">
+        <v>120</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="D123" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H123" s="2"/>
+      <c r="I123" s="2">
+        <v>14</v>
+      </c>
+      <c r="J123" s="2"/>
+    </row>
+    <row r="124" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B124" s="2">
+        <v>121</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="D124" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H124" s="2"/>
+      <c r="I124" s="2">
+        <v>14</v>
+      </c>
+      <c r="J124" s="2"/>
+    </row>
+    <row r="125" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B125" s="2">
+        <v>122</v>
+      </c>
+      <c r="C125" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="D125" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H125" s="2"/>
+      <c r="I125" s="2">
+        <v>14</v>
+      </c>
+      <c r="J125" s="2"/>
+    </row>
+    <row r="126" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B126" s="2">
+        <v>123</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="D126" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H126" s="2"/>
+      <c r="I126" s="2">
+        <v>14</v>
+      </c>
+      <c r="J126" s="2"/>
+    </row>
+    <row r="127" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B127" s="2">
+        <v>124</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="D127" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H127" s="2"/>
+      <c r="I127" s="2">
+        <v>14</v>
+      </c>
+      <c r="J127" s="2"/>
+    </row>
+    <row r="128" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B128" s="2">
+        <v>125</v>
+      </c>
+      <c r="C128" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="D128" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H128" s="2"/>
+      <c r="I128" s="2">
+        <v>14</v>
+      </c>
+      <c r="J128" s="2"/>
+    </row>
+    <row r="129" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B129" s="2">
+        <v>126</v>
+      </c>
+      <c r="C129" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="D129" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H129" s="2"/>
+      <c r="I129" s="2">
+        <v>14</v>
+      </c>
+      <c r="J129" s="2"/>
+    </row>
+    <row r="130" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B130" s="2">
+        <v>127</v>
+      </c>
+      <c r="C130" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="D130" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H130" s="2"/>
+      <c r="I130" s="2">
+        <v>14</v>
+      </c>
+      <c r="J130" s="2"/>
+    </row>
+    <row r="131" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B131" s="2">
+        <v>128</v>
+      </c>
+      <c r="C131" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="D131" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H131" s="2"/>
+      <c r="I131" s="2">
+        <v>14</v>
+      </c>
+      <c r="J131" s="2"/>
+    </row>
+    <row r="132" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B132" s="2">
+        <v>129</v>
+      </c>
+      <c r="C132" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="D132" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H132" s="2"/>
+      <c r="I132" s="2">
+        <v>14</v>
+      </c>
+      <c r="J132" s="2"/>
+    </row>
+    <row r="133" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B133" s="2">
+        <v>130</v>
+      </c>
+      <c r="C133" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="D133" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H133" s="2"/>
+      <c r="I133" s="2">
+        <v>14</v>
+      </c>
+      <c r="J133" s="2"/>
+    </row>
+    <row r="134" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B134" s="2">
+        <v>131</v>
+      </c>
+      <c r="C134" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="D134" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H134" s="2"/>
+      <c r="I134" s="2">
+        <v>14</v>
+      </c>
+      <c r="J134" s="2"/>
+    </row>
+    <row r="135" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B135" s="2">
+        <v>132</v>
+      </c>
+      <c r="C135" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="D135" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H135" s="2"/>
+      <c r="I135" s="2">
+        <v>14</v>
+      </c>
+      <c r="J135" s="2"/>
+    </row>
+    <row r="136" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B136" s="2">
+        <v>133</v>
+      </c>
+      <c r="C136" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="D136" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H136" s="2"/>
+      <c r="I136" s="2">
+        <v>14</v>
+      </c>
+      <c r="J136" s="2"/>
+    </row>
+    <row r="137" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B137" s="2">
+        <v>134</v>
+      </c>
+      <c r="C137" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="D137" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H137" s="2"/>
+      <c r="I137" s="2">
+        <v>3</v>
+      </c>
+      <c r="J137" s="2"/>
+    </row>
+    <row r="138" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B138" s="2">
+        <v>135</v>
+      </c>
+      <c r="C138" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="D138" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H138" s="2"/>
+      <c r="I138" s="2">
+        <v>5</v>
+      </c>
+      <c r="J138" s="2"/>
+    </row>
+    <row r="139" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B139" s="2">
+        <v>136</v>
+      </c>
+      <c r="C139" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="D139" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H139" s="2"/>
+      <c r="I139" s="2">
+        <v>5</v>
+      </c>
+      <c r="J139" s="2"/>
+    </row>
+    <row r="140" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B140" s="2">
+        <v>137</v>
+      </c>
+      <c r="C140" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="D140" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H140" s="2"/>
+      <c r="I140" s="2">
+        <v>5</v>
+      </c>
+      <c r="J140" s="2"/>
+    </row>
+    <row r="141" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B141" s="2">
+        <v>138</v>
+      </c>
+      <c r="C141" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="D141" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H141" s="2"/>
+      <c r="I141" s="2">
+        <v>5</v>
+      </c>
+      <c r="J141" s="2"/>
+    </row>
+    <row r="142" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B142" s="2">
+        <v>139</v>
+      </c>
+      <c r="C142" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="D142" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H142" s="2"/>
+      <c r="I142" s="2">
+        <v>5</v>
+      </c>
+      <c r="J142" s="2"/>
+    </row>
+    <row r="143" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B143" s="2">
+        <v>140</v>
+      </c>
+      <c r="C143" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="D143" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H143" s="2"/>
+      <c r="I143" s="2">
+        <v>5</v>
+      </c>
+      <c r="J143" s="2"/>
+    </row>
+    <row r="144" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B144" s="2">
+        <v>141</v>
+      </c>
+      <c r="C144" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="D144" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H144" s="2"/>
+      <c r="I144" s="2">
+        <v>5</v>
+      </c>
+      <c r="J144" s="2"/>
+    </row>
+    <row r="145" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B145" s="2">
+        <v>142</v>
+      </c>
+      <c r="C145" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="D145" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H145" s="2"/>
+      <c r="I145" s="2">
+        <v>5</v>
+      </c>
+      <c r="J145" s="2"/>
+    </row>
+    <row r="146" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B146" s="2">
+        <v>143</v>
+      </c>
+      <c r="C146" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="D146" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H146" s="2"/>
+      <c r="I146" s="2">
+        <v>15</v>
+      </c>
+      <c r="J146" s="2"/>
+    </row>
+    <row r="147" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B147" s="2">
+        <v>144</v>
+      </c>
+      <c r="C147" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="D147" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H147" s="2"/>
+      <c r="I147" s="2">
+        <v>15</v>
+      </c>
+      <c r="J147" s="2"/>
+    </row>
+    <row r="148" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B148" s="2">
+        <v>145</v>
+      </c>
+      <c r="C148" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="D148" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H148" s="2"/>
+      <c r="I148" s="2">
+        <v>15</v>
+      </c>
+      <c r="J148" s="2"/>
+    </row>
+    <row r="149" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B149" s="2">
+        <v>146</v>
+      </c>
+      <c r="C149" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="D149" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H149" s="2"/>
+      <c r="I149" s="2">
+        <v>15</v>
+      </c>
+      <c r="J149" s="2"/>
+    </row>
+    <row r="150" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B150" s="2">
+        <v>147</v>
+      </c>
+      <c r="C150" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="D150" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H150" s="2"/>
+      <c r="I150" s="2">
+        <v>15</v>
+      </c>
+      <c r="J150" s="2"/>
+    </row>
+    <row r="151" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B151" s="2">
+        <v>148</v>
+      </c>
+      <c r="C151" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="D151" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H151" s="2"/>
+      <c r="I151" s="2">
+        <v>15</v>
+      </c>
+      <c r="J151" s="2"/>
+    </row>
+    <row r="152" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B152" s="2">
+        <v>149</v>
+      </c>
+      <c r="C152" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="D152" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H152" s="2"/>
+      <c r="I152" s="2">
+        <v>15</v>
+      </c>
+      <c r="J152" s="2"/>
+    </row>
+    <row r="153" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B153" s="2">
+        <v>150</v>
+      </c>
+      <c r="C153" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="D153" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H153" s="2"/>
+      <c r="I153" s="2">
+        <v>15</v>
+      </c>
+      <c r="J153" s="2"/>
+    </row>
+    <row r="154" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B154" s="2">
+        <v>151</v>
+      </c>
+      <c r="C154" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="D154" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H154" s="2"/>
+      <c r="I154" s="2">
+        <v>15</v>
+      </c>
+      <c r="J154" s="2"/>
+    </row>
+    <row r="155" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B155" s="2">
+        <v>152</v>
+      </c>
+      <c r="C155" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="D155" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H155" s="2"/>
+      <c r="I155" s="2">
+        <v>15</v>
+      </c>
+      <c r="J155" s="2"/>
+    </row>
+    <row r="156" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B156" s="2">
+        <v>153</v>
+      </c>
+      <c r="C156" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="D156" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H156" s="2"/>
+      <c r="I156" s="2">
+        <v>15</v>
+      </c>
+      <c r="J156" s="2"/>
+    </row>
+    <row r="157" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B157" s="2">
+        <v>154</v>
+      </c>
+      <c r="C157" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="D157" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H157" s="2"/>
+      <c r="I157" s="2">
+        <v>15</v>
+      </c>
+      <c r="J157" s="2"/>
+    </row>
+    <row r="158" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B158" s="2">
+        <v>155</v>
+      </c>
+      <c r="C158" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="D158" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H158" s="2"/>
+      <c r="I158" s="2">
+        <v>15</v>
+      </c>
+      <c r="J158" s="2"/>
+    </row>
+    <row r="159" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B159" s="2">
+        <v>156</v>
+      </c>
+      <c r="C159" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="D159" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H159" s="2"/>
+      <c r="I159" s="2">
+        <v>15</v>
+      </c>
+      <c r="J159" s="2"/>
+    </row>
+    <row r="160" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B160" s="2">
+        <v>157</v>
+      </c>
+      <c r="C160" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="D160" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H160" s="2"/>
+      <c r="I160" s="2">
+        <v>15</v>
+      </c>
+      <c r="J160" s="2"/>
+    </row>
+    <row r="161" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B161" s="2">
+        <v>158</v>
+      </c>
+      <c r="C161" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="D161" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H161" s="2"/>
+      <c r="I161" s="2">
+        <v>15</v>
+      </c>
+      <c r="J161" s="2"/>
+    </row>
+    <row r="162" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B162" s="2">
+        <v>159</v>
+      </c>
+      <c r="C162" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="D162" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H162" s="2"/>
+      <c r="I162" s="2">
+        <v>15</v>
+      </c>
+      <c r="J162" s="2"/>
+    </row>
+    <row r="163" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B163" s="2">
+        <v>160</v>
+      </c>
+      <c r="C163" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="D163" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H163" s="2"/>
+      <c r="I163" s="2">
+        <v>15</v>
+      </c>
+      <c r="J163" s="2"/>
+    </row>
+    <row r="164" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B164" s="2">
+        <v>161</v>
+      </c>
+      <c r="C164" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="D164" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H164" s="2"/>
+      <c r="I164" s="2">
+        <v>15</v>
+      </c>
+      <c r="J164" s="2"/>
+    </row>
+    <row r="165" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B165" s="2">
+        <v>162</v>
+      </c>
+      <c r="C165" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="D165" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H165" s="2"/>
+      <c r="I165" s="2">
+        <v>15</v>
+      </c>
+      <c r="J165" s="2"/>
+    </row>
+    <row r="166" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B166" s="2">
+        <v>163</v>
+      </c>
+      <c r="C166" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="D166" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H166" s="2"/>
+      <c r="I166" s="2">
+        <v>15</v>
+      </c>
+      <c r="J166" s="2"/>
+    </row>
+    <row r="167" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B167" s="2">
+        <v>164</v>
+      </c>
+      <c r="C167" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="D167" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H167" s="2"/>
+      <c r="I167" s="2">
+        <v>17</v>
+      </c>
+      <c r="J167" s="2"/>
+    </row>
+    <row r="168" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B168" s="2">
+        <v>165</v>
+      </c>
+      <c r="C168" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="D168" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H168" s="2"/>
+      <c r="I168" s="2">
+        <v>17</v>
+      </c>
+      <c r="J168" s="2"/>
+    </row>
+    <row r="169" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B169" s="2">
+        <v>166</v>
+      </c>
+      <c r="C169" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="D169" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H169" s="2"/>
+      <c r="I169" s="2">
+        <v>9</v>
+      </c>
+      <c r="J169" s="2"/>
+    </row>
+    <row r="170" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B170" s="2">
+        <v>167</v>
+      </c>
+      <c r="C170" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="D170" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H170" s="2"/>
+      <c r="I170" s="2">
+        <v>9</v>
+      </c>
+      <c r="J170" s="2"/>
+    </row>
+    <row r="171" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B171" s="2">
+        <v>168</v>
+      </c>
+      <c r="C171" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="D171" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H171" s="2"/>
+      <c r="I171" s="2">
+        <v>9</v>
+      </c>
+      <c r="J171" s="2"/>
+    </row>
+    <row r="172" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B172" s="2">
+        <v>169</v>
+      </c>
+      <c r="C172" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="D172" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H172" s="2"/>
+      <c r="I172" s="2">
+        <v>9</v>
+      </c>
+      <c r="J172" s="2"/>
+    </row>
+    <row r="173" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B173" s="2">
+        <v>170</v>
+      </c>
+      <c r="C173" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="D173" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H173" s="2"/>
+      <c r="I173" s="2">
+        <v>2</v>
+      </c>
+      <c r="J173" s="2"/>
+    </row>
+    <row r="174" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B174" s="2">
+        <v>171</v>
+      </c>
+      <c r="C174" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="D174" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H174" s="2"/>
+      <c r="I174" s="2">
+        <v>1</v>
+      </c>
+      <c r="J174" s="2"/>
+    </row>
+    <row r="175" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B175" s="2">
+        <v>172</v>
+      </c>
+      <c r="C175" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="D175" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H175" s="2"/>
+      <c r="I175" s="2">
+        <v>3</v>
+      </c>
+      <c r="J175" s="2"/>
+    </row>
+    <row r="176" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B176" s="2">
+        <v>173</v>
+      </c>
+      <c r="C176" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="D176" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G176" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H176" s="2"/>
+      <c r="I176" s="2">
+        <v>3</v>
+      </c>
+      <c r="J176" s="2"/>
+    </row>
+    <row r="177" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B177" s="2">
+        <v>174</v>
+      </c>
+      <c r="C177" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="D177" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G177" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H177" s="2"/>
+      <c r="I177" s="2">
+        <v>3</v>
+      </c>
+      <c r="J177" s="2"/>
+    </row>
+    <row r="178" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B178" s="2">
+        <v>175</v>
+      </c>
+      <c r="C178" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="D178" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H178" s="2"/>
+      <c r="I178" s="2">
+        <v>1</v>
+      </c>
+      <c r="J178" s="2"/>
+    </row>
+    <row r="179" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B179" s="2">
+        <v>176</v>
+      </c>
+      <c r="C179" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="D179" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G179" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H179" s="2"/>
+      <c r="I179" s="2">
+        <v>1</v>
+      </c>
+      <c r="J179" s="2"/>
+    </row>
+    <row r="180" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B180" s="2">
+        <v>177</v>
+      </c>
+      <c r="C180" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="D180" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G180" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H180" s="2"/>
+      <c r="I180" s="2">
+        <v>1</v>
+      </c>
+      <c r="J180" s="2"/>
+    </row>
+    <row r="181" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B181" s="2">
+        <v>178</v>
+      </c>
+      <c r="C181" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="D181" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H181" s="2"/>
+      <c r="I181" s="2">
+        <v>1</v>
+      </c>
+      <c r="J181" s="2"/>
+    </row>
+    <row r="182" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B182" s="2">
+        <v>179</v>
+      </c>
+      <c r="C182" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="D182" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G182" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H182" s="2"/>
+      <c r="I182" s="2">
+        <v>1</v>
+      </c>
+      <c r="J182" s="2"/>
+    </row>
+    <row r="183" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B183" s="2">
+        <v>180</v>
+      </c>
+      <c r="C183" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="D183" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G183" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H183" s="2"/>
+      <c r="I183" s="2">
+        <v>2</v>
+      </c>
+      <c r="J183" s="2"/>
+    </row>
+    <row r="184" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B184" s="2">
+        <v>181</v>
+      </c>
+      <c r="C184" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="D184" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G184" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H184" s="2"/>
+      <c r="I184" s="2">
+        <v>1</v>
+      </c>
+      <c r="J184" s="2"/>
+    </row>
+    <row r="185" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B185" s="2">
+        <v>182</v>
+      </c>
+      <c r="C185" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="D185" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G185" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H185" s="2"/>
+      <c r="I185" s="2">
+        <v>2</v>
+      </c>
+      <c r="J185" s="2"/>
+    </row>
+    <row r="186" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B186" s="2">
+        <v>183</v>
+      </c>
+      <c r="C186" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="D186" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G186" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H186" s="2"/>
+      <c r="I186" s="2">
+        <v>2</v>
+      </c>
+      <c r="J186" s="2"/>
+    </row>
+    <row r="187" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B187" s="2">
+        <v>184</v>
+      </c>
+      <c r="C187" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="D187" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G187" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H187" s="2"/>
+      <c r="I187" s="2">
+        <v>2</v>
+      </c>
+      <c r="J187" s="2"/>
+    </row>
+    <row r="188" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B188" s="2">
+        <v>185</v>
+      </c>
+      <c r="C188" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="D188" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G188" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H188" s="2"/>
+      <c r="I188" s="2">
+        <v>2</v>
+      </c>
+      <c r="J188" s="2"/>
+    </row>
+    <row r="189" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B189" s="2">
+        <v>186</v>
+      </c>
+      <c r="C189" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="D189" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G189" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H189" s="2"/>
+      <c r="I189" s="2">
+        <v>7</v>
+      </c>
+      <c r="J189" s="2"/>
+    </row>
+    <row r="190" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B190" s="2">
+        <v>187</v>
+      </c>
+      <c r="C190" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="D190" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G190" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H190" s="2"/>
+      <c r="I190" s="2">
+        <v>7</v>
+      </c>
+      <c r="J190" s="2"/>
+    </row>
+    <row r="191" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B191" s="2">
+        <v>188</v>
+      </c>
+      <c r="C191" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="D191" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G191" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H191" s="2"/>
+      <c r="I191" s="2">
+        <v>7</v>
+      </c>
+      <c r="J191" s="2"/>
+    </row>
+    <row r="192" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B192" s="2">
+        <v>189</v>
+      </c>
+      <c r="C192" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="D192" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G192" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H192" s="2"/>
+      <c r="I192" s="2">
+        <v>7</v>
+      </c>
+      <c r="J192" s="2"/>
+    </row>
+    <row r="193" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B193" s="2">
+        <v>190</v>
+      </c>
+      <c r="C193" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="D193" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G193" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H193" s="2"/>
+      <c r="I193" s="2">
+        <v>7</v>
+      </c>
+      <c r="J193" s="2"/>
+    </row>
+    <row r="194" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B194" s="2">
+        <v>191</v>
+      </c>
+      <c r="C194" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="D194" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G194" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H194" s="2"/>
+      <c r="I194" s="2">
+        <v>7</v>
+      </c>
+      <c r="J194" s="2"/>
+    </row>
+    <row r="195" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B195" s="2">
+        <v>192</v>
+      </c>
+      <c r="C195" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="D195" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G195" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H195" s="2"/>
+      <c r="I195" s="2">
+        <v>6</v>
+      </c>
+      <c r="J195" s="2"/>
+    </row>
+    <row r="196" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B196" s="2">
+        <v>193</v>
+      </c>
+      <c r="C196" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="D196" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G196" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H196" s="2"/>
+      <c r="I196" s="2">
+        <v>6</v>
+      </c>
+      <c r="J196" s="2"/>
+    </row>
+    <row r="197" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B197" s="2">
+        <v>194</v>
+      </c>
+      <c r="C197" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="D197" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G197" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H197" s="2"/>
+      <c r="I197" s="2">
+        <v>6</v>
+      </c>
+      <c r="J197" s="2"/>
+    </row>
+    <row r="198" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B198" s="2">
+        <v>195</v>
+      </c>
+      <c r="C198" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="D198" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G198" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H198" s="2"/>
+      <c r="I198" s="2">
+        <v>6</v>
+      </c>
+      <c r="J198" s="2"/>
+    </row>
+    <row r="199" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B199" s="2">
+        <v>196</v>
+      </c>
+      <c r="C199" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="D199" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G199" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H199" s="2"/>
+      <c r="I199" s="2">
+        <v>6</v>
+      </c>
+      <c r="J199" s="2"/>
+    </row>
+    <row r="200" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B200" s="2">
+        <v>197</v>
+      </c>
+      <c r="C200" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="D200" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G200" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H200" s="2"/>
+      <c r="I200" s="2">
+        <v>18</v>
+      </c>
+      <c r="J200" s="2"/>
+    </row>
+    <row r="201" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B201" s="2">
+        <v>198</v>
+      </c>
+      <c r="C201" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="D201" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G201" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H201" s="2"/>
+      <c r="I201" s="2">
+        <v>14</v>
+      </c>
+      <c r="J201" s="2"/>
+    </row>
+    <row r="202" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B202" s="2">
+        <v>199</v>
+      </c>
+      <c r="C202" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="D202" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F202" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G202" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H202" s="2"/>
+      <c r="I202" s="2">
+        <v>18</v>
+      </c>
+      <c r="J202" s="2"/>
+    </row>
+    <row r="203" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B203" s="2">
+        <v>200</v>
+      </c>
+      <c r="C203" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="D203" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F203" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G203" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H203" s="2"/>
+      <c r="I203" s="2">
+        <v>14</v>
+      </c>
+      <c r="J203" s="2"/>
+    </row>
+    <row r="204" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B204" s="2">
+        <v>201</v>
+      </c>
+      <c r="C204" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="D204" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G204" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H204" s="2"/>
+      <c r="I204" s="2">
+        <v>18</v>
+      </c>
+      <c r="J204" s="2"/>
+    </row>
+    <row r="205" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B205" s="2">
+        <v>202</v>
+      </c>
+      <c r="C205" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D205" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F205" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G205" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H205" s="2"/>
+      <c r="I205" s="2">
+        <v>18</v>
+      </c>
+      <c r="J205" s="2"/>
+    </row>
+    <row r="206" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B206" s="2">
+        <v>203</v>
+      </c>
+      <c r="C206" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="D206" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F206" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G206" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H206" s="2"/>
+      <c r="I206">
+        <v>14</v>
+      </c>
+      <c r="J206" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4354,20 +9252,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF94098B-57D7-5D4B-907A-FD6DCF16AF45}">
-  <dimension ref="C2:H13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C3" sqref="C3:H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="62.1640625" customWidth="1"/>
+    <col min="5" max="5" width="115.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:8">
+    <row r="2" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C2" s="5" t="s">
         <v>0</v>
       </c>
@@ -4387,7 +9285,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="3:8">
+    <row r="3" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C3" s="2">
         <v>1</v>
       </c>
@@ -4405,7 +9303,7 @@
       </c>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="3:8">
+    <row r="4" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C4" s="2">
         <v>2</v>
       </c>
@@ -4423,7 +9321,7 @@
       </c>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="3:8">
+    <row r="5" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C5" s="2">
         <v>3</v>
       </c>
@@ -4441,7 +9339,7 @@
       </c>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="3:8">
+    <row r="6" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C6" s="2">
         <v>4</v>
       </c>
@@ -4459,7 +9357,7 @@
       </c>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="3:8">
+    <row r="7" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C7" s="2">
         <v>5</v>
       </c>
@@ -4477,7 +9375,7 @@
       </c>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="3:8">
+    <row r="8" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C8" s="2">
         <v>6</v>
       </c>
@@ -4495,7 +9393,7 @@
       </c>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="3:8">
+    <row r="9" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C9" s="2">
         <v>7</v>
       </c>
@@ -4513,7 +9411,7 @@
       </c>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="3:8">
+    <row r="10" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C10" s="2">
         <v>8</v>
       </c>
@@ -4531,7 +9429,7 @@
       </c>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="3:8">
+    <row r="11" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C11" s="2">
         <v>9</v>
       </c>
@@ -4549,7 +9447,7 @@
       </c>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="3:8">
+    <row r="12" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C12" s="2">
         <v>10</v>
       </c>
@@ -4567,7 +9465,7 @@
       </c>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="3:8">
+    <row r="13" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C13" s="2">
         <v>11</v>
       </c>
@@ -4584,6 +9482,125 @@
         <v>34</v>
       </c>
       <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C14" s="2">
+        <v>12</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="E14" t="s">
+        <v>337</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C15" s="2">
+        <v>13</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="E15" t="s">
+        <v>338</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C16" s="2">
+        <v>14</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="E16" t="s">
+        <v>342</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C17" s="2">
+        <v>15</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="E17" t="s">
+        <v>343</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C18" s="2">
+        <v>16</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="E18" t="s">
+        <v>339</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C19" s="2">
+        <v>17</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="E19" t="s">
+        <v>340</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C20" s="2">
+        <v>18</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="E20" t="s">
+        <v>341</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/seed.xlsx
+++ b/seed.xlsx
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1750" uniqueCount="345">
   <si>
     <t>id</t>
   </si>
@@ -1145,12 +1145,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1162,7 +1168,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="161">
+  <cellStyleXfs count="181">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1324,8 +1330,28 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1340,8 +1366,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="161">
+  <cellStyles count="181">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1422,6 +1450,16 @@
     <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1502,6 +1540,16 @@
     <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3137,10 +3185,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:H45"/>
+  <dimension ref="C2:H207"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39:H45"/>
+    <sheetView topLeftCell="A140" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46:H207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4029,6 +4077,3408 @@
         <v>4</v>
       </c>
     </row>
+    <row r="46" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C46" s="2">
+        <v>44</v>
+      </c>
+      <c r="D46" s="3" t="str">
+        <f>"Filler Answer"&amp;" "&amp;C46</f>
+        <v>Filler Answer 44</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H46" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C47" s="2">
+        <v>45</v>
+      </c>
+      <c r="D47" s="3" t="str">
+        <f t="shared" ref="D47:D110" si="0">"Filler Answer"&amp;" "&amp;C47</f>
+        <v>Filler Answer 45</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H47" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C48" s="6">
+        <v>46</v>
+      </c>
+      <c r="D48" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Filler Answer 46</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H48" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C49" s="2">
+        <v>47</v>
+      </c>
+      <c r="D49" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Filler Answer 47</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H49" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C50" s="2">
+        <v>48</v>
+      </c>
+      <c r="D50" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Filler Answer 48</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H50" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C51" s="6">
+        <v>49</v>
+      </c>
+      <c r="D51" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Filler Answer 49</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H51" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C52" s="2">
+        <v>50</v>
+      </c>
+      <c r="D52" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Filler Answer 50</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H52" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C53" s="2">
+        <v>51</v>
+      </c>
+      <c r="D53" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Filler Answer 51</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H53" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C54" s="6">
+        <v>52</v>
+      </c>
+      <c r="D54" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Filler Answer 52</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H54" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C55" s="2">
+        <v>53</v>
+      </c>
+      <c r="D55" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Filler Answer 53</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H55" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C56" s="2">
+        <v>54</v>
+      </c>
+      <c r="D56" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Filler Answer 54</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H56" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C57" s="6">
+        <v>55</v>
+      </c>
+      <c r="D57" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Filler Answer 55</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H57" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C58" s="2">
+        <v>56</v>
+      </c>
+      <c r="D58" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Filler Answer 56</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H58" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C59" s="2">
+        <v>57</v>
+      </c>
+      <c r="D59" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Filler Answer 57</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H59" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C60" s="6">
+        <v>58</v>
+      </c>
+      <c r="D60" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Filler Answer 58</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H60" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C61" s="2">
+        <v>59</v>
+      </c>
+      <c r="D61" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Filler Answer 59</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H61" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C62" s="2">
+        <v>60</v>
+      </c>
+      <c r="D62" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Filler Answer 60</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H62" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C63" s="6">
+        <v>61</v>
+      </c>
+      <c r="D63" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Filler Answer 61</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H63" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C64" s="2">
+        <v>62</v>
+      </c>
+      <c r="D64" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Filler Answer 62</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H64" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C65" s="2">
+        <v>63</v>
+      </c>
+      <c r="D65" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Filler Answer 63</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H65" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C66" s="6">
+        <v>64</v>
+      </c>
+      <c r="D66" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Filler Answer 64</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H66" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C67" s="2">
+        <v>65</v>
+      </c>
+      <c r="D67" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Filler Answer 65</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H67" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C68" s="2">
+        <v>66</v>
+      </c>
+      <c r="D68" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Filler Answer 66</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H68" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C69" s="6">
+        <v>67</v>
+      </c>
+      <c r="D69" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Filler Answer 67</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H69" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C70" s="2">
+        <v>68</v>
+      </c>
+      <c r="D70" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Filler Answer 68</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H70" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C71" s="2">
+        <v>69</v>
+      </c>
+      <c r="D71" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Filler Answer 69</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H71" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C72" s="6">
+        <v>70</v>
+      </c>
+      <c r="D72" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Filler Answer 70</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H72" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C73" s="2">
+        <v>71</v>
+      </c>
+      <c r="D73" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Filler Answer 71</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H73" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C74" s="2">
+        <v>72</v>
+      </c>
+      <c r="D74" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Filler Answer 72</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H74" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C75" s="6">
+        <v>73</v>
+      </c>
+      <c r="D75" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Filler Answer 73</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H75" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C76" s="2">
+        <v>74</v>
+      </c>
+      <c r="D76" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Filler Answer 74</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H76" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C77" s="2">
+        <v>75</v>
+      </c>
+      <c r="D77" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Filler Answer 75</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H77" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C78" s="6">
+        <v>76</v>
+      </c>
+      <c r="D78" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Filler Answer 76</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H78" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C79" s="2">
+        <v>77</v>
+      </c>
+      <c r="D79" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Filler Answer 77</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H79" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C80" s="2">
+        <v>78</v>
+      </c>
+      <c r="D80" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Filler Answer 78</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H80" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="81" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C81" s="6">
+        <v>79</v>
+      </c>
+      <c r="D81" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Filler Answer 79</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H81" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="82" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C82" s="2">
+        <v>80</v>
+      </c>
+      <c r="D82" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Filler Answer 80</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H82" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C83" s="2">
+        <v>81</v>
+      </c>
+      <c r="D83" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Filler Answer 81</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H83" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C84" s="6">
+        <v>82</v>
+      </c>
+      <c r="D84" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Filler Answer 82</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H84" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C85" s="2">
+        <v>83</v>
+      </c>
+      <c r="D85" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Filler Answer 83</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H85" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C86" s="2">
+        <v>84</v>
+      </c>
+      <c r="D86" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Filler Answer 84</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H86" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C87" s="6">
+        <v>85</v>
+      </c>
+      <c r="D87" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Filler Answer 85</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H87" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C88" s="2">
+        <v>86</v>
+      </c>
+      <c r="D88" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Filler Answer 86</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H88" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C89" s="2">
+        <v>87</v>
+      </c>
+      <c r="D89" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Filler Answer 87</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H89" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C90" s="6">
+        <v>88</v>
+      </c>
+      <c r="D90" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Filler Answer 88</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H90" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C91" s="2">
+        <v>89</v>
+      </c>
+      <c r="D91" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Filler Answer 89</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H91" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C92" s="2">
+        <v>90</v>
+      </c>
+      <c r="D92" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Filler Answer 90</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H92" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="93" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C93" s="6">
+        <v>91</v>
+      </c>
+      <c r="D93" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Filler Answer 91</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H93" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="94" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C94" s="2">
+        <v>92</v>
+      </c>
+      <c r="D94" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Filler Answer 92</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H94" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="95" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C95" s="2">
+        <v>93</v>
+      </c>
+      <c r="D95" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Filler Answer 93</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H95" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="96" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C96" s="6">
+        <v>94</v>
+      </c>
+      <c r="D96" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Filler Answer 94</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H96" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="97" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C97" s="2">
+        <v>95</v>
+      </c>
+      <c r="D97" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Filler Answer 95</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H97" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="98" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C98" s="2">
+        <v>96</v>
+      </c>
+      <c r="D98" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Filler Answer 96</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H98" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="99" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C99" s="6">
+        <v>97</v>
+      </c>
+      <c r="D99" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Filler Answer 97</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H99" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="100" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C100" s="2">
+        <v>98</v>
+      </c>
+      <c r="D100" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Filler Answer 98</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H100" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C101" s="2">
+        <v>99</v>
+      </c>
+      <c r="D101" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Filler Answer 99</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H101" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C102" s="6">
+        <v>100</v>
+      </c>
+      <c r="D102" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Filler Answer 100</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H102" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C103" s="2">
+        <v>101</v>
+      </c>
+      <c r="D103" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Filler Answer 101</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H103" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C104" s="2">
+        <v>102</v>
+      </c>
+      <c r="D104" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Filler Answer 102</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H104" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C105" s="6">
+        <v>103</v>
+      </c>
+      <c r="D105" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Filler Answer 103</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H105" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C106" s="2">
+        <v>104</v>
+      </c>
+      <c r="D106" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Filler Answer 104</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H106" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C107" s="2">
+        <v>105</v>
+      </c>
+      <c r="D107" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Filler Answer 105</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H107" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C108" s="6">
+        <v>106</v>
+      </c>
+      <c r="D108" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Filler Answer 106</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H108" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C109" s="2">
+        <v>107</v>
+      </c>
+      <c r="D109" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Filler Answer 107</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H109" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C110" s="2">
+        <v>108</v>
+      </c>
+      <c r="D110" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Filler Answer 108</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H110" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="111" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C111" s="6">
+        <v>109</v>
+      </c>
+      <c r="D111" s="3" t="str">
+        <f t="shared" ref="D111:D174" si="1">"Filler Answer"&amp;" "&amp;C111</f>
+        <v>Filler Answer 109</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H111" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="112" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C112" s="2">
+        <v>110</v>
+      </c>
+      <c r="D112" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Filler Answer 110</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H112" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="113" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C113" s="2">
+        <v>111</v>
+      </c>
+      <c r="D113" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Filler Answer 111</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H113" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="114" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C114" s="6">
+        <v>112</v>
+      </c>
+      <c r="D114" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Filler Answer 112</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H114" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="115" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C115" s="2">
+        <v>113</v>
+      </c>
+      <c r="D115" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Filler Answer 113</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H115" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="116" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C116" s="2">
+        <v>114</v>
+      </c>
+      <c r="D116" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Filler Answer 114</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H116" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="117" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C117" s="6">
+        <v>115</v>
+      </c>
+      <c r="D117" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Filler Answer 115</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H117" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="118" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C118" s="2">
+        <v>116</v>
+      </c>
+      <c r="D118" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Filler Answer 116</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H118" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C119" s="2">
+        <v>117</v>
+      </c>
+      <c r="D119" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Filler Answer 117</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H119" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C120" s="6">
+        <v>118</v>
+      </c>
+      <c r="D120" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Filler Answer 118</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H120" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C121" s="2">
+        <v>119</v>
+      </c>
+      <c r="D121" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Filler Answer 119</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H121" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C122" s="2">
+        <v>120</v>
+      </c>
+      <c r="D122" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Filler Answer 120</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H122" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C123" s="6">
+        <v>121</v>
+      </c>
+      <c r="D123" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Filler Answer 121</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H123" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C124" s="2">
+        <v>122</v>
+      </c>
+      <c r="D124" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Filler Answer 122</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H124" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C125" s="2">
+        <v>123</v>
+      </c>
+      <c r="D125" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Filler Answer 123</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H125" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C126" s="6">
+        <v>124</v>
+      </c>
+      <c r="D126" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Filler Answer 124</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H126" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C127" s="2">
+        <v>125</v>
+      </c>
+      <c r="D127" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Filler Answer 125</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H127" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C128" s="2">
+        <v>126</v>
+      </c>
+      <c r="D128" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Filler Answer 126</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H128" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="129" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C129" s="6">
+        <v>127</v>
+      </c>
+      <c r="D129" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Filler Answer 127</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H129" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="130" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C130" s="2">
+        <v>128</v>
+      </c>
+      <c r="D130" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Filler Answer 128</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H130" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="131" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C131" s="2">
+        <v>129</v>
+      </c>
+      <c r="D131" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Filler Answer 129</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H131" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="132" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C132" s="6">
+        <v>130</v>
+      </c>
+      <c r="D132" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Filler Answer 130</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H132" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="133" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C133" s="2">
+        <v>131</v>
+      </c>
+      <c r="D133" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Filler Answer 131</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H133" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="134" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C134" s="2">
+        <v>132</v>
+      </c>
+      <c r="D134" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Filler Answer 132</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H134" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="135" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C135" s="6">
+        <v>133</v>
+      </c>
+      <c r="D135" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Filler Answer 133</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H135" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="136" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C136" s="2">
+        <v>134</v>
+      </c>
+      <c r="D136" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Filler Answer 134</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H136" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C137" s="2">
+        <v>135</v>
+      </c>
+      <c r="D137" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Filler Answer 135</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H137" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C138" s="6">
+        <v>136</v>
+      </c>
+      <c r="D138" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Filler Answer 136</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H138" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C139" s="2">
+        <v>137</v>
+      </c>
+      <c r="D139" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Filler Answer 137</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H139" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C140" s="2">
+        <v>138</v>
+      </c>
+      <c r="D140" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Filler Answer 138</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H140" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C141" s="6">
+        <v>139</v>
+      </c>
+      <c r="D141" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Filler Answer 139</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H141" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="142" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C142" s="2">
+        <v>140</v>
+      </c>
+      <c r="D142" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Filler Answer 140</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H142" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="143" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C143" s="2">
+        <v>141</v>
+      </c>
+      <c r="D143" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Filler Answer 141</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H143" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C144" s="6">
+        <v>142</v>
+      </c>
+      <c r="D144" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Filler Answer 142</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H144" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="145" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C145" s="2">
+        <v>143</v>
+      </c>
+      <c r="D145" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Filler Answer 143</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H145" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C146" s="2">
+        <v>144</v>
+      </c>
+      <c r="D146" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Filler Answer 144</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H146" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="147" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C147" s="6">
+        <v>145</v>
+      </c>
+      <c r="D147" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Filler Answer 145</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H147" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="148" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C148" s="2">
+        <v>146</v>
+      </c>
+      <c r="D148" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Filler Answer 146</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H148" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="149" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C149" s="2">
+        <v>147</v>
+      </c>
+      <c r="D149" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Filler Answer 147</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H149" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="150" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C150" s="6">
+        <v>148</v>
+      </c>
+      <c r="D150" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Filler Answer 148</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H150" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="151" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C151" s="2">
+        <v>149</v>
+      </c>
+      <c r="D151" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Filler Answer 149</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H151" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="152" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C152" s="2">
+        <v>150</v>
+      </c>
+      <c r="D152" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Filler Answer 150</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H152" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="153" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C153" s="6">
+        <v>151</v>
+      </c>
+      <c r="D153" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Filler Answer 151</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H153" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="154" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C154" s="2">
+        <v>152</v>
+      </c>
+      <c r="D154" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Filler Answer 152</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H154" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C155" s="2">
+        <v>153</v>
+      </c>
+      <c r="D155" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Filler Answer 153</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H155" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C156" s="6">
+        <v>154</v>
+      </c>
+      <c r="D156" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Filler Answer 154</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H156" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C157" s="2">
+        <v>155</v>
+      </c>
+      <c r="D157" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Filler Answer 155</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H157" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C158" s="2">
+        <v>156</v>
+      </c>
+      <c r="D158" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Filler Answer 156</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H158" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="159" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C159" s="6">
+        <v>157</v>
+      </c>
+      <c r="D159" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Filler Answer 157</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H159" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="160" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C160" s="2">
+        <v>158</v>
+      </c>
+      <c r="D160" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Filler Answer 158</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H160" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="161" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C161" s="2">
+        <v>159</v>
+      </c>
+      <c r="D161" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Filler Answer 159</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H161" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="162" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C162" s="6">
+        <v>160</v>
+      </c>
+      <c r="D162" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Filler Answer 160</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H162" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="163" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C163" s="2">
+        <v>161</v>
+      </c>
+      <c r="D163" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Filler Answer 161</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H163" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C164" s="2">
+        <v>162</v>
+      </c>
+      <c r="D164" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Filler Answer 162</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H164" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="165" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C165" s="6">
+        <v>163</v>
+      </c>
+      <c r="D165" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Filler Answer 163</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H165" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="166" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C166" s="2">
+        <v>164</v>
+      </c>
+      <c r="D166" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Filler Answer 164</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H166" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="167" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C167" s="2">
+        <v>165</v>
+      </c>
+      <c r="D167" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Filler Answer 165</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H167" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="168" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C168" s="6">
+        <v>166</v>
+      </c>
+      <c r="D168" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Filler Answer 166</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H168" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="169" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C169" s="2">
+        <v>167</v>
+      </c>
+      <c r="D169" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Filler Answer 167</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H169" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="170" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C170" s="2">
+        <v>168</v>
+      </c>
+      <c r="D170" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Filler Answer 168</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H170" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="171" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C171" s="6">
+        <v>169</v>
+      </c>
+      <c r="D171" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Filler Answer 169</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H171" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="172" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C172" s="2">
+        <v>170</v>
+      </c>
+      <c r="D172" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Filler Answer 170</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H172" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C173" s="2">
+        <v>171</v>
+      </c>
+      <c r="D173" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Filler Answer 171</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H173" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C174" s="6">
+        <v>172</v>
+      </c>
+      <c r="D174" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Filler Answer 172</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H174" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C175" s="2">
+        <v>173</v>
+      </c>
+      <c r="D175" s="3" t="str">
+        <f t="shared" ref="D175:D207" si="2">"Filler Answer"&amp;" "&amp;C175</f>
+        <v>Filler Answer 173</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H175" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="176" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C176" s="2">
+        <v>174</v>
+      </c>
+      <c r="D176" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Filler Answer 174</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G176" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H176" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="177" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C177" s="6">
+        <v>175</v>
+      </c>
+      <c r="D177" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Filler Answer 175</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G177" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H177" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="178" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C178" s="2">
+        <v>176</v>
+      </c>
+      <c r="D178" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Filler Answer 176</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H178" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="179" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C179" s="2">
+        <v>177</v>
+      </c>
+      <c r="D179" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Filler Answer 177</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G179" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H179" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="180" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C180" s="6">
+        <v>178</v>
+      </c>
+      <c r="D180" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Filler Answer 178</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G180" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H180" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="181" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C181" s="2">
+        <v>179</v>
+      </c>
+      <c r="D181" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Filler Answer 179</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H181" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="182" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C182" s="2">
+        <v>180</v>
+      </c>
+      <c r="D182" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Filler Answer 180</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G182" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H182" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="183" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C183" s="6">
+        <v>181</v>
+      </c>
+      <c r="D183" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Filler Answer 181</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G183" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H183" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="184" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C184" s="2">
+        <v>182</v>
+      </c>
+      <c r="D184" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Filler Answer 182</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G184" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H184" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="185" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C185" s="2">
+        <v>183</v>
+      </c>
+      <c r="D185" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Filler Answer 183</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G185" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H185" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="186" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C186" s="6">
+        <v>184</v>
+      </c>
+      <c r="D186" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Filler Answer 184</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G186" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H186" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="187" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C187" s="2">
+        <v>185</v>
+      </c>
+      <c r="D187" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Filler Answer 185</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G187" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H187" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="188" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C188" s="2">
+        <v>186</v>
+      </c>
+      <c r="D188" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Filler Answer 186</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G188" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H188" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="189" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C189" s="6">
+        <v>187</v>
+      </c>
+      <c r="D189" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Filler Answer 187</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G189" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H189" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="190" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C190" s="2">
+        <v>188</v>
+      </c>
+      <c r="D190" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Filler Answer 188</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G190" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H190" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C191" s="2">
+        <v>189</v>
+      </c>
+      <c r="D191" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Filler Answer 189</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G191" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H191" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C192" s="6">
+        <v>190</v>
+      </c>
+      <c r="D192" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Filler Answer 190</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G192" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H192" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C193" s="2">
+        <v>191</v>
+      </c>
+      <c r="D193" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Filler Answer 191</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G193" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H193" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="194" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C194" s="2">
+        <v>192</v>
+      </c>
+      <c r="D194" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Filler Answer 192</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G194" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H194" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="195" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C195" s="6">
+        <v>193</v>
+      </c>
+      <c r="D195" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Filler Answer 193</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G195" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H195" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="196" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C196" s="2">
+        <v>194</v>
+      </c>
+      <c r="D196" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Filler Answer 194</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G196" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H196" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="197" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C197" s="2">
+        <v>195</v>
+      </c>
+      <c r="D197" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Filler Answer 195</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G197" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H197" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="198" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C198" s="6">
+        <v>196</v>
+      </c>
+      <c r="D198" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Filler Answer 196</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G198" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H198" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="199" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C199" s="2">
+        <v>197</v>
+      </c>
+      <c r="D199" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Filler Answer 197</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G199" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H199" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="200" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C200" s="2">
+        <v>198</v>
+      </c>
+      <c r="D200" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Filler Answer 198</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G200" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H200" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="201" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C201" s="6">
+        <v>199</v>
+      </c>
+      <c r="D201" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Filler Answer 199</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G201" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H201" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="202" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C202" s="2">
+        <v>200</v>
+      </c>
+      <c r="D202" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Filler Answer 200</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F202" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G202" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H202" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="203" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C203" s="2">
+        <v>201</v>
+      </c>
+      <c r="D203" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Filler Answer 201</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F203" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G203" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H203" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="204" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C204" s="6">
+        <v>202</v>
+      </c>
+      <c r="D204" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Filler Answer 202</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G204" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H204" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="205" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C205" s="2">
+        <v>203</v>
+      </c>
+      <c r="D205" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Filler Answer 203</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F205" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G205" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H205" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="206" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C206" s="2">
+        <v>204</v>
+      </c>
+      <c r="D206" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Filler Answer 204</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F206" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G206" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H206" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="207" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C207" s="6">
+        <v>205</v>
+      </c>
+      <c r="D207" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>Filler Answer 205</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F207" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G207" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H207" s="2">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -4039,8 +7489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:J206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A147" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C160" sqref="C160"/>
+    <sheetView tabSelected="1" topLeftCell="A172" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="L206" sqref="L206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5271,29 +8721,31 @@
       </c>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B48" s="2">
+      <c r="B48" s="8">
         <v>45</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="D48" s="2">
+      <c r="D48" s="8">
         <v>0.1</v>
       </c>
-      <c r="E48" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2">
+      <c r="E48" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8">
         <v>1</v>
       </c>
-      <c r="J48" s="2"/>
+      <c r="J48" s="8">
+        <v>44</v>
+      </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B49" s="2">
@@ -5318,7 +8770,9 @@
       <c r="I49" s="2">
         <v>2</v>
       </c>
-      <c r="J49" s="2"/>
+      <c r="J49" s="2">
+        <v>45</v>
+      </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B50" s="2">
@@ -5343,7 +8797,9 @@
       <c r="I50" s="2">
         <v>12</v>
       </c>
-      <c r="J50" s="2"/>
+      <c r="J50" s="2">
+        <v>46</v>
+      </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B51" s="2">
@@ -5368,7 +8824,9 @@
       <c r="I51" s="2">
         <v>10</v>
       </c>
-      <c r="J51" s="2"/>
+      <c r="J51" s="2">
+        <v>47</v>
+      </c>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B52" s="2">
@@ -5393,7 +8851,9 @@
       <c r="I52" s="2">
         <v>5</v>
       </c>
-      <c r="J52" s="2"/>
+      <c r="J52" s="2">
+        <v>48</v>
+      </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B53" s="2">
@@ -5418,7 +8878,9 @@
       <c r="I53" s="2">
         <v>9</v>
       </c>
-      <c r="J53" s="2"/>
+      <c r="J53" s="2">
+        <v>49</v>
+      </c>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B54" s="2">
@@ -5443,7 +8905,9 @@
       <c r="I54" s="2">
         <v>5</v>
       </c>
-      <c r="J54" s="2"/>
+      <c r="J54" s="2">
+        <v>50</v>
+      </c>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B55" s="2">
@@ -5468,7 +8932,9 @@
       <c r="I55" s="2">
         <v>10</v>
       </c>
-      <c r="J55" s="2"/>
+      <c r="J55" s="2">
+        <v>51</v>
+      </c>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B56" s="2">
@@ -5493,7 +8959,9 @@
       <c r="I56" s="2">
         <v>10</v>
       </c>
-      <c r="J56" s="2"/>
+      <c r="J56" s="2">
+        <v>52</v>
+      </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B57" s="2">
@@ -5518,7 +8986,9 @@
       <c r="I57" s="2">
         <v>12</v>
       </c>
-      <c r="J57" s="2"/>
+      <c r="J57" s="2">
+        <v>53</v>
+      </c>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B58" s="2">
@@ -5543,7 +9013,9 @@
       <c r="I58" s="2">
         <v>10</v>
       </c>
-      <c r="J58" s="2"/>
+      <c r="J58" s="2">
+        <v>54</v>
+      </c>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B59" s="2">
@@ -5568,7 +9040,9 @@
       <c r="I59" s="2">
         <v>7</v>
       </c>
-      <c r="J59" s="2"/>
+      <c r="J59" s="2">
+        <v>55</v>
+      </c>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B60" s="2">
@@ -5593,7 +9067,9 @@
       <c r="I60" s="2">
         <v>7</v>
       </c>
-      <c r="J60" s="2"/>
+      <c r="J60" s="2">
+        <v>56</v>
+      </c>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B61" s="2">
@@ -5618,7 +9094,9 @@
       <c r="I61" s="2">
         <v>6</v>
       </c>
-      <c r="J61" s="2"/>
+      <c r="J61" s="2">
+        <v>57</v>
+      </c>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B62" s="2">
@@ -5643,7 +9121,9 @@
       <c r="I62" s="2">
         <v>6</v>
       </c>
-      <c r="J62" s="2"/>
+      <c r="J62" s="2">
+        <v>58</v>
+      </c>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B63" s="2">
@@ -5668,7 +9148,9 @@
       <c r="I63" s="2">
         <v>10</v>
       </c>
-      <c r="J63" s="2"/>
+      <c r="J63" s="2">
+        <v>59</v>
+      </c>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B64" s="2">
@@ -5693,7 +9175,9 @@
       <c r="I64" s="2">
         <v>10</v>
       </c>
-      <c r="J64" s="2"/>
+      <c r="J64" s="2">
+        <v>60</v>
+      </c>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B65" s="2">
@@ -5718,7 +9202,9 @@
       <c r="I65" s="2">
         <v>13</v>
       </c>
-      <c r="J65" s="2"/>
+      <c r="J65" s="2">
+        <v>61</v>
+      </c>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B66" s="2">
@@ -5743,7 +9229,9 @@
       <c r="I66" s="2">
         <v>13</v>
       </c>
-      <c r="J66" s="2"/>
+      <c r="J66" s="2">
+        <v>62</v>
+      </c>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B67" s="2">
@@ -5768,7 +9256,9 @@
       <c r="I67" s="2">
         <v>13</v>
       </c>
-      <c r="J67" s="2"/>
+      <c r="J67" s="2">
+        <v>63</v>
+      </c>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B68" s="2">
@@ -5793,7 +9283,9 @@
       <c r="I68" s="2">
         <v>13</v>
       </c>
-      <c r="J68" s="2"/>
+      <c r="J68" s="2">
+        <v>64</v>
+      </c>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B69" s="2">
@@ -5818,7 +9310,9 @@
       <c r="I69" s="2">
         <v>13</v>
       </c>
-      <c r="J69" s="2"/>
+      <c r="J69" s="2">
+        <v>65</v>
+      </c>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B70" s="2">
@@ -5843,7 +9337,9 @@
       <c r="I70" s="2">
         <v>13</v>
       </c>
-      <c r="J70" s="2"/>
+      <c r="J70" s="2">
+        <v>66</v>
+      </c>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B71" s="2">
@@ -5868,7 +9364,9 @@
       <c r="I71" s="2">
         <v>13</v>
       </c>
-      <c r="J71" s="2"/>
+      <c r="J71" s="2">
+        <v>67</v>
+      </c>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B72" s="2">
@@ -5893,7 +9391,9 @@
       <c r="I72" s="2">
         <v>13</v>
       </c>
-      <c r="J72" s="2"/>
+      <c r="J72" s="2">
+        <v>68</v>
+      </c>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B73" s="2">
@@ -5918,7 +9418,9 @@
       <c r="I73" s="2">
         <v>13</v>
       </c>
-      <c r="J73" s="2"/>
+      <c r="J73" s="2">
+        <v>69</v>
+      </c>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B74" s="2">
@@ -5943,7 +9445,9 @@
       <c r="I74" s="2">
         <v>13</v>
       </c>
-      <c r="J74" s="2"/>
+      <c r="J74" s="2">
+        <v>70</v>
+      </c>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B75" s="2">
@@ -5968,7 +9472,9 @@
       <c r="I75" s="2">
         <v>13</v>
       </c>
-      <c r="J75" s="2"/>
+      <c r="J75" s="2">
+        <v>71</v>
+      </c>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B76" s="2">
@@ -5993,7 +9499,9 @@
       <c r="I76" s="2">
         <v>13</v>
       </c>
-      <c r="J76" s="2"/>
+      <c r="J76" s="2">
+        <v>72</v>
+      </c>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B77" s="2">
@@ -6018,7 +9526,9 @@
       <c r="I77" s="2">
         <v>13</v>
       </c>
-      <c r="J77" s="2"/>
+      <c r="J77" s="2">
+        <v>73</v>
+      </c>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B78" s="2">
@@ -6043,7 +9553,9 @@
       <c r="I78" s="2">
         <v>13</v>
       </c>
-      <c r="J78" s="2"/>
+      <c r="J78" s="2">
+        <v>74</v>
+      </c>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B79" s="2">
@@ -6068,7 +9580,9 @@
       <c r="I79" s="2">
         <v>13</v>
       </c>
-      <c r="J79" s="2"/>
+      <c r="J79" s="2">
+        <v>75</v>
+      </c>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B80" s="2">
@@ -6093,7 +9607,9 @@
       <c r="I80" s="2">
         <v>3</v>
       </c>
-      <c r="J80" s="2"/>
+      <c r="J80" s="2">
+        <v>76</v>
+      </c>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B81" s="2">
@@ -6118,7 +9634,9 @@
       <c r="I81" s="2">
         <v>13</v>
       </c>
-      <c r="J81" s="2"/>
+      <c r="J81" s="2">
+        <v>77</v>
+      </c>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B82" s="2">
@@ -6143,7 +9661,9 @@
       <c r="I82" s="2">
         <v>3</v>
       </c>
-      <c r="J82" s="2"/>
+      <c r="J82" s="2">
+        <v>78</v>
+      </c>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B83" s="2">
@@ -6168,7 +9688,9 @@
       <c r="I83" s="2">
         <v>3</v>
       </c>
-      <c r="J83" s="2"/>
+      <c r="J83" s="2">
+        <v>79</v>
+      </c>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B84" s="2">
@@ -6193,7 +9715,9 @@
       <c r="I84" s="2">
         <v>8</v>
       </c>
-      <c r="J84" s="2"/>
+      <c r="J84" s="2">
+        <v>80</v>
+      </c>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B85" s="2">
@@ -6218,7 +9742,9 @@
       <c r="I85" s="2">
         <v>8</v>
       </c>
-      <c r="J85" s="2"/>
+      <c r="J85" s="2">
+        <v>81</v>
+      </c>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B86" s="2">
@@ -6243,7 +9769,9 @@
       <c r="I86" s="2">
         <v>8</v>
       </c>
-      <c r="J86" s="2"/>
+      <c r="J86" s="2">
+        <v>82</v>
+      </c>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B87" s="2">
@@ -6268,7 +9796,9 @@
       <c r="I87" s="2">
         <v>8</v>
       </c>
-      <c r="J87" s="2"/>
+      <c r="J87" s="2">
+        <v>83</v>
+      </c>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B88" s="2">
@@ -6293,7 +9823,9 @@
       <c r="I88" s="2">
         <v>8</v>
       </c>
-      <c r="J88" s="2"/>
+      <c r="J88" s="2">
+        <v>84</v>
+      </c>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B89" s="2">
@@ -6318,7 +9850,9 @@
       <c r="I89" s="2">
         <v>13</v>
       </c>
-      <c r="J89" s="2"/>
+      <c r="J89" s="2">
+        <v>85</v>
+      </c>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B90" s="2">
@@ -6343,7 +9877,9 @@
       <c r="I90" s="2">
         <v>3</v>
       </c>
-      <c r="J90" s="2"/>
+      <c r="J90" s="2">
+        <v>86</v>
+      </c>
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B91" s="2">
@@ -6368,7 +9904,9 @@
       <c r="I91" s="2">
         <v>3</v>
       </c>
-      <c r="J91" s="2"/>
+      <c r="J91" s="2">
+        <v>87</v>
+      </c>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B92" s="2">
@@ -6393,7 +9931,9 @@
       <c r="I92" s="2">
         <v>3</v>
       </c>
-      <c r="J92" s="2"/>
+      <c r="J92" s="2">
+        <v>88</v>
+      </c>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B93" s="2">
@@ -6418,7 +9958,9 @@
       <c r="I93" s="2">
         <v>3</v>
       </c>
-      <c r="J93" s="2"/>
+      <c r="J93" s="2">
+        <v>89</v>
+      </c>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B94" s="2">
@@ -6443,7 +9985,9 @@
       <c r="I94" s="2">
         <v>3</v>
       </c>
-      <c r="J94" s="2"/>
+      <c r="J94" s="2">
+        <v>90</v>
+      </c>
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B95" s="2">
@@ -6468,7 +10012,9 @@
       <c r="I95" s="2">
         <v>10</v>
       </c>
-      <c r="J95" s="2"/>
+      <c r="J95" s="2">
+        <v>91</v>
+      </c>
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B96" s="2">
@@ -6493,7 +10039,9 @@
       <c r="I96" s="2">
         <v>10</v>
       </c>
-      <c r="J96" s="2"/>
+      <c r="J96" s="2">
+        <v>92</v>
+      </c>
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B97" s="2">
@@ -6518,7 +10066,9 @@
       <c r="I97" s="2">
         <v>10</v>
       </c>
-      <c r="J97" s="2"/>
+      <c r="J97" s="2">
+        <v>93</v>
+      </c>
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B98" s="2">
@@ -6543,7 +10093,9 @@
       <c r="I98" s="2">
         <v>10</v>
       </c>
-      <c r="J98" s="2"/>
+      <c r="J98" s="2">
+        <v>94</v>
+      </c>
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B99" s="2">
@@ -6568,7 +10120,9 @@
       <c r="I99" s="2">
         <v>10</v>
       </c>
-      <c r="J99" s="2"/>
+      <c r="J99" s="2">
+        <v>95</v>
+      </c>
     </row>
     <row r="100" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B100" s="2">
@@ -6593,7 +10147,9 @@
       <c r="I100" s="2">
         <v>4</v>
       </c>
-      <c r="J100" s="2"/>
+      <c r="J100" s="2">
+        <v>96</v>
+      </c>
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B101" s="2">
@@ -6618,7 +10174,9 @@
       <c r="I101" s="2">
         <v>10</v>
       </c>
-      <c r="J101" s="2"/>
+      <c r="J101" s="2">
+        <v>97</v>
+      </c>
     </row>
     <row r="102" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B102" s="2">
@@ -6643,7 +10201,9 @@
       <c r="I102" s="2">
         <v>3</v>
       </c>
-      <c r="J102" s="2"/>
+      <c r="J102" s="2">
+        <v>98</v>
+      </c>
     </row>
     <row r="103" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B103" s="2">
@@ -6668,7 +10228,9 @@
       <c r="I103" s="2">
         <v>3</v>
       </c>
-      <c r="J103" s="2"/>
+      <c r="J103" s="2">
+        <v>99</v>
+      </c>
     </row>
     <row r="104" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B104" s="2">
@@ -6693,7 +10255,9 @@
       <c r="I104" s="2">
         <v>3</v>
       </c>
-      <c r="J104" s="2"/>
+      <c r="J104" s="2">
+        <v>100</v>
+      </c>
     </row>
     <row r="105" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B105" s="2">
@@ -6718,7 +10282,9 @@
       <c r="I105" s="2">
         <v>3</v>
       </c>
-      <c r="J105" s="2"/>
+      <c r="J105" s="2">
+        <v>101</v>
+      </c>
     </row>
     <row r="106" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B106" s="2">
@@ -6743,7 +10309,9 @@
       <c r="I106" s="2">
         <v>13</v>
       </c>
-      <c r="J106" s="2"/>
+      <c r="J106" s="2">
+        <v>102</v>
+      </c>
     </row>
     <row r="107" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B107" s="2">
@@ -6768,7 +10336,9 @@
       <c r="I107" s="2">
         <v>3</v>
       </c>
-      <c r="J107" s="2"/>
+      <c r="J107" s="2">
+        <v>103</v>
+      </c>
     </row>
     <row r="108" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B108" s="2">
@@ -6793,7 +10363,9 @@
       <c r="I108" s="2">
         <v>3</v>
       </c>
-      <c r="J108" s="2"/>
+      <c r="J108" s="2">
+        <v>104</v>
+      </c>
     </row>
     <row r="109" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B109" s="2">
@@ -6818,7 +10390,9 @@
       <c r="I109" s="2">
         <v>3</v>
       </c>
-      <c r="J109" s="2"/>
+      <c r="J109" s="2">
+        <v>105</v>
+      </c>
     </row>
     <row r="110" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B110" s="2">
@@ -6843,7 +10417,9 @@
       <c r="I110" s="2">
         <v>3</v>
       </c>
-      <c r="J110" s="2"/>
+      <c r="J110" s="2">
+        <v>106</v>
+      </c>
     </row>
     <row r="111" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B111" s="2">
@@ -6868,7 +10444,9 @@
       <c r="I111" s="2">
         <v>3</v>
       </c>
-      <c r="J111" s="2"/>
+      <c r="J111" s="2">
+        <v>107</v>
+      </c>
     </row>
     <row r="112" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B112" s="2">
@@ -6893,7 +10471,9 @@
       <c r="I112" s="2">
         <v>3</v>
       </c>
-      <c r="J112" s="2"/>
+      <c r="J112" s="2">
+        <v>108</v>
+      </c>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B113" s="2">
@@ -6918,7 +10498,9 @@
       <c r="I113" s="2">
         <v>3</v>
       </c>
-      <c r="J113" s="2"/>
+      <c r="J113" s="2">
+        <v>109</v>
+      </c>
     </row>
     <row r="114" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B114" s="2">
@@ -6943,7 +10525,9 @@
       <c r="I114" s="2">
         <v>3</v>
       </c>
-      <c r="J114" s="2"/>
+      <c r="J114" s="2">
+        <v>110</v>
+      </c>
     </row>
     <row r="115" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B115" s="2">
@@ -6968,7 +10552,9 @@
       <c r="I115" s="2">
         <v>3</v>
       </c>
-      <c r="J115" s="2"/>
+      <c r="J115" s="2">
+        <v>111</v>
+      </c>
     </row>
     <row r="116" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B116" s="2">
@@ -6993,7 +10579,9 @@
       <c r="I116" s="2">
         <v>3</v>
       </c>
-      <c r="J116" s="2"/>
+      <c r="J116" s="2">
+        <v>112</v>
+      </c>
     </row>
     <row r="117" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B117" s="2">
@@ -7018,7 +10606,9 @@
       <c r="I117" s="2">
         <v>3</v>
       </c>
-      <c r="J117" s="2"/>
+      <c r="J117" s="2">
+        <v>113</v>
+      </c>
     </row>
     <row r="118" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B118" s="2">
@@ -7043,7 +10633,9 @@
       <c r="I118" s="2">
         <v>3</v>
       </c>
-      <c r="J118" s="2"/>
+      <c r="J118" s="2">
+        <v>114</v>
+      </c>
     </row>
     <row r="119" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B119" s="2">
@@ -7068,7 +10660,9 @@
       <c r="I119" s="2">
         <v>3</v>
       </c>
-      <c r="J119" s="2"/>
+      <c r="J119" s="2">
+        <v>115</v>
+      </c>
     </row>
     <row r="120" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B120" s="2">
@@ -7093,7 +10687,9 @@
       <c r="I120" s="2">
         <v>3</v>
       </c>
-      <c r="J120" s="2"/>
+      <c r="J120" s="2">
+        <v>116</v>
+      </c>
     </row>
     <row r="121" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B121" s="2">
@@ -7118,7 +10714,9 @@
       <c r="I121" s="2">
         <v>14</v>
       </c>
-      <c r="J121" s="2"/>
+      <c r="J121" s="2">
+        <v>117</v>
+      </c>
     </row>
     <row r="122" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B122" s="2">
@@ -7143,7 +10741,9 @@
       <c r="I122" s="2">
         <v>14</v>
       </c>
-      <c r="J122" s="2"/>
+      <c r="J122" s="2">
+        <v>118</v>
+      </c>
     </row>
     <row r="123" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B123" s="2">
@@ -7168,7 +10768,9 @@
       <c r="I123" s="2">
         <v>14</v>
       </c>
-      <c r="J123" s="2"/>
+      <c r="J123" s="2">
+        <v>119</v>
+      </c>
     </row>
     <row r="124" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B124" s="2">
@@ -7193,7 +10795,9 @@
       <c r="I124" s="2">
         <v>14</v>
       </c>
-      <c r="J124" s="2"/>
+      <c r="J124" s="2">
+        <v>120</v>
+      </c>
     </row>
     <row r="125" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B125" s="2">
@@ -7218,7 +10822,9 @@
       <c r="I125" s="2">
         <v>14</v>
       </c>
-      <c r="J125" s="2"/>
+      <c r="J125" s="2">
+        <v>121</v>
+      </c>
     </row>
     <row r="126" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B126" s="2">
@@ -7243,7 +10849,9 @@
       <c r="I126" s="2">
         <v>14</v>
       </c>
-      <c r="J126" s="2"/>
+      <c r="J126" s="2">
+        <v>122</v>
+      </c>
     </row>
     <row r="127" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B127" s="2">
@@ -7268,7 +10876,9 @@
       <c r="I127" s="2">
         <v>14</v>
       </c>
-      <c r="J127" s="2"/>
+      <c r="J127" s="2">
+        <v>123</v>
+      </c>
     </row>
     <row r="128" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B128" s="2">
@@ -7293,7 +10903,9 @@
       <c r="I128" s="2">
         <v>14</v>
       </c>
-      <c r="J128" s="2"/>
+      <c r="J128" s="2">
+        <v>124</v>
+      </c>
     </row>
     <row r="129" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B129" s="2">
@@ -7318,7 +10930,9 @@
       <c r="I129" s="2">
         <v>14</v>
       </c>
-      <c r="J129" s="2"/>
+      <c r="J129" s="2">
+        <v>125</v>
+      </c>
     </row>
     <row r="130" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B130" s="2">
@@ -7343,7 +10957,9 @@
       <c r="I130" s="2">
         <v>14</v>
       </c>
-      <c r="J130" s="2"/>
+      <c r="J130" s="2">
+        <v>126</v>
+      </c>
     </row>
     <row r="131" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B131" s="2">
@@ -7368,7 +10984,9 @@
       <c r="I131" s="2">
         <v>14</v>
       </c>
-      <c r="J131" s="2"/>
+      <c r="J131" s="2">
+        <v>127</v>
+      </c>
     </row>
     <row r="132" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B132" s="2">
@@ -7393,7 +11011,9 @@
       <c r="I132" s="2">
         <v>14</v>
       </c>
-      <c r="J132" s="2"/>
+      <c r="J132" s="2">
+        <v>128</v>
+      </c>
     </row>
     <row r="133" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B133" s="2">
@@ -7418,7 +11038,9 @@
       <c r="I133" s="2">
         <v>14</v>
       </c>
-      <c r="J133" s="2"/>
+      <c r="J133" s="2">
+        <v>129</v>
+      </c>
     </row>
     <row r="134" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B134" s="2">
@@ -7443,7 +11065,9 @@
       <c r="I134" s="2">
         <v>14</v>
       </c>
-      <c r="J134" s="2"/>
+      <c r="J134" s="2">
+        <v>130</v>
+      </c>
     </row>
     <row r="135" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B135" s="2">
@@ -7468,7 +11092,9 @@
       <c r="I135" s="2">
         <v>14</v>
       </c>
-      <c r="J135" s="2"/>
+      <c r="J135" s="2">
+        <v>131</v>
+      </c>
     </row>
     <row r="136" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B136" s="2">
@@ -7493,7 +11119,9 @@
       <c r="I136" s="2">
         <v>14</v>
       </c>
-      <c r="J136" s="2"/>
+      <c r="J136" s="2">
+        <v>132</v>
+      </c>
     </row>
     <row r="137" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B137" s="2">
@@ -7518,7 +11146,9 @@
       <c r="I137" s="2">
         <v>3</v>
       </c>
-      <c r="J137" s="2"/>
+      <c r="J137" s="2">
+        <v>133</v>
+      </c>
     </row>
     <row r="138" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B138" s="2">
@@ -7543,7 +11173,9 @@
       <c r="I138" s="2">
         <v>5</v>
       </c>
-      <c r="J138" s="2"/>
+      <c r="J138" s="2">
+        <v>134</v>
+      </c>
     </row>
     <row r="139" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B139" s="2">
@@ -7568,7 +11200,9 @@
       <c r="I139" s="2">
         <v>5</v>
       </c>
-      <c r="J139" s="2"/>
+      <c r="J139" s="2">
+        <v>135</v>
+      </c>
     </row>
     <row r="140" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B140" s="2">
@@ -7593,7 +11227,9 @@
       <c r="I140" s="2">
         <v>5</v>
       </c>
-      <c r="J140" s="2"/>
+      <c r="J140" s="2">
+        <v>136</v>
+      </c>
     </row>
     <row r="141" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B141" s="2">
@@ -7618,7 +11254,9 @@
       <c r="I141" s="2">
         <v>5</v>
       </c>
-      <c r="J141" s="2"/>
+      <c r="J141" s="2">
+        <v>137</v>
+      </c>
     </row>
     <row r="142" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B142" s="2">
@@ -7643,7 +11281,9 @@
       <c r="I142" s="2">
         <v>5</v>
       </c>
-      <c r="J142" s="2"/>
+      <c r="J142" s="2">
+        <v>138</v>
+      </c>
     </row>
     <row r="143" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B143" s="2">
@@ -7668,7 +11308,9 @@
       <c r="I143" s="2">
         <v>5</v>
       </c>
-      <c r="J143" s="2"/>
+      <c r="J143" s="2">
+        <v>139</v>
+      </c>
     </row>
     <row r="144" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B144" s="2">
@@ -7693,7 +11335,9 @@
       <c r="I144" s="2">
         <v>5</v>
       </c>
-      <c r="J144" s="2"/>
+      <c r="J144" s="2">
+        <v>140</v>
+      </c>
     </row>
     <row r="145" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B145" s="2">
@@ -7718,7 +11362,9 @@
       <c r="I145" s="2">
         <v>5</v>
       </c>
-      <c r="J145" s="2"/>
+      <c r="J145" s="2">
+        <v>141</v>
+      </c>
     </row>
     <row r="146" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B146" s="2">
@@ -7743,7 +11389,9 @@
       <c r="I146" s="2">
         <v>15</v>
       </c>
-      <c r="J146" s="2"/>
+      <c r="J146" s="2">
+        <v>142</v>
+      </c>
     </row>
     <row r="147" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B147" s="2">
@@ -7768,7 +11416,9 @@
       <c r="I147" s="2">
         <v>15</v>
       </c>
-      <c r="J147" s="2"/>
+      <c r="J147" s="2">
+        <v>143</v>
+      </c>
     </row>
     <row r="148" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B148" s="2">
@@ -7793,7 +11443,9 @@
       <c r="I148" s="2">
         <v>15</v>
       </c>
-      <c r="J148" s="2"/>
+      <c r="J148" s="2">
+        <v>144</v>
+      </c>
     </row>
     <row r="149" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B149" s="2">
@@ -7818,7 +11470,9 @@
       <c r="I149" s="2">
         <v>15</v>
       </c>
-      <c r="J149" s="2"/>
+      <c r="J149" s="2">
+        <v>145</v>
+      </c>
     </row>
     <row r="150" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B150" s="2">
@@ -7843,7 +11497,9 @@
       <c r="I150" s="2">
         <v>15</v>
       </c>
-      <c r="J150" s="2"/>
+      <c r="J150" s="2">
+        <v>146</v>
+      </c>
     </row>
     <row r="151" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B151" s="2">
@@ -7868,7 +11524,9 @@
       <c r="I151" s="2">
         <v>15</v>
       </c>
-      <c r="J151" s="2"/>
+      <c r="J151" s="2">
+        <v>147</v>
+      </c>
     </row>
     <row r="152" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B152" s="2">
@@ -7893,7 +11551,9 @@
       <c r="I152" s="2">
         <v>15</v>
       </c>
-      <c r="J152" s="2"/>
+      <c r="J152" s="2">
+        <v>148</v>
+      </c>
     </row>
     <row r="153" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B153" s="2">
@@ -7918,7 +11578,9 @@
       <c r="I153" s="2">
         <v>15</v>
       </c>
-      <c r="J153" s="2"/>
+      <c r="J153" s="2">
+        <v>149</v>
+      </c>
     </row>
     <row r="154" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B154" s="2">
@@ -7943,7 +11605,9 @@
       <c r="I154" s="2">
         <v>15</v>
       </c>
-      <c r="J154" s="2"/>
+      <c r="J154" s="2">
+        <v>150</v>
+      </c>
     </row>
     <row r="155" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B155" s="2">
@@ -7968,7 +11632,9 @@
       <c r="I155" s="2">
         <v>15</v>
       </c>
-      <c r="J155" s="2"/>
+      <c r="J155" s="2">
+        <v>151</v>
+      </c>
     </row>
     <row r="156" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B156" s="2">
@@ -7993,7 +11659,9 @@
       <c r="I156" s="2">
         <v>15</v>
       </c>
-      <c r="J156" s="2"/>
+      <c r="J156" s="2">
+        <v>152</v>
+      </c>
     </row>
     <row r="157" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B157" s="2">
@@ -8018,7 +11686,9 @@
       <c r="I157" s="2">
         <v>15</v>
       </c>
-      <c r="J157" s="2"/>
+      <c r="J157" s="2">
+        <v>153</v>
+      </c>
     </row>
     <row r="158" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B158" s="2">
@@ -8043,7 +11713,9 @@
       <c r="I158" s="2">
         <v>15</v>
       </c>
-      <c r="J158" s="2"/>
+      <c r="J158" s="2">
+        <v>154</v>
+      </c>
     </row>
     <row r="159" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B159" s="2">
@@ -8068,7 +11740,9 @@
       <c r="I159" s="2">
         <v>15</v>
       </c>
-      <c r="J159" s="2"/>
+      <c r="J159" s="2">
+        <v>155</v>
+      </c>
     </row>
     <row r="160" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B160" s="2">
@@ -8093,7 +11767,9 @@
       <c r="I160" s="2">
         <v>15</v>
       </c>
-      <c r="J160" s="2"/>
+      <c r="J160" s="2">
+        <v>156</v>
+      </c>
     </row>
     <row r="161" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B161" s="2">
@@ -8118,7 +11794,9 @@
       <c r="I161" s="2">
         <v>15</v>
       </c>
-      <c r="J161" s="2"/>
+      <c r="J161" s="2">
+        <v>157</v>
+      </c>
     </row>
     <row r="162" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B162" s="2">
@@ -8143,7 +11821,9 @@
       <c r="I162" s="2">
         <v>15</v>
       </c>
-      <c r="J162" s="2"/>
+      <c r="J162" s="2">
+        <v>158</v>
+      </c>
     </row>
     <row r="163" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B163" s="2">
@@ -8168,7 +11848,9 @@
       <c r="I163" s="2">
         <v>15</v>
       </c>
-      <c r="J163" s="2"/>
+      <c r="J163" s="2">
+        <v>159</v>
+      </c>
     </row>
     <row r="164" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B164" s="2">
@@ -8193,7 +11875,9 @@
       <c r="I164" s="2">
         <v>15</v>
       </c>
-      <c r="J164" s="2"/>
+      <c r="J164" s="2">
+        <v>160</v>
+      </c>
     </row>
     <row r="165" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B165" s="2">
@@ -8218,7 +11902,9 @@
       <c r="I165" s="2">
         <v>15</v>
       </c>
-      <c r="J165" s="2"/>
+      <c r="J165" s="2">
+        <v>161</v>
+      </c>
     </row>
     <row r="166" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B166" s="2">
@@ -8243,7 +11929,9 @@
       <c r="I166" s="2">
         <v>15</v>
       </c>
-      <c r="J166" s="2"/>
+      <c r="J166" s="2">
+        <v>162</v>
+      </c>
     </row>
     <row r="167" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B167" s="2">
@@ -8268,7 +11956,9 @@
       <c r="I167" s="2">
         <v>17</v>
       </c>
-      <c r="J167" s="2"/>
+      <c r="J167" s="2">
+        <v>163</v>
+      </c>
     </row>
     <row r="168" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B168" s="2">
@@ -8293,7 +11983,9 @@
       <c r="I168" s="2">
         <v>17</v>
       </c>
-      <c r="J168" s="2"/>
+      <c r="J168" s="2">
+        <v>164</v>
+      </c>
     </row>
     <row r="169" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B169" s="2">
@@ -8318,7 +12010,9 @@
       <c r="I169" s="2">
         <v>9</v>
       </c>
-      <c r="J169" s="2"/>
+      <c r="J169" s="2">
+        <v>165</v>
+      </c>
     </row>
     <row r="170" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B170" s="2">
@@ -8343,7 +12037,9 @@
       <c r="I170" s="2">
         <v>9</v>
       </c>
-      <c r="J170" s="2"/>
+      <c r="J170" s="2">
+        <v>166</v>
+      </c>
     </row>
     <row r="171" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B171" s="2">
@@ -8368,7 +12064,9 @@
       <c r="I171" s="2">
         <v>9</v>
       </c>
-      <c r="J171" s="2"/>
+      <c r="J171" s="2">
+        <v>167</v>
+      </c>
     </row>
     <row r="172" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B172" s="2">
@@ -8393,7 +12091,9 @@
       <c r="I172" s="2">
         <v>9</v>
       </c>
-      <c r="J172" s="2"/>
+      <c r="J172" s="2">
+        <v>168</v>
+      </c>
     </row>
     <row r="173" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B173" s="2">
@@ -8418,7 +12118,9 @@
       <c r="I173" s="2">
         <v>2</v>
       </c>
-      <c r="J173" s="2"/>
+      <c r="J173" s="2">
+        <v>169</v>
+      </c>
     </row>
     <row r="174" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B174" s="2">
@@ -8443,7 +12145,9 @@
       <c r="I174" s="2">
         <v>1</v>
       </c>
-      <c r="J174" s="2"/>
+      <c r="J174" s="2">
+        <v>170</v>
+      </c>
     </row>
     <row r="175" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B175" s="2">
@@ -8468,7 +12172,9 @@
       <c r="I175" s="2">
         <v>3</v>
       </c>
-      <c r="J175" s="2"/>
+      <c r="J175" s="2">
+        <v>171</v>
+      </c>
     </row>
     <row r="176" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B176" s="2">
@@ -8493,7 +12199,9 @@
       <c r="I176" s="2">
         <v>3</v>
       </c>
-      <c r="J176" s="2"/>
+      <c r="J176" s="2">
+        <v>172</v>
+      </c>
     </row>
     <row r="177" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B177" s="2">
@@ -8518,7 +12226,9 @@
       <c r="I177" s="2">
         <v>3</v>
       </c>
-      <c r="J177" s="2"/>
+      <c r="J177" s="2">
+        <v>173</v>
+      </c>
     </row>
     <row r="178" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B178" s="2">
@@ -8543,7 +12253,9 @@
       <c r="I178" s="2">
         <v>1</v>
       </c>
-      <c r="J178" s="2"/>
+      <c r="J178" s="2">
+        <v>174</v>
+      </c>
     </row>
     <row r="179" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B179" s="2">
@@ -8568,7 +12280,9 @@
       <c r="I179" s="2">
         <v>1</v>
       </c>
-      <c r="J179" s="2"/>
+      <c r="J179" s="2">
+        <v>175</v>
+      </c>
     </row>
     <row r="180" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B180" s="2">
@@ -8593,7 +12307,9 @@
       <c r="I180" s="2">
         <v>1</v>
       </c>
-      <c r="J180" s="2"/>
+      <c r="J180" s="2">
+        <v>176</v>
+      </c>
     </row>
     <row r="181" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B181" s="2">
@@ -8618,7 +12334,9 @@
       <c r="I181" s="2">
         <v>1</v>
       </c>
-      <c r="J181" s="2"/>
+      <c r="J181" s="2">
+        <v>177</v>
+      </c>
     </row>
     <row r="182" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B182" s="2">
@@ -8643,7 +12361,9 @@
       <c r="I182" s="2">
         <v>1</v>
       </c>
-      <c r="J182" s="2"/>
+      <c r="J182" s="2">
+        <v>178</v>
+      </c>
     </row>
     <row r="183" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B183" s="2">
@@ -8668,7 +12388,9 @@
       <c r="I183" s="2">
         <v>2</v>
       </c>
-      <c r="J183" s="2"/>
+      <c r="J183" s="2">
+        <v>179</v>
+      </c>
     </row>
     <row r="184" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B184" s="2">
@@ -8693,7 +12415,9 @@
       <c r="I184" s="2">
         <v>1</v>
       </c>
-      <c r="J184" s="2"/>
+      <c r="J184" s="2">
+        <v>180</v>
+      </c>
     </row>
     <row r="185" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B185" s="2">
@@ -8718,7 +12442,9 @@
       <c r="I185" s="2">
         <v>2</v>
       </c>
-      <c r="J185" s="2"/>
+      <c r="J185" s="2">
+        <v>181</v>
+      </c>
     </row>
     <row r="186" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B186" s="2">
@@ -8743,7 +12469,9 @@
       <c r="I186" s="2">
         <v>2</v>
       </c>
-      <c r="J186" s="2"/>
+      <c r="J186" s="2">
+        <v>182</v>
+      </c>
     </row>
     <row r="187" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B187" s="2">
@@ -8768,7 +12496,9 @@
       <c r="I187" s="2">
         <v>2</v>
       </c>
-      <c r="J187" s="2"/>
+      <c r="J187" s="2">
+        <v>183</v>
+      </c>
     </row>
     <row r="188" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B188" s="2">
@@ -8793,7 +12523,9 @@
       <c r="I188" s="2">
         <v>2</v>
       </c>
-      <c r="J188" s="2"/>
+      <c r="J188" s="2">
+        <v>184</v>
+      </c>
     </row>
     <row r="189" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B189" s="2">
@@ -8818,7 +12550,9 @@
       <c r="I189" s="2">
         <v>7</v>
       </c>
-      <c r="J189" s="2"/>
+      <c r="J189" s="2">
+        <v>185</v>
+      </c>
     </row>
     <row r="190" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B190" s="2">
@@ -8843,7 +12577,9 @@
       <c r="I190" s="2">
         <v>7</v>
       </c>
-      <c r="J190" s="2"/>
+      <c r="J190" s="2">
+        <v>186</v>
+      </c>
     </row>
     <row r="191" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B191" s="2">
@@ -8868,7 +12604,9 @@
       <c r="I191" s="2">
         <v>7</v>
       </c>
-      <c r="J191" s="2"/>
+      <c r="J191" s="2">
+        <v>187</v>
+      </c>
     </row>
     <row r="192" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B192" s="2">
@@ -8893,7 +12631,9 @@
       <c r="I192" s="2">
         <v>7</v>
       </c>
-      <c r="J192" s="2"/>
+      <c r="J192" s="2">
+        <v>188</v>
+      </c>
     </row>
     <row r="193" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B193" s="2">
@@ -8918,7 +12658,9 @@
       <c r="I193" s="2">
         <v>7</v>
       </c>
-      <c r="J193" s="2"/>
+      <c r="J193" s="2">
+        <v>189</v>
+      </c>
     </row>
     <row r="194" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B194" s="2">
@@ -8943,7 +12685,9 @@
       <c r="I194" s="2">
         <v>7</v>
       </c>
-      <c r="J194" s="2"/>
+      <c r="J194" s="2">
+        <v>190</v>
+      </c>
     </row>
     <row r="195" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B195" s="2">
@@ -8968,7 +12712,9 @@
       <c r="I195" s="2">
         <v>6</v>
       </c>
-      <c r="J195" s="2"/>
+      <c r="J195" s="2">
+        <v>191</v>
+      </c>
     </row>
     <row r="196" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B196" s="2">
@@ -8993,7 +12739,9 @@
       <c r="I196" s="2">
         <v>6</v>
       </c>
-      <c r="J196" s="2"/>
+      <c r="J196" s="2">
+        <v>192</v>
+      </c>
     </row>
     <row r="197" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B197" s="2">
@@ -9018,7 +12766,9 @@
       <c r="I197" s="2">
         <v>6</v>
       </c>
-      <c r="J197" s="2"/>
+      <c r="J197" s="2">
+        <v>193</v>
+      </c>
     </row>
     <row r="198" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B198" s="2">
@@ -9043,7 +12793,9 @@
       <c r="I198" s="2">
         <v>6</v>
       </c>
-      <c r="J198" s="2"/>
+      <c r="J198" s="2">
+        <v>194</v>
+      </c>
     </row>
     <row r="199" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B199" s="2">
@@ -9068,7 +12820,9 @@
       <c r="I199" s="2">
         <v>6</v>
       </c>
-      <c r="J199" s="2"/>
+      <c r="J199" s="2">
+        <v>195</v>
+      </c>
     </row>
     <row r="200" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B200" s="2">
@@ -9093,7 +12847,9 @@
       <c r="I200" s="2">
         <v>18</v>
       </c>
-      <c r="J200" s="2"/>
+      <c r="J200" s="2">
+        <v>196</v>
+      </c>
     </row>
     <row r="201" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B201" s="2">
@@ -9118,7 +12874,9 @@
       <c r="I201" s="2">
         <v>14</v>
       </c>
-      <c r="J201" s="2"/>
+      <c r="J201" s="2">
+        <v>197</v>
+      </c>
     </row>
     <row r="202" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B202" s="2">
@@ -9143,7 +12901,9 @@
       <c r="I202" s="2">
         <v>18</v>
       </c>
-      <c r="J202" s="2"/>
+      <c r="J202" s="2">
+        <v>198</v>
+      </c>
     </row>
     <row r="203" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B203" s="2">
@@ -9168,7 +12928,9 @@
       <c r="I203" s="2">
         <v>14</v>
       </c>
-      <c r="J203" s="2"/>
+      <c r="J203" s="2">
+        <v>199</v>
+      </c>
     </row>
     <row r="204" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B204" s="2">
@@ -9193,7 +12955,9 @@
       <c r="I204" s="2">
         <v>18</v>
       </c>
-      <c r="J204" s="2"/>
+      <c r="J204" s="2">
+        <v>200</v>
+      </c>
     </row>
     <row r="205" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B205" s="2">
@@ -9218,7 +12982,9 @@
       <c r="I205" s="2">
         <v>18</v>
       </c>
-      <c r="J205" s="2"/>
+      <c r="J205" s="2">
+        <v>201</v>
+      </c>
     </row>
     <row r="206" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B206" s="2">
@@ -9243,7 +13009,9 @@
       <c r="I206">
         <v>14</v>
       </c>
-      <c r="J206" s="2"/>
+      <c r="J206" s="2">
+        <v>202</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/seed.xlsx
+++ b/seed.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zacharymargolies/Desktop/coding/coding-question-trivia-server/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54A69F81-CDD5-FE48-9953-BDC8BBA1D8BF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{990A63D0-BC04-894B-B9D8-C1200D8732F8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="460" windowWidth="14400" windowHeight="16440" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="facts" sheetId="5" r:id="rId1"/>
-    <sheet name="answers" sheetId="3" r:id="rId2"/>
-    <sheet name="questions" sheetId="2" r:id="rId3"/>
-    <sheet name="SRFacts" sheetId="6" r:id="rId4"/>
+    <sheet name="topics" sheetId="4" r:id="rId1"/>
+    <sheet name="facts" sheetId="5" r:id="rId2"/>
+    <sheet name="answers" sheetId="3" r:id="rId3"/>
+    <sheet name="questions" sheetId="2" r:id="rId4"/>
     <sheet name="users" sheetId="8" r:id="rId5"/>
-    <sheet name="SRQuestions" sheetId="7" r:id="rId6"/>
-    <sheet name="topics" sheetId="4" r:id="rId7"/>
+    <sheet name="SRFacts" sheetId="6" r:id="rId6"/>
+    <sheet name="SRQuestions" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="Quizlet_Questions" localSheetId="2">questions!#REF!</definedName>
-    <definedName name="Quizlet_Questions_1" localSheetId="2">questions!$C$47:$D$206</definedName>
+    <definedName name="Quizlet_Questions" localSheetId="3">questions!#REF!</definedName>
+    <definedName name="Quizlet_Questions_1" localSheetId="3">questions!$C$47:$D$206</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -1913,10 +1913,367 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="C2:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:H20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="115.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C4" s="2">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C5" s="2">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C6" s="2">
+        <v>4</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C7" s="2">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C8" s="2">
+        <v>6</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C9" s="2">
+        <v>7</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C10" s="2">
+        <v>8</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C11" s="2">
+        <v>9</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C12" s="2">
+        <v>10</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C13" s="2">
+        <v>11</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C14" s="2">
+        <v>12</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="E14" t="s">
+        <v>332</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C15" s="2">
+        <v>13</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="E15" t="s">
+        <v>333</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C16" s="2">
+        <v>14</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="E16" t="s">
+        <v>336</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C17" s="2">
+        <v>15</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="E17" t="s">
+        <v>353</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C18" s="2">
+        <v>16</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="E18" t="s">
+        <v>334</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C19" s="2">
+        <v>17</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="E19" t="s">
+        <v>354</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C20" s="2">
+        <v>18</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="E20" t="s">
+        <v>335</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:J37"/>
   <sheetViews>
-    <sheetView zoomScale="61" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="61" workbookViewId="0">
       <selection activeCell="C3" sqref="C3:J37"/>
     </sheetView>
   </sheetViews>
@@ -2869,7 +3226,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C2:H207"/>
   <sheetViews>
@@ -7171,7 +7528,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B3:J206"/>
   <sheetViews>
@@ -12705,782 +13062,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E76C6668-86E4-B146-936D-BFEC324FF8BD}">
-  <dimension ref="B3:G40"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:G40"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B4" t="b">
-        <v>0</v>
-      </c>
-      <c r="C4" t="b">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B5" t="b">
-        <v>0</v>
-      </c>
-      <c r="C5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B6" t="b">
-        <v>0</v>
-      </c>
-      <c r="C6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6">
-        <v>3</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B7" t="b">
-        <v>0</v>
-      </c>
-      <c r="C7" t="b">
-        <v>0</v>
-      </c>
-      <c r="D7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7">
-        <v>4</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B8" t="b">
-        <v>0</v>
-      </c>
-      <c r="C8" t="b">
-        <v>0</v>
-      </c>
-      <c r="D8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8">
-        <v>5</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B9" t="b">
-        <v>0</v>
-      </c>
-      <c r="C9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9">
-        <v>6</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B10" t="b">
-        <v>0</v>
-      </c>
-      <c r="C10" t="b">
-        <v>0</v>
-      </c>
-      <c r="D10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10">
-        <v>7</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B11" t="b">
-        <v>0</v>
-      </c>
-      <c r="C11" t="b">
-        <v>0</v>
-      </c>
-      <c r="D11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11">
-        <v>8</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B12" t="b">
-        <v>0</v>
-      </c>
-      <c r="C12" t="b">
-        <v>0</v>
-      </c>
-      <c r="D12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12">
-        <v>9</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B13" t="b">
-        <v>0</v>
-      </c>
-      <c r="C13" t="b">
-        <v>0</v>
-      </c>
-      <c r="D13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13">
-        <v>10</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B14" t="b">
-        <v>0</v>
-      </c>
-      <c r="C14" t="b">
-        <v>0</v>
-      </c>
-      <c r="D14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14">
-        <v>11</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B15" t="b">
-        <v>0</v>
-      </c>
-      <c r="C15" t="b">
-        <v>0</v>
-      </c>
-      <c r="D15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15">
-        <v>12</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B16" t="b">
-        <v>0</v>
-      </c>
-      <c r="C16" t="b">
-        <v>0</v>
-      </c>
-      <c r="D16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16">
-        <v>13</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B17" t="b">
-        <v>0</v>
-      </c>
-      <c r="C17" t="b">
-        <v>0</v>
-      </c>
-      <c r="D17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17">
-        <v>14</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B18" t="b">
-        <v>0</v>
-      </c>
-      <c r="C18" t="b">
-        <v>0</v>
-      </c>
-      <c r="D18" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" t="s">
-        <v>34</v>
-      </c>
-      <c r="F18">
-        <v>15</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B19" t="b">
-        <v>0</v>
-      </c>
-      <c r="C19" t="b">
-        <v>0</v>
-      </c>
-      <c r="D19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" t="s">
-        <v>34</v>
-      </c>
-      <c r="F19">
-        <v>16</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B20" t="b">
-        <v>0</v>
-      </c>
-      <c r="C20" t="b">
-        <v>0</v>
-      </c>
-      <c r="D20" t="s">
-        <v>34</v>
-      </c>
-      <c r="E20" t="s">
-        <v>34</v>
-      </c>
-      <c r="F20">
-        <v>17</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B21" t="b">
-        <v>0</v>
-      </c>
-      <c r="C21" t="b">
-        <v>0</v>
-      </c>
-      <c r="D21" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" t="s">
-        <v>34</v>
-      </c>
-      <c r="F21">
-        <v>18</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B22" t="b">
-        <v>0</v>
-      </c>
-      <c r="C22" t="b">
-        <v>0</v>
-      </c>
-      <c r="D22" t="s">
-        <v>34</v>
-      </c>
-      <c r="E22" t="s">
-        <v>34</v>
-      </c>
-      <c r="F22">
-        <v>19</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B23" t="b">
-        <v>0</v>
-      </c>
-      <c r="C23" t="b">
-        <v>0</v>
-      </c>
-      <c r="D23" t="s">
-        <v>34</v>
-      </c>
-      <c r="E23" t="s">
-        <v>34</v>
-      </c>
-      <c r="F23">
-        <v>20</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B24" t="b">
-        <v>0</v>
-      </c>
-      <c r="C24" t="b">
-        <v>0</v>
-      </c>
-      <c r="D24" t="s">
-        <v>34</v>
-      </c>
-      <c r="E24" t="s">
-        <v>34</v>
-      </c>
-      <c r="F24">
-        <v>21</v>
-      </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B25" t="b">
-        <v>0</v>
-      </c>
-      <c r="C25" t="b">
-        <v>0</v>
-      </c>
-      <c r="D25" t="s">
-        <v>34</v>
-      </c>
-      <c r="E25" t="s">
-        <v>34</v>
-      </c>
-      <c r="F25">
-        <v>22</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B26" t="b">
-        <v>0</v>
-      </c>
-      <c r="C26" t="b">
-        <v>0</v>
-      </c>
-      <c r="D26" t="s">
-        <v>34</v>
-      </c>
-      <c r="E26" t="s">
-        <v>34</v>
-      </c>
-      <c r="F26">
-        <v>23</v>
-      </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B27" t="b">
-        <v>0</v>
-      </c>
-      <c r="C27" t="b">
-        <v>0</v>
-      </c>
-      <c r="D27" t="s">
-        <v>34</v>
-      </c>
-      <c r="E27" t="s">
-        <v>34</v>
-      </c>
-      <c r="F27">
-        <v>24</v>
-      </c>
-      <c r="G27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B28" t="b">
-        <v>0</v>
-      </c>
-      <c r="C28" t="b">
-        <v>0</v>
-      </c>
-      <c r="D28" t="s">
-        <v>34</v>
-      </c>
-      <c r="E28" t="s">
-        <v>34</v>
-      </c>
-      <c r="F28">
-        <v>25</v>
-      </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B29" t="b">
-        <v>0</v>
-      </c>
-      <c r="C29" t="b">
-        <v>0</v>
-      </c>
-      <c r="D29" t="s">
-        <v>34</v>
-      </c>
-      <c r="E29" t="s">
-        <v>34</v>
-      </c>
-      <c r="F29">
-        <v>26</v>
-      </c>
-      <c r="G29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B30" t="b">
-        <v>0</v>
-      </c>
-      <c r="C30" t="b">
-        <v>0</v>
-      </c>
-      <c r="D30" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30" t="s">
-        <v>34</v>
-      </c>
-      <c r="F30">
-        <v>27</v>
-      </c>
-      <c r="G30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B31" t="b">
-        <v>1</v>
-      </c>
-      <c r="C31" t="b">
-        <v>1</v>
-      </c>
-      <c r="D31" t="s">
-        <v>34</v>
-      </c>
-      <c r="E31" t="s">
-        <v>34</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B32" t="b">
-        <v>0</v>
-      </c>
-      <c r="C32" t="b">
-        <v>1</v>
-      </c>
-      <c r="D32" t="s">
-        <v>34</v>
-      </c>
-      <c r="E32" t="s">
-        <v>34</v>
-      </c>
-      <c r="F32">
-        <v>2</v>
-      </c>
-      <c r="G32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B33" t="b">
-        <v>0</v>
-      </c>
-      <c r="C33" t="b">
-        <v>1</v>
-      </c>
-      <c r="D33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E33" t="s">
-        <v>34</v>
-      </c>
-      <c r="F33">
-        <v>3</v>
-      </c>
-      <c r="G33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B34" t="b">
-        <v>0</v>
-      </c>
-      <c r="C34" t="b">
-        <v>1</v>
-      </c>
-      <c r="D34" t="s">
-        <v>34</v>
-      </c>
-      <c r="E34" t="s">
-        <v>34</v>
-      </c>
-      <c r="F34">
-        <v>4</v>
-      </c>
-      <c r="G34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B35" t="b">
-        <v>1</v>
-      </c>
-      <c r="C35" t="b">
-        <v>1</v>
-      </c>
-      <c r="D35" t="s">
-        <v>34</v>
-      </c>
-      <c r="E35" t="s">
-        <v>34</v>
-      </c>
-      <c r="F35">
-        <v>5</v>
-      </c>
-      <c r="G35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B36" t="b">
-        <v>1</v>
-      </c>
-      <c r="C36" t="b">
-        <v>0</v>
-      </c>
-      <c r="D36" t="s">
-        <v>34</v>
-      </c>
-      <c r="E36" t="s">
-        <v>34</v>
-      </c>
-      <c r="F36">
-        <v>6</v>
-      </c>
-      <c r="G36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B37" t="b">
-        <v>1</v>
-      </c>
-      <c r="C37" t="b">
-        <v>0</v>
-      </c>
-      <c r="D37" t="s">
-        <v>34</v>
-      </c>
-      <c r="E37" t="s">
-        <v>34</v>
-      </c>
-      <c r="F37">
-        <v>7</v>
-      </c>
-      <c r="G37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B38" t="b">
-        <v>0</v>
-      </c>
-      <c r="C38" t="b">
-        <v>0</v>
-      </c>
-      <c r="D38" t="s">
-        <v>34</v>
-      </c>
-      <c r="E38" t="s">
-        <v>34</v>
-      </c>
-      <c r="F38">
-        <v>8</v>
-      </c>
-      <c r="G38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B39" t="b">
-        <v>0</v>
-      </c>
-      <c r="C39" t="b">
-        <v>0</v>
-      </c>
-      <c r="D39" t="s">
-        <v>34</v>
-      </c>
-      <c r="E39" t="s">
-        <v>34</v>
-      </c>
-      <c r="F39">
-        <v>9</v>
-      </c>
-      <c r="G39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B40" t="b">
-        <v>0</v>
-      </c>
-      <c r="C40" t="b">
-        <v>0</v>
-      </c>
-      <c r="D40" t="s">
-        <v>34</v>
-      </c>
-      <c r="E40" t="s">
-        <v>34</v>
-      </c>
-      <c r="F40">
-        <v>10</v>
-      </c>
-      <c r="G40">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14395976-94F4-224D-AB08-C5C66B22F5F0}">
   <dimension ref="B3:H8"/>
@@ -13604,10 +13185,786 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E76C6668-86E4-B146-936D-BFEC324FF8BD}">
+  <dimension ref="B3:G40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:G40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B5" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B7" t="b">
+        <v>0</v>
+      </c>
+      <c r="C7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B9" t="b">
+        <v>0</v>
+      </c>
+      <c r="C9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9">
+        <v>6</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C10" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10">
+        <v>7</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B11" t="b">
+        <v>0</v>
+      </c>
+      <c r="C11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11">
+        <v>8</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B12" t="b">
+        <v>0</v>
+      </c>
+      <c r="C12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12">
+        <v>9</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B13" t="b">
+        <v>0</v>
+      </c>
+      <c r="C13" t="b">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13">
+        <v>10</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B14" t="b">
+        <v>0</v>
+      </c>
+      <c r="C14" t="b">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14">
+        <v>11</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B15" t="b">
+        <v>0</v>
+      </c>
+      <c r="C15" t="b">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15">
+        <v>12</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C16" t="b">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16">
+        <v>13</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B17" t="b">
+        <v>0</v>
+      </c>
+      <c r="C17" t="b">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17">
+        <v>14</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B18" t="b">
+        <v>0</v>
+      </c>
+      <c r="C18" t="b">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18">
+        <v>15</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B19" t="b">
+        <v>0</v>
+      </c>
+      <c r="C19" t="b">
+        <v>0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19">
+        <v>16</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B20" t="b">
+        <v>0</v>
+      </c>
+      <c r="C20" t="b">
+        <v>0</v>
+      </c>
+      <c r="D20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20">
+        <v>17</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B21" t="b">
+        <v>0</v>
+      </c>
+      <c r="C21" t="b">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21">
+        <v>18</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B22" t="b">
+        <v>0</v>
+      </c>
+      <c r="C22" t="b">
+        <v>0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22">
+        <v>19</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B23" t="b">
+        <v>0</v>
+      </c>
+      <c r="C23" t="b">
+        <v>0</v>
+      </c>
+      <c r="D23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23">
+        <v>20</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C24" t="b">
+        <v>0</v>
+      </c>
+      <c r="D24" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24">
+        <v>21</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B25" t="b">
+        <v>0</v>
+      </c>
+      <c r="C25" t="b">
+        <v>0</v>
+      </c>
+      <c r="D25" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" t="s">
+        <v>34</v>
+      </c>
+      <c r="F25">
+        <v>22</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B26" t="b">
+        <v>0</v>
+      </c>
+      <c r="C26" t="b">
+        <v>0</v>
+      </c>
+      <c r="D26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" t="s">
+        <v>34</v>
+      </c>
+      <c r="F26">
+        <v>23</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B27" t="b">
+        <v>0</v>
+      </c>
+      <c r="C27" t="b">
+        <v>0</v>
+      </c>
+      <c r="D27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F27">
+        <v>24</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B28" t="b">
+        <v>0</v>
+      </c>
+      <c r="C28" t="b">
+        <v>0</v>
+      </c>
+      <c r="D28" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" t="s">
+        <v>34</v>
+      </c>
+      <c r="F28">
+        <v>25</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B29" t="b">
+        <v>0</v>
+      </c>
+      <c r="C29" t="b">
+        <v>0</v>
+      </c>
+      <c r="D29" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" t="s">
+        <v>34</v>
+      </c>
+      <c r="F29">
+        <v>26</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B30" t="b">
+        <v>0</v>
+      </c>
+      <c r="C30" t="b">
+        <v>0</v>
+      </c>
+      <c r="D30" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" t="s">
+        <v>34</v>
+      </c>
+      <c r="F30">
+        <v>27</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B31" t="b">
+        <v>1</v>
+      </c>
+      <c r="C31" t="b">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>34</v>
+      </c>
+      <c r="E31" t="s">
+        <v>34</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B32" t="b">
+        <v>0</v>
+      </c>
+      <c r="C32" t="b">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>34</v>
+      </c>
+      <c r="E32" t="s">
+        <v>34</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="G32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B33" t="b">
+        <v>0</v>
+      </c>
+      <c r="C33" t="b">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>34</v>
+      </c>
+      <c r="E33" t="s">
+        <v>34</v>
+      </c>
+      <c r="F33">
+        <v>3</v>
+      </c>
+      <c r="G33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B34" t="b">
+        <v>0</v>
+      </c>
+      <c r="C34" t="b">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>34</v>
+      </c>
+      <c r="E34" t="s">
+        <v>34</v>
+      </c>
+      <c r="F34">
+        <v>4</v>
+      </c>
+      <c r="G34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B35" t="b">
+        <v>1</v>
+      </c>
+      <c r="C35" t="b">
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>34</v>
+      </c>
+      <c r="F35">
+        <v>5</v>
+      </c>
+      <c r="G35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B36" t="b">
+        <v>1</v>
+      </c>
+      <c r="C36" t="b">
+        <v>0</v>
+      </c>
+      <c r="D36" t="s">
+        <v>34</v>
+      </c>
+      <c r="E36" t="s">
+        <v>34</v>
+      </c>
+      <c r="F36">
+        <v>6</v>
+      </c>
+      <c r="G36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B37" t="b">
+        <v>1</v>
+      </c>
+      <c r="C37" t="b">
+        <v>0</v>
+      </c>
+      <c r="D37" t="s">
+        <v>34</v>
+      </c>
+      <c r="E37" t="s">
+        <v>34</v>
+      </c>
+      <c r="F37">
+        <v>7</v>
+      </c>
+      <c r="G37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B38" t="b">
+        <v>0</v>
+      </c>
+      <c r="C38" t="b">
+        <v>0</v>
+      </c>
+      <c r="D38" t="s">
+        <v>34</v>
+      </c>
+      <c r="E38" t="s">
+        <v>34</v>
+      </c>
+      <c r="F38">
+        <v>8</v>
+      </c>
+      <c r="G38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B39" t="b">
+        <v>0</v>
+      </c>
+      <c r="C39" t="b">
+        <v>0</v>
+      </c>
+      <c r="D39" t="s">
+        <v>34</v>
+      </c>
+      <c r="E39" t="s">
+        <v>34</v>
+      </c>
+      <c r="F39">
+        <v>9</v>
+      </c>
+      <c r="G39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B40" t="b">
+        <v>0</v>
+      </c>
+      <c r="C40" t="b">
+        <v>0</v>
+      </c>
+      <c r="D40" t="s">
+        <v>34</v>
+      </c>
+      <c r="E40" t="s">
+        <v>34</v>
+      </c>
+      <c r="F40">
+        <v>10</v>
+      </c>
+      <c r="G40">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E18498A1-5986-5746-A6EC-91EED91C0F63}">
   <dimension ref="B3:H33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4:H33"/>
     </sheetView>
   </sheetViews>
@@ -14330,361 +14687,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="C2:H20"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="115.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C3" s="2">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C4" s="2">
-        <v>2</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C5" s="2">
-        <v>3</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C6" s="2">
-        <v>4</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C7" s="2">
-        <v>5</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C8" s="2">
-        <v>6</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C9" s="2">
-        <v>7</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C10" s="2">
-        <v>8</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C11" s="2">
-        <v>9</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C12" s="2">
-        <v>10</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C13" s="2">
-        <v>11</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13" t="s">
-        <v>55</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C14" s="2">
-        <v>12</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="E14" t="s">
-        <v>332</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C15" s="2">
-        <v>13</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="E15" t="s">
-        <v>333</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C16" s="2">
-        <v>14</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="E16" t="s">
-        <v>336</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C17" s="2">
-        <v>15</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="E17" t="s">
-        <v>353</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C18" s="2">
-        <v>16</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="E18" t="s">
-        <v>334</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C19" s="2">
-        <v>17</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="E19" t="s">
-        <v>354</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C20" s="2">
-        <v>18</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="E20" t="s">
-        <v>335</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
 </file>
--- a/seed.xlsx
+++ b/seed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zacharymargolies/Desktop/coding/coding-question-trivia-server/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{990A63D0-BC04-894B-B9D8-C1200D8732F8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19956313-9A5B-8249-80F7-818C452E9C4E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="460" windowWidth="14400" windowHeight="16440" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="topics" sheetId="4" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1945" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2011" uniqueCount="356">
   <si>
     <t>id</t>
   </si>
@@ -1137,7 +1137,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1920,13 +1920,13 @@
       <selection activeCell="C3" sqref="C3:H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="115.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="3:8">
       <c r="C2" s="5" t="s">
         <v>0</v>
       </c>
@@ -1946,7 +1946,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="3:8">
       <c r="C3" s="2">
         <v>1</v>
       </c>
@@ -1964,7 +1964,7 @@
       </c>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:8">
       <c r="C4" s="2">
         <v>2</v>
       </c>
@@ -1982,7 +1982,7 @@
       </c>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:8">
       <c r="C5" s="2">
         <v>3</v>
       </c>
@@ -2000,7 +2000,7 @@
       </c>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:8">
       <c r="C6" s="2">
         <v>4</v>
       </c>
@@ -2018,7 +2018,7 @@
       </c>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:8">
       <c r="C7" s="2">
         <v>5</v>
       </c>
@@ -2036,7 +2036,7 @@
       </c>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:8">
       <c r="C8" s="2">
         <v>6</v>
       </c>
@@ -2054,7 +2054,7 @@
       </c>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:8">
       <c r="C9" s="2">
         <v>7</v>
       </c>
@@ -2072,7 +2072,7 @@
       </c>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:8">
       <c r="C10" s="2">
         <v>8</v>
       </c>
@@ -2090,7 +2090,7 @@
       </c>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:8">
       <c r="C11" s="2">
         <v>9</v>
       </c>
@@ -2108,7 +2108,7 @@
       </c>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="3:8">
       <c r="C12" s="2">
         <v>10</v>
       </c>
@@ -2126,7 +2126,7 @@
       </c>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="3:8">
       <c r="C13" s="2">
         <v>11</v>
       </c>
@@ -2144,7 +2144,7 @@
       </c>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="3:8">
       <c r="C14" s="2">
         <v>12</v>
       </c>
@@ -2161,7 +2161,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="3:8">
       <c r="C15" s="2">
         <v>13</v>
       </c>
@@ -2178,7 +2178,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="3:8">
       <c r="C16" s="2">
         <v>14</v>
       </c>
@@ -2195,7 +2195,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:7">
       <c r="C17" s="2">
         <v>15</v>
       </c>
@@ -2212,7 +2212,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:7">
       <c r="C18" s="2">
         <v>16</v>
       </c>
@@ -2229,7 +2229,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:7">
       <c r="C19" s="2">
         <v>17</v>
       </c>
@@ -2246,7 +2246,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:7">
       <c r="C20" s="2">
         <v>18</v>
       </c>
@@ -2273,18 +2273,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:J37"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="61" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="61" workbookViewId="0">
       <selection activeCell="C3" sqref="C3:J37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="4" max="4" width="60.5" customWidth="1"/>
     <col min="5" max="5" width="72.83203125" customWidth="1"/>
     <col min="6" max="6" width="31.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="3:10">
       <c r="C2" t="s">
         <v>0</v>
       </c>
@@ -2310,7 +2310,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="3:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="3:10" ht="17">
       <c r="C3" s="2">
         <v>1</v>
       </c>
@@ -2336,7 +2336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="3:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:10" ht="17">
       <c r="C4" s="2">
         <v>2</v>
       </c>
@@ -2362,7 +2362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="3:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:10" ht="17">
       <c r="C5" s="2">
         <v>3</v>
       </c>
@@ -2388,7 +2388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="3:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:10" ht="17">
       <c r="C6" s="2">
         <v>4</v>
       </c>
@@ -2414,7 +2414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="3:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:10" ht="34">
       <c r="C7" s="2">
         <v>5</v>
       </c>
@@ -2440,7 +2440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="3:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:10" ht="34">
       <c r="C8" s="2">
         <v>6</v>
       </c>
@@ -2466,7 +2466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="3:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:10" ht="17">
       <c r="C9" s="2">
         <v>7</v>
       </c>
@@ -2492,7 +2492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="3:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:10" ht="17">
       <c r="C10" s="2">
         <v>8</v>
       </c>
@@ -2518,7 +2518,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="3:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:10" ht="34">
       <c r="C11" s="2">
         <v>9</v>
       </c>
@@ -2544,7 +2544,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="3:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="12" spans="3:10" ht="51">
       <c r="C12" s="2">
         <v>10</v>
       </c>
@@ -2570,7 +2570,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="3:10" ht="85" x14ac:dyDescent="0.2">
+    <row r="13" spans="3:10" ht="85">
       <c r="C13" s="2">
         <v>11</v>
       </c>
@@ -2596,7 +2596,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="3:10" ht="119" x14ac:dyDescent="0.2">
+    <row r="14" spans="3:10" ht="119">
       <c r="C14" s="2">
         <v>12</v>
       </c>
@@ -2622,7 +2622,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="3:10" ht="102" x14ac:dyDescent="0.2">
+    <row r="15" spans="3:10" ht="102">
       <c r="C15" s="2">
         <v>13</v>
       </c>
@@ -2648,7 +2648,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="3:10" ht="153" x14ac:dyDescent="0.2">
+    <row r="16" spans="3:10" ht="153">
       <c r="C16" s="2">
         <v>14</v>
       </c>
@@ -2674,7 +2674,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="3:10" ht="85" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:10" ht="85">
       <c r="C17" s="2">
         <v>15</v>
       </c>
@@ -2700,7 +2700,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="3:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:10" ht="51">
       <c r="C18" s="2">
         <v>16</v>
       </c>
@@ -2726,7 +2726,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="3:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:10" ht="51">
       <c r="C19" s="2">
         <v>17</v>
       </c>
@@ -2752,7 +2752,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="3:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:10" ht="51">
       <c r="C20" s="2">
         <v>18</v>
       </c>
@@ -2778,7 +2778,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="3:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:10" ht="51">
       <c r="C21" s="2">
         <v>19</v>
       </c>
@@ -2804,7 +2804,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="3:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:10" ht="51">
       <c r="C22" s="2">
         <v>20</v>
       </c>
@@ -2830,7 +2830,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="3:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:10" ht="51">
       <c r="C23" s="2">
         <v>21</v>
       </c>
@@ -2856,7 +2856,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="3:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:10" ht="51">
       <c r="C24" s="2">
         <v>22</v>
       </c>
@@ -2882,7 +2882,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="3:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:10" ht="51">
       <c r="C25" s="2">
         <v>23</v>
       </c>
@@ -2908,7 +2908,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="3:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:10" ht="51">
       <c r="C26" s="2">
         <v>24</v>
       </c>
@@ -2934,7 +2934,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="3:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:10" ht="51">
       <c r="C27" s="2">
         <v>25</v>
       </c>
@@ -2960,7 +2960,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="3:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:10" ht="51">
       <c r="C28" s="2">
         <v>26</v>
       </c>
@@ -2986,7 +2986,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="3:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:10" ht="51">
       <c r="C29" s="2">
         <v>27</v>
       </c>
@@ -3012,7 +3012,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="3:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:10" ht="51">
       <c r="C30" s="2">
         <v>28</v>
       </c>
@@ -3038,7 +3038,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="3:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:10" ht="51">
       <c r="C31" s="2">
         <v>29</v>
       </c>
@@ -3064,7 +3064,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="3:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:10" ht="51">
       <c r="C32" s="2">
         <v>30</v>
       </c>
@@ -3090,7 +3090,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="3:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:10" ht="51">
       <c r="C33" s="2">
         <v>31</v>
       </c>
@@ -3116,7 +3116,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="3:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:10" ht="51">
       <c r="C34" s="2">
         <v>32</v>
       </c>
@@ -3142,7 +3142,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="3:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:10" ht="51">
       <c r="C35" s="2">
         <v>33</v>
       </c>
@@ -3168,7 +3168,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="3:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:10" ht="51">
       <c r="C36" s="2">
         <v>34</v>
       </c>
@@ -3194,7 +3194,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="3:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:10" ht="51">
       <c r="C37" s="2">
         <v>35</v>
       </c>
@@ -3234,13 +3234,13 @@
       <selection activeCell="C3" sqref="C3:H207"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="4" max="4" width="79.83203125" customWidth="1"/>
     <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="3:8">
       <c r="C2" t="s">
         <v>0</v>
       </c>
@@ -3260,7 +3260,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="3:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="3" spans="3:8" ht="51">
       <c r="C3" s="2">
         <v>1</v>
       </c>
@@ -3280,7 +3280,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:8" ht="17">
       <c r="C4" s="2">
         <v>2</v>
       </c>
@@ -3300,7 +3300,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:8" ht="17">
       <c r="C5" s="2">
         <v>3</v>
       </c>
@@ -3320,7 +3320,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="3:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:8" ht="34">
       <c r="C6" s="6">
         <v>4</v>
       </c>
@@ -3340,7 +3340,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="3:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:8" ht="34">
       <c r="C7" s="2">
         <v>5</v>
       </c>
@@ -3360,7 +3360,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="3:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:8" ht="34">
       <c r="C8" s="2">
         <v>6</v>
       </c>
@@ -3380,7 +3380,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="3:8" ht="85" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:8" ht="85">
       <c r="C9" s="6">
         <v>7</v>
       </c>
@@ -3400,7 +3400,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="3:8" ht="85" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:8" ht="85">
       <c r="C10" s="6">
         <v>8</v>
       </c>
@@ -3420,7 +3420,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="3:8" ht="85" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:8" ht="85">
       <c r="C11" s="6">
         <v>9</v>
       </c>
@@ -3440,7 +3440,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="3:8" ht="17">
       <c r="C12" s="6">
         <v>10</v>
       </c>
@@ -3460,7 +3460,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="3:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="13" spans="3:8" ht="51">
       <c r="C13" s="6">
         <v>11</v>
       </c>
@@ -3480,7 +3480,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="3:8" ht="17">
       <c r="C14" s="2">
         <v>12</v>
       </c>
@@ -3500,7 +3500,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="3:8" ht="17">
       <c r="C15" s="2">
         <v>13</v>
       </c>
@@ -3520,7 +3520,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="3:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="16" spans="3:8" ht="51">
       <c r="C16" s="2">
         <v>14</v>
       </c>
@@ -3540,7 +3540,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:8" ht="17">
       <c r="C17" s="2">
         <v>15</v>
       </c>
@@ -3560,7 +3560,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:8" ht="17">
       <c r="C18" s="2">
         <v>16</v>
       </c>
@@ -3580,7 +3580,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="3:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:8" ht="34">
       <c r="C19" s="2">
         <v>17</v>
       </c>
@@ -3600,7 +3600,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="3:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:8" ht="34">
       <c r="C20" s="2">
         <v>18</v>
       </c>
@@ -3620,7 +3620,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="3:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:8" ht="34">
       <c r="C21" s="2">
         <v>19</v>
       </c>
@@ -3640,7 +3640,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="3:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:8" ht="34">
       <c r="C22" s="2">
         <v>20</v>
       </c>
@@ -3660,7 +3660,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="3:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:8" ht="34">
       <c r="C23" s="2">
         <v>21</v>
       </c>
@@ -3680,7 +3680,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="3:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:8" ht="34">
       <c r="C24" s="6">
         <v>22</v>
       </c>
@@ -3700,7 +3700,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="3:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:8" ht="51">
       <c r="C25" s="2">
         <v>23</v>
       </c>
@@ -3720,7 +3720,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="3:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:8" ht="17" customHeight="1">
       <c r="C26" s="6">
         <v>24</v>
       </c>
@@ -3740,7 +3740,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="3:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:8" ht="51">
       <c r="C27" s="2">
         <v>25</v>
       </c>
@@ -3760,7 +3760,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="3:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:8" ht="34">
       <c r="C28" s="2">
         <v>26</v>
       </c>
@@ -3780,7 +3780,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="3:8" ht="85" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:8" ht="85">
       <c r="C29" s="6">
         <v>27</v>
       </c>
@@ -3800,7 +3800,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="3:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:8" ht="34">
       <c r="C30" s="2">
         <v>28</v>
       </c>
@@ -3820,7 +3820,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:8" ht="17">
       <c r="C31" s="2">
         <v>29</v>
       </c>
@@ -3840,7 +3840,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:8" ht="17">
       <c r="C32" s="2">
         <v>30</v>
       </c>
@@ -3860,7 +3860,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="3:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:8" ht="51">
       <c r="C33" s="2">
         <v>31</v>
       </c>
@@ -3880,7 +3880,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="3:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:8" ht="34">
       <c r="C34" s="2">
         <v>32</v>
       </c>
@@ -3900,7 +3900,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="3:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:8" ht="51">
       <c r="C35" s="2">
         <v>33</v>
       </c>
@@ -3920,7 +3920,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="3:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:8" ht="68">
       <c r="C36" s="6">
         <v>34</v>
       </c>
@@ -3940,7 +3940,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="3:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:8" ht="34">
       <c r="C37" s="2">
         <v>35</v>
       </c>
@@ -3960,7 +3960,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="3:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:8" ht="34">
       <c r="C38" s="2">
         <v>36</v>
       </c>
@@ -3980,7 +3980,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="3:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:8" ht="34">
       <c r="C39" s="6">
         <v>37</v>
       </c>
@@ -4000,7 +4000,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="3:8" ht="153" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:8" ht="153">
       <c r="C40" s="2">
         <v>38</v>
       </c>
@@ -4020,7 +4020,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="3:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:8" ht="68">
       <c r="C41" s="2">
         <v>39</v>
       </c>
@@ -4040,7 +4040,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="3:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:8" ht="34">
       <c r="C42" s="6">
         <v>40</v>
       </c>
@@ -4060,7 +4060,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="3:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:8" ht="68">
       <c r="C43" s="2">
         <v>41</v>
       </c>
@@ -4080,7 +4080,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="3:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:8" ht="34">
       <c r="C44" s="2">
         <v>42</v>
       </c>
@@ -4100,7 +4100,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:8" ht="17">
       <c r="C45" s="6">
         <v>43</v>
       </c>
@@ -4120,7 +4120,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:8" ht="17">
       <c r="C46" s="2">
         <v>44</v>
       </c>
@@ -4141,7 +4141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:8" ht="17">
       <c r="C47" s="2">
         <v>45</v>
       </c>
@@ -4162,7 +4162,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:8" ht="17">
       <c r="C48" s="6">
         <v>46</v>
       </c>
@@ -4183,7 +4183,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:8" ht="17">
       <c r="C49" s="2">
         <v>47</v>
       </c>
@@ -4204,7 +4204,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:8" ht="17">
       <c r="C50" s="2">
         <v>48</v>
       </c>
@@ -4225,7 +4225,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:8" ht="17">
       <c r="C51" s="6">
         <v>49</v>
       </c>
@@ -4246,7 +4246,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:8" ht="17">
       <c r="C52" s="2">
         <v>50</v>
       </c>
@@ -4267,7 +4267,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:8" ht="17">
       <c r="C53" s="2">
         <v>51</v>
       </c>
@@ -4288,7 +4288,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:8" ht="17">
       <c r="C54" s="6">
         <v>52</v>
       </c>
@@ -4309,7 +4309,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:8" ht="17">
       <c r="C55" s="2">
         <v>53</v>
       </c>
@@ -4330,7 +4330,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:8" ht="17">
       <c r="C56" s="2">
         <v>54</v>
       </c>
@@ -4351,7 +4351,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:8" ht="17">
       <c r="C57" s="6">
         <v>55</v>
       </c>
@@ -4372,7 +4372,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:8" ht="17">
       <c r="C58" s="2">
         <v>56</v>
       </c>
@@ -4393,7 +4393,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:8" ht="17">
       <c r="C59" s="2">
         <v>57</v>
       </c>
@@ -4414,7 +4414,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="60" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:8" ht="17">
       <c r="C60" s="6">
         <v>58</v>
       </c>
@@ -4435,7 +4435,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:8" ht="17">
       <c r="C61" s="2">
         <v>59</v>
       </c>
@@ -4456,7 +4456,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:8" ht="17">
       <c r="C62" s="2">
         <v>60</v>
       </c>
@@ -4477,7 +4477,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:8" ht="17">
       <c r="C63" s="6">
         <v>61</v>
       </c>
@@ -4498,7 +4498,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="64" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:8" ht="17">
       <c r="C64" s="2">
         <v>62</v>
       </c>
@@ -4519,7 +4519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="65" spans="3:8" ht="17">
       <c r="C65" s="2">
         <v>63</v>
       </c>
@@ -4540,7 +4540,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="66" spans="3:8" ht="17">
       <c r="C66" s="6">
         <v>64</v>
       </c>
@@ -4561,7 +4561,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="67" spans="3:8" ht="17">
       <c r="C67" s="2">
         <v>65</v>
       </c>
@@ -4582,7 +4582,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="68" spans="3:8" ht="17">
       <c r="C68" s="2">
         <v>66</v>
       </c>
@@ -4603,7 +4603,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="69" spans="3:8" ht="17">
       <c r="C69" s="6">
         <v>67</v>
       </c>
@@ -4624,7 +4624,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="70" spans="3:8" ht="17">
       <c r="C70" s="2">
         <v>68</v>
       </c>
@@ -4645,7 +4645,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="71" spans="3:8" ht="17">
       <c r="C71" s="2">
         <v>69</v>
       </c>
@@ -4666,7 +4666,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="72" spans="3:8" ht="17">
       <c r="C72" s="6">
         <v>70</v>
       </c>
@@ -4687,7 +4687,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="73" spans="3:8" ht="17">
       <c r="C73" s="2">
         <v>71</v>
       </c>
@@ -4708,7 +4708,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="74" spans="3:8" ht="17">
       <c r="C74" s="2">
         <v>72</v>
       </c>
@@ -4729,7 +4729,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="75" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="75" spans="3:8" ht="17">
       <c r="C75" s="6">
         <v>73</v>
       </c>
@@ -4750,7 +4750,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="76" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="76" spans="3:8" ht="17">
       <c r="C76" s="2">
         <v>74</v>
       </c>
@@ -4771,7 +4771,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="77" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="77" spans="3:8" ht="17">
       <c r="C77" s="2">
         <v>75</v>
       </c>
@@ -4792,7 +4792,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="78" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="78" spans="3:8" ht="17">
       <c r="C78" s="6">
         <v>76</v>
       </c>
@@ -4813,7 +4813,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="79" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="79" spans="3:8" ht="17">
       <c r="C79" s="2">
         <v>77</v>
       </c>
@@ -4834,7 +4834,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="80" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="80" spans="3:8" ht="17">
       <c r="C80" s="2">
         <v>78</v>
       </c>
@@ -4855,7 +4855,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="81" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:8" ht="17">
       <c r="C81" s="6">
         <v>79</v>
       </c>
@@ -4876,7 +4876,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="82" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:8" ht="17">
       <c r="C82" s="2">
         <v>80</v>
       </c>
@@ -4897,7 +4897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:8" ht="17">
       <c r="C83" s="2">
         <v>81</v>
       </c>
@@ -4918,7 +4918,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:8" ht="17">
       <c r="C84" s="6">
         <v>82</v>
       </c>
@@ -4939,7 +4939,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:8" ht="17">
       <c r="C85" s="2">
         <v>83</v>
       </c>
@@ -4960,7 +4960,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:8" ht="17">
       <c r="C86" s="2">
         <v>84</v>
       </c>
@@ -4981,7 +4981,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:8" ht="17">
       <c r="C87" s="6">
         <v>85</v>
       </c>
@@ -5002,7 +5002,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="88" spans="3:8" ht="17">
       <c r="C88" s="2">
         <v>86</v>
       </c>
@@ -5023,7 +5023,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:8" ht="17">
       <c r="C89" s="2">
         <v>87</v>
       </c>
@@ -5044,7 +5044,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:8" ht="17">
       <c r="C90" s="6">
         <v>88</v>
       </c>
@@ -5065,7 +5065,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:8" ht="17">
       <c r="C91" s="2">
         <v>89</v>
       </c>
@@ -5086,7 +5086,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:8" ht="17">
       <c r="C92" s="2">
         <v>90</v>
       </c>
@@ -5107,7 +5107,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="93" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="93" spans="3:8" ht="17">
       <c r="C93" s="6">
         <v>91</v>
       </c>
@@ -5128,7 +5128,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="94" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="94" spans="3:8" ht="17">
       <c r="C94" s="2">
         <v>92</v>
       </c>
@@ -5149,7 +5149,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="95" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:8" ht="17">
       <c r="C95" s="2">
         <v>93</v>
       </c>
@@ -5170,7 +5170,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="96" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="96" spans="3:8" ht="17">
       <c r="C96" s="6">
         <v>94</v>
       </c>
@@ -5191,7 +5191,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="97" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:8" ht="17">
       <c r="C97" s="2">
         <v>95</v>
       </c>
@@ -5212,7 +5212,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="98" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="98" spans="3:8" ht="17">
       <c r="C98" s="2">
         <v>96</v>
       </c>
@@ -5233,7 +5233,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="99" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="99" spans="3:8" ht="17">
       <c r="C99" s="6">
         <v>97</v>
       </c>
@@ -5254,7 +5254,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="100" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="100" spans="3:8" ht="17">
       <c r="C100" s="2">
         <v>98</v>
       </c>
@@ -5275,7 +5275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:8" ht="17">
       <c r="C101" s="2">
         <v>99</v>
       </c>
@@ -5296,7 +5296,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:8" ht="17">
       <c r="C102" s="6">
         <v>100</v>
       </c>
@@ -5317,7 +5317,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="103" spans="3:8" ht="17">
       <c r="C103" s="2">
         <v>101</v>
       </c>
@@ -5338,7 +5338,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="104" spans="3:8" ht="17">
       <c r="C104" s="2">
         <v>102</v>
       </c>
@@ -5359,7 +5359,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="105" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="105" spans="3:8" ht="17">
       <c r="C105" s="6">
         <v>103</v>
       </c>
@@ -5380,7 +5380,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="106" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="106" spans="3:8" ht="17">
       <c r="C106" s="2">
         <v>104</v>
       </c>
@@ -5401,7 +5401,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="107" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="107" spans="3:8" ht="17">
       <c r="C107" s="2">
         <v>105</v>
       </c>
@@ -5422,7 +5422,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="108" spans="3:8" ht="17">
       <c r="C108" s="6">
         <v>106</v>
       </c>
@@ -5443,7 +5443,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="109" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="109" spans="3:8" ht="17">
       <c r="C109" s="2">
         <v>107</v>
       </c>
@@ -5464,7 +5464,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="110" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="110" spans="3:8" ht="17">
       <c r="C110" s="2">
         <v>108</v>
       </c>
@@ -5485,7 +5485,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="111" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="111" spans="3:8" ht="17">
       <c r="C111" s="6">
         <v>109</v>
       </c>
@@ -5506,7 +5506,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="112" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="112" spans="3:8" ht="17">
       <c r="C112" s="2">
         <v>110</v>
       </c>
@@ -5527,7 +5527,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="113" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="113" spans="3:8" ht="17">
       <c r="C113" s="2">
         <v>111</v>
       </c>
@@ -5548,7 +5548,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="114" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="114" spans="3:8" ht="17">
       <c r="C114" s="6">
         <v>112</v>
       </c>
@@ -5569,7 +5569,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="115" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="115" spans="3:8" ht="17">
       <c r="C115" s="2">
         <v>113</v>
       </c>
@@ -5590,7 +5590,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="116" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="116" spans="3:8" ht="17">
       <c r="C116" s="2">
         <v>114</v>
       </c>
@@ -5611,7 +5611,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="117" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="117" spans="3:8" ht="17">
       <c r="C117" s="6">
         <v>115</v>
       </c>
@@ -5632,7 +5632,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="118" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="118" spans="3:8" ht="17">
       <c r="C118" s="2">
         <v>116</v>
       </c>
@@ -5653,7 +5653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="119" spans="3:8" ht="17">
       <c r="C119" s="2">
         <v>117</v>
       </c>
@@ -5674,7 +5674,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="120" spans="3:8" ht="17">
       <c r="C120" s="6">
         <v>118</v>
       </c>
@@ -5695,7 +5695,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="121" spans="3:8" ht="17">
       <c r="C121" s="2">
         <v>119</v>
       </c>
@@ -5716,7 +5716,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="122" spans="3:8" ht="17">
       <c r="C122" s="2">
         <v>120</v>
       </c>
@@ -5737,7 +5737,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="123" spans="3:8" ht="17">
       <c r="C123" s="6">
         <v>121</v>
       </c>
@@ -5758,7 +5758,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="124" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="124" spans="3:8" ht="17">
       <c r="C124" s="2">
         <v>122</v>
       </c>
@@ -5779,7 +5779,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="125" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="125" spans="3:8" ht="17">
       <c r="C125" s="2">
         <v>123</v>
       </c>
@@ -5800,7 +5800,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="126" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="126" spans="3:8" ht="17">
       <c r="C126" s="6">
         <v>124</v>
       </c>
@@ -5821,7 +5821,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="127" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="127" spans="3:8" ht="17">
       <c r="C127" s="2">
         <v>125</v>
       </c>
@@ -5842,7 +5842,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="128" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="128" spans="3:8" ht="17">
       <c r="C128" s="2">
         <v>126</v>
       </c>
@@ -5863,7 +5863,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="129" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="129" spans="3:8" ht="17">
       <c r="C129" s="6">
         <v>127</v>
       </c>
@@ -5884,7 +5884,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="130" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="130" spans="3:8" ht="17">
       <c r="C130" s="2">
         <v>128</v>
       </c>
@@ -5905,7 +5905,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="131" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="131" spans="3:8" ht="17">
       <c r="C131" s="2">
         <v>129</v>
       </c>
@@ -5926,7 +5926,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="132" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="132" spans="3:8" ht="17">
       <c r="C132" s="6">
         <v>130</v>
       </c>
@@ -5947,7 +5947,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="133" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="133" spans="3:8" ht="17">
       <c r="C133" s="2">
         <v>131</v>
       </c>
@@ -5968,7 +5968,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="134" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="134" spans="3:8" ht="17">
       <c r="C134" s="2">
         <v>132</v>
       </c>
@@ -5989,7 +5989,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="135" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="135" spans="3:8" ht="17">
       <c r="C135" s="6">
         <v>133</v>
       </c>
@@ -6010,7 +6010,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="136" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="136" spans="3:8" ht="17">
       <c r="C136" s="2">
         <v>134</v>
       </c>
@@ -6031,7 +6031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="137" spans="3:8" ht="17">
       <c r="C137" s="2">
         <v>135</v>
       </c>
@@ -6052,7 +6052,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="138" spans="3:8" ht="17">
       <c r="C138" s="6">
         <v>136</v>
       </c>
@@ -6073,7 +6073,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="139" spans="3:8" ht="17">
       <c r="C139" s="2">
         <v>137</v>
       </c>
@@ -6094,7 +6094,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="140" spans="3:8" ht="17">
       <c r="C140" s="2">
         <v>138</v>
       </c>
@@ -6115,7 +6115,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="141" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="141" spans="3:8" ht="17">
       <c r="C141" s="6">
         <v>139</v>
       </c>
@@ -6136,7 +6136,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="142" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="142" spans="3:8" ht="17">
       <c r="C142" s="2">
         <v>140</v>
       </c>
@@ -6157,7 +6157,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="143" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="143" spans="3:8" ht="17">
       <c r="C143" s="2">
         <v>141</v>
       </c>
@@ -6178,7 +6178,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="144" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="144" spans="3:8" ht="17">
       <c r="C144" s="6">
         <v>142</v>
       </c>
@@ -6199,7 +6199,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="145" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="145" spans="3:8" ht="17">
       <c r="C145" s="2">
         <v>143</v>
       </c>
@@ -6220,7 +6220,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="146" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="146" spans="3:8" ht="17">
       <c r="C146" s="2">
         <v>144</v>
       </c>
@@ -6241,7 +6241,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="147" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="147" spans="3:8" ht="17">
       <c r="C147" s="6">
         <v>145</v>
       </c>
@@ -6262,7 +6262,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="148" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="148" spans="3:8" ht="17">
       <c r="C148" s="2">
         <v>146</v>
       </c>
@@ -6283,7 +6283,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="149" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="149" spans="3:8" ht="17">
       <c r="C149" s="2">
         <v>147</v>
       </c>
@@ -6304,7 +6304,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="150" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="150" spans="3:8" ht="17">
       <c r="C150" s="6">
         <v>148</v>
       </c>
@@ -6325,7 +6325,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="151" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="151" spans="3:8" ht="17">
       <c r="C151" s="2">
         <v>149</v>
       </c>
@@ -6346,7 +6346,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="152" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="152" spans="3:8" ht="17">
       <c r="C152" s="2">
         <v>150</v>
       </c>
@@ -6367,7 +6367,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="153" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="153" spans="3:8" ht="17">
       <c r="C153" s="6">
         <v>151</v>
       </c>
@@ -6388,7 +6388,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="154" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="154" spans="3:8" ht="17">
       <c r="C154" s="2">
         <v>152</v>
       </c>
@@ -6409,7 +6409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="155" spans="3:8" ht="17">
       <c r="C155" s="2">
         <v>153</v>
       </c>
@@ -6430,7 +6430,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="156" spans="3:8" ht="17">
       <c r="C156" s="6">
         <v>154</v>
       </c>
@@ -6451,7 +6451,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="157" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="157" spans="3:8" ht="17">
       <c r="C157" s="2">
         <v>155</v>
       </c>
@@ -6472,7 +6472,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="158" spans="3:8" ht="17">
       <c r="C158" s="2">
         <v>156</v>
       </c>
@@ -6493,7 +6493,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="159" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="159" spans="3:8" ht="17">
       <c r="C159" s="6">
         <v>157</v>
       </c>
@@ -6514,7 +6514,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="160" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="160" spans="3:8" ht="17">
       <c r="C160" s="2">
         <v>158</v>
       </c>
@@ -6535,7 +6535,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="161" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="161" spans="3:8" ht="17">
       <c r="C161" s="2">
         <v>159</v>
       </c>
@@ -6556,7 +6556,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="162" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="162" spans="3:8" ht="17">
       <c r="C162" s="6">
         <v>160</v>
       </c>
@@ -6577,7 +6577,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="163" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="163" spans="3:8" ht="17">
       <c r="C163" s="2">
         <v>161</v>
       </c>
@@ -6598,7 +6598,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="164" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="164" spans="3:8" ht="17">
       <c r="C164" s="2">
         <v>162</v>
       </c>
@@ -6619,7 +6619,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="165" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="165" spans="3:8" ht="17">
       <c r="C165" s="6">
         <v>163</v>
       </c>
@@ -6640,7 +6640,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="166" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="166" spans="3:8" ht="17">
       <c r="C166" s="2">
         <v>164</v>
       </c>
@@ -6661,7 +6661,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="167" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="167" spans="3:8" ht="17">
       <c r="C167" s="2">
         <v>165</v>
       </c>
@@ -6682,7 +6682,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="168" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="168" spans="3:8" ht="17">
       <c r="C168" s="6">
         <v>166</v>
       </c>
@@ -6703,7 +6703,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="169" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="169" spans="3:8" ht="17">
       <c r="C169" s="2">
         <v>167</v>
       </c>
@@ -6724,7 +6724,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="170" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="170" spans="3:8" ht="17">
       <c r="C170" s="2">
         <v>168</v>
       </c>
@@ -6745,7 +6745,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="171" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="171" spans="3:8" ht="17">
       <c r="C171" s="6">
         <v>169</v>
       </c>
@@ -6766,7 +6766,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="172" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="172" spans="3:8" ht="17">
       <c r="C172" s="2">
         <v>170</v>
       </c>
@@ -6787,7 +6787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="173" spans="3:8" ht="17">
       <c r="C173" s="2">
         <v>171</v>
       </c>
@@ -6808,7 +6808,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="174" spans="3:8" ht="17">
       <c r="C174" s="6">
         <v>172</v>
       </c>
@@ -6829,7 +6829,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="175" spans="3:8" ht="17">
       <c r="C175" s="2">
         <v>173</v>
       </c>
@@ -6850,7 +6850,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="176" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="176" spans="3:8" ht="17">
       <c r="C176" s="2">
         <v>174</v>
       </c>
@@ -6871,7 +6871,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="177" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="177" spans="3:8" ht="17">
       <c r="C177" s="6">
         <v>175</v>
       </c>
@@ -6892,7 +6892,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="178" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="178" spans="3:8" ht="17">
       <c r="C178" s="2">
         <v>176</v>
       </c>
@@ -6913,7 +6913,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="179" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="179" spans="3:8" ht="17">
       <c r="C179" s="2">
         <v>177</v>
       </c>
@@ -6934,7 +6934,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="180" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="180" spans="3:8" ht="17">
       <c r="C180" s="6">
         <v>178</v>
       </c>
@@ -6955,7 +6955,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="181" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="181" spans="3:8" ht="17">
       <c r="C181" s="2">
         <v>179</v>
       </c>
@@ -6976,7 +6976,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="182" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="182" spans="3:8" ht="17">
       <c r="C182" s="2">
         <v>180</v>
       </c>
@@ -6997,7 +6997,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="183" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="183" spans="3:8" ht="17">
       <c r="C183" s="6">
         <v>181</v>
       </c>
@@ -7018,7 +7018,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="184" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="184" spans="3:8" ht="17">
       <c r="C184" s="2">
         <v>182</v>
       </c>
@@ -7039,7 +7039,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="185" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="185" spans="3:8" ht="17">
       <c r="C185" s="2">
         <v>183</v>
       </c>
@@ -7060,7 +7060,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="186" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="186" spans="3:8" ht="17">
       <c r="C186" s="6">
         <v>184</v>
       </c>
@@ -7081,7 +7081,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="187" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="187" spans="3:8" ht="17">
       <c r="C187" s="2">
         <v>185</v>
       </c>
@@ -7102,7 +7102,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="188" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="188" spans="3:8" ht="17">
       <c r="C188" s="2">
         <v>186</v>
       </c>
@@ -7123,7 +7123,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="189" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="189" spans="3:8" ht="17">
       <c r="C189" s="6">
         <v>187</v>
       </c>
@@ -7144,7 +7144,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="190" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="190" spans="3:8" ht="17">
       <c r="C190" s="2">
         <v>188</v>
       </c>
@@ -7165,7 +7165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="191" spans="3:8" ht="17">
       <c r="C191" s="2">
         <v>189</v>
       </c>
@@ -7186,7 +7186,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="192" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="192" spans="3:8" ht="17">
       <c r="C192" s="6">
         <v>190</v>
       </c>
@@ -7207,7 +7207,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="193" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="193" spans="3:8" ht="17">
       <c r="C193" s="2">
         <v>191</v>
       </c>
@@ -7228,7 +7228,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="194" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="194" spans="3:8" ht="17">
       <c r="C194" s="2">
         <v>192</v>
       </c>
@@ -7249,7 +7249,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="195" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="195" spans="3:8" ht="17">
       <c r="C195" s="6">
         <v>193</v>
       </c>
@@ -7270,7 +7270,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="196" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="196" spans="3:8" ht="17">
       <c r="C196" s="2">
         <v>194</v>
       </c>
@@ -7291,7 +7291,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="197" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="197" spans="3:8" ht="17">
       <c r="C197" s="2">
         <v>195</v>
       </c>
@@ -7312,7 +7312,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="198" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="198" spans="3:8" ht="17">
       <c r="C198" s="6">
         <v>196</v>
       </c>
@@ -7333,7 +7333,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="199" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="199" spans="3:8" ht="17">
       <c r="C199" s="2">
         <v>197</v>
       </c>
@@ -7354,7 +7354,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="200" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="200" spans="3:8" ht="17">
       <c r="C200" s="2">
         <v>198</v>
       </c>
@@ -7375,7 +7375,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="201" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="201" spans="3:8" ht="17">
       <c r="C201" s="6">
         <v>199</v>
       </c>
@@ -7396,7 +7396,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="202" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="202" spans="3:8" ht="17">
       <c r="C202" s="2">
         <v>200</v>
       </c>
@@ -7417,7 +7417,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="203" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="203" spans="3:8" ht="17">
       <c r="C203" s="2">
         <v>201</v>
       </c>
@@ -7438,7 +7438,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="204" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="204" spans="3:8" ht="17">
       <c r="C204" s="6">
         <v>202</v>
       </c>
@@ -7459,7 +7459,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="205" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="205" spans="3:8" ht="17">
       <c r="C205" s="2">
         <v>203</v>
       </c>
@@ -7480,7 +7480,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="206" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="206" spans="3:8" ht="17">
       <c r="C206" s="2">
         <v>204</v>
       </c>
@@ -7501,7 +7501,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="207" spans="3:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="207" spans="3:8" ht="17">
       <c r="C207" s="6">
         <v>205</v>
       </c>
@@ -7536,7 +7536,7 @@
       <selection activeCell="B4" sqref="B4:J206"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="3" max="3" width="93" customWidth="1"/>
     <col min="4" max="4" width="18.1640625" customWidth="1"/>
@@ -7546,7 +7546,7 @@
     <col min="8" max="11" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:10">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -7575,7 +7575,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:10" ht="17">
       <c r="B4" s="2">
         <v>1</v>
       </c>
@@ -7602,7 +7602,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:10" ht="17">
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -7629,7 +7629,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10" ht="17">
       <c r="B6" s="2">
         <v>3</v>
       </c>
@@ -7656,7 +7656,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:10" ht="17">
       <c r="B7" s="2">
         <v>4</v>
       </c>
@@ -7683,7 +7683,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:10" ht="17">
       <c r="B8" s="2">
         <v>5</v>
       </c>
@@ -7710,7 +7710,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10" ht="17">
       <c r="B9" s="2">
         <v>6</v>
       </c>
@@ -7737,7 +7737,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:10" ht="17">
       <c r="B10" s="2">
         <v>7</v>
       </c>
@@ -7764,7 +7764,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:10" ht="17">
       <c r="B11" s="2">
         <v>8</v>
       </c>
@@ -7791,7 +7791,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:10" ht="17">
       <c r="B12" s="2">
         <v>9</v>
       </c>
@@ -7818,7 +7818,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:10" ht="17">
       <c r="B13" s="2">
         <v>10</v>
       </c>
@@ -7845,7 +7845,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:10" ht="17">
       <c r="B14" s="2">
         <v>11</v>
       </c>
@@ -7872,7 +7872,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:10" ht="17">
       <c r="B15" s="2">
         <v>12</v>
       </c>
@@ -7899,7 +7899,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:10" ht="17">
       <c r="B16" s="2">
         <v>13</v>
       </c>
@@ -7926,7 +7926,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:10" ht="17">
       <c r="B17" s="2">
         <v>14</v>
       </c>
@@ -7953,7 +7953,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="2:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:10" ht="34">
       <c r="B18" s="2">
         <v>15</v>
       </c>
@@ -7980,7 +7980,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:10" ht="17">
       <c r="B19" s="2">
         <v>16</v>
       </c>
@@ -8007,7 +8007,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:10" ht="17">
       <c r="B20" s="2">
         <v>17</v>
       </c>
@@ -8034,7 +8034,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:10" ht="17">
       <c r="B21" s="2">
         <v>18</v>
       </c>
@@ -8061,7 +8061,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:10" ht="17">
       <c r="B22" s="2">
         <v>19</v>
       </c>
@@ -8088,7 +8088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:10" ht="17">
       <c r="B23" s="2">
         <v>20</v>
       </c>
@@ -8115,7 +8115,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:10" ht="17">
       <c r="B24" s="2">
         <v>21</v>
       </c>
@@ -8142,7 +8142,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:10" ht="17">
       <c r="B25" s="2">
         <v>22</v>
       </c>
@@ -8169,7 +8169,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:10" ht="17">
       <c r="B26" s="2">
         <v>23</v>
       </c>
@@ -8196,7 +8196,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:10" ht="17">
       <c r="B27" s="2">
         <v>24</v>
       </c>
@@ -8223,7 +8223,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:10" ht="17">
       <c r="B28" s="2">
         <v>25</v>
       </c>
@@ -8250,7 +8250,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:10" ht="17">
       <c r="B29" s="2">
         <v>26</v>
       </c>
@@ -8277,7 +8277,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:10" ht="17">
       <c r="B30" s="2">
         <v>27</v>
       </c>
@@ -8304,7 +8304,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:10" ht="17">
       <c r="B31" s="2">
         <v>28</v>
       </c>
@@ -8331,7 +8331,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:10" ht="17">
       <c r="B32" s="2">
         <v>29</v>
       </c>
@@ -8358,7 +8358,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:10" ht="17">
       <c r="B33" s="2">
         <v>30</v>
       </c>
@@ -8385,7 +8385,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:10" ht="17">
       <c r="B34" s="2">
         <v>31</v>
       </c>
@@ -8412,7 +8412,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:10" ht="17">
       <c r="B35" s="2">
         <v>32</v>
       </c>
@@ -8439,7 +8439,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:10" ht="17">
       <c r="B36" s="2">
         <v>33</v>
       </c>
@@ -8466,7 +8466,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:10" ht="17">
       <c r="B37" s="2">
         <v>34</v>
       </c>
@@ -8493,7 +8493,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:10" ht="17">
       <c r="B38" s="2">
         <v>35</v>
       </c>
@@ -8520,7 +8520,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:10" ht="17">
       <c r="B39" s="2">
         <v>36</v>
       </c>
@@ -8547,7 +8547,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:10" ht="17">
       <c r="B40" s="2">
         <v>37</v>
       </c>
@@ -8574,7 +8574,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:10" ht="17">
       <c r="B41" s="2">
         <v>38</v>
       </c>
@@ -8601,7 +8601,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:10" ht="17">
       <c r="B42" s="2">
         <v>39</v>
       </c>
@@ -8628,7 +8628,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:10" ht="17">
       <c r="B43" s="2">
         <v>40</v>
       </c>
@@ -8655,7 +8655,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:10" ht="17">
       <c r="B44" s="2">
         <v>41</v>
       </c>
@@ -8682,7 +8682,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:10" ht="17">
       <c r="B45" s="2">
         <v>42</v>
       </c>
@@ -8709,7 +8709,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:10" ht="17">
       <c r="B46" s="2">
         <v>43</v>
       </c>
@@ -8736,7 +8736,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:10">
       <c r="B47" s="2">
         <v>44</v>
       </c>
@@ -8763,7 +8763,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:10">
       <c r="B48" s="8">
         <v>45</v>
       </c>
@@ -8790,7 +8790,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:10">
       <c r="B49" s="2">
         <v>46</v>
       </c>
@@ -8817,7 +8817,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:10">
       <c r="B50" s="2">
         <v>47</v>
       </c>
@@ -8844,7 +8844,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:10">
       <c r="B51" s="2">
         <v>48</v>
       </c>
@@ -8871,7 +8871,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:10">
       <c r="B52" s="2">
         <v>49</v>
       </c>
@@ -8898,7 +8898,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:10">
       <c r="B53" s="2">
         <v>50</v>
       </c>
@@ -8925,7 +8925,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:10">
       <c r="B54" s="2">
         <v>51</v>
       </c>
@@ -8952,7 +8952,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:10">
       <c r="B55" s="2">
         <v>52</v>
       </c>
@@ -8979,7 +8979,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:10">
       <c r="B56" s="2">
         <v>53</v>
       </c>
@@ -9006,7 +9006,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:10">
       <c r="B57" s="2">
         <v>54</v>
       </c>
@@ -9033,7 +9033,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:10">
       <c r="B58" s="2">
         <v>55</v>
       </c>
@@ -9060,7 +9060,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:10">
       <c r="B59" s="2">
         <v>56</v>
       </c>
@@ -9087,7 +9087,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:10">
       <c r="B60" s="2">
         <v>57</v>
       </c>
@@ -9114,7 +9114,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:10">
       <c r="B61" s="2">
         <v>58</v>
       </c>
@@ -9141,7 +9141,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:10">
       <c r="B62" s="2">
         <v>59</v>
       </c>
@@ -9168,7 +9168,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:10">
       <c r="B63" s="2">
         <v>60</v>
       </c>
@@ -9195,7 +9195,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:10">
       <c r="B64" s="2">
         <v>61</v>
       </c>
@@ -9222,7 +9222,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:10">
       <c r="B65" s="2">
         <v>62</v>
       </c>
@@ -9249,7 +9249,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:10">
       <c r="B66" s="2">
         <v>63</v>
       </c>
@@ -9276,7 +9276,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:10">
       <c r="B67" s="2">
         <v>64</v>
       </c>
@@ -9303,7 +9303,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:10">
       <c r="B68" s="2">
         <v>65</v>
       </c>
@@ -9330,7 +9330,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:10">
       <c r="B69" s="2">
         <v>66</v>
       </c>
@@ -9357,7 +9357,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:10">
       <c r="B70" s="2">
         <v>67</v>
       </c>
@@ -9384,7 +9384,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:10">
       <c r="B71" s="2">
         <v>68</v>
       </c>
@@ -9411,7 +9411,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:10">
       <c r="B72" s="2">
         <v>69</v>
       </c>
@@ -9438,7 +9438,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:10">
       <c r="B73" s="2">
         <v>70</v>
       </c>
@@ -9465,7 +9465,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:10">
       <c r="B74" s="2">
         <v>71</v>
       </c>
@@ -9492,7 +9492,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:10">
       <c r="B75" s="2">
         <v>72</v>
       </c>
@@ -9519,7 +9519,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:10">
       <c r="B76" s="2">
         <v>73</v>
       </c>
@@ -9546,7 +9546,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:10">
       <c r="B77" s="2">
         <v>74</v>
       </c>
@@ -9573,7 +9573,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:10">
       <c r="B78" s="2">
         <v>75</v>
       </c>
@@ -9600,7 +9600,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:10">
       <c r="B79" s="2">
         <v>76</v>
       </c>
@@ -9627,7 +9627,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:10">
       <c r="B80" s="2">
         <v>77</v>
       </c>
@@ -9654,7 +9654,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:10">
       <c r="B81" s="2">
         <v>78</v>
       </c>
@@ -9681,7 +9681,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:10">
       <c r="B82" s="2">
         <v>79</v>
       </c>
@@ -9708,7 +9708,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:10">
       <c r="B83" s="2">
         <v>80</v>
       </c>
@@ -9735,7 +9735,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:10">
       <c r="B84" s="2">
         <v>81</v>
       </c>
@@ -9762,7 +9762,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:10">
       <c r="B85" s="2">
         <v>82</v>
       </c>
@@ -9789,7 +9789,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:10">
       <c r="B86" s="2">
         <v>83</v>
       </c>
@@ -9816,7 +9816,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:10">
       <c r="B87" s="2">
         <v>84</v>
       </c>
@@ -9843,7 +9843,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:10">
       <c r="B88" s="2">
         <v>85</v>
       </c>
@@ -9870,7 +9870,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:10">
       <c r="B89" s="2">
         <v>86</v>
       </c>
@@ -9897,7 +9897,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:10">
       <c r="B90" s="2">
         <v>87</v>
       </c>
@@ -9924,7 +9924,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:10">
       <c r="B91" s="2">
         <v>88</v>
       </c>
@@ -9951,7 +9951,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:10">
       <c r="B92" s="2">
         <v>89</v>
       </c>
@@ -9978,7 +9978,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="93" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:10">
       <c r="B93" s="2">
         <v>90</v>
       </c>
@@ -10005,7 +10005,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:10">
       <c r="B94" s="2">
         <v>91</v>
       </c>
@@ -10032,7 +10032,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:10">
       <c r="B95" s="2">
         <v>92</v>
       </c>
@@ -10059,7 +10059,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="96" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:10">
       <c r="B96" s="2">
         <v>93</v>
       </c>
@@ -10086,7 +10086,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="97" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:10">
       <c r="B97" s="2">
         <v>94</v>
       </c>
@@ -10113,7 +10113,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="98" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:10">
       <c r="B98" s="2">
         <v>95</v>
       </c>
@@ -10140,7 +10140,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="99" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:10">
       <c r="B99" s="2">
         <v>96</v>
       </c>
@@ -10167,7 +10167,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="100" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:10">
       <c r="B100" s="2">
         <v>97</v>
       </c>
@@ -10194,7 +10194,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="101" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:10">
       <c r="B101" s="2">
         <v>98</v>
       </c>
@@ -10221,7 +10221,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="102" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:10">
       <c r="B102" s="2">
         <v>99</v>
       </c>
@@ -10248,7 +10248,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="103" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:10">
       <c r="B103" s="2">
         <v>100</v>
       </c>
@@ -10275,7 +10275,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="104" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:10">
       <c r="B104" s="2">
         <v>101</v>
       </c>
@@ -10302,7 +10302,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="105" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:10">
       <c r="B105" s="2">
         <v>102</v>
       </c>
@@ -10329,7 +10329,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="106" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:10">
       <c r="B106" s="2">
         <v>103</v>
       </c>
@@ -10356,7 +10356,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="107" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:10">
       <c r="B107" s="2">
         <v>104</v>
       </c>
@@ -10383,7 +10383,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="108" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:10">
       <c r="B108" s="2">
         <v>105</v>
       </c>
@@ -10410,7 +10410,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="109" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:10">
       <c r="B109" s="2">
         <v>106</v>
       </c>
@@ -10437,7 +10437,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="110" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:10">
       <c r="B110" s="2">
         <v>107</v>
       </c>
@@ -10464,7 +10464,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="111" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:10">
       <c r="B111" s="2">
         <v>108</v>
       </c>
@@ -10491,7 +10491,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="112" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:10">
       <c r="B112" s="2">
         <v>109</v>
       </c>
@@ -10518,7 +10518,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="113" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:10">
       <c r="B113" s="2">
         <v>110</v>
       </c>
@@ -10545,7 +10545,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="114" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:10">
       <c r="B114" s="2">
         <v>111</v>
       </c>
@@ -10572,7 +10572,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="115" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:10">
       <c r="B115" s="2">
         <v>112</v>
       </c>
@@ -10599,7 +10599,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="116" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:10">
       <c r="B116" s="2">
         <v>113</v>
       </c>
@@ -10626,7 +10626,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="117" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:10">
       <c r="B117" s="2">
         <v>114</v>
       </c>
@@ -10653,7 +10653,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="118" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:10">
       <c r="B118" s="2">
         <v>115</v>
       </c>
@@ -10680,7 +10680,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="119" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:10">
       <c r="B119" s="2">
         <v>116</v>
       </c>
@@ -10707,7 +10707,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="120" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:10">
       <c r="B120" s="2">
         <v>117</v>
       </c>
@@ -10734,7 +10734,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="121" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:10">
       <c r="B121" s="2">
         <v>118</v>
       </c>
@@ -10761,7 +10761,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="122" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:10">
       <c r="B122" s="2">
         <v>119</v>
       </c>
@@ -10788,7 +10788,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="123" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:10">
       <c r="B123" s="2">
         <v>120</v>
       </c>
@@ -10815,7 +10815,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="124" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:10">
       <c r="B124" s="2">
         <v>121</v>
       </c>
@@ -10842,7 +10842,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="125" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:10">
       <c r="B125" s="2">
         <v>122</v>
       </c>
@@ -10869,7 +10869,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="126" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:10">
       <c r="B126" s="2">
         <v>123</v>
       </c>
@@ -10896,7 +10896,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="127" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:10">
       <c r="B127" s="2">
         <v>124</v>
       </c>
@@ -10923,7 +10923,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="128" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:10">
       <c r="B128" s="2">
         <v>125</v>
       </c>
@@ -10950,7 +10950,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="129" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:10">
       <c r="B129" s="2">
         <v>126</v>
       </c>
@@ -10977,7 +10977,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="130" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:10">
       <c r="B130" s="2">
         <v>127</v>
       </c>
@@ -11004,7 +11004,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="131" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:10">
       <c r="B131" s="2">
         <v>128</v>
       </c>
@@ -11031,7 +11031,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="132" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:10">
       <c r="B132" s="2">
         <v>129</v>
       </c>
@@ -11058,7 +11058,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="133" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:10">
       <c r="B133" s="2">
         <v>130</v>
       </c>
@@ -11085,7 +11085,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="134" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:10">
       <c r="B134" s="2">
         <v>131</v>
       </c>
@@ -11112,7 +11112,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="135" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:10">
       <c r="B135" s="2">
         <v>132</v>
       </c>
@@ -11139,7 +11139,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="136" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:10">
       <c r="B136" s="2">
         <v>133</v>
       </c>
@@ -11166,7 +11166,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="137" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:10">
       <c r="B137" s="2">
         <v>134</v>
       </c>
@@ -11193,7 +11193,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="138" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:10">
       <c r="B138" s="2">
         <v>135</v>
       </c>
@@ -11220,7 +11220,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="139" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:10">
       <c r="B139" s="2">
         <v>136</v>
       </c>
@@ -11247,7 +11247,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="140" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:10">
       <c r="B140" s="2">
         <v>137</v>
       </c>
@@ -11274,7 +11274,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="141" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:10">
       <c r="B141" s="2">
         <v>138</v>
       </c>
@@ -11301,7 +11301,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="142" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:10">
       <c r="B142" s="2">
         <v>139</v>
       </c>
@@ -11328,7 +11328,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="143" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:10">
       <c r="B143" s="2">
         <v>140</v>
       </c>
@@ -11355,7 +11355,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="144" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:10">
       <c r="B144" s="2">
         <v>141</v>
       </c>
@@ -11382,7 +11382,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="145" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:10">
       <c r="B145" s="2">
         <v>142</v>
       </c>
@@ -11409,7 +11409,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="146" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:10">
       <c r="B146" s="2">
         <v>143</v>
       </c>
@@ -11436,7 +11436,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="147" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:10">
       <c r="B147" s="2">
         <v>144</v>
       </c>
@@ -11463,7 +11463,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="148" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:10">
       <c r="B148" s="2">
         <v>145</v>
       </c>
@@ -11490,7 +11490,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="149" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:10">
       <c r="B149" s="2">
         <v>146</v>
       </c>
@@ -11517,7 +11517,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="150" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:10">
       <c r="B150" s="2">
         <v>147</v>
       </c>
@@ -11544,7 +11544,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="151" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:10">
       <c r="B151" s="2">
         <v>148</v>
       </c>
@@ -11571,7 +11571,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="152" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:10">
       <c r="B152" s="2">
         <v>149</v>
       </c>
@@ -11598,7 +11598,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="153" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:10">
       <c r="B153" s="2">
         <v>150</v>
       </c>
@@ -11625,7 +11625,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="154" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:10">
       <c r="B154" s="2">
         <v>151</v>
       </c>
@@ -11652,7 +11652,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="155" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:10">
       <c r="B155" s="2">
         <v>152</v>
       </c>
@@ -11679,7 +11679,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="156" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:10">
       <c r="B156" s="2">
         <v>153</v>
       </c>
@@ -11706,7 +11706,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="157" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:10">
       <c r="B157" s="2">
         <v>154</v>
       </c>
@@ -11733,7 +11733,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="158" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:10">
       <c r="B158" s="2">
         <v>155</v>
       </c>
@@ -11760,7 +11760,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="159" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:10">
       <c r="B159" s="2">
         <v>156</v>
       </c>
@@ -11787,7 +11787,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="160" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:10">
       <c r="B160" s="2">
         <v>157</v>
       </c>
@@ -11814,7 +11814,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="161" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:10">
       <c r="B161" s="2">
         <v>158</v>
       </c>
@@ -11841,7 +11841,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="162" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:10">
       <c r="B162" s="2">
         <v>159</v>
       </c>
@@ -11868,7 +11868,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="163" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:10">
       <c r="B163" s="2">
         <v>160</v>
       </c>
@@ -11895,7 +11895,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="164" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:10">
       <c r="B164" s="2">
         <v>161</v>
       </c>
@@ -11922,7 +11922,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="165" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:10">
       <c r="B165" s="2">
         <v>162</v>
       </c>
@@ -11949,7 +11949,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="166" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:10">
       <c r="B166" s="2">
         <v>163</v>
       </c>
@@ -11976,7 +11976,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="167" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:10">
       <c r="B167" s="2">
         <v>164</v>
       </c>
@@ -12003,7 +12003,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="168" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:10">
       <c r="B168" s="2">
         <v>165</v>
       </c>
@@ -12030,7 +12030,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="169" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:10">
       <c r="B169" s="2">
         <v>166</v>
       </c>
@@ -12057,7 +12057,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="170" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:10">
       <c r="B170" s="2">
         <v>167</v>
       </c>
@@ -12084,7 +12084,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="171" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:10">
       <c r="B171" s="2">
         <v>168</v>
       </c>
@@ -12111,7 +12111,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="172" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:10">
       <c r="B172" s="2">
         <v>169</v>
       </c>
@@ -12138,7 +12138,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="173" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:10">
       <c r="B173" s="2">
         <v>170</v>
       </c>
@@ -12165,7 +12165,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="174" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:10">
       <c r="B174" s="2">
         <v>171</v>
       </c>
@@ -12192,7 +12192,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="175" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:10">
       <c r="B175" s="2">
         <v>172</v>
       </c>
@@ -12219,7 +12219,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="176" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:10">
       <c r="B176" s="2">
         <v>173</v>
       </c>
@@ -12246,7 +12246,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="177" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:10">
       <c r="B177" s="2">
         <v>174</v>
       </c>
@@ -12273,7 +12273,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="178" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:10">
       <c r="B178" s="2">
         <v>175</v>
       </c>
@@ -12300,7 +12300,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="179" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:10">
       <c r="B179" s="2">
         <v>176</v>
       </c>
@@ -12327,7 +12327,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="180" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:10">
       <c r="B180" s="2">
         <v>177</v>
       </c>
@@ -12354,7 +12354,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="181" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:10">
       <c r="B181" s="2">
         <v>178</v>
       </c>
@@ -12381,7 +12381,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="182" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:10">
       <c r="B182" s="2">
         <v>179</v>
       </c>
@@ -12408,7 +12408,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="183" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:10">
       <c r="B183" s="2">
         <v>180</v>
       </c>
@@ -12435,7 +12435,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="184" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:10">
       <c r="B184" s="2">
         <v>181</v>
       </c>
@@ -12462,7 +12462,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="185" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:10">
       <c r="B185" s="2">
         <v>182</v>
       </c>
@@ -12489,7 +12489,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="186" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:10">
       <c r="B186" s="2">
         <v>183</v>
       </c>
@@ -12516,7 +12516,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="187" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:10">
       <c r="B187" s="2">
         <v>184</v>
       </c>
@@ -12543,7 +12543,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="188" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:10">
       <c r="B188" s="2">
         <v>185</v>
       </c>
@@ -12570,7 +12570,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="189" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:10">
       <c r="B189" s="2">
         <v>186</v>
       </c>
@@ -12597,7 +12597,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="190" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:10">
       <c r="B190" s="2">
         <v>187</v>
       </c>
@@ -12624,7 +12624,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="191" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:10">
       <c r="B191" s="2">
         <v>188</v>
       </c>
@@ -12651,7 +12651,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="192" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:10">
       <c r="B192" s="2">
         <v>189</v>
       </c>
@@ -12678,7 +12678,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="193" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:10">
       <c r="B193" s="2">
         <v>190</v>
       </c>
@@ -12705,7 +12705,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="194" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:10">
       <c r="B194" s="2">
         <v>191</v>
       </c>
@@ -12732,7 +12732,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="195" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="195" spans="2:10">
       <c r="B195" s="2">
         <v>192</v>
       </c>
@@ -12759,7 +12759,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="196" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="196" spans="2:10">
       <c r="B196" s="2">
         <v>193</v>
       </c>
@@ -12786,7 +12786,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="197" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="197" spans="2:10">
       <c r="B197" s="2">
         <v>194</v>
       </c>
@@ -12813,7 +12813,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="198" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="198" spans="2:10">
       <c r="B198" s="2">
         <v>195</v>
       </c>
@@ -12840,7 +12840,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="199" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="199" spans="2:10">
       <c r="B199" s="2">
         <v>196</v>
       </c>
@@ -12867,7 +12867,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="200" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="200" spans="2:10">
       <c r="B200" s="2">
         <v>197</v>
       </c>
@@ -12894,7 +12894,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="201" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="201" spans="2:10">
       <c r="B201" s="2">
         <v>198</v>
       </c>
@@ -12921,7 +12921,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="202" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="202" spans="2:10">
       <c r="B202" s="2">
         <v>199</v>
       </c>
@@ -12948,7 +12948,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="203" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="203" spans="2:10">
       <c r="B203" s="2">
         <v>200</v>
       </c>
@@ -12975,7 +12975,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="204" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="204" spans="2:10">
       <c r="B204" s="2">
         <v>201</v>
       </c>
@@ -13002,7 +13002,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="205" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="205" spans="2:10">
       <c r="B205" s="2">
         <v>202</v>
       </c>
@@ -13029,7 +13029,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="206" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="206" spans="2:10">
       <c r="B206" s="2">
         <v>203</v>
       </c>
@@ -13070,9 +13070,9 @@
       <selection activeCell="B4" sqref="B4:H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:8">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -13095,7 +13095,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:8">
       <c r="B4">
         <v>1</v>
       </c>
@@ -13110,7 +13110,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:8">
       <c r="B5">
         <v>2</v>
       </c>
@@ -13125,7 +13125,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:8">
       <c r="B6">
         <v>3</v>
       </c>
@@ -13140,7 +13140,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:8">
       <c r="B7">
         <v>4</v>
       </c>
@@ -13155,7 +13155,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:8">
       <c r="B8">
         <v>5</v>
       </c>
@@ -13186,15 +13186,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E76C6668-86E4-B146-936D-BFEC324FF8BD}">
-  <dimension ref="B3:G40"/>
+  <dimension ref="B3:G73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:G40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:G73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:7">
       <c r="B3" t="s">
         <v>52</v>
       </c>
@@ -13214,7 +13214,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:7">
       <c r="B4" t="b">
         <v>0</v>
       </c>
@@ -13234,7 +13234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:7">
       <c r="B5" t="b">
         <v>0</v>
       </c>
@@ -13254,7 +13254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:7">
       <c r="B6" t="b">
         <v>0</v>
       </c>
@@ -13274,7 +13274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:7">
       <c r="B7" t="b">
         <v>0</v>
       </c>
@@ -13294,7 +13294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:7">
       <c r="B8" t="b">
         <v>0</v>
       </c>
@@ -13314,7 +13314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:7">
       <c r="B9" t="b">
         <v>0</v>
       </c>
@@ -13334,7 +13334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:7">
       <c r="B10" t="b">
         <v>0</v>
       </c>
@@ -13354,7 +13354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:7">
       <c r="B11" t="b">
         <v>0</v>
       </c>
@@ -13374,7 +13374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:7">
       <c r="B12" t="b">
         <v>0</v>
       </c>
@@ -13394,7 +13394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:7">
       <c r="B13" t="b">
         <v>0</v>
       </c>
@@ -13414,7 +13414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:7">
       <c r="B14" t="b">
         <v>0</v>
       </c>
@@ -13434,7 +13434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:7">
       <c r="B15" t="b">
         <v>0</v>
       </c>
@@ -13454,7 +13454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:7">
       <c r="B16" t="b">
         <v>0</v>
       </c>
@@ -13474,7 +13474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:7">
       <c r="B17" t="b">
         <v>0</v>
       </c>
@@ -13494,7 +13494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:7">
       <c r="B18" t="b">
         <v>0</v>
       </c>
@@ -13514,7 +13514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:7">
       <c r="B19" t="b">
         <v>0</v>
       </c>
@@ -13534,7 +13534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:7">
       <c r="B20" t="b">
         <v>0</v>
       </c>
@@ -13554,7 +13554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:7">
       <c r="B21" t="b">
         <v>0</v>
       </c>
@@ -13574,7 +13574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:7">
       <c r="B22" t="b">
         <v>0</v>
       </c>
@@ -13594,7 +13594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:7">
       <c r="B23" t="b">
         <v>0</v>
       </c>
@@ -13614,7 +13614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:7">
       <c r="B24" t="b">
         <v>0</v>
       </c>
@@ -13634,7 +13634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:7">
       <c r="B25" t="b">
         <v>0</v>
       </c>
@@ -13654,7 +13654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:7">
       <c r="B26" t="b">
         <v>0</v>
       </c>
@@ -13674,7 +13674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:7">
       <c r="B27" t="b">
         <v>0</v>
       </c>
@@ -13694,7 +13694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:7">
       <c r="B28" t="b">
         <v>0</v>
       </c>
@@ -13714,7 +13714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:7">
       <c r="B29" t="b">
         <v>0</v>
       </c>
@@ -13734,7 +13734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:7">
       <c r="B30" t="b">
         <v>0</v>
       </c>
@@ -13754,109 +13754,109 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:7">
       <c r="B31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D31" t="s">
+        <v>34</v>
+      </c>
+      <c r="E31" t="s">
+        <v>34</v>
+      </c>
+      <c r="F31">
+        <v>28</v>
+      </c>
+      <c r="G31">
         <v>1</v>
       </c>
-      <c r="C31" t="b">
-        <v>1</v>
-      </c>
-      <c r="D31" t="s">
-        <v>34</v>
-      </c>
-      <c r="E31" t="s">
-        <v>34</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="2:7">
       <c r="B32" t="b">
         <v>0</v>
       </c>
       <c r="C32" t="b">
+        <v>0</v>
+      </c>
+      <c r="D32" t="s">
+        <v>34</v>
+      </c>
+      <c r="E32" t="s">
+        <v>34</v>
+      </c>
+      <c r="F32">
+        <v>29</v>
+      </c>
+      <c r="G32">
         <v>1</v>
       </c>
-      <c r="D32" t="s">
-        <v>34</v>
-      </c>
-      <c r="E32" t="s">
-        <v>34</v>
-      </c>
-      <c r="F32">
-        <v>2</v>
-      </c>
-      <c r="G32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="2:7">
       <c r="B33" t="b">
         <v>0</v>
       </c>
       <c r="C33" t="b">
+        <v>0</v>
+      </c>
+      <c r="D33" t="s">
+        <v>34</v>
+      </c>
+      <c r="E33" t="s">
+        <v>34</v>
+      </c>
+      <c r="F33">
+        <v>30</v>
+      </c>
+      <c r="G33">
         <v>1</v>
       </c>
-      <c r="D33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E33" t="s">
-        <v>34</v>
-      </c>
-      <c r="F33">
-        <v>3</v>
-      </c>
-      <c r="G33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="2:7">
       <c r="B34" t="b">
         <v>0</v>
       </c>
       <c r="C34" t="b">
+        <v>0</v>
+      </c>
+      <c r="D34" t="s">
+        <v>34</v>
+      </c>
+      <c r="E34" t="s">
+        <v>34</v>
+      </c>
+      <c r="F34">
+        <v>31</v>
+      </c>
+      <c r="G34">
         <v>1</v>
       </c>
-      <c r="D34" t="s">
-        <v>34</v>
-      </c>
-      <c r="E34" t="s">
-        <v>34</v>
-      </c>
-      <c r="F34">
-        <v>4</v>
-      </c>
-      <c r="G34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="2:7">
       <c r="B35" t="b">
+        <v>0</v>
+      </c>
+      <c r="C35" t="b">
+        <v>0</v>
+      </c>
+      <c r="D35" t="s">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>34</v>
+      </c>
+      <c r="F35">
+        <v>32</v>
+      </c>
+      <c r="G35">
         <v>1</v>
       </c>
-      <c r="C35" t="b">
-        <v>1</v>
-      </c>
-      <c r="D35" t="s">
-        <v>34</v>
-      </c>
-      <c r="E35" t="s">
-        <v>34</v>
-      </c>
-      <c r="F35">
-        <v>5</v>
-      </c>
-      <c r="G35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="2:7">
       <c r="B36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36" t="b">
         <v>0</v>
@@ -13868,15 +13868,15 @@
         <v>34</v>
       </c>
       <c r="F36">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="G36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7">
       <c r="B37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C37" t="b">
         <v>0</v>
@@ -13888,13 +13888,13 @@
         <v>34</v>
       </c>
       <c r="F37">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="G37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7">
       <c r="B38" t="b">
         <v>0</v>
       </c>
@@ -13908,13 +13908,13 @@
         <v>34</v>
       </c>
       <c r="F38">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="G38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7">
       <c r="B39" t="b">
         <v>0</v>
       </c>
@@ -13928,13 +13928,13 @@
         <v>34</v>
       </c>
       <c r="F39">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G39">
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:7">
       <c r="B40" t="b">
         <v>0</v>
       </c>
@@ -13948,9 +13948,669 @@
         <v>34</v>
       </c>
       <c r="F40">
+        <v>2</v>
+      </c>
+      <c r="G40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7">
+      <c r="B41" t="b">
+        <v>0</v>
+      </c>
+      <c r="C41" t="b">
+        <v>0</v>
+      </c>
+      <c r="D41" t="s">
+        <v>34</v>
+      </c>
+      <c r="E41" t="s">
+        <v>34</v>
+      </c>
+      <c r="F41">
+        <v>3</v>
+      </c>
+      <c r="G41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7">
+      <c r="B42" t="b">
+        <v>0</v>
+      </c>
+      <c r="C42" t="b">
+        <v>0</v>
+      </c>
+      <c r="D42" t="s">
+        <v>34</v>
+      </c>
+      <c r="E42" t="s">
+        <v>34</v>
+      </c>
+      <c r="F42">
+        <v>4</v>
+      </c>
+      <c r="G42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7">
+      <c r="B43" t="b">
+        <v>0</v>
+      </c>
+      <c r="C43" t="b">
+        <v>0</v>
+      </c>
+      <c r="D43" t="s">
+        <v>34</v>
+      </c>
+      <c r="E43" t="s">
+        <v>34</v>
+      </c>
+      <c r="F43">
+        <v>5</v>
+      </c>
+      <c r="G43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7">
+      <c r="B44" t="b">
+        <v>0</v>
+      </c>
+      <c r="C44" t="b">
+        <v>0</v>
+      </c>
+      <c r="D44" t="s">
+        <v>34</v>
+      </c>
+      <c r="E44" t="s">
+        <v>34</v>
+      </c>
+      <c r="F44">
+        <v>6</v>
+      </c>
+      <c r="G44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7">
+      <c r="B45" t="b">
+        <v>0</v>
+      </c>
+      <c r="C45" t="b">
+        <v>0</v>
+      </c>
+      <c r="D45" t="s">
+        <v>34</v>
+      </c>
+      <c r="E45" t="s">
+        <v>34</v>
+      </c>
+      <c r="F45">
+        <v>7</v>
+      </c>
+      <c r="G45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7">
+      <c r="B46" t="b">
+        <v>0</v>
+      </c>
+      <c r="C46" t="b">
+        <v>0</v>
+      </c>
+      <c r="D46" t="s">
+        <v>34</v>
+      </c>
+      <c r="E46" t="s">
+        <v>34</v>
+      </c>
+      <c r="F46">
+        <v>8</v>
+      </c>
+      <c r="G46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7">
+      <c r="B47" t="b">
+        <v>0</v>
+      </c>
+      <c r="C47" t="b">
+        <v>0</v>
+      </c>
+      <c r="D47" t="s">
+        <v>34</v>
+      </c>
+      <c r="E47" t="s">
+        <v>34</v>
+      </c>
+      <c r="F47">
+        <v>9</v>
+      </c>
+      <c r="G47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7">
+      <c r="B48" t="b">
+        <v>0</v>
+      </c>
+      <c r="C48" t="b">
+        <v>0</v>
+      </c>
+      <c r="D48" t="s">
+        <v>34</v>
+      </c>
+      <c r="E48" t="s">
+        <v>34</v>
+      </c>
+      <c r="F48">
         <v>10</v>
       </c>
-      <c r="G40">
+      <c r="G48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7">
+      <c r="B49" t="b">
+        <v>0</v>
+      </c>
+      <c r="C49" t="b">
+        <v>0</v>
+      </c>
+      <c r="D49" t="s">
+        <v>34</v>
+      </c>
+      <c r="E49" t="s">
+        <v>34</v>
+      </c>
+      <c r="F49">
+        <v>11</v>
+      </c>
+      <c r="G49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7">
+      <c r="B50" t="b">
+        <v>0</v>
+      </c>
+      <c r="C50" t="b">
+        <v>0</v>
+      </c>
+      <c r="D50" t="s">
+        <v>34</v>
+      </c>
+      <c r="E50" t="s">
+        <v>34</v>
+      </c>
+      <c r="F50">
+        <v>12</v>
+      </c>
+      <c r="G50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7">
+      <c r="B51" t="b">
+        <v>0</v>
+      </c>
+      <c r="C51" t="b">
+        <v>0</v>
+      </c>
+      <c r="D51" t="s">
+        <v>34</v>
+      </c>
+      <c r="E51" t="s">
+        <v>34</v>
+      </c>
+      <c r="F51">
+        <v>13</v>
+      </c>
+      <c r="G51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7">
+      <c r="B52" t="b">
+        <v>0</v>
+      </c>
+      <c r="C52" t="b">
+        <v>0</v>
+      </c>
+      <c r="D52" t="s">
+        <v>34</v>
+      </c>
+      <c r="E52" t="s">
+        <v>34</v>
+      </c>
+      <c r="F52">
+        <v>14</v>
+      </c>
+      <c r="G52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7">
+      <c r="B53" t="b">
+        <v>0</v>
+      </c>
+      <c r="C53" t="b">
+        <v>0</v>
+      </c>
+      <c r="D53" t="s">
+        <v>34</v>
+      </c>
+      <c r="E53" t="s">
+        <v>34</v>
+      </c>
+      <c r="F53">
+        <v>15</v>
+      </c>
+      <c r="G53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7">
+      <c r="B54" t="b">
+        <v>0</v>
+      </c>
+      <c r="C54" t="b">
+        <v>0</v>
+      </c>
+      <c r="D54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E54" t="s">
+        <v>34</v>
+      </c>
+      <c r="F54">
+        <v>16</v>
+      </c>
+      <c r="G54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7">
+      <c r="B55" t="b">
+        <v>0</v>
+      </c>
+      <c r="C55" t="b">
+        <v>0</v>
+      </c>
+      <c r="D55" t="s">
+        <v>34</v>
+      </c>
+      <c r="E55" t="s">
+        <v>34</v>
+      </c>
+      <c r="F55">
+        <v>17</v>
+      </c>
+      <c r="G55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7">
+      <c r="B56" t="b">
+        <v>0</v>
+      </c>
+      <c r="C56" t="b">
+        <v>0</v>
+      </c>
+      <c r="D56" t="s">
+        <v>34</v>
+      </c>
+      <c r="E56" t="s">
+        <v>34</v>
+      </c>
+      <c r="F56">
+        <v>18</v>
+      </c>
+      <c r="G56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7">
+      <c r="B57" t="b">
+        <v>0</v>
+      </c>
+      <c r="C57" t="b">
+        <v>0</v>
+      </c>
+      <c r="D57" t="s">
+        <v>34</v>
+      </c>
+      <c r="E57" t="s">
+        <v>34</v>
+      </c>
+      <c r="F57">
+        <v>19</v>
+      </c>
+      <c r="G57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7">
+      <c r="B58" t="b">
+        <v>0</v>
+      </c>
+      <c r="C58" t="b">
+        <v>0</v>
+      </c>
+      <c r="D58" t="s">
+        <v>34</v>
+      </c>
+      <c r="E58" t="s">
+        <v>34</v>
+      </c>
+      <c r="F58">
+        <v>20</v>
+      </c>
+      <c r="G58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7">
+      <c r="B59" t="b">
+        <v>0</v>
+      </c>
+      <c r="C59" t="b">
+        <v>0</v>
+      </c>
+      <c r="D59" t="s">
+        <v>34</v>
+      </c>
+      <c r="E59" t="s">
+        <v>34</v>
+      </c>
+      <c r="F59">
+        <v>21</v>
+      </c>
+      <c r="G59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7">
+      <c r="B60" t="b">
+        <v>0</v>
+      </c>
+      <c r="C60" t="b">
+        <v>0</v>
+      </c>
+      <c r="D60" t="s">
+        <v>34</v>
+      </c>
+      <c r="E60" t="s">
+        <v>34</v>
+      </c>
+      <c r="F60">
+        <v>22</v>
+      </c>
+      <c r="G60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7">
+      <c r="B61" t="b">
+        <v>0</v>
+      </c>
+      <c r="C61" t="b">
+        <v>0</v>
+      </c>
+      <c r="D61" t="s">
+        <v>34</v>
+      </c>
+      <c r="E61" t="s">
+        <v>34</v>
+      </c>
+      <c r="F61">
+        <v>23</v>
+      </c>
+      <c r="G61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7">
+      <c r="B62" t="b">
+        <v>0</v>
+      </c>
+      <c r="C62" t="b">
+        <v>0</v>
+      </c>
+      <c r="D62" t="s">
+        <v>34</v>
+      </c>
+      <c r="E62" t="s">
+        <v>34</v>
+      </c>
+      <c r="F62">
+        <v>24</v>
+      </c>
+      <c r="G62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7">
+      <c r="B63" t="b">
+        <v>0</v>
+      </c>
+      <c r="C63" t="b">
+        <v>0</v>
+      </c>
+      <c r="D63" t="s">
+        <v>34</v>
+      </c>
+      <c r="E63" t="s">
+        <v>34</v>
+      </c>
+      <c r="F63">
+        <v>25</v>
+      </c>
+      <c r="G63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7">
+      <c r="B64" t="b">
+        <v>0</v>
+      </c>
+      <c r="C64" t="b">
+        <v>0</v>
+      </c>
+      <c r="D64" t="s">
+        <v>34</v>
+      </c>
+      <c r="E64" t="s">
+        <v>34</v>
+      </c>
+      <c r="F64">
+        <v>26</v>
+      </c>
+      <c r="G64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7">
+      <c r="B65" t="b">
+        <v>0</v>
+      </c>
+      <c r="C65" t="b">
+        <v>0</v>
+      </c>
+      <c r="D65" t="s">
+        <v>34</v>
+      </c>
+      <c r="E65" t="s">
+        <v>34</v>
+      </c>
+      <c r="F65">
+        <v>27</v>
+      </c>
+      <c r="G65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7">
+      <c r="B66" t="b">
+        <v>0</v>
+      </c>
+      <c r="C66" t="b">
+        <v>0</v>
+      </c>
+      <c r="D66" t="s">
+        <v>34</v>
+      </c>
+      <c r="E66" t="s">
+        <v>34</v>
+      </c>
+      <c r="F66">
+        <v>28</v>
+      </c>
+      <c r="G66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7">
+      <c r="B67" t="b">
+        <v>0</v>
+      </c>
+      <c r="C67" t="b">
+        <v>0</v>
+      </c>
+      <c r="D67" t="s">
+        <v>34</v>
+      </c>
+      <c r="E67" t="s">
+        <v>34</v>
+      </c>
+      <c r="F67">
+        <v>29</v>
+      </c>
+      <c r="G67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7">
+      <c r="B68" t="b">
+        <v>0</v>
+      </c>
+      <c r="C68" t="b">
+        <v>0</v>
+      </c>
+      <c r="D68" t="s">
+        <v>34</v>
+      </c>
+      <c r="E68" t="s">
+        <v>34</v>
+      </c>
+      <c r="F68">
+        <v>30</v>
+      </c>
+      <c r="G68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7">
+      <c r="B69" t="b">
+        <v>0</v>
+      </c>
+      <c r="C69" t="b">
+        <v>0</v>
+      </c>
+      <c r="D69" t="s">
+        <v>34</v>
+      </c>
+      <c r="E69" t="s">
+        <v>34</v>
+      </c>
+      <c r="F69">
+        <v>31</v>
+      </c>
+      <c r="G69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7">
+      <c r="B70" t="b">
+        <v>0</v>
+      </c>
+      <c r="C70" t="b">
+        <v>0</v>
+      </c>
+      <c r="D70" t="s">
+        <v>34</v>
+      </c>
+      <c r="E70" t="s">
+        <v>34</v>
+      </c>
+      <c r="F70">
+        <v>32</v>
+      </c>
+      <c r="G70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7">
+      <c r="B71" t="b">
+        <v>0</v>
+      </c>
+      <c r="C71" t="b">
+        <v>0</v>
+      </c>
+      <c r="D71" t="s">
+        <v>34</v>
+      </c>
+      <c r="E71" t="s">
+        <v>34</v>
+      </c>
+      <c r="F71">
+        <v>33</v>
+      </c>
+      <c r="G71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7">
+      <c r="B72" t="b">
+        <v>0</v>
+      </c>
+      <c r="C72" t="b">
+        <v>0</v>
+      </c>
+      <c r="D72" t="s">
+        <v>34</v>
+      </c>
+      <c r="E72" t="s">
+        <v>34</v>
+      </c>
+      <c r="F72">
+        <v>34</v>
+      </c>
+      <c r="G72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7">
+      <c r="B73" t="b">
+        <v>0</v>
+      </c>
+      <c r="C73" t="b">
+        <v>0</v>
+      </c>
+      <c r="D73" t="s">
+        <v>34</v>
+      </c>
+      <c r="E73" t="s">
+        <v>34</v>
+      </c>
+      <c r="F73">
+        <v>35</v>
+      </c>
+      <c r="G73">
         <v>2</v>
       </c>
     </row>
@@ -13964,13 +14624,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E18498A1-5986-5746-A6EC-91EED91C0F63}">
   <dimension ref="B3:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4:H33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:8">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -13993,7 +14653,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:8">
       <c r="B4">
         <v>0.30000000000000004</v>
       </c>
@@ -14016,7 +14676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:8">
       <c r="B5">
         <v>0.30000000000000004</v>
       </c>
@@ -14039,7 +14699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:8">
       <c r="B6">
         <v>0.2</v>
       </c>
@@ -14062,7 +14722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:8">
       <c r="B7">
         <v>0.8</v>
       </c>
@@ -14085,7 +14745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:8">
       <c r="B8">
         <v>0.60000000000000009</v>
       </c>
@@ -14108,7 +14768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:8">
       <c r="B9">
         <v>0.30000000000000004</v>
       </c>
@@ -14131,7 +14791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:8">
       <c r="B10">
         <v>0.60000000000000009</v>
       </c>
@@ -14154,7 +14814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:8">
       <c r="B11">
         <v>0.4</v>
       </c>
@@ -14177,7 +14837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:8">
       <c r="B12">
         <v>0.9</v>
       </c>
@@ -14200,7 +14860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:8">
       <c r="B13">
         <v>0.70000000000000007</v>
       </c>
@@ -14223,7 +14883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:8">
       <c r="B14">
         <v>0.2</v>
       </c>
@@ -14246,7 +14906,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:8">
       <c r="B15">
         <v>0.2</v>
       </c>
@@ -14269,7 +14929,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:8">
       <c r="B16">
         <v>0.2</v>
       </c>
@@ -14292,7 +14952,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:8">
       <c r="B17">
         <v>0.2</v>
       </c>
@@ -14315,7 +14975,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:8">
       <c r="B18">
         <v>0.4</v>
       </c>
@@ -14338,7 +14998,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:8">
       <c r="B19">
         <v>0.9</v>
       </c>
@@ -14361,7 +15021,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:8">
       <c r="B20">
         <v>0.30000000000000004</v>
       </c>
@@ -14384,7 +15044,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:8">
       <c r="B21">
         <v>0.5</v>
       </c>
@@ -14407,7 +15067,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:8">
       <c r="B22">
         <v>0.1</v>
       </c>
@@ -14430,7 +15090,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:8">
       <c r="B23">
         <v>0.1</v>
       </c>
@@ -14453,7 +15113,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:8">
       <c r="B24">
         <v>0.8</v>
       </c>
@@ -14476,7 +15136,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:8">
       <c r="B25">
         <v>0.4</v>
       </c>
@@ -14499,7 +15159,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:8">
       <c r="B26">
         <v>0.5</v>
       </c>
@@ -14522,7 +15182,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:8">
       <c r="B27">
         <v>0.5</v>
       </c>
@@ -14545,7 +15205,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:8">
       <c r="B28">
         <v>0.5</v>
       </c>
@@ -14568,7 +15228,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:8">
       <c r="B29">
         <v>0.2</v>
       </c>
@@ -14591,7 +15251,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:8">
       <c r="B30">
         <v>0.30000000000000004</v>
       </c>
@@ -14614,7 +15274,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:8">
       <c r="B31">
         <v>0.5</v>
       </c>
@@ -14637,7 +15297,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:8">
       <c r="B32">
         <v>0.30000000000000004</v>
       </c>
@@ -14660,7 +15320,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:8">
       <c r="B33">
         <v>0.1</v>
       </c>

--- a/seed.xlsx
+++ b/seed.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11209"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="29005"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zacharymargolies/Desktop/coding/coding-question-trivia-server/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19956313-9A5B-8249-80F7-818C452E9C4E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="18000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="topics" sheetId="4" r:id="rId1"/>
@@ -25,31 +24,31 @@
     <definedName name="Quizlet_Questions" localSheetId="3">questions!#REF!</definedName>
     <definedName name="Quizlet_Questions_1" localSheetId="3">questions!$C$47:$D$206</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="Quizlet Questions" type="6" refreshedVersion="0" background="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="Quizlet Questions" type="6" refreshedVersion="0" background="1">
     <textPr fileType="mac" sourceFile="/Users/zacharymargolies/Desktop/Quizlet Questions.rtf" tab="0" comma="1">
       <textFields>
         <textField type="text"/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" name="Quizlet Questions1" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="2" name="Quizlet Questions1" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/zacharymargolies/Desktop/Quizlet Questions.rtf" tab="0" delimiter="*">
       <textFields count="2">
         <textField type="text"/>
@@ -61,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2011" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2011" uniqueCount="357">
   <si>
     <t>id</t>
   </si>
@@ -1131,13 +1130,16 @@
   </si>
   <si>
     <t>https://cdn.auth0.com/blog/redux-tutorial/logo.png</t>
+  </si>
+  <si>
+    <t>REACTJS FILLER FACT - 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1212,7 +1214,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="182">
+  <cellStyleXfs count="190">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1395,6 +1397,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1416,7 +1426,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="181"/>
   </cellXfs>
-  <cellStyles count="182">
+  <cellStyles count="190">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1507,6 +1517,14 @@
     <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="183" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="185" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="187" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="189" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1614,7 +1632,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Quizlet Questions_1" connectionId="2" xr16:uid="{00000000-0016-0000-0200-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Quizlet Questions_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1913,20 +1931,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3:H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="115.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:8">
+    <row r="2" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C2" s="5" t="s">
         <v>0</v>
       </c>
@@ -1946,7 +1964,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="3:8">
+    <row r="3" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C3" s="2">
         <v>1</v>
       </c>
@@ -1964,7 +1982,7 @@
       </c>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="3:8">
+    <row r="4" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C4" s="2">
         <v>2</v>
       </c>
@@ -1982,7 +2000,7 @@
       </c>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="3:8">
+    <row r="5" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C5" s="2">
         <v>3</v>
       </c>
@@ -2000,7 +2018,7 @@
       </c>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="3:8">
+    <row r="6" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C6" s="2">
         <v>4</v>
       </c>
@@ -2018,7 +2036,7 @@
       </c>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="3:8">
+    <row r="7" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C7" s="2">
         <v>5</v>
       </c>
@@ -2036,7 +2054,7 @@
       </c>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="3:8">
+    <row r="8" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C8" s="2">
         <v>6</v>
       </c>
@@ -2054,7 +2072,7 @@
       </c>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="3:8">
+    <row r="9" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C9" s="2">
         <v>7</v>
       </c>
@@ -2072,7 +2090,7 @@
       </c>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="3:8">
+    <row r="10" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C10" s="2">
         <v>8</v>
       </c>
@@ -2090,7 +2108,7 @@
       </c>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="3:8">
+    <row r="11" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C11" s="2">
         <v>9</v>
       </c>
@@ -2108,7 +2126,7 @@
       </c>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="3:8">
+    <row r="12" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C12" s="2">
         <v>10</v>
       </c>
@@ -2126,7 +2144,7 @@
       </c>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="3:8">
+    <row r="13" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C13" s="2">
         <v>11</v>
       </c>
@@ -2144,7 +2162,7 @@
       </c>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="3:8">
+    <row r="14" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C14" s="2">
         <v>12</v>
       </c>
@@ -2161,7 +2179,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="3:8">
+    <row r="15" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C15" s="2">
         <v>13</v>
       </c>
@@ -2178,7 +2196,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="3:8">
+    <row r="16" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C16" s="2">
         <v>14</v>
       </c>
@@ -2195,7 +2213,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="3:7">
+    <row r="17" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C17" s="2">
         <v>15</v>
       </c>
@@ -2212,7 +2230,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="3:7">
+    <row r="18" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C18" s="2">
         <v>16</v>
       </c>
@@ -2229,7 +2247,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="3:7">
+    <row r="19" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C19" s="2">
         <v>17</v>
       </c>
@@ -2246,7 +2264,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="3:7">
+    <row r="20" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C20" s="2">
         <v>18</v>
       </c>
@@ -2270,21 +2288,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:J37"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="61" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:J37"/>
+    <sheetView tabSelected="1" topLeftCell="B27" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="60.5" customWidth="1"/>
     <col min="5" max="5" width="72.83203125" customWidth="1"/>
     <col min="6" max="6" width="31.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:10">
+    <row r="2" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
         <v>0</v>
       </c>
@@ -2310,7 +2328,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="3:10" ht="17">
+    <row r="3" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C3" s="2">
         <v>1</v>
       </c>
@@ -2336,7 +2354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="3:10" ht="17">
+    <row r="4" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C4" s="2">
         <v>2</v>
       </c>
@@ -2362,7 +2380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="3:10" ht="17">
+    <row r="5" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C5" s="2">
         <v>3</v>
       </c>
@@ -2388,7 +2406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="3:10" ht="17">
+    <row r="6" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C6" s="2">
         <v>4</v>
       </c>
@@ -2414,7 +2432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="3:10" ht="34">
+    <row r="7" spans="3:10" ht="32" x14ac:dyDescent="0.2">
       <c r="C7" s="2">
         <v>5</v>
       </c>
@@ -2440,7 +2458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="3:10" ht="34">
+    <row r="8" spans="3:10" ht="32" x14ac:dyDescent="0.2">
       <c r="C8" s="2">
         <v>6</v>
       </c>
@@ -2466,12 +2484,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="3:10" ht="17">
+    <row r="9" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C9" s="2">
         <v>7</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>13</v>
@@ -2489,15 +2507,15 @@
         <v>34</v>
       </c>
       <c r="J9" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="3:10" ht="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="3:10" ht="32" x14ac:dyDescent="0.2">
       <c r="C10" s="2">
         <v>8</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>13</v>
@@ -2518,12 +2536,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="3:10" ht="34">
+    <row r="11" spans="3:10" ht="48" x14ac:dyDescent="0.2">
       <c r="C11" s="2">
         <v>9</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>13</v>
@@ -2544,47 +2562,47 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="3:10" ht="51">
+    <row r="12" spans="3:10" ht="80" x14ac:dyDescent="0.2">
       <c r="C12" s="2">
         <v>10</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>21</v>
+      <c r="D12" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G12" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I12" s="2" t="s">
+      <c r="F12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12">
+        <v>0.4</v>
+      </c>
+      <c r="H12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" t="s">
         <v>34</v>
       </c>
       <c r="J12" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="3:10" ht="85">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="3:10" ht="112" x14ac:dyDescent="0.2">
       <c r="C13" s="2">
         <v>11</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>13</v>
+      <c r="D13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13">
-        <v>0.4</v>
+        <v>23</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0.6</v>
       </c>
       <c r="H13" t="s">
         <v>34</v>
@@ -2593,24 +2611,24 @@
         <v>34</v>
       </c>
       <c r="J13" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="3:10" ht="119">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="3:10" ht="96" x14ac:dyDescent="0.2">
       <c r="C14" s="2">
         <v>12</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0.6</v>
+        <v>50</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.3</v>
       </c>
       <c r="H14" t="s">
         <v>34</v>
@@ -2619,24 +2637,24 @@
         <v>34</v>
       </c>
       <c r="J14" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="3:10" ht="102">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="3:10" ht="128" x14ac:dyDescent="0.2">
       <c r="C15" s="2">
         <v>13</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>13</v>
+        <v>28</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0.3</v>
+        <v>29</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0.6</v>
       </c>
       <c r="H15" t="s">
         <v>34</v>
@@ -2645,23 +2663,23 @@
         <v>34</v>
       </c>
       <c r="J15" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="3:10" ht="153">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="3:10" ht="80" x14ac:dyDescent="0.2">
       <c r="C16" s="2">
         <v>14</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G16" s="3">
+        <v>32</v>
+      </c>
+      <c r="G16" s="1">
         <v>0.6</v>
       </c>
       <c r="H16" t="s">
@@ -2671,24 +2689,24 @@
         <v>34</v>
       </c>
       <c r="J16" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="3:10" ht="85">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10" ht="48" x14ac:dyDescent="0.2">
       <c r="C17" s="2">
         <v>15</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>33</v>
+        <v>146</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G17" s="1">
-        <v>0.6</v>
+        <v>10</v>
+      </c>
+      <c r="G17">
+        <v>0.4</v>
       </c>
       <c r="H17" t="s">
         <v>34</v>
@@ -2697,15 +2715,15 @@
         <v>34</v>
       </c>
       <c r="J17" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="3:10" ht="51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10" ht="48" x14ac:dyDescent="0.2">
       <c r="C18" s="2">
         <v>16</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>13</v>
@@ -2726,12 +2744,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="3:10" ht="51">
+    <row r="19" spans="3:10" ht="48" x14ac:dyDescent="0.2">
       <c r="C19" s="2">
         <v>17</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>13</v>
@@ -2752,12 +2770,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="3:10" ht="51">
+    <row r="20" spans="3:10" ht="48" x14ac:dyDescent="0.2">
       <c r="C20" s="2">
         <v>18</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>13</v>
@@ -2778,12 +2796,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="3:10" ht="51">
+    <row r="21" spans="3:10" ht="48" x14ac:dyDescent="0.2">
       <c r="C21" s="2">
         <v>19</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>13</v>
@@ -2804,12 +2822,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="3:10" ht="51">
+    <row r="22" spans="3:10" ht="48" x14ac:dyDescent="0.2">
       <c r="C22" s="2">
         <v>20</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>13</v>
@@ -2827,15 +2845,15 @@
         <v>34</v>
       </c>
       <c r="J22" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:10" ht="51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:10" ht="48" x14ac:dyDescent="0.2">
       <c r="C23" s="2">
         <v>21</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>13</v>
@@ -2856,12 +2874,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="3:10" ht="51">
+    <row r="24" spans="3:10" ht="48" x14ac:dyDescent="0.2">
       <c r="C24" s="2">
         <v>22</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>13</v>
@@ -2882,12 +2900,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="3:10" ht="51">
+    <row r="25" spans="3:10" ht="48" x14ac:dyDescent="0.2">
       <c r="C25" s="2">
         <v>23</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>13</v>
@@ -2908,12 +2926,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="3:10" ht="51">
+    <row r="26" spans="3:10" ht="48" x14ac:dyDescent="0.2">
       <c r="C26" s="2">
         <v>24</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>13</v>
@@ -2934,12 +2952,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="3:10" ht="51">
+    <row r="27" spans="3:10" ht="48" x14ac:dyDescent="0.2">
       <c r="C27" s="2">
         <v>25</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>13</v>
@@ -2957,15 +2975,15 @@
         <v>34</v>
       </c>
       <c r="J27" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="3:10" ht="51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="3:10" ht="48" x14ac:dyDescent="0.2">
       <c r="C28" s="2">
         <v>26</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>13</v>
@@ -2986,12 +3004,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="3:10" ht="51">
+    <row r="29" spans="3:10" ht="48" x14ac:dyDescent="0.2">
       <c r="C29" s="2">
         <v>27</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>13</v>
@@ -3012,12 +3030,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="3:10" ht="51">
+    <row r="30" spans="3:10" ht="48" x14ac:dyDescent="0.2">
       <c r="C30" s="2">
         <v>28</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>13</v>
@@ -3038,12 +3056,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="3:10" ht="51">
+    <row r="31" spans="3:10" ht="48" x14ac:dyDescent="0.2">
       <c r="C31" s="2">
         <v>29</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>13</v>
@@ -3064,12 +3082,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="3:10" ht="51">
+    <row r="32" spans="3:10" ht="48" x14ac:dyDescent="0.2">
       <c r="C32" s="2">
         <v>30</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>13</v>
@@ -3087,15 +3105,15 @@
         <v>34</v>
       </c>
       <c r="J32" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="3:10" ht="51">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="3:10" ht="48" x14ac:dyDescent="0.2">
       <c r="C33" s="2">
         <v>31</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>13</v>
@@ -3116,12 +3134,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="3:10" ht="51">
+    <row r="34" spans="3:10" ht="48" x14ac:dyDescent="0.2">
       <c r="C34" s="2">
         <v>32</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>13</v>
@@ -3142,12 +3160,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="3:10" ht="51">
+    <row r="35" spans="3:10" ht="48" x14ac:dyDescent="0.2">
       <c r="C35" s="2">
         <v>33</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>13</v>
@@ -3168,12 +3186,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="3:10" ht="51">
+    <row r="36" spans="3:10" ht="48" x14ac:dyDescent="0.2">
       <c r="C36" s="2">
         <v>34</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>13</v>
@@ -3194,12 +3212,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="3:10" ht="51">
+    <row r="37" spans="3:10" ht="48" x14ac:dyDescent="0.2">
       <c r="C37" s="2">
         <v>35</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>165</v>
+        <v>356</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>13</v>
@@ -3208,7 +3226,7 @@
         <v>10</v>
       </c>
       <c r="G37">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="H37" t="s">
         <v>34</v>
@@ -3217,7 +3235,7 @@
         <v>34</v>
       </c>
       <c r="J37" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -3227,20 +3245,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:H207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3:H207"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="79.83203125" customWidth="1"/>
     <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:8">
+    <row r="2" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
         <v>0</v>
       </c>
@@ -3260,7 +3278,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="3:8" ht="51">
+    <row r="3" spans="3:8" ht="48" x14ac:dyDescent="0.2">
       <c r="C3" s="2">
         <v>1</v>
       </c>
@@ -3280,7 +3298,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="3:8" ht="17">
+    <row r="4" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C4" s="2">
         <v>2</v>
       </c>
@@ -3300,7 +3318,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="3:8" ht="17">
+    <row r="5" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C5" s="2">
         <v>3</v>
       </c>
@@ -3320,7 +3338,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="3:8" ht="34">
+    <row r="6" spans="3:8" ht="32" x14ac:dyDescent="0.2">
       <c r="C6" s="6">
         <v>4</v>
       </c>
@@ -3340,7 +3358,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="3:8" ht="34">
+    <row r="7" spans="3:8" ht="32" x14ac:dyDescent="0.2">
       <c r="C7" s="2">
         <v>5</v>
       </c>
@@ -3360,7 +3378,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="3:8" ht="34">
+    <row r="8" spans="3:8" ht="32" x14ac:dyDescent="0.2">
       <c r="C8" s="2">
         <v>6</v>
       </c>
@@ -3380,7 +3398,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="3:8" ht="85">
+    <row r="9" spans="3:8" ht="80" x14ac:dyDescent="0.2">
       <c r="C9" s="6">
         <v>7</v>
       </c>
@@ -3400,7 +3418,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="3:8" ht="85">
+    <row r="10" spans="3:8" ht="80" x14ac:dyDescent="0.2">
       <c r="C10" s="6">
         <v>8</v>
       </c>
@@ -3420,7 +3438,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="3:8" ht="85">
+    <row r="11" spans="3:8" ht="80" x14ac:dyDescent="0.2">
       <c r="C11" s="6">
         <v>9</v>
       </c>
@@ -3440,7 +3458,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="3:8" ht="17">
+    <row r="12" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C12" s="6">
         <v>10</v>
       </c>
@@ -3460,7 +3478,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="3:8" ht="51">
+    <row r="13" spans="3:8" ht="48" x14ac:dyDescent="0.2">
       <c r="C13" s="6">
         <v>11</v>
       </c>
@@ -3480,7 +3498,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="3:8" ht="17">
+    <row r="14" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C14" s="2">
         <v>12</v>
       </c>
@@ -3500,7 +3518,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="3:8" ht="17">
+    <row r="15" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C15" s="2">
         <v>13</v>
       </c>
@@ -3520,7 +3538,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="3:8" ht="51">
+    <row r="16" spans="3:8" ht="48" x14ac:dyDescent="0.2">
       <c r="C16" s="2">
         <v>14</v>
       </c>
@@ -3540,7 +3558,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="3:8" ht="17">
+    <row r="17" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C17" s="2">
         <v>15</v>
       </c>
@@ -3560,7 +3578,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="3:8" ht="17">
+    <row r="18" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C18" s="2">
         <v>16</v>
       </c>
@@ -3580,7 +3598,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="3:8" ht="34">
+    <row r="19" spans="3:8" ht="32" x14ac:dyDescent="0.2">
       <c r="C19" s="2">
         <v>17</v>
       </c>
@@ -3600,7 +3618,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="3:8" ht="34">
+    <row r="20" spans="3:8" ht="32" x14ac:dyDescent="0.2">
       <c r="C20" s="2">
         <v>18</v>
       </c>
@@ -3620,7 +3638,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="3:8" ht="34">
+    <row r="21" spans="3:8" ht="32" x14ac:dyDescent="0.2">
       <c r="C21" s="2">
         <v>19</v>
       </c>
@@ -3640,7 +3658,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="3:8" ht="34">
+    <row r="22" spans="3:8" ht="32" x14ac:dyDescent="0.2">
       <c r="C22" s="2">
         <v>20</v>
       </c>
@@ -3660,7 +3678,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="3:8" ht="34">
+    <row r="23" spans="3:8" ht="32" x14ac:dyDescent="0.2">
       <c r="C23" s="2">
         <v>21</v>
       </c>
@@ -3680,7 +3698,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="3:8" ht="34">
+    <row r="24" spans="3:8" ht="32" x14ac:dyDescent="0.2">
       <c r="C24" s="6">
         <v>22</v>
       </c>
@@ -3700,7 +3718,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="3:8" ht="51">
+    <row r="25" spans="3:8" ht="48" x14ac:dyDescent="0.2">
       <c r="C25" s="2">
         <v>23</v>
       </c>
@@ -3720,7 +3738,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="3:8" ht="17" customHeight="1">
+    <row r="26" spans="3:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C26" s="6">
         <v>24</v>
       </c>
@@ -3740,7 +3758,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="3:8" ht="51">
+    <row r="27" spans="3:8" ht="48" x14ac:dyDescent="0.2">
       <c r="C27" s="2">
         <v>25</v>
       </c>
@@ -3760,7 +3778,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="3:8" ht="34">
+    <row r="28" spans="3:8" ht="32" x14ac:dyDescent="0.2">
       <c r="C28" s="2">
         <v>26</v>
       </c>
@@ -3780,7 +3798,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="3:8" ht="85">
+    <row r="29" spans="3:8" ht="64" x14ac:dyDescent="0.2">
       <c r="C29" s="6">
         <v>27</v>
       </c>
@@ -3800,7 +3818,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="3:8" ht="34">
+    <row r="30" spans="3:8" ht="32" x14ac:dyDescent="0.2">
       <c r="C30" s="2">
         <v>28</v>
       </c>
@@ -3820,7 +3838,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="3:8" ht="17">
+    <row r="31" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C31" s="2">
         <v>29</v>
       </c>
@@ -3840,7 +3858,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="3:8" ht="17">
+    <row r="32" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C32" s="2">
         <v>30</v>
       </c>
@@ -3860,7 +3878,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="3:8" ht="51">
+    <row r="33" spans="3:8" ht="48" x14ac:dyDescent="0.2">
       <c r="C33" s="2">
         <v>31</v>
       </c>
@@ -3880,7 +3898,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="3:8" ht="34">
+    <row r="34" spans="3:8" ht="32" x14ac:dyDescent="0.2">
       <c r="C34" s="2">
         <v>32</v>
       </c>
@@ -3900,7 +3918,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="3:8" ht="51">
+    <row r="35" spans="3:8" ht="48" x14ac:dyDescent="0.2">
       <c r="C35" s="2">
         <v>33</v>
       </c>
@@ -3920,7 +3938,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="3:8" ht="68">
+    <row r="36" spans="3:8" ht="64" x14ac:dyDescent="0.2">
       <c r="C36" s="6">
         <v>34</v>
       </c>
@@ -3940,7 +3958,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="3:8" ht="34">
+    <row r="37" spans="3:8" ht="32" x14ac:dyDescent="0.2">
       <c r="C37" s="2">
         <v>35</v>
       </c>
@@ -3960,7 +3978,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="3:8" ht="34">
+    <row r="38" spans="3:8" ht="32" x14ac:dyDescent="0.2">
       <c r="C38" s="2">
         <v>36</v>
       </c>
@@ -3980,7 +3998,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="3:8" ht="34">
+    <row r="39" spans="3:8" ht="32" x14ac:dyDescent="0.2">
       <c r="C39" s="6">
         <v>37</v>
       </c>
@@ -4000,7 +4018,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="3:8" ht="153">
+    <row r="40" spans="3:8" ht="128" x14ac:dyDescent="0.2">
       <c r="C40" s="2">
         <v>38</v>
       </c>
@@ -4020,7 +4038,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="3:8" ht="68">
+    <row r="41" spans="3:8" ht="48" x14ac:dyDescent="0.2">
       <c r="C41" s="2">
         <v>39</v>
       </c>
@@ -4040,7 +4058,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="3:8" ht="34">
+    <row r="42" spans="3:8" ht="32" x14ac:dyDescent="0.2">
       <c r="C42" s="6">
         <v>40</v>
       </c>
@@ -4060,7 +4078,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="3:8" ht="68">
+    <row r="43" spans="3:8" ht="64" x14ac:dyDescent="0.2">
       <c r="C43" s="2">
         <v>41</v>
       </c>
@@ -4080,7 +4098,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="3:8" ht="34">
+    <row r="44" spans="3:8" ht="32" x14ac:dyDescent="0.2">
       <c r="C44" s="2">
         <v>42</v>
       </c>
@@ -4100,7 +4118,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="3:8" ht="17">
+    <row r="45" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C45" s="6">
         <v>43</v>
       </c>
@@ -4120,7 +4138,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="3:8" ht="17">
+    <row r="46" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C46" s="2">
         <v>44</v>
       </c>
@@ -4141,7 +4159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="3:8" ht="17">
+    <row r="47" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C47" s="2">
         <v>45</v>
       </c>
@@ -4162,7 +4180,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="3:8" ht="17">
+    <row r="48" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C48" s="6">
         <v>46</v>
       </c>
@@ -4183,7 +4201,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="3:8" ht="17">
+    <row r="49" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C49" s="2">
         <v>47</v>
       </c>
@@ -4204,7 +4222,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="3:8" ht="17">
+    <row r="50" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C50" s="2">
         <v>48</v>
       </c>
@@ -4225,7 +4243,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="3:8" ht="17">
+    <row r="51" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C51" s="6">
         <v>49</v>
       </c>
@@ -4246,7 +4264,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="3:8" ht="17">
+    <row r="52" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C52" s="2">
         <v>50</v>
       </c>
@@ -4267,7 +4285,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="3:8" ht="17">
+    <row r="53" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C53" s="2">
         <v>51</v>
       </c>
@@ -4288,7 +4306,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="3:8" ht="17">
+    <row r="54" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C54" s="6">
         <v>52</v>
       </c>
@@ -4309,7 +4327,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="3:8" ht="17">
+    <row r="55" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C55" s="2">
         <v>53</v>
       </c>
@@ -4330,7 +4348,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="3:8" ht="17">
+    <row r="56" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C56" s="2">
         <v>54</v>
       </c>
@@ -4351,7 +4369,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="3:8" ht="17">
+    <row r="57" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C57" s="6">
         <v>55</v>
       </c>
@@ -4372,7 +4390,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="3:8" ht="17">
+    <row r="58" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C58" s="2">
         <v>56</v>
       </c>
@@ -4393,7 +4411,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="3:8" ht="17">
+    <row r="59" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C59" s="2">
         <v>57</v>
       </c>
@@ -4414,7 +4432,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="60" spans="3:8" ht="17">
+    <row r="60" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C60" s="6">
         <v>58</v>
       </c>
@@ -4435,7 +4453,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="3:8" ht="17">
+    <row r="61" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C61" s="2">
         <v>59</v>
       </c>
@@ -4456,7 +4474,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="3:8" ht="17">
+    <row r="62" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C62" s="2">
         <v>60</v>
       </c>
@@ -4477,7 +4495,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="3:8" ht="17">
+    <row r="63" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C63" s="6">
         <v>61</v>
       </c>
@@ -4498,7 +4516,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="64" spans="3:8" ht="17">
+    <row r="64" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C64" s="2">
         <v>62</v>
       </c>
@@ -4519,7 +4537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="3:8" ht="17">
+    <row r="65" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C65" s="2">
         <v>63</v>
       </c>
@@ -4540,7 +4558,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="3:8" ht="17">
+    <row r="66" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C66" s="6">
         <v>64</v>
       </c>
@@ -4561,7 +4579,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="3:8" ht="17">
+    <row r="67" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C67" s="2">
         <v>65</v>
       </c>
@@ -4582,7 +4600,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="3:8" ht="17">
+    <row r="68" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C68" s="2">
         <v>66</v>
       </c>
@@ -4603,7 +4621,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="3:8" ht="17">
+    <row r="69" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C69" s="6">
         <v>67</v>
       </c>
@@ -4624,7 +4642,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="3:8" ht="17">
+    <row r="70" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C70" s="2">
         <v>68</v>
       </c>
@@ -4645,7 +4663,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="3:8" ht="17">
+    <row r="71" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C71" s="2">
         <v>69</v>
       </c>
@@ -4666,7 +4684,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="3:8" ht="17">
+    <row r="72" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C72" s="6">
         <v>70</v>
       </c>
@@ -4687,7 +4705,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="3:8" ht="17">
+    <row r="73" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C73" s="2">
         <v>71</v>
       </c>
@@ -4708,7 +4726,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="3:8" ht="17">
+    <row r="74" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C74" s="2">
         <v>72</v>
       </c>
@@ -4729,7 +4747,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="75" spans="3:8" ht="17">
+    <row r="75" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C75" s="6">
         <v>73</v>
       </c>
@@ -4750,7 +4768,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="76" spans="3:8" ht="17">
+    <row r="76" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C76" s="2">
         <v>74</v>
       </c>
@@ -4771,7 +4789,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="77" spans="3:8" ht="17">
+    <row r="77" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C77" s="2">
         <v>75</v>
       </c>
@@ -4792,7 +4810,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="78" spans="3:8" ht="17">
+    <row r="78" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C78" s="6">
         <v>76</v>
       </c>
@@ -4813,7 +4831,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="79" spans="3:8" ht="17">
+    <row r="79" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C79" s="2">
         <v>77</v>
       </c>
@@ -4834,7 +4852,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="80" spans="3:8" ht="17">
+    <row r="80" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C80" s="2">
         <v>78</v>
       </c>
@@ -4855,7 +4873,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="81" spans="3:8" ht="17">
+    <row r="81" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C81" s="6">
         <v>79</v>
       </c>
@@ -4876,7 +4894,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="82" spans="3:8" ht="17">
+    <row r="82" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C82" s="2">
         <v>80</v>
       </c>
@@ -4897,7 +4915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="3:8" ht="17">
+    <row r="83" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C83" s="2">
         <v>81</v>
       </c>
@@ -4918,7 +4936,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="3:8" ht="17">
+    <row r="84" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C84" s="6">
         <v>82</v>
       </c>
@@ -4939,7 +4957,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="3:8" ht="17">
+    <row r="85" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C85" s="2">
         <v>83</v>
       </c>
@@ -4960,7 +4978,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="3:8" ht="17">
+    <row r="86" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C86" s="2">
         <v>84</v>
       </c>
@@ -4981,7 +4999,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="3:8" ht="17">
+    <row r="87" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C87" s="6">
         <v>85</v>
       </c>
@@ -5002,7 +5020,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="3:8" ht="17">
+    <row r="88" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C88" s="2">
         <v>86</v>
       </c>
@@ -5023,7 +5041,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="3:8" ht="17">
+    <row r="89" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C89" s="2">
         <v>87</v>
       </c>
@@ -5044,7 +5062,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="3:8" ht="17">
+    <row r="90" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C90" s="6">
         <v>88</v>
       </c>
@@ -5065,7 +5083,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="3:8" ht="17">
+    <row r="91" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C91" s="2">
         <v>89</v>
       </c>
@@ -5086,7 +5104,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="3:8" ht="17">
+    <row r="92" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C92" s="2">
         <v>90</v>
       </c>
@@ -5107,7 +5125,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="93" spans="3:8" ht="17">
+    <row r="93" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C93" s="6">
         <v>91</v>
       </c>
@@ -5128,7 +5146,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="94" spans="3:8" ht="17">
+    <row r="94" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C94" s="2">
         <v>92</v>
       </c>
@@ -5149,7 +5167,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="95" spans="3:8" ht="17">
+    <row r="95" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C95" s="2">
         <v>93</v>
       </c>
@@ -5170,7 +5188,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="96" spans="3:8" ht="17">
+    <row r="96" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C96" s="6">
         <v>94</v>
       </c>
@@ -5191,7 +5209,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="97" spans="3:8" ht="17">
+    <row r="97" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C97" s="2">
         <v>95</v>
       </c>
@@ -5212,7 +5230,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="98" spans="3:8" ht="17">
+    <row r="98" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C98" s="2">
         <v>96</v>
       </c>
@@ -5233,7 +5251,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="99" spans="3:8" ht="17">
+    <row r="99" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C99" s="6">
         <v>97</v>
       </c>
@@ -5254,7 +5272,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="100" spans="3:8" ht="17">
+    <row r="100" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C100" s="2">
         <v>98</v>
       </c>
@@ -5275,7 +5293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="3:8" ht="17">
+    <row r="101" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C101" s="2">
         <v>99</v>
       </c>
@@ -5296,7 +5314,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="3:8" ht="17">
+    <row r="102" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C102" s="6">
         <v>100</v>
       </c>
@@ -5317,7 +5335,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="3:8" ht="17">
+    <row r="103" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C103" s="2">
         <v>101</v>
       </c>
@@ -5338,7 +5356,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="3:8" ht="17">
+    <row r="104" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C104" s="2">
         <v>102</v>
       </c>
@@ -5359,7 +5377,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="105" spans="3:8" ht="17">
+    <row r="105" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C105" s="6">
         <v>103</v>
       </c>
@@ -5380,7 +5398,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="106" spans="3:8" ht="17">
+    <row r="106" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C106" s="2">
         <v>104</v>
       </c>
@@ -5401,7 +5419,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="107" spans="3:8" ht="17">
+    <row r="107" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C107" s="2">
         <v>105</v>
       </c>
@@ -5422,7 +5440,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="3:8" ht="17">
+    <row r="108" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C108" s="6">
         <v>106</v>
       </c>
@@ -5443,7 +5461,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="109" spans="3:8" ht="17">
+    <row r="109" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C109" s="2">
         <v>107</v>
       </c>
@@ -5464,7 +5482,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="110" spans="3:8" ht="17">
+    <row r="110" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C110" s="2">
         <v>108</v>
       </c>
@@ -5485,7 +5503,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="111" spans="3:8" ht="17">
+    <row r="111" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C111" s="6">
         <v>109</v>
       </c>
@@ -5506,7 +5524,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="112" spans="3:8" ht="17">
+    <row r="112" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C112" s="2">
         <v>110</v>
       </c>
@@ -5527,7 +5545,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="113" spans="3:8" ht="17">
+    <row r="113" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C113" s="2">
         <v>111</v>
       </c>
@@ -5548,7 +5566,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="114" spans="3:8" ht="17">
+    <row r="114" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C114" s="6">
         <v>112</v>
       </c>
@@ -5569,7 +5587,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="115" spans="3:8" ht="17">
+    <row r="115" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C115" s="2">
         <v>113</v>
       </c>
@@ -5590,7 +5608,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="116" spans="3:8" ht="17">
+    <row r="116" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C116" s="2">
         <v>114</v>
       </c>
@@ -5611,7 +5629,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="117" spans="3:8" ht="17">
+    <row r="117" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C117" s="6">
         <v>115</v>
       </c>
@@ -5632,7 +5650,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="118" spans="3:8" ht="17">
+    <row r="118" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C118" s="2">
         <v>116</v>
       </c>
@@ -5653,7 +5671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="3:8" ht="17">
+    <row r="119" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C119" s="2">
         <v>117</v>
       </c>
@@ -5674,7 +5692,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="3:8" ht="17">
+    <row r="120" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C120" s="6">
         <v>118</v>
       </c>
@@ -5695,7 +5713,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="3:8" ht="17">
+    <row r="121" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C121" s="2">
         <v>119</v>
       </c>
@@ -5716,7 +5734,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="3:8" ht="17">
+    <row r="122" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C122" s="2">
         <v>120</v>
       </c>
@@ -5737,7 +5755,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="3:8" ht="17">
+    <row r="123" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C123" s="6">
         <v>121</v>
       </c>
@@ -5758,7 +5776,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="124" spans="3:8" ht="17">
+    <row r="124" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C124" s="2">
         <v>122</v>
       </c>
@@ -5779,7 +5797,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="125" spans="3:8" ht="17">
+    <row r="125" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C125" s="2">
         <v>123</v>
       </c>
@@ -5800,7 +5818,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="126" spans="3:8" ht="17">
+    <row r="126" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C126" s="6">
         <v>124</v>
       </c>
@@ -5821,7 +5839,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="127" spans="3:8" ht="17">
+    <row r="127" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C127" s="2">
         <v>125</v>
       </c>
@@ -5842,7 +5860,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="128" spans="3:8" ht="17">
+    <row r="128" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C128" s="2">
         <v>126</v>
       </c>
@@ -5863,7 +5881,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="129" spans="3:8" ht="17">
+    <row r="129" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C129" s="6">
         <v>127</v>
       </c>
@@ -5884,7 +5902,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="130" spans="3:8" ht="17">
+    <row r="130" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C130" s="2">
         <v>128</v>
       </c>
@@ -5905,7 +5923,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="131" spans="3:8" ht="17">
+    <row r="131" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C131" s="2">
         <v>129</v>
       </c>
@@ -5926,7 +5944,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="132" spans="3:8" ht="17">
+    <row r="132" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C132" s="6">
         <v>130</v>
       </c>
@@ -5947,7 +5965,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="133" spans="3:8" ht="17">
+    <row r="133" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C133" s="2">
         <v>131</v>
       </c>
@@ -5968,7 +5986,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="134" spans="3:8" ht="17">
+    <row r="134" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C134" s="2">
         <v>132</v>
       </c>
@@ -5989,7 +6007,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="135" spans="3:8" ht="17">
+    <row r="135" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C135" s="6">
         <v>133</v>
       </c>
@@ -6010,7 +6028,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="136" spans="3:8" ht="17">
+    <row r="136" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C136" s="2">
         <v>134</v>
       </c>
@@ -6031,7 +6049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="3:8" ht="17">
+    <row r="137" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C137" s="2">
         <v>135</v>
       </c>
@@ -6052,7 +6070,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="3:8" ht="17">
+    <row r="138" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C138" s="6">
         <v>136</v>
       </c>
@@ -6073,7 +6091,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="3:8" ht="17">
+    <row r="139" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C139" s="2">
         <v>137</v>
       </c>
@@ -6094,7 +6112,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="3:8" ht="17">
+    <row r="140" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C140" s="2">
         <v>138</v>
       </c>
@@ -6115,7 +6133,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="141" spans="3:8" ht="17">
+    <row r="141" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C141" s="6">
         <v>139</v>
       </c>
@@ -6136,7 +6154,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="142" spans="3:8" ht="17">
+    <row r="142" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C142" s="2">
         <v>140</v>
       </c>
@@ -6157,7 +6175,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="143" spans="3:8" ht="17">
+    <row r="143" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C143" s="2">
         <v>141</v>
       </c>
@@ -6178,7 +6196,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="144" spans="3:8" ht="17">
+    <row r="144" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C144" s="6">
         <v>142</v>
       </c>
@@ -6199,7 +6217,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="145" spans="3:8" ht="17">
+    <row r="145" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C145" s="2">
         <v>143</v>
       </c>
@@ -6220,7 +6238,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="146" spans="3:8" ht="17">
+    <row r="146" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C146" s="2">
         <v>144</v>
       </c>
@@ -6241,7 +6259,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="147" spans="3:8" ht="17">
+    <row r="147" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C147" s="6">
         <v>145</v>
       </c>
@@ -6262,7 +6280,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="148" spans="3:8" ht="17">
+    <row r="148" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C148" s="2">
         <v>146</v>
       </c>
@@ -6283,7 +6301,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="149" spans="3:8" ht="17">
+    <row r="149" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C149" s="2">
         <v>147</v>
       </c>
@@ -6304,7 +6322,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="150" spans="3:8" ht="17">
+    <row r="150" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C150" s="6">
         <v>148</v>
       </c>
@@ -6325,7 +6343,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="151" spans="3:8" ht="17">
+    <row r="151" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C151" s="2">
         <v>149</v>
       </c>
@@ -6346,7 +6364,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="152" spans="3:8" ht="17">
+    <row r="152" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C152" s="2">
         <v>150</v>
       </c>
@@ -6367,7 +6385,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="153" spans="3:8" ht="17">
+    <row r="153" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C153" s="6">
         <v>151</v>
       </c>
@@ -6388,7 +6406,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="154" spans="3:8" ht="17">
+    <row r="154" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C154" s="2">
         <v>152</v>
       </c>
@@ -6409,7 +6427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="3:8" ht="17">
+    <row r="155" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C155" s="2">
         <v>153</v>
       </c>
@@ -6430,7 +6448,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="3:8" ht="17">
+    <row r="156" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C156" s="6">
         <v>154</v>
       </c>
@@ -6451,7 +6469,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="157" spans="3:8" ht="17">
+    <row r="157" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C157" s="2">
         <v>155</v>
       </c>
@@ -6472,7 +6490,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="3:8" ht="17">
+    <row r="158" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C158" s="2">
         <v>156</v>
       </c>
@@ -6493,7 +6511,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="159" spans="3:8" ht="17">
+    <row r="159" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C159" s="6">
         <v>157</v>
       </c>
@@ -6514,7 +6532,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="160" spans="3:8" ht="17">
+    <row r="160" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C160" s="2">
         <v>158</v>
       </c>
@@ -6535,7 +6553,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="161" spans="3:8" ht="17">
+    <row r="161" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C161" s="2">
         <v>159</v>
       </c>
@@ -6556,7 +6574,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="162" spans="3:8" ht="17">
+    <row r="162" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C162" s="6">
         <v>160</v>
       </c>
@@ -6577,7 +6595,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="163" spans="3:8" ht="17">
+    <row r="163" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C163" s="2">
         <v>161</v>
       </c>
@@ -6598,7 +6616,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="164" spans="3:8" ht="17">
+    <row r="164" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C164" s="2">
         <v>162</v>
       </c>
@@ -6619,7 +6637,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="165" spans="3:8" ht="17">
+    <row r="165" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C165" s="6">
         <v>163</v>
       </c>
@@ -6640,7 +6658,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="166" spans="3:8" ht="17">
+    <row r="166" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C166" s="2">
         <v>164</v>
       </c>
@@ -6661,7 +6679,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="167" spans="3:8" ht="17">
+    <row r="167" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C167" s="2">
         <v>165</v>
       </c>
@@ -6682,7 +6700,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="168" spans="3:8" ht="17">
+    <row r="168" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C168" s="6">
         <v>166</v>
       </c>
@@ -6703,7 +6721,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="169" spans="3:8" ht="17">
+    <row r="169" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C169" s="2">
         <v>167</v>
       </c>
@@ -6724,7 +6742,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="170" spans="3:8" ht="17">
+    <row r="170" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C170" s="2">
         <v>168</v>
       </c>
@@ -6745,7 +6763,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="171" spans="3:8" ht="17">
+    <row r="171" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C171" s="6">
         <v>169</v>
       </c>
@@ -6766,7 +6784,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="172" spans="3:8" ht="17">
+    <row r="172" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C172" s="2">
         <v>170</v>
       </c>
@@ -6787,7 +6805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="3:8" ht="17">
+    <row r="173" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C173" s="2">
         <v>171</v>
       </c>
@@ -6808,7 +6826,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="3:8" ht="17">
+    <row r="174" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C174" s="6">
         <v>172</v>
       </c>
@@ -6829,7 +6847,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="3:8" ht="17">
+    <row r="175" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C175" s="2">
         <v>173</v>
       </c>
@@ -6850,7 +6868,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="176" spans="3:8" ht="17">
+    <row r="176" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C176" s="2">
         <v>174</v>
       </c>
@@ -6871,7 +6889,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="177" spans="3:8" ht="17">
+    <row r="177" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C177" s="6">
         <v>175</v>
       </c>
@@ -6892,7 +6910,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="178" spans="3:8" ht="17">
+    <row r="178" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C178" s="2">
         <v>176</v>
       </c>
@@ -6913,7 +6931,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="179" spans="3:8" ht="17">
+    <row r="179" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C179" s="2">
         <v>177</v>
       </c>
@@ -6934,7 +6952,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="180" spans="3:8" ht="17">
+    <row r="180" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C180" s="6">
         <v>178</v>
       </c>
@@ -6955,7 +6973,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="181" spans="3:8" ht="17">
+    <row r="181" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C181" s="2">
         <v>179</v>
       </c>
@@ -6976,7 +6994,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="182" spans="3:8" ht="17">
+    <row r="182" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C182" s="2">
         <v>180</v>
       </c>
@@ -6997,7 +7015,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="183" spans="3:8" ht="17">
+    <row r="183" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C183" s="6">
         <v>181</v>
       </c>
@@ -7018,7 +7036,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="184" spans="3:8" ht="17">
+    <row r="184" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C184" s="2">
         <v>182</v>
       </c>
@@ -7039,7 +7057,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="185" spans="3:8" ht="17">
+    <row r="185" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C185" s="2">
         <v>183</v>
       </c>
@@ -7060,7 +7078,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="186" spans="3:8" ht="17">
+    <row r="186" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C186" s="6">
         <v>184</v>
       </c>
@@ -7081,7 +7099,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="187" spans="3:8" ht="17">
+    <row r="187" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C187" s="2">
         <v>185</v>
       </c>
@@ -7102,7 +7120,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="188" spans="3:8" ht="17">
+    <row r="188" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C188" s="2">
         <v>186</v>
       </c>
@@ -7123,7 +7141,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="189" spans="3:8" ht="17">
+    <row r="189" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C189" s="6">
         <v>187</v>
       </c>
@@ -7144,7 +7162,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="190" spans="3:8" ht="17">
+    <row r="190" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C190" s="2">
         <v>188</v>
       </c>
@@ -7165,7 +7183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="3:8" ht="17">
+    <row r="191" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C191" s="2">
         <v>189</v>
       </c>
@@ -7186,7 +7204,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="192" spans="3:8" ht="17">
+    <row r="192" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C192" s="6">
         <v>190</v>
       </c>
@@ -7207,7 +7225,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="193" spans="3:8" ht="17">
+    <row r="193" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C193" s="2">
         <v>191</v>
       </c>
@@ -7228,7 +7246,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="194" spans="3:8" ht="17">
+    <row r="194" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C194" s="2">
         <v>192</v>
       </c>
@@ -7249,7 +7267,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="195" spans="3:8" ht="17">
+    <row r="195" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C195" s="6">
         <v>193</v>
       </c>
@@ -7270,7 +7288,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="196" spans="3:8" ht="17">
+    <row r="196" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C196" s="2">
         <v>194</v>
       </c>
@@ -7291,7 +7309,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="197" spans="3:8" ht="17">
+    <row r="197" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C197" s="2">
         <v>195</v>
       </c>
@@ -7312,7 +7330,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="198" spans="3:8" ht="17">
+    <row r="198" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C198" s="6">
         <v>196</v>
       </c>
@@ -7333,7 +7351,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="199" spans="3:8" ht="17">
+    <row r="199" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C199" s="2">
         <v>197</v>
       </c>
@@ -7354,7 +7372,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="200" spans="3:8" ht="17">
+    <row r="200" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C200" s="2">
         <v>198</v>
       </c>
@@ -7375,7 +7393,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="201" spans="3:8" ht="17">
+    <row r="201" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C201" s="6">
         <v>199</v>
       </c>
@@ -7396,7 +7414,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="202" spans="3:8" ht="17">
+    <row r="202" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C202" s="2">
         <v>200</v>
       </c>
@@ -7417,7 +7435,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="203" spans="3:8" ht="17">
+    <row r="203" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C203" s="2">
         <v>201</v>
       </c>
@@ -7438,7 +7456,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="204" spans="3:8" ht="17">
+    <row r="204" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C204" s="6">
         <v>202</v>
       </c>
@@ -7459,7 +7477,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="205" spans="3:8" ht="17">
+    <row r="205" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C205" s="2">
         <v>203</v>
       </c>
@@ -7480,7 +7498,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="206" spans="3:8" ht="17">
+    <row r="206" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C206" s="2">
         <v>204</v>
       </c>
@@ -7501,7 +7519,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="207" spans="3:8" ht="17">
+    <row r="207" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C207" s="6">
         <v>205</v>
       </c>
@@ -7529,14 +7547,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:J206"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="B4" sqref="B4:J206"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="93" customWidth="1"/>
     <col min="4" max="4" width="18.1640625" customWidth="1"/>
@@ -7546,7 +7564,7 @@
     <col min="8" max="11" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -7575,7 +7593,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="17">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
         <v>1</v>
       </c>
@@ -7602,7 +7620,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="17">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -7629,7 +7647,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="17">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6" s="2">
         <v>3</v>
       </c>
@@ -7656,7 +7674,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="17">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" s="2">
         <v>4</v>
       </c>
@@ -7683,7 +7701,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="2:10" ht="17">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8" s="2">
         <v>5</v>
       </c>
@@ -7710,7 +7728,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="17">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" s="2">
         <v>6</v>
       </c>
@@ -7737,7 +7755,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="2:10" ht="17">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" s="2">
         <v>7</v>
       </c>
@@ -7764,7 +7782,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="2:10" ht="17">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11" s="2">
         <v>8</v>
       </c>
@@ -7791,7 +7809,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="2:10" ht="17">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" s="2">
         <v>9</v>
       </c>
@@ -7818,7 +7836,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="2:10" ht="17">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" s="2">
         <v>10</v>
       </c>
@@ -7845,7 +7863,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:10" ht="17">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" s="2">
         <v>11</v>
       </c>
@@ -7872,7 +7890,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="2:10" ht="17">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15" s="2">
         <v>12</v>
       </c>
@@ -7899,7 +7917,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="2:10" ht="17">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B16" s="2">
         <v>13</v>
       </c>
@@ -7926,7 +7944,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="2:10" ht="17">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="2">
         <v>14</v>
       </c>
@@ -7953,7 +7971,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="2:10" ht="34">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="2">
         <v>15</v>
       </c>
@@ -7980,7 +7998,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="2:10" ht="17">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" s="2">
         <v>16</v>
       </c>
@@ -8007,7 +8025,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="17">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" s="2">
         <v>17</v>
       </c>
@@ -8034,7 +8052,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="2:10" ht="17">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21" s="2">
         <v>18</v>
       </c>
@@ -8061,7 +8079,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="2:10" ht="17">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22" s="2">
         <v>19</v>
       </c>
@@ -8088,7 +8106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="17">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B23" s="2">
         <v>20</v>
       </c>
@@ -8115,7 +8133,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="2:10" ht="17">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B24" s="2">
         <v>21</v>
       </c>
@@ -8142,7 +8160,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="2:10" ht="17">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B25" s="2">
         <v>22</v>
       </c>
@@ -8169,7 +8187,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="17">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B26" s="2">
         <v>23</v>
       </c>
@@ -8196,7 +8214,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="17">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B27" s="2">
         <v>24</v>
       </c>
@@ -8223,7 +8241,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="17">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B28" s="2">
         <v>25</v>
       </c>
@@ -8250,7 +8268,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="17">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B29" s="2">
         <v>26</v>
       </c>
@@ -8277,7 +8295,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="2:10" ht="17">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B30" s="2">
         <v>27</v>
       </c>
@@ -8304,7 +8322,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="2:10" ht="17">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B31" s="2">
         <v>28</v>
       </c>
@@ -8331,7 +8349,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="2:10" ht="17">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B32" s="2">
         <v>29</v>
       </c>
@@ -8358,7 +8376,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="2:10" ht="17">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B33" s="2">
         <v>30</v>
       </c>
@@ -8385,7 +8403,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="2:10" ht="17">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B34" s="2">
         <v>31</v>
       </c>
@@ -8412,7 +8430,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="2:10" ht="17">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B35" s="2">
         <v>32</v>
       </c>
@@ -8439,7 +8457,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="2:10" ht="17">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B36" s="2">
         <v>33</v>
       </c>
@@ -8466,7 +8484,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="2:10" ht="17">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B37" s="2">
         <v>34</v>
       </c>
@@ -8493,7 +8511,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="2:10" ht="17">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B38" s="2">
         <v>35</v>
       </c>
@@ -8520,7 +8538,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="2:10" ht="17">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B39" s="2">
         <v>36</v>
       </c>
@@ -8547,7 +8565,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="2:10" ht="17">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B40" s="2">
         <v>37</v>
       </c>
@@ -8574,7 +8592,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="2:10" ht="17">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B41" s="2">
         <v>38</v>
       </c>
@@ -8601,7 +8619,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="2:10" ht="17">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B42" s="2">
         <v>39</v>
       </c>
@@ -8628,7 +8646,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="2:10" ht="17">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B43" s="2">
         <v>40</v>
       </c>
@@ -8655,7 +8673,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="2:10" ht="17">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B44" s="2">
         <v>41</v>
       </c>
@@ -8682,7 +8700,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="2:10" ht="17">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B45" s="2">
         <v>42</v>
       </c>
@@ -8709,7 +8727,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="2:10" ht="17">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B46" s="2">
         <v>43</v>
       </c>
@@ -8736,7 +8754,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="2:10">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B47" s="2">
         <v>44</v>
       </c>
@@ -8763,7 +8781,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="48" spans="2:10">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B48" s="8">
         <v>45</v>
       </c>
@@ -8790,7 +8808,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="2:10">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B49" s="2">
         <v>46</v>
       </c>
@@ -8817,7 +8835,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="50" spans="2:10">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B50" s="2">
         <v>47</v>
       </c>
@@ -8844,7 +8862,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="51" spans="2:10">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B51" s="2">
         <v>48</v>
       </c>
@@ -8871,7 +8889,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="52" spans="2:10">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B52" s="2">
         <v>49</v>
       </c>
@@ -8898,7 +8916,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="53" spans="2:10">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B53" s="2">
         <v>50</v>
       </c>
@@ -8925,7 +8943,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="54" spans="2:10">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B54" s="2">
         <v>51</v>
       </c>
@@ -8952,7 +8970,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="2:10">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B55" s="2">
         <v>52</v>
       </c>
@@ -8979,7 +8997,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="56" spans="2:10">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B56" s="2">
         <v>53</v>
       </c>
@@ -9006,7 +9024,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="57" spans="2:10">
+    <row r="57" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B57" s="2">
         <v>54</v>
       </c>
@@ -9033,7 +9051,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="58" spans="2:10">
+    <row r="58" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B58" s="2">
         <v>55</v>
       </c>
@@ -9060,7 +9078,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="59" spans="2:10">
+    <row r="59" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B59" s="2">
         <v>56</v>
       </c>
@@ -9087,7 +9105,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="60" spans="2:10">
+    <row r="60" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B60" s="2">
         <v>57</v>
       </c>
@@ -9114,7 +9132,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="61" spans="2:10">
+    <row r="61" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B61" s="2">
         <v>58</v>
       </c>
@@ -9141,7 +9159,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="62" spans="2:10">
+    <row r="62" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B62" s="2">
         <v>59</v>
       </c>
@@ -9168,7 +9186,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="63" spans="2:10">
+    <row r="63" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B63" s="2">
         <v>60</v>
       </c>
@@ -9195,7 +9213,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="64" spans="2:10">
+    <row r="64" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B64" s="2">
         <v>61</v>
       </c>
@@ -9222,7 +9240,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="65" spans="2:10">
+    <row r="65" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B65" s="2">
         <v>62</v>
       </c>
@@ -9249,7 +9267,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="66" spans="2:10">
+    <row r="66" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B66" s="2">
         <v>63</v>
       </c>
@@ -9276,7 +9294,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="67" spans="2:10">
+    <row r="67" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B67" s="2">
         <v>64</v>
       </c>
@@ -9303,7 +9321,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="68" spans="2:10">
+    <row r="68" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B68" s="2">
         <v>65</v>
       </c>
@@ -9330,7 +9348,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="69" spans="2:10">
+    <row r="69" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B69" s="2">
         <v>66</v>
       </c>
@@ -9357,7 +9375,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="70" spans="2:10">
+    <row r="70" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B70" s="2">
         <v>67</v>
       </c>
@@ -9384,7 +9402,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="71" spans="2:10">
+    <row r="71" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B71" s="2">
         <v>68</v>
       </c>
@@ -9411,7 +9429,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="72" spans="2:10">
+    <row r="72" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B72" s="2">
         <v>69</v>
       </c>
@@ -9438,7 +9456,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="73" spans="2:10">
+    <row r="73" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B73" s="2">
         <v>70</v>
       </c>
@@ -9465,7 +9483,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="74" spans="2:10">
+    <row r="74" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B74" s="2">
         <v>71</v>
       </c>
@@ -9492,7 +9510,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="75" spans="2:10">
+    <row r="75" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B75" s="2">
         <v>72</v>
       </c>
@@ -9519,7 +9537,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="76" spans="2:10">
+    <row r="76" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B76" s="2">
         <v>73</v>
       </c>
@@ -9546,7 +9564,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="77" spans="2:10">
+    <row r="77" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B77" s="2">
         <v>74</v>
       </c>
@@ -9573,7 +9591,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="78" spans="2:10">
+    <row r="78" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B78" s="2">
         <v>75</v>
       </c>
@@ -9600,7 +9618,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="79" spans="2:10">
+    <row r="79" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B79" s="2">
         <v>76</v>
       </c>
@@ -9627,7 +9645,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="80" spans="2:10">
+    <row r="80" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B80" s="2">
         <v>77</v>
       </c>
@@ -9654,7 +9672,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="81" spans="2:10">
+    <row r="81" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B81" s="2">
         <v>78</v>
       </c>
@@ -9681,7 +9699,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="82" spans="2:10">
+    <row r="82" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B82" s="2">
         <v>79</v>
       </c>
@@ -9708,7 +9726,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="83" spans="2:10">
+    <row r="83" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B83" s="2">
         <v>80</v>
       </c>
@@ -9735,7 +9753,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="84" spans="2:10">
+    <row r="84" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B84" s="2">
         <v>81</v>
       </c>
@@ -9762,7 +9780,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="85" spans="2:10">
+    <row r="85" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B85" s="2">
         <v>82</v>
       </c>
@@ -9789,7 +9807,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="86" spans="2:10">
+    <row r="86" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B86" s="2">
         <v>83</v>
       </c>
@@ -9816,7 +9834,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="87" spans="2:10">
+    <row r="87" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B87" s="2">
         <v>84</v>
       </c>
@@ -9843,7 +9861,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="88" spans="2:10">
+    <row r="88" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B88" s="2">
         <v>85</v>
       </c>
@@ -9870,7 +9888,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="89" spans="2:10">
+    <row r="89" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B89" s="2">
         <v>86</v>
       </c>
@@ -9897,7 +9915,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="90" spans="2:10">
+    <row r="90" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B90" s="2">
         <v>87</v>
       </c>
@@ -9924,7 +9942,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="91" spans="2:10">
+    <row r="91" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B91" s="2">
         <v>88</v>
       </c>
@@ -9951,7 +9969,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="92" spans="2:10">
+    <row r="92" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B92" s="2">
         <v>89</v>
       </c>
@@ -9978,7 +9996,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="93" spans="2:10">
+    <row r="93" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B93" s="2">
         <v>90</v>
       </c>
@@ -10005,7 +10023,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="94" spans="2:10">
+    <row r="94" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B94" s="2">
         <v>91</v>
       </c>
@@ -10032,7 +10050,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="95" spans="2:10">
+    <row r="95" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B95" s="2">
         <v>92</v>
       </c>
@@ -10059,7 +10077,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="96" spans="2:10">
+    <row r="96" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B96" s="2">
         <v>93</v>
       </c>
@@ -10086,7 +10104,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="97" spans="2:10">
+    <row r="97" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B97" s="2">
         <v>94</v>
       </c>
@@ -10113,7 +10131,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="98" spans="2:10">
+    <row r="98" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B98" s="2">
         <v>95</v>
       </c>
@@ -10140,7 +10158,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="99" spans="2:10">
+    <row r="99" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B99" s="2">
         <v>96</v>
       </c>
@@ -10167,7 +10185,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="100" spans="2:10">
+    <row r="100" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B100" s="2">
         <v>97</v>
       </c>
@@ -10194,7 +10212,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="101" spans="2:10">
+    <row r="101" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B101" s="2">
         <v>98</v>
       </c>
@@ -10221,7 +10239,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="102" spans="2:10">
+    <row r="102" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B102" s="2">
         <v>99</v>
       </c>
@@ -10248,7 +10266,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="103" spans="2:10">
+    <row r="103" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B103" s="2">
         <v>100</v>
       </c>
@@ -10275,7 +10293,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="104" spans="2:10">
+    <row r="104" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B104" s="2">
         <v>101</v>
       </c>
@@ -10302,7 +10320,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="105" spans="2:10">
+    <row r="105" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B105" s="2">
         <v>102</v>
       </c>
@@ -10329,7 +10347,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="106" spans="2:10">
+    <row r="106" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B106" s="2">
         <v>103</v>
       </c>
@@ -10356,7 +10374,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="107" spans="2:10">
+    <row r="107" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B107" s="2">
         <v>104</v>
       </c>
@@ -10383,7 +10401,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="108" spans="2:10">
+    <row r="108" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B108" s="2">
         <v>105</v>
       </c>
@@ -10410,7 +10428,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="109" spans="2:10">
+    <row r="109" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B109" s="2">
         <v>106</v>
       </c>
@@ -10437,7 +10455,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="110" spans="2:10">
+    <row r="110" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B110" s="2">
         <v>107</v>
       </c>
@@ -10464,7 +10482,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="111" spans="2:10">
+    <row r="111" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B111" s="2">
         <v>108</v>
       </c>
@@ -10491,7 +10509,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="112" spans="2:10">
+    <row r="112" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B112" s="2">
         <v>109</v>
       </c>
@@ -10518,7 +10536,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="113" spans="2:10">
+    <row r="113" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B113" s="2">
         <v>110</v>
       </c>
@@ -10545,7 +10563,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="114" spans="2:10">
+    <row r="114" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B114" s="2">
         <v>111</v>
       </c>
@@ -10572,7 +10590,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="115" spans="2:10">
+    <row r="115" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B115" s="2">
         <v>112</v>
       </c>
@@ -10599,7 +10617,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="116" spans="2:10">
+    <row r="116" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B116" s="2">
         <v>113</v>
       </c>
@@ -10626,7 +10644,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="117" spans="2:10">
+    <row r="117" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B117" s="2">
         <v>114</v>
       </c>
@@ -10653,7 +10671,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="118" spans="2:10">
+    <row r="118" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B118" s="2">
         <v>115</v>
       </c>
@@ -10680,7 +10698,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="119" spans="2:10">
+    <row r="119" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B119" s="2">
         <v>116</v>
       </c>
@@ -10707,7 +10725,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="120" spans="2:10">
+    <row r="120" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B120" s="2">
         <v>117</v>
       </c>
@@ -10734,7 +10752,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="121" spans="2:10">
+    <row r="121" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B121" s="2">
         <v>118</v>
       </c>
@@ -10761,7 +10779,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="122" spans="2:10">
+    <row r="122" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B122" s="2">
         <v>119</v>
       </c>
@@ -10788,7 +10806,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="123" spans="2:10">
+    <row r="123" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B123" s="2">
         <v>120</v>
       </c>
@@ -10815,7 +10833,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="124" spans="2:10">
+    <row r="124" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B124" s="2">
         <v>121</v>
       </c>
@@ -10842,7 +10860,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="125" spans="2:10">
+    <row r="125" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B125" s="2">
         <v>122</v>
       </c>
@@ -10869,7 +10887,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="126" spans="2:10">
+    <row r="126" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B126" s="2">
         <v>123</v>
       </c>
@@ -10896,7 +10914,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="127" spans="2:10">
+    <row r="127" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B127" s="2">
         <v>124</v>
       </c>
@@ -10923,7 +10941,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="128" spans="2:10">
+    <row r="128" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B128" s="2">
         <v>125</v>
       </c>
@@ -10950,7 +10968,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="129" spans="2:10">
+    <row r="129" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B129" s="2">
         <v>126</v>
       </c>
@@ -10977,7 +10995,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="130" spans="2:10">
+    <row r="130" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B130" s="2">
         <v>127</v>
       </c>
@@ -11004,7 +11022,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="131" spans="2:10">
+    <row r="131" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B131" s="2">
         <v>128</v>
       </c>
@@ -11031,7 +11049,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="132" spans="2:10">
+    <row r="132" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B132" s="2">
         <v>129</v>
       </c>
@@ -11058,7 +11076,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="133" spans="2:10">
+    <row r="133" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B133" s="2">
         <v>130</v>
       </c>
@@ -11085,7 +11103,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="134" spans="2:10">
+    <row r="134" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B134" s="2">
         <v>131</v>
       </c>
@@ -11112,7 +11130,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="135" spans="2:10">
+    <row r="135" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B135" s="2">
         <v>132</v>
       </c>
@@ -11139,7 +11157,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="136" spans="2:10">
+    <row r="136" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B136" s="2">
         <v>133</v>
       </c>
@@ -11166,7 +11184,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="137" spans="2:10">
+    <row r="137" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B137" s="2">
         <v>134</v>
       </c>
@@ -11193,7 +11211,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="138" spans="2:10">
+    <row r="138" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B138" s="2">
         <v>135</v>
       </c>
@@ -11220,7 +11238,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="139" spans="2:10">
+    <row r="139" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B139" s="2">
         <v>136</v>
       </c>
@@ -11247,7 +11265,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="140" spans="2:10">
+    <row r="140" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B140" s="2">
         <v>137</v>
       </c>
@@ -11274,7 +11292,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="141" spans="2:10">
+    <row r="141" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B141" s="2">
         <v>138</v>
       </c>
@@ -11301,7 +11319,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="142" spans="2:10">
+    <row r="142" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B142" s="2">
         <v>139</v>
       </c>
@@ -11328,7 +11346,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="143" spans="2:10">
+    <row r="143" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B143" s="2">
         <v>140</v>
       </c>
@@ -11355,7 +11373,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="144" spans="2:10">
+    <row r="144" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B144" s="2">
         <v>141</v>
       </c>
@@ -11382,7 +11400,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="145" spans="2:10">
+    <row r="145" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B145" s="2">
         <v>142</v>
       </c>
@@ -11409,7 +11427,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="146" spans="2:10">
+    <row r="146" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B146" s="2">
         <v>143</v>
       </c>
@@ -11436,7 +11454,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="147" spans="2:10">
+    <row r="147" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B147" s="2">
         <v>144</v>
       </c>
@@ -11463,7 +11481,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="148" spans="2:10">
+    <row r="148" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B148" s="2">
         <v>145</v>
       </c>
@@ -11490,7 +11508,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="149" spans="2:10">
+    <row r="149" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B149" s="2">
         <v>146</v>
       </c>
@@ -11517,7 +11535,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="150" spans="2:10">
+    <row r="150" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B150" s="2">
         <v>147</v>
       </c>
@@ -11544,7 +11562,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="151" spans="2:10">
+    <row r="151" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B151" s="2">
         <v>148</v>
       </c>
@@ -11571,7 +11589,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="152" spans="2:10">
+    <row r="152" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B152" s="2">
         <v>149</v>
       </c>
@@ -11598,7 +11616,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="153" spans="2:10">
+    <row r="153" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B153" s="2">
         <v>150</v>
       </c>
@@ -11625,7 +11643,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="154" spans="2:10">
+    <row r="154" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B154" s="2">
         <v>151</v>
       </c>
@@ -11652,7 +11670,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="155" spans="2:10">
+    <row r="155" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B155" s="2">
         <v>152</v>
       </c>
@@ -11679,7 +11697,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="156" spans="2:10">
+    <row r="156" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B156" s="2">
         <v>153</v>
       </c>
@@ -11706,7 +11724,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="157" spans="2:10">
+    <row r="157" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B157" s="2">
         <v>154</v>
       </c>
@@ -11733,7 +11751,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="158" spans="2:10">
+    <row r="158" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B158" s="2">
         <v>155</v>
       </c>
@@ -11760,7 +11778,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="159" spans="2:10">
+    <row r="159" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B159" s="2">
         <v>156</v>
       </c>
@@ -11787,7 +11805,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="160" spans="2:10">
+    <row r="160" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B160" s="2">
         <v>157</v>
       </c>
@@ -11814,7 +11832,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="161" spans="2:10">
+    <row r="161" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B161" s="2">
         <v>158</v>
       </c>
@@ -11841,7 +11859,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="162" spans="2:10">
+    <row r="162" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B162" s="2">
         <v>159</v>
       </c>
@@ -11868,7 +11886,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="163" spans="2:10">
+    <row r="163" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B163" s="2">
         <v>160</v>
       </c>
@@ -11895,7 +11913,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="164" spans="2:10">
+    <row r="164" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B164" s="2">
         <v>161</v>
       </c>
@@ -11922,7 +11940,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="165" spans="2:10">
+    <row r="165" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B165" s="2">
         <v>162</v>
       </c>
@@ -11949,7 +11967,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="166" spans="2:10">
+    <row r="166" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B166" s="2">
         <v>163</v>
       </c>
@@ -11976,7 +11994,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="167" spans="2:10">
+    <row r="167" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B167" s="2">
         <v>164</v>
       </c>
@@ -12003,7 +12021,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="168" spans="2:10">
+    <row r="168" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B168" s="2">
         <v>165</v>
       </c>
@@ -12030,7 +12048,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="169" spans="2:10">
+    <row r="169" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B169" s="2">
         <v>166</v>
       </c>
@@ -12057,7 +12075,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="170" spans="2:10">
+    <row r="170" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B170" s="2">
         <v>167</v>
       </c>
@@ -12084,7 +12102,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="171" spans="2:10">
+    <row r="171" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B171" s="2">
         <v>168</v>
       </c>
@@ -12111,7 +12129,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="172" spans="2:10">
+    <row r="172" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B172" s="2">
         <v>169</v>
       </c>
@@ -12138,7 +12156,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="173" spans="2:10">
+    <row r="173" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B173" s="2">
         <v>170</v>
       </c>
@@ -12165,7 +12183,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="174" spans="2:10">
+    <row r="174" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B174" s="2">
         <v>171</v>
       </c>
@@ -12192,7 +12210,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="175" spans="2:10">
+    <row r="175" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B175" s="2">
         <v>172</v>
       </c>
@@ -12219,7 +12237,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="176" spans="2:10">
+    <row r="176" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B176" s="2">
         <v>173</v>
       </c>
@@ -12246,7 +12264,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="177" spans="2:10">
+    <row r="177" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B177" s="2">
         <v>174</v>
       </c>
@@ -12273,7 +12291,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="178" spans="2:10">
+    <row r="178" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B178" s="2">
         <v>175</v>
       </c>
@@ -12300,7 +12318,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="179" spans="2:10">
+    <row r="179" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B179" s="2">
         <v>176</v>
       </c>
@@ -12327,7 +12345,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="180" spans="2:10">
+    <row r="180" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B180" s="2">
         <v>177</v>
       </c>
@@ -12354,7 +12372,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="181" spans="2:10">
+    <row r="181" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B181" s="2">
         <v>178</v>
       </c>
@@ -12381,7 +12399,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="182" spans="2:10">
+    <row r="182" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B182" s="2">
         <v>179</v>
       </c>
@@ -12408,7 +12426,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="183" spans="2:10">
+    <row r="183" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B183" s="2">
         <v>180</v>
       </c>
@@ -12435,7 +12453,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="184" spans="2:10">
+    <row r="184" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B184" s="2">
         <v>181</v>
       </c>
@@ -12462,7 +12480,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="185" spans="2:10">
+    <row r="185" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B185" s="2">
         <v>182</v>
       </c>
@@ -12489,7 +12507,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="186" spans="2:10">
+    <row r="186" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B186" s="2">
         <v>183</v>
       </c>
@@ -12516,7 +12534,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="187" spans="2:10">
+    <row r="187" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B187" s="2">
         <v>184</v>
       </c>
@@ -12543,7 +12561,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="188" spans="2:10">
+    <row r="188" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B188" s="2">
         <v>185</v>
       </c>
@@ -12570,7 +12588,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="189" spans="2:10">
+    <row r="189" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B189" s="2">
         <v>186</v>
       </c>
@@ -12597,7 +12615,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="190" spans="2:10">
+    <row r="190" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B190" s="2">
         <v>187</v>
       </c>
@@ -12624,7 +12642,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="191" spans="2:10">
+    <row r="191" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B191" s="2">
         <v>188</v>
       </c>
@@ -12651,7 +12669,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="192" spans="2:10">
+    <row r="192" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B192" s="2">
         <v>189</v>
       </c>
@@ -12678,7 +12696,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="193" spans="2:10">
+    <row r="193" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B193" s="2">
         <v>190</v>
       </c>
@@ -12705,7 +12723,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="194" spans="2:10">
+    <row r="194" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B194" s="2">
         <v>191</v>
       </c>
@@ -12732,7 +12750,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="195" spans="2:10">
+    <row r="195" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B195" s="2">
         <v>192</v>
       </c>
@@ -12759,7 +12777,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="196" spans="2:10">
+    <row r="196" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B196" s="2">
         <v>193</v>
       </c>
@@ -12786,7 +12804,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="197" spans="2:10">
+    <row r="197" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B197" s="2">
         <v>194</v>
       </c>
@@ -12813,7 +12831,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="198" spans="2:10">
+    <row r="198" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B198" s="2">
         <v>195</v>
       </c>
@@ -12840,7 +12858,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="199" spans="2:10">
+    <row r="199" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B199" s="2">
         <v>196</v>
       </c>
@@ -12867,7 +12885,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="200" spans="2:10">
+    <row r="200" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B200" s="2">
         <v>197</v>
       </c>
@@ -12894,7 +12912,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="201" spans="2:10">
+    <row r="201" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B201" s="2">
         <v>198</v>
       </c>
@@ -12921,7 +12939,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="202" spans="2:10">
+    <row r="202" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B202" s="2">
         <v>199</v>
       </c>
@@ -12948,7 +12966,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="203" spans="2:10">
+    <row r="203" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B203" s="2">
         <v>200</v>
       </c>
@@ -12975,7 +12993,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="204" spans="2:10">
+    <row r="204" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B204" s="2">
         <v>201</v>
       </c>
@@ -13002,7 +13020,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="205" spans="2:10">
+    <row r="205" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B205" s="2">
         <v>202</v>
       </c>
@@ -13029,7 +13047,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="206" spans="2:10">
+    <row r="206" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B206" s="2">
         <v>203</v>
       </c>
@@ -13063,16 +13081,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14395976-94F4-224D-AB08-C5C66B22F5F0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4:H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="2:8">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -13095,7 +13113,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:8">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>1</v>
       </c>
@@ -13110,7 +13128,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="2:8">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>2</v>
       </c>
@@ -13125,7 +13143,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="2:8">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>3</v>
       </c>
@@ -13140,7 +13158,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="2:8">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>4</v>
       </c>
@@ -13155,7 +13173,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="2:8">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>5</v>
       </c>
@@ -13172,12 +13190,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" xr:uid="{6D7144AB-CB38-0043-A4AC-BC621D03D4B3}"/>
-    <hyperlink ref="C5:C8" r:id="rId2" display="test1@email.com" xr:uid="{BBCF8FCA-8BD4-3042-AD71-641373BDF14F}"/>
-    <hyperlink ref="C5" r:id="rId3" xr:uid="{44E5FE46-0148-6D46-9885-120C40F4C90D}"/>
-    <hyperlink ref="C6" r:id="rId4" xr:uid="{62ACD926-B64A-BD41-A4C4-FF557FFA959F}"/>
-    <hyperlink ref="C7" r:id="rId5" xr:uid="{3A84F438-54A3-994C-95E8-2D024B0A3611}"/>
-    <hyperlink ref="C8" r:id="rId6" xr:uid="{CD74EB80-704D-C74F-AC4A-361A1C64C197}"/>
+    <hyperlink ref="C4" r:id="rId1"/>
+    <hyperlink ref="C5:C8" r:id="rId2" display="test1@email.com"/>
+    <hyperlink ref="C5" r:id="rId3"/>
+    <hyperlink ref="C6" r:id="rId4"/>
+    <hyperlink ref="C7" r:id="rId5"/>
+    <hyperlink ref="C8" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -13185,16 +13203,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E76C6668-86E4-B146-936D-BFEC324FF8BD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:G73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4:G73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="2:7">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>52</v>
       </c>
@@ -13214,7 +13232,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="4" spans="2:7">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4" t="b">
         <v>0</v>
       </c>
@@ -13234,7 +13252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5" t="b">
         <v>0</v>
       </c>
@@ -13254,7 +13272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:7">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6" t="b">
         <v>0</v>
       </c>
@@ -13274,7 +13292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:7">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B7" t="b">
         <v>0</v>
       </c>
@@ -13294,7 +13312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:7">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B8" t="b">
         <v>0</v>
       </c>
@@ -13314,7 +13332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:7">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B9" t="b">
         <v>0</v>
       </c>
@@ -13334,7 +13352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:7">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B10" t="b">
         <v>0</v>
       </c>
@@ -13354,7 +13372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:7">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B11" t="b">
         <v>0</v>
       </c>
@@ -13374,7 +13392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:7">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B12" t="b">
         <v>0</v>
       </c>
@@ -13394,7 +13412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:7">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B13" t="b">
         <v>0</v>
       </c>
@@ -13414,7 +13432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:7">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B14" t="b">
         <v>0</v>
       </c>
@@ -13434,7 +13452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:7">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B15" t="b">
         <v>0</v>
       </c>
@@ -13454,7 +13472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:7">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B16" t="b">
         <v>0</v>
       </c>
@@ -13474,7 +13492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:7">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B17" t="b">
         <v>0</v>
       </c>
@@ -13494,7 +13512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:7">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18" t="b">
         <v>0</v>
       </c>
@@ -13514,7 +13532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:7">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B19" t="b">
         <v>0</v>
       </c>
@@ -13534,7 +13552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:7">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B20" t="b">
         <v>0</v>
       </c>
@@ -13554,7 +13572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:7">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B21" t="b">
         <v>0</v>
       </c>
@@ -13574,7 +13592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:7">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B22" t="b">
         <v>0</v>
       </c>
@@ -13594,7 +13612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:7">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B23" t="b">
         <v>0</v>
       </c>
@@ -13614,7 +13632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:7">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B24" t="b">
         <v>0</v>
       </c>
@@ -13634,7 +13652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:7">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B25" t="b">
         <v>0</v>
       </c>
@@ -13654,7 +13672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:7">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B26" t="b">
         <v>0</v>
       </c>
@@ -13674,7 +13692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:7">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B27" t="b">
         <v>0</v>
       </c>
@@ -13694,7 +13712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:7">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B28" t="b">
         <v>0</v>
       </c>
@@ -13714,7 +13732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:7">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B29" t="b">
         <v>0</v>
       </c>
@@ -13734,7 +13752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:7">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B30" t="b">
         <v>0</v>
       </c>
@@ -13754,7 +13772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:7">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B31" t="b">
         <v>0</v>
       </c>
@@ -13774,7 +13792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:7">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B32" t="b">
         <v>0</v>
       </c>
@@ -13794,7 +13812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:7">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B33" t="b">
         <v>0</v>
       </c>
@@ -13814,7 +13832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:7">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B34" t="b">
         <v>0</v>
       </c>
@@ -13834,7 +13852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:7">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B35" t="b">
         <v>0</v>
       </c>
@@ -13854,7 +13872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:7">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B36" t="b">
         <v>0</v>
       </c>
@@ -13874,7 +13892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:7">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B37" t="b">
         <v>0</v>
       </c>
@@ -13894,7 +13912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:7">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B38" t="b">
         <v>0</v>
       </c>
@@ -13914,7 +13932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:7">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B39" t="b">
         <v>0</v>
       </c>
@@ -13934,7 +13952,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="2:7">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B40" t="b">
         <v>0</v>
       </c>
@@ -13954,7 +13972,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="2:7">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B41" t="b">
         <v>0</v>
       </c>
@@ -13974,7 +13992,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="2:7">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B42" t="b">
         <v>0</v>
       </c>
@@ -13994,7 +14012,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="2:7">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B43" t="b">
         <v>0</v>
       </c>
@@ -14014,7 +14032,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="2:7">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B44" t="b">
         <v>0</v>
       </c>
@@ -14034,7 +14052,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="2:7">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B45" t="b">
         <v>0</v>
       </c>
@@ -14054,7 +14072,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="2:7">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B46" t="b">
         <v>0</v>
       </c>
@@ -14074,7 +14092,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="2:7">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B47" t="b">
         <v>0</v>
       </c>
@@ -14094,7 +14112,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="2:7">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B48" t="b">
         <v>0</v>
       </c>
@@ -14114,7 +14132,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="2:7">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B49" t="b">
         <v>0</v>
       </c>
@@ -14134,7 +14152,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="2:7">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B50" t="b">
         <v>0</v>
       </c>
@@ -14154,7 +14172,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="2:7">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B51" t="b">
         <v>0</v>
       </c>
@@ -14174,7 +14192,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="2:7">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B52" t="b">
         <v>0</v>
       </c>
@@ -14194,7 +14212,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="2:7">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B53" t="b">
         <v>0</v>
       </c>
@@ -14214,7 +14232,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="2:7">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B54" t="b">
         <v>0</v>
       </c>
@@ -14234,7 +14252,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="2:7">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B55" t="b">
         <v>0</v>
       </c>
@@ -14254,7 +14272,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="2:7">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B56" t="b">
         <v>0</v>
       </c>
@@ -14274,7 +14292,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="2:7">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B57" t="b">
         <v>0</v>
       </c>
@@ -14294,7 +14312,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="2:7">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B58" t="b">
         <v>0</v>
       </c>
@@ -14314,7 +14332,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="2:7">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B59" t="b">
         <v>0</v>
       </c>
@@ -14334,7 +14352,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="2:7">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B60" t="b">
         <v>0</v>
       </c>
@@ -14354,7 +14372,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="2:7">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B61" t="b">
         <v>0</v>
       </c>
@@ -14374,7 +14392,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="2:7">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B62" t="b">
         <v>0</v>
       </c>
@@ -14394,7 +14412,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="2:7">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B63" t="b">
         <v>0</v>
       </c>
@@ -14414,7 +14432,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="2:7">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B64" t="b">
         <v>0</v>
       </c>
@@ -14434,7 +14452,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="2:7">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B65" t="b">
         <v>0</v>
       </c>
@@ -14454,7 +14472,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="2:7">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B66" t="b">
         <v>0</v>
       </c>
@@ -14474,7 +14492,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="2:7">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B67" t="b">
         <v>0</v>
       </c>
@@ -14494,7 +14512,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="2:7">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B68" t="b">
         <v>0</v>
       </c>
@@ -14514,7 +14532,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="2:7">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B69" t="b">
         <v>0</v>
       </c>
@@ -14534,7 +14552,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="2:7">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B70" t="b">
         <v>0</v>
       </c>
@@ -14554,7 +14572,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="2:7">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B71" t="b">
         <v>0</v>
       </c>
@@ -14574,7 +14592,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="2:7">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B72" t="b">
         <v>0</v>
       </c>
@@ -14594,7 +14612,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="2:7">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B73" t="b">
         <v>0</v>
       </c>
@@ -14621,16 +14639,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E18498A1-5986-5746-A6EC-91EED91C0F63}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:H33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4:H33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="2:8">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -14653,7 +14671,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="4" spans="2:8">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>0.30000000000000004</v>
       </c>
@@ -14676,7 +14694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:8">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>0.30000000000000004</v>
       </c>
@@ -14699,7 +14717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:8">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>0.2</v>
       </c>
@@ -14722,7 +14740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:8">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>0.8</v>
       </c>
@@ -14745,7 +14763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:8">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>0.60000000000000009</v>
       </c>
@@ -14768,7 +14786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:8">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>0.30000000000000004</v>
       </c>
@@ -14791,7 +14809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:8">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>0.60000000000000009</v>
       </c>
@@ -14814,7 +14832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:8">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>0.4</v>
       </c>
@@ -14837,7 +14855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:8">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>0.9</v>
       </c>
@@ -14860,7 +14878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:8">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>0.70000000000000007</v>
       </c>
@@ -14883,7 +14901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:8">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>0.2</v>
       </c>
@@ -14906,7 +14924,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="2:8">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>0.2</v>
       </c>
@@ -14929,7 +14947,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="2:8">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>0.2</v>
       </c>
@@ -14952,7 +14970,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:8">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>0.2</v>
       </c>
@@ -14975,7 +14993,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:8">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>0.4</v>
       </c>
@@ -14998,7 +15016,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="2:8">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B19">
         <v>0.9</v>
       </c>
@@ -15021,7 +15039,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="2:8">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>0.30000000000000004</v>
       </c>
@@ -15044,7 +15062,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="2:8">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B21">
         <v>0.5</v>
       </c>
@@ -15067,7 +15085,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="2:8">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B22">
         <v>0.1</v>
       </c>
@@ -15090,7 +15108,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="2:8">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B23">
         <v>0.1</v>
       </c>
@@ -15113,7 +15131,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="2:8">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B24">
         <v>0.8</v>
       </c>
@@ -15136,7 +15154,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="2:8">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B25">
         <v>0.4</v>
       </c>
@@ -15159,7 +15177,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="2:8">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B26">
         <v>0.5</v>
       </c>
@@ -15182,7 +15200,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="2:8">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B27">
         <v>0.5</v>
       </c>
@@ -15205,7 +15223,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="2:8">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B28">
         <v>0.5</v>
       </c>
@@ -15228,7 +15246,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="2:8">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B29">
         <v>0.2</v>
       </c>
@@ -15251,7 +15269,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="2:8">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B30">
         <v>0.30000000000000004</v>
       </c>
@@ -15274,7 +15292,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="2:8">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B31">
         <v>0.5</v>
       </c>
@@ -15297,7 +15315,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="2:8">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B32">
         <v>0.30000000000000004</v>
       </c>
@@ -15320,7 +15338,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="2:8">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B33">
         <v>0.1</v>
       </c>

--- a/seed.xlsx
+++ b/seed.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="18000" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="18000" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="topics" sheetId="4" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2011" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2016" uniqueCount="359">
   <si>
     <t>id</t>
   </si>
@@ -1133,6 +1133,12 @@
   </si>
   <si>
     <t>REACTJS FILLER FACT - 1</t>
+  </si>
+  <si>
+    <t>What are HTML elements represented by?</t>
+  </si>
+  <si>
+    <t>Tags</t>
   </si>
 </sst>
 </file>
@@ -1214,7 +1220,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="190">
+  <cellStyleXfs count="208">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1405,6 +1411,24 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1426,7 +1450,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="181"/>
   </cellXfs>
-  <cellStyles count="190">
+  <cellStyles count="208">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1525,6 +1549,24 @@
     <cellStyle name="Followed Hyperlink" xfId="187" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="189" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="191" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="193" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="195" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="197" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="199" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="201" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="203" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="205" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="207" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1935,7 +1977,8 @@
   <dimension ref="C2:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:H20"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3:G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2291,8 +2334,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B27" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3249,7 +3294,8 @@
   <dimension ref="C2:H207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:H207"/>
+      <pane ySplit="2" topLeftCell="A178" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3:H207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7481,9 +7527,8 @@
       <c r="C205" s="2">
         <v>203</v>
       </c>
-      <c r="D205" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>Filler Answer 203</v>
+      <c r="D205" s="3" t="s">
+        <v>358</v>
       </c>
       <c r="E205" s="2" t="s">
         <v>96</v>
@@ -7495,7 +7540,7 @@
         <v>34</v>
       </c>
       <c r="H205" s="2">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="206" spans="3:8" x14ac:dyDescent="0.2">
@@ -7548,10 +7593,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:J206"/>
+  <dimension ref="B3:J207"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:J206"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A52" sqref="A52:XFD52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7612,7 +7658,9 @@
       <c r="G4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="2"/>
+      <c r="H4" s="2">
+        <v>1</v>
+      </c>
       <c r="I4" s="2">
         <v>3</v>
       </c>
@@ -7639,7 +7687,9 @@
       <c r="G5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="2"/>
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
       <c r="I5" s="2">
         <v>3</v>
       </c>
@@ -7666,7 +7716,9 @@
       <c r="G6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="2"/>
+      <c r="H6" s="2">
+        <v>1</v>
+      </c>
       <c r="I6" s="2">
         <v>3</v>
       </c>
@@ -7693,7 +7745,9 @@
       <c r="G7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H7" s="2"/>
+      <c r="H7" s="2">
+        <v>1</v>
+      </c>
       <c r="I7" s="2">
         <v>3</v>
       </c>
@@ -7720,7 +7774,9 @@
       <c r="G8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="2"/>
+      <c r="H8" s="2">
+        <v>1</v>
+      </c>
       <c r="I8" s="2">
         <v>3</v>
       </c>
@@ -7747,7 +7803,9 @@
       <c r="G9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H9" s="2"/>
+      <c r="H9" s="2">
+        <v>2</v>
+      </c>
       <c r="I9" s="2">
         <v>3</v>
       </c>
@@ -7774,7 +7832,9 @@
       <c r="G10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="2"/>
+      <c r="H10" s="2">
+        <v>2</v>
+      </c>
       <c r="I10" s="2">
         <v>3</v>
       </c>
@@ -7801,7 +7861,9 @@
       <c r="G11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H11" s="2"/>
+      <c r="H11" s="2">
+        <v>2</v>
+      </c>
       <c r="I11" s="2">
         <v>3</v>
       </c>
@@ -7828,7 +7890,9 @@
       <c r="G12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H12" s="2"/>
+      <c r="H12" s="2">
+        <v>2</v>
+      </c>
       <c r="I12" s="2">
         <v>3</v>
       </c>
@@ -7855,7 +7919,9 @@
       <c r="G13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H13" s="2"/>
+      <c r="H13" s="2">
+        <v>2</v>
+      </c>
       <c r="I13" s="2">
         <v>3</v>
       </c>
@@ -7882,7 +7948,9 @@
       <c r="G14" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H14" s="2"/>
+      <c r="H14" s="2">
+        <v>3</v>
+      </c>
       <c r="I14" s="2">
         <v>3</v>
       </c>
@@ -7909,7 +7977,9 @@
       <c r="G15" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H15" s="2"/>
+      <c r="H15" s="2">
+        <v>3</v>
+      </c>
       <c r="I15" s="2">
         <v>3</v>
       </c>
@@ -7936,7 +8006,9 @@
       <c r="G16" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H16" s="2"/>
+      <c r="H16" s="2">
+        <v>3</v>
+      </c>
       <c r="I16" s="2">
         <v>3</v>
       </c>
@@ -7963,7 +8035,9 @@
       <c r="G17" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H17" s="2"/>
+      <c r="H17" s="2">
+        <v>3</v>
+      </c>
       <c r="I17" s="2">
         <v>3</v>
       </c>
@@ -7990,7 +8064,9 @@
       <c r="G18" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H18" s="2"/>
+      <c r="H18" s="2">
+        <v>3</v>
+      </c>
       <c r="I18" s="2">
         <v>3</v>
       </c>
@@ -8017,7 +8093,9 @@
       <c r="G19" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H19" s="2"/>
+      <c r="H19" s="2">
+        <v>4</v>
+      </c>
       <c r="I19" s="2">
         <v>3</v>
       </c>
@@ -8044,7 +8122,9 @@
       <c r="G20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H20" s="2"/>
+      <c r="H20" s="2">
+        <v>4</v>
+      </c>
       <c r="I20" s="2">
         <v>3</v>
       </c>
@@ -8071,7 +8151,9 @@
       <c r="G21" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H21" s="2"/>
+      <c r="H21" s="2">
+        <v>4</v>
+      </c>
       <c r="I21" s="2">
         <v>3</v>
       </c>
@@ -8098,7 +8180,9 @@
       <c r="G22" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H22" s="2"/>
+      <c r="H22" s="2">
+        <v>4</v>
+      </c>
       <c r="I22" s="2">
         <v>3</v>
       </c>
@@ -8125,7 +8209,9 @@
       <c r="G23" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H23" s="2"/>
+      <c r="H23" s="2">
+        <v>4</v>
+      </c>
       <c r="I23" s="2">
         <v>9</v>
       </c>
@@ -8152,7 +8238,9 @@
       <c r="G24" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H24" s="2"/>
+      <c r="H24" s="2">
+        <v>5</v>
+      </c>
       <c r="I24" s="2">
         <v>9</v>
       </c>
@@ -8179,7 +8267,9 @@
       <c r="G25" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H25" s="2"/>
+      <c r="H25" s="2">
+        <v>5</v>
+      </c>
       <c r="I25" s="2">
         <v>9</v>
       </c>
@@ -8206,7 +8296,9 @@
       <c r="G26" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H26" s="2"/>
+      <c r="H26" s="2">
+        <v>5</v>
+      </c>
       <c r="I26" s="2">
         <v>9</v>
       </c>
@@ -8233,7 +8325,9 @@
       <c r="G27" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H27" s="2"/>
+      <c r="H27" s="2">
+        <v>5</v>
+      </c>
       <c r="I27" s="2">
         <v>9</v>
       </c>
@@ -8260,7 +8354,9 @@
       <c r="G28" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H28" s="2"/>
+      <c r="H28" s="2">
+        <v>5</v>
+      </c>
       <c r="I28" s="2">
         <v>9</v>
       </c>
@@ -8287,7 +8383,9 @@
       <c r="G29" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H29" s="2"/>
+      <c r="H29" s="2">
+        <v>6</v>
+      </c>
       <c r="I29" s="2">
         <v>10</v>
       </c>
@@ -8314,7 +8412,9 @@
       <c r="G30" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H30" s="2"/>
+      <c r="H30" s="2">
+        <v>6</v>
+      </c>
       <c r="I30" s="2">
         <v>10</v>
       </c>
@@ -8341,7 +8441,9 @@
       <c r="G31" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H31" s="2"/>
+      <c r="H31" s="2">
+        <v>6</v>
+      </c>
       <c r="I31" s="2">
         <v>10</v>
       </c>
@@ -8368,7 +8470,9 @@
       <c r="G32" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H32" s="2"/>
+      <c r="H32" s="2">
+        <v>6</v>
+      </c>
       <c r="I32" s="2">
         <v>10</v>
       </c>
@@ -8395,7 +8499,9 @@
       <c r="G33" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H33" s="2"/>
+      <c r="H33" s="2">
+        <v>6</v>
+      </c>
       <c r="I33" s="2">
         <v>10</v>
       </c>
@@ -8422,7 +8528,9 @@
       <c r="G34" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H34" s="2"/>
+      <c r="H34" s="2">
+        <v>7</v>
+      </c>
       <c r="I34" s="2">
         <v>10</v>
       </c>
@@ -8449,7 +8557,9 @@
       <c r="G35" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H35" s="2"/>
+      <c r="H35" s="2">
+        <v>7</v>
+      </c>
       <c r="I35" s="2">
         <v>10</v>
       </c>
@@ -8476,7 +8586,9 @@
       <c r="G36" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H36" s="2"/>
+      <c r="H36" s="2">
+        <v>7</v>
+      </c>
       <c r="I36" s="2">
         <v>10</v>
       </c>
@@ -8503,7 +8615,9 @@
       <c r="G37" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H37" s="2"/>
+      <c r="H37" s="2">
+        <v>7</v>
+      </c>
       <c r="I37" s="2">
         <v>10</v>
       </c>
@@ -8530,7 +8644,9 @@
       <c r="G38" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H38" s="2"/>
+      <c r="H38" s="2">
+        <v>7</v>
+      </c>
       <c r="I38" s="2">
         <v>10</v>
       </c>
@@ -8557,7 +8673,9 @@
       <c r="G39" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H39" s="2"/>
+      <c r="H39" s="2">
+        <v>7</v>
+      </c>
       <c r="I39" s="2">
         <v>10</v>
       </c>
@@ -8584,7 +8702,9 @@
       <c r="G40" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H40" s="2"/>
+      <c r="H40" s="2">
+        <v>8</v>
+      </c>
       <c r="I40" s="2">
         <v>4</v>
       </c>
@@ -8611,7 +8731,9 @@
       <c r="G41" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H41" s="2"/>
+      <c r="H41" s="2">
+        <v>8</v>
+      </c>
       <c r="I41" s="2">
         <v>4</v>
       </c>
@@ -8638,7 +8760,9 @@
       <c r="G42" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H42" s="2"/>
+      <c r="H42" s="2">
+        <v>8</v>
+      </c>
       <c r="I42" s="2">
         <v>4</v>
       </c>
@@ -8665,7 +8789,9 @@
       <c r="G43" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H43" s="2"/>
+      <c r="H43" s="2">
+        <v>8</v>
+      </c>
       <c r="I43" s="2">
         <v>4</v>
       </c>
@@ -8692,7 +8818,9 @@
       <c r="G44" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H44" s="2"/>
+      <c r="H44" s="2">
+        <v>8</v>
+      </c>
       <c r="I44" s="2">
         <v>4</v>
       </c>
@@ -8719,7 +8847,9 @@
       <c r="G45" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H45" s="2"/>
+      <c r="H45" s="2">
+        <v>8</v>
+      </c>
       <c r="I45" s="2">
         <v>4</v>
       </c>
@@ -8746,7 +8876,9 @@
       <c r="G46" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H46" s="2"/>
+      <c r="H46" s="2">
+        <v>9</v>
+      </c>
       <c r="I46" s="2">
         <v>4</v>
       </c>
@@ -8773,7 +8905,9 @@
       <c r="G47" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H47" s="2"/>
+      <c r="H47" s="2">
+        <v>9</v>
+      </c>
       <c r="I47" s="2">
         <v>3</v>
       </c>
@@ -8800,7 +8934,9 @@
       <c r="G48" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="H48" s="8"/>
+      <c r="H48" s="8">
+        <v>9</v>
+      </c>
       <c r="I48" s="8">
         <v>1</v>
       </c>
@@ -8827,7 +8963,9 @@
       <c r="G49" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H49" s="2"/>
+      <c r="H49" s="2">
+        <v>9</v>
+      </c>
       <c r="I49" s="2">
         <v>2</v>
       </c>
@@ -8854,7 +8992,9 @@
       <c r="G50" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H50" s="2"/>
+      <c r="H50" s="2">
+        <v>9</v>
+      </c>
       <c r="I50" s="2">
         <v>12</v>
       </c>
@@ -8881,7 +9021,9 @@
       <c r="G51" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H51" s="2"/>
+      <c r="H51" s="2">
+        <v>9</v>
+      </c>
       <c r="I51" s="2">
         <v>10</v>
       </c>
@@ -8908,7 +9050,9 @@
       <c r="G52" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H52" s="2"/>
+      <c r="H52" s="2">
+        <v>10</v>
+      </c>
       <c r="I52" s="2">
         <v>5</v>
       </c>
@@ -13072,6 +13216,35 @@
       </c>
       <c r="J206" s="2">
         <v>202</v>
+      </c>
+    </row>
+    <row r="207" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B207" s="2">
+        <v>204</v>
+      </c>
+      <c r="C207" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="D207" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F207" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G207" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H207">
+        <v>3</v>
+      </c>
+      <c r="I207" s="2">
+        <v>1</v>
+      </c>
+      <c r="J207" s="2">
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -13085,7 +13258,8 @@
   <dimension ref="B3:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:H8"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13204,1431 +13378,1219 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:G73"/>
+  <dimension ref="B3:F73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:G73"/>
+      <pane ySplit="3" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4:F73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4" t="b">
         <v>0</v>
       </c>
-      <c r="C4" t="b">
-        <v>0</v>
+      <c r="C4" t="s">
+        <v>34</v>
       </c>
       <c r="D4" t="s">
         <v>34</v>
       </c>
-      <c r="E4" t="s">
-        <v>34</v>
+      <c r="E4">
+        <v>1</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" t="b">
         <v>0</v>
       </c>
-      <c r="C5" t="b">
-        <v>0</v>
+      <c r="C5" t="s">
+        <v>34</v>
       </c>
       <c r="D5" t="s">
         <v>34</v>
       </c>
-      <c r="E5" t="s">
-        <v>34</v>
+      <c r="E5">
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6" t="b">
         <v>0</v>
       </c>
-      <c r="C6" t="b">
-        <v>0</v>
+      <c r="C6" t="s">
+        <v>34</v>
       </c>
       <c r="D6" t="s">
         <v>34</v>
       </c>
-      <c r="E6" t="s">
-        <v>34</v>
+      <c r="E6">
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>3</v>
-      </c>
-      <c r="G6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7" t="b">
         <v>0</v>
       </c>
-      <c r="C7" t="b">
-        <v>0</v>
+      <c r="C7" t="s">
+        <v>34</v>
       </c>
       <c r="D7" t="s">
         <v>34</v>
       </c>
-      <c r="E7" t="s">
-        <v>34</v>
+      <c r="E7">
+        <v>4</v>
       </c>
       <c r="F7">
-        <v>4</v>
-      </c>
-      <c r="G7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" t="b">
         <v>0</v>
       </c>
-      <c r="C8" t="b">
-        <v>0</v>
+      <c r="C8" t="s">
+        <v>34</v>
       </c>
       <c r="D8" t="s">
         <v>34</v>
       </c>
-      <c r="E8" t="s">
-        <v>34</v>
+      <c r="E8">
+        <v>5</v>
       </c>
       <c r="F8">
-        <v>5</v>
-      </c>
-      <c r="G8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9" t="b">
         <v>0</v>
       </c>
-      <c r="C9" t="b">
-        <v>0</v>
+      <c r="C9" t="s">
+        <v>34</v>
       </c>
       <c r="D9" t="s">
         <v>34</v>
       </c>
-      <c r="E9" t="s">
-        <v>34</v>
+      <c r="E9">
+        <v>6</v>
       </c>
       <c r="F9">
-        <v>6</v>
-      </c>
-      <c r="G9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B10" t="b">
         <v>0</v>
       </c>
-      <c r="C10" t="b">
-        <v>0</v>
+      <c r="C10" t="s">
+        <v>34</v>
       </c>
       <c r="D10" t="s">
         <v>34</v>
       </c>
-      <c r="E10" t="s">
-        <v>34</v>
+      <c r="E10">
+        <v>7</v>
       </c>
       <c r="F10">
-        <v>7</v>
-      </c>
-      <c r="G10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11" t="b">
         <v>0</v>
       </c>
-      <c r="C11" t="b">
-        <v>0</v>
+      <c r="C11" t="s">
+        <v>34</v>
       </c>
       <c r="D11" t="s">
         <v>34</v>
       </c>
-      <c r="E11" t="s">
-        <v>34</v>
+      <c r="E11">
+        <v>8</v>
       </c>
       <c r="F11">
-        <v>8</v>
-      </c>
-      <c r="G11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12" t="b">
         <v>0</v>
       </c>
-      <c r="C12" t="b">
-        <v>0</v>
+      <c r="C12" t="s">
+        <v>34</v>
       </c>
       <c r="D12" t="s">
         <v>34</v>
       </c>
-      <c r="E12" t="s">
-        <v>34</v>
+      <c r="E12">
+        <v>9</v>
       </c>
       <c r="F12">
-        <v>9</v>
-      </c>
-      <c r="G12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B13" t="b">
         <v>0</v>
       </c>
-      <c r="C13" t="b">
-        <v>0</v>
+      <c r="C13" t="s">
+        <v>34</v>
       </c>
       <c r="D13" t="s">
         <v>34</v>
       </c>
-      <c r="E13" t="s">
-        <v>34</v>
+      <c r="E13">
+        <v>10</v>
       </c>
       <c r="F13">
-        <v>10</v>
-      </c>
-      <c r="G13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B14" t="b">
         <v>0</v>
       </c>
-      <c r="C14" t="b">
-        <v>0</v>
+      <c r="C14" t="s">
+        <v>34</v>
       </c>
       <c r="D14" t="s">
         <v>34</v>
       </c>
-      <c r="E14" t="s">
-        <v>34</v>
+      <c r="E14">
+        <v>11</v>
       </c>
       <c r="F14">
-        <v>11</v>
-      </c>
-      <c r="G14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B15" t="b">
         <v>0</v>
       </c>
-      <c r="C15" t="b">
-        <v>0</v>
+      <c r="C15" t="s">
+        <v>34</v>
       </c>
       <c r="D15" t="s">
         <v>34</v>
       </c>
-      <c r="E15" t="s">
-        <v>34</v>
+      <c r="E15">
+        <v>12</v>
       </c>
       <c r="F15">
-        <v>12</v>
-      </c>
-      <c r="G15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B16" t="b">
         <v>0</v>
       </c>
-      <c r="C16" t="b">
-        <v>0</v>
+      <c r="C16" t="s">
+        <v>34</v>
       </c>
       <c r="D16" t="s">
         <v>34</v>
       </c>
-      <c r="E16" t="s">
-        <v>34</v>
+      <c r="E16">
+        <v>13</v>
       </c>
       <c r="F16">
-        <v>13</v>
-      </c>
-      <c r="G16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" t="b">
         <v>0</v>
       </c>
-      <c r="C17" t="b">
-        <v>0</v>
+      <c r="C17" t="s">
+        <v>34</v>
       </c>
       <c r="D17" t="s">
         <v>34</v>
       </c>
-      <c r="E17" t="s">
-        <v>34</v>
+      <c r="E17">
+        <v>14</v>
       </c>
       <c r="F17">
-        <v>14</v>
-      </c>
-      <c r="G17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" t="b">
         <v>0</v>
       </c>
-      <c r="C18" t="b">
-        <v>0</v>
+      <c r="C18" t="s">
+        <v>34</v>
       </c>
       <c r="D18" t="s">
         <v>34</v>
       </c>
-      <c r="E18" t="s">
-        <v>34</v>
+      <c r="E18">
+        <v>15</v>
       </c>
       <c r="F18">
-        <v>15</v>
-      </c>
-      <c r="G18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" t="b">
         <v>0</v>
       </c>
-      <c r="C19" t="b">
-        <v>0</v>
+      <c r="C19" t="s">
+        <v>34</v>
       </c>
       <c r="D19" t="s">
         <v>34</v>
       </c>
-      <c r="E19" t="s">
-        <v>34</v>
+      <c r="E19">
+        <v>16</v>
       </c>
       <c r="F19">
-        <v>16</v>
-      </c>
-      <c r="G19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" t="b">
         <v>0</v>
       </c>
-      <c r="C20" t="b">
-        <v>0</v>
+      <c r="C20" t="s">
+        <v>34</v>
       </c>
       <c r="D20" t="s">
         <v>34</v>
       </c>
-      <c r="E20" t="s">
-        <v>34</v>
+      <c r="E20">
+        <v>17</v>
       </c>
       <c r="F20">
-        <v>17</v>
-      </c>
-      <c r="G20">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" t="b">
         <v>0</v>
       </c>
-      <c r="C21" t="b">
-        <v>0</v>
+      <c r="C21" t="s">
+        <v>34</v>
       </c>
       <c r="D21" t="s">
         <v>34</v>
       </c>
-      <c r="E21" t="s">
-        <v>34</v>
+      <c r="E21">
+        <v>18</v>
       </c>
       <c r="F21">
-        <v>18</v>
-      </c>
-      <c r="G21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" t="b">
         <v>0</v>
       </c>
-      <c r="C22" t="b">
-        <v>0</v>
+      <c r="C22" t="s">
+        <v>34</v>
       </c>
       <c r="D22" t="s">
         <v>34</v>
       </c>
-      <c r="E22" t="s">
-        <v>34</v>
+      <c r="E22">
+        <v>19</v>
       </c>
       <c r="F22">
-        <v>19</v>
-      </c>
-      <c r="G22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" t="b">
         <v>0</v>
       </c>
-      <c r="C23" t="b">
-        <v>0</v>
+      <c r="C23" t="s">
+        <v>34</v>
       </c>
       <c r="D23" t="s">
         <v>34</v>
       </c>
-      <c r="E23" t="s">
-        <v>34</v>
+      <c r="E23">
+        <v>20</v>
       </c>
       <c r="F23">
-        <v>20</v>
-      </c>
-      <c r="G23">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" t="b">
         <v>0</v>
       </c>
-      <c r="C24" t="b">
-        <v>0</v>
+      <c r="C24" t="s">
+        <v>34</v>
       </c>
       <c r="D24" t="s">
         <v>34</v>
       </c>
-      <c r="E24" t="s">
-        <v>34</v>
+      <c r="E24">
+        <v>21</v>
       </c>
       <c r="F24">
-        <v>21</v>
-      </c>
-      <c r="G24">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" t="b">
         <v>0</v>
       </c>
-      <c r="C25" t="b">
-        <v>0</v>
+      <c r="C25" t="s">
+        <v>34</v>
       </c>
       <c r="D25" t="s">
         <v>34</v>
       </c>
-      <c r="E25" t="s">
-        <v>34</v>
+      <c r="E25">
+        <v>22</v>
       </c>
       <c r="F25">
-        <v>22</v>
-      </c>
-      <c r="G25">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" t="b">
         <v>0</v>
       </c>
-      <c r="C26" t="b">
-        <v>0</v>
+      <c r="C26" t="s">
+        <v>34</v>
       </c>
       <c r="D26" t="s">
         <v>34</v>
       </c>
-      <c r="E26" t="s">
-        <v>34</v>
+      <c r="E26">
+        <v>23</v>
       </c>
       <c r="F26">
-        <v>23</v>
-      </c>
-      <c r="G26">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27" t="b">
         <v>0</v>
       </c>
-      <c r="C27" t="b">
-        <v>0</v>
+      <c r="C27" t="s">
+        <v>34</v>
       </c>
       <c r="D27" t="s">
         <v>34</v>
       </c>
-      <c r="E27" t="s">
-        <v>34</v>
+      <c r="E27">
+        <v>24</v>
       </c>
       <c r="F27">
-        <v>24</v>
-      </c>
-      <c r="G27">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B28" t="b">
         <v>0</v>
       </c>
-      <c r="C28" t="b">
-        <v>0</v>
+      <c r="C28" t="s">
+        <v>34</v>
       </c>
       <c r="D28" t="s">
         <v>34</v>
       </c>
-      <c r="E28" t="s">
-        <v>34</v>
+      <c r="E28">
+        <v>25</v>
       </c>
       <c r="F28">
-        <v>25</v>
-      </c>
-      <c r="G28">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B29" t="b">
         <v>0</v>
       </c>
-      <c r="C29" t="b">
-        <v>0</v>
+      <c r="C29" t="s">
+        <v>34</v>
       </c>
       <c r="D29" t="s">
         <v>34</v>
       </c>
-      <c r="E29" t="s">
-        <v>34</v>
+      <c r="E29">
+        <v>26</v>
       </c>
       <c r="F29">
-        <v>26</v>
-      </c>
-      <c r="G29">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B30" t="b">
         <v>0</v>
       </c>
-      <c r="C30" t="b">
-        <v>0</v>
+      <c r="C30" t="s">
+        <v>34</v>
       </c>
       <c r="D30" t="s">
         <v>34</v>
       </c>
-      <c r="E30" t="s">
-        <v>34</v>
+      <c r="E30">
+        <v>27</v>
       </c>
       <c r="F30">
-        <v>27</v>
-      </c>
-      <c r="G30">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B31" t="b">
         <v>0</v>
       </c>
-      <c r="C31" t="b">
-        <v>0</v>
+      <c r="C31" t="s">
+        <v>34</v>
       </c>
       <c r="D31" t="s">
         <v>34</v>
       </c>
-      <c r="E31" t="s">
-        <v>34</v>
+      <c r="E31">
+        <v>28</v>
       </c>
       <c r="F31">
-        <v>28</v>
-      </c>
-      <c r="G31">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B32" t="b">
         <v>0</v>
       </c>
-      <c r="C32" t="b">
-        <v>0</v>
+      <c r="C32" t="s">
+        <v>34</v>
       </c>
       <c r="D32" t="s">
         <v>34</v>
       </c>
-      <c r="E32" t="s">
-        <v>34</v>
+      <c r="E32">
+        <v>29</v>
       </c>
       <c r="F32">
-        <v>29</v>
-      </c>
-      <c r="G32">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33" t="b">
         <v>0</v>
       </c>
-      <c r="C33" t="b">
-        <v>0</v>
+      <c r="C33" t="s">
+        <v>34</v>
       </c>
       <c r="D33" t="s">
         <v>34</v>
       </c>
-      <c r="E33" t="s">
-        <v>34</v>
+      <c r="E33">
+        <v>30</v>
       </c>
       <c r="F33">
-        <v>30</v>
-      </c>
-      <c r="G33">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B34" t="b">
         <v>0</v>
       </c>
-      <c r="C34" t="b">
-        <v>0</v>
+      <c r="C34" t="s">
+        <v>34</v>
       </c>
       <c r="D34" t="s">
         <v>34</v>
       </c>
-      <c r="E34" t="s">
-        <v>34</v>
+      <c r="E34">
+        <v>31</v>
       </c>
       <c r="F34">
-        <v>31</v>
-      </c>
-      <c r="G34">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B35" t="b">
         <v>0</v>
       </c>
-      <c r="C35" t="b">
-        <v>0</v>
+      <c r="C35" t="s">
+        <v>34</v>
       </c>
       <c r="D35" t="s">
         <v>34</v>
       </c>
-      <c r="E35" t="s">
-        <v>34</v>
+      <c r="E35">
+        <v>32</v>
       </c>
       <c r="F35">
-        <v>32</v>
-      </c>
-      <c r="G35">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B36" t="b">
         <v>0</v>
       </c>
-      <c r="C36" t="b">
-        <v>0</v>
+      <c r="C36" t="s">
+        <v>34</v>
       </c>
       <c r="D36" t="s">
         <v>34</v>
       </c>
-      <c r="E36" t="s">
-        <v>34</v>
+      <c r="E36">
+        <v>33</v>
       </c>
       <c r="F36">
-        <v>33</v>
-      </c>
-      <c r="G36">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B37" t="b">
         <v>0</v>
       </c>
-      <c r="C37" t="b">
-        <v>0</v>
+      <c r="C37" t="s">
+        <v>34</v>
       </c>
       <c r="D37" t="s">
         <v>34</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37">
         <v>34</v>
       </c>
       <c r="F37">
-        <v>34</v>
-      </c>
-      <c r="G37">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B38" t="b">
         <v>0</v>
       </c>
-      <c r="C38" t="b">
-        <v>0</v>
+      <c r="C38" t="s">
+        <v>34</v>
       </c>
       <c r="D38" t="s">
         <v>34</v>
       </c>
-      <c r="E38" t="s">
-        <v>34</v>
+      <c r="E38">
+        <v>35</v>
       </c>
       <c r="F38">
-        <v>35</v>
-      </c>
-      <c r="G38">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B39" t="b">
         <v>0</v>
       </c>
-      <c r="C39" t="b">
-        <v>0</v>
+      <c r="C39" t="s">
+        <v>34</v>
       </c>
       <c r="D39" t="s">
         <v>34</v>
       </c>
-      <c r="E39" t="s">
-        <v>34</v>
+      <c r="E39">
+        <v>1</v>
       </c>
       <c r="F39">
-        <v>1</v>
-      </c>
-      <c r="G39">
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B40" t="b">
         <v>0</v>
       </c>
-      <c r="C40" t="b">
-        <v>0</v>
+      <c r="C40" t="s">
+        <v>34</v>
       </c>
       <c r="D40" t="s">
         <v>34</v>
       </c>
-      <c r="E40" t="s">
-        <v>34</v>
+      <c r="E40">
+        <v>2</v>
       </c>
       <c r="F40">
         <v>2</v>
       </c>
-      <c r="G40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B41" t="b">
         <v>0</v>
       </c>
-      <c r="C41" t="b">
-        <v>0</v>
+      <c r="C41" t="s">
+        <v>34</v>
       </c>
       <c r="D41" t="s">
         <v>34</v>
       </c>
-      <c r="E41" t="s">
-        <v>34</v>
+      <c r="E41">
+        <v>3</v>
       </c>
       <c r="F41">
-        <v>3</v>
-      </c>
-      <c r="G41">
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B42" t="b">
         <v>0</v>
       </c>
-      <c r="C42" t="b">
-        <v>0</v>
+      <c r="C42" t="s">
+        <v>34</v>
       </c>
       <c r="D42" t="s">
         <v>34</v>
       </c>
-      <c r="E42" t="s">
-        <v>34</v>
+      <c r="E42">
+        <v>4</v>
       </c>
       <c r="F42">
-        <v>4</v>
-      </c>
-      <c r="G42">
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B43" t="b">
         <v>0</v>
       </c>
-      <c r="C43" t="b">
-        <v>0</v>
+      <c r="C43" t="s">
+        <v>34</v>
       </c>
       <c r="D43" t="s">
         <v>34</v>
       </c>
-      <c r="E43" t="s">
-        <v>34</v>
+      <c r="E43">
+        <v>5</v>
       </c>
       <c r="F43">
-        <v>5</v>
-      </c>
-      <c r="G43">
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B44" t="b">
         <v>0</v>
       </c>
-      <c r="C44" t="b">
-        <v>0</v>
+      <c r="C44" t="s">
+        <v>34</v>
       </c>
       <c r="D44" t="s">
         <v>34</v>
       </c>
-      <c r="E44" t="s">
-        <v>34</v>
+      <c r="E44">
+        <v>6</v>
       </c>
       <c r="F44">
-        <v>6</v>
-      </c>
-      <c r="G44">
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B45" t="b">
         <v>0</v>
       </c>
-      <c r="C45" t="b">
-        <v>0</v>
+      <c r="C45" t="s">
+        <v>34</v>
       </c>
       <c r="D45" t="s">
         <v>34</v>
       </c>
-      <c r="E45" t="s">
-        <v>34</v>
+      <c r="E45">
+        <v>7</v>
       </c>
       <c r="F45">
-        <v>7</v>
-      </c>
-      <c r="G45">
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B46" t="b">
         <v>0</v>
       </c>
-      <c r="C46" t="b">
-        <v>0</v>
+      <c r="C46" t="s">
+        <v>34</v>
       </c>
       <c r="D46" t="s">
         <v>34</v>
       </c>
-      <c r="E46" t="s">
-        <v>34</v>
+      <c r="E46">
+        <v>8</v>
       </c>
       <c r="F46">
-        <v>8</v>
-      </c>
-      <c r="G46">
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B47" t="b">
         <v>0</v>
       </c>
-      <c r="C47" t="b">
-        <v>0</v>
+      <c r="C47" t="s">
+        <v>34</v>
       </c>
       <c r="D47" t="s">
         <v>34</v>
       </c>
-      <c r="E47" t="s">
-        <v>34</v>
+      <c r="E47">
+        <v>9</v>
       </c>
       <c r="F47">
-        <v>9</v>
-      </c>
-      <c r="G47">
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B48" t="b">
         <v>0</v>
       </c>
-      <c r="C48" t="b">
-        <v>0</v>
+      <c r="C48" t="s">
+        <v>34</v>
       </c>
       <c r="D48" t="s">
         <v>34</v>
       </c>
-      <c r="E48" t="s">
-        <v>34</v>
+      <c r="E48">
+        <v>10</v>
       </c>
       <c r="F48">
-        <v>10</v>
-      </c>
-      <c r="G48">
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B49" t="b">
         <v>0</v>
       </c>
-      <c r="C49" t="b">
-        <v>0</v>
+      <c r="C49" t="s">
+        <v>34</v>
       </c>
       <c r="D49" t="s">
         <v>34</v>
       </c>
-      <c r="E49" t="s">
-        <v>34</v>
+      <c r="E49">
+        <v>11</v>
       </c>
       <c r="F49">
-        <v>11</v>
-      </c>
-      <c r="G49">
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B50" t="b">
         <v>0</v>
       </c>
-      <c r="C50" t="b">
-        <v>0</v>
+      <c r="C50" t="s">
+        <v>34</v>
       </c>
       <c r="D50" t="s">
         <v>34</v>
       </c>
-      <c r="E50" t="s">
-        <v>34</v>
+      <c r="E50">
+        <v>12</v>
       </c>
       <c r="F50">
-        <v>12</v>
-      </c>
-      <c r="G50">
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B51" t="b">
         <v>0</v>
       </c>
-      <c r="C51" t="b">
-        <v>0</v>
+      <c r="C51" t="s">
+        <v>34</v>
       </c>
       <c r="D51" t="s">
         <v>34</v>
       </c>
-      <c r="E51" t="s">
-        <v>34</v>
+      <c r="E51">
+        <v>13</v>
       </c>
       <c r="F51">
-        <v>13</v>
-      </c>
-      <c r="G51">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B52" t="b">
         <v>0</v>
       </c>
-      <c r="C52" t="b">
-        <v>0</v>
+      <c r="C52" t="s">
+        <v>34</v>
       </c>
       <c r="D52" t="s">
         <v>34</v>
       </c>
-      <c r="E52" t="s">
-        <v>34</v>
+      <c r="E52">
+        <v>14</v>
       </c>
       <c r="F52">
-        <v>14</v>
-      </c>
-      <c r="G52">
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B53" t="b">
         <v>0</v>
       </c>
-      <c r="C53" t="b">
-        <v>0</v>
+      <c r="C53" t="s">
+        <v>34</v>
       </c>
       <c r="D53" t="s">
         <v>34</v>
       </c>
-      <c r="E53" t="s">
-        <v>34</v>
+      <c r="E53">
+        <v>15</v>
       </c>
       <c r="F53">
-        <v>15</v>
-      </c>
-      <c r="G53">
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B54" t="b">
         <v>0</v>
       </c>
-      <c r="C54" t="b">
-        <v>0</v>
+      <c r="C54" t="s">
+        <v>34</v>
       </c>
       <c r="D54" t="s">
         <v>34</v>
       </c>
-      <c r="E54" t="s">
-        <v>34</v>
+      <c r="E54">
+        <v>16</v>
       </c>
       <c r="F54">
-        <v>16</v>
-      </c>
-      <c r="G54">
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B55" t="b">
         <v>0</v>
       </c>
-      <c r="C55" t="b">
-        <v>0</v>
+      <c r="C55" t="s">
+        <v>34</v>
       </c>
       <c r="D55" t="s">
         <v>34</v>
       </c>
-      <c r="E55" t="s">
-        <v>34</v>
+      <c r="E55">
+        <v>17</v>
       </c>
       <c r="F55">
-        <v>17</v>
-      </c>
-      <c r="G55">
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B56" t="b">
         <v>0</v>
       </c>
-      <c r="C56" t="b">
-        <v>0</v>
+      <c r="C56" t="s">
+        <v>34</v>
       </c>
       <c r="D56" t="s">
         <v>34</v>
       </c>
-      <c r="E56" t="s">
-        <v>34</v>
+      <c r="E56">
+        <v>18</v>
       </c>
       <c r="F56">
-        <v>18</v>
-      </c>
-      <c r="G56">
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B57" t="b">
         <v>0</v>
       </c>
-      <c r="C57" t="b">
-        <v>0</v>
+      <c r="C57" t="s">
+        <v>34</v>
       </c>
       <c r="D57" t="s">
         <v>34</v>
       </c>
-      <c r="E57" t="s">
-        <v>34</v>
+      <c r="E57">
+        <v>19</v>
       </c>
       <c r="F57">
-        <v>19</v>
-      </c>
-      <c r="G57">
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B58" t="b">
         <v>0</v>
       </c>
-      <c r="C58" t="b">
-        <v>0</v>
+      <c r="C58" t="s">
+        <v>34</v>
       </c>
       <c r="D58" t="s">
         <v>34</v>
       </c>
-      <c r="E58" t="s">
-        <v>34</v>
+      <c r="E58">
+        <v>20</v>
       </c>
       <c r="F58">
-        <v>20</v>
-      </c>
-      <c r="G58">
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B59" t="b">
         <v>0</v>
       </c>
-      <c r="C59" t="b">
-        <v>0</v>
+      <c r="C59" t="s">
+        <v>34</v>
       </c>
       <c r="D59" t="s">
         <v>34</v>
       </c>
-      <c r="E59" t="s">
-        <v>34</v>
+      <c r="E59">
+        <v>21</v>
       </c>
       <c r="F59">
-        <v>21</v>
-      </c>
-      <c r="G59">
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B60" t="b">
         <v>0</v>
       </c>
-      <c r="C60" t="b">
-        <v>0</v>
+      <c r="C60" t="s">
+        <v>34</v>
       </c>
       <c r="D60" t="s">
         <v>34</v>
       </c>
-      <c r="E60" t="s">
-        <v>34</v>
+      <c r="E60">
+        <v>22</v>
       </c>
       <c r="F60">
-        <v>22</v>
-      </c>
-      <c r="G60">
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B61" t="b">
         <v>0</v>
       </c>
-      <c r="C61" t="b">
-        <v>0</v>
+      <c r="C61" t="s">
+        <v>34</v>
       </c>
       <c r="D61" t="s">
         <v>34</v>
       </c>
-      <c r="E61" t="s">
-        <v>34</v>
+      <c r="E61">
+        <v>23</v>
       </c>
       <c r="F61">
-        <v>23</v>
-      </c>
-      <c r="G61">
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B62" t="b">
         <v>0</v>
       </c>
-      <c r="C62" t="b">
-        <v>0</v>
+      <c r="C62" t="s">
+        <v>34</v>
       </c>
       <c r="D62" t="s">
         <v>34</v>
       </c>
-      <c r="E62" t="s">
-        <v>34</v>
+      <c r="E62">
+        <v>24</v>
       </c>
       <c r="F62">
-        <v>24</v>
-      </c>
-      <c r="G62">
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B63" t="b">
         <v>0</v>
       </c>
-      <c r="C63" t="b">
-        <v>0</v>
+      <c r="C63" t="s">
+        <v>34</v>
       </c>
       <c r="D63" t="s">
         <v>34</v>
       </c>
-      <c r="E63" t="s">
-        <v>34</v>
+      <c r="E63">
+        <v>25</v>
       </c>
       <c r="F63">
-        <v>25</v>
-      </c>
-      <c r="G63">
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B64" t="b">
         <v>0</v>
       </c>
-      <c r="C64" t="b">
-        <v>0</v>
+      <c r="C64" t="s">
+        <v>34</v>
       </c>
       <c r="D64" t="s">
         <v>34</v>
       </c>
-      <c r="E64" t="s">
-        <v>34</v>
+      <c r="E64">
+        <v>26</v>
       </c>
       <c r="F64">
-        <v>26</v>
-      </c>
-      <c r="G64">
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B65" t="b">
         <v>0</v>
       </c>
-      <c r="C65" t="b">
-        <v>0</v>
+      <c r="C65" t="s">
+        <v>34</v>
       </c>
       <c r="D65" t="s">
         <v>34</v>
       </c>
-      <c r="E65" t="s">
-        <v>34</v>
+      <c r="E65">
+        <v>27</v>
       </c>
       <c r="F65">
-        <v>27</v>
-      </c>
-      <c r="G65">
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B66" t="b">
         <v>0</v>
       </c>
-      <c r="C66" t="b">
-        <v>0</v>
+      <c r="C66" t="s">
+        <v>34</v>
       </c>
       <c r="D66" t="s">
         <v>34</v>
       </c>
-      <c r="E66" t="s">
-        <v>34</v>
+      <c r="E66">
+        <v>28</v>
       </c>
       <c r="F66">
-        <v>28</v>
-      </c>
-      <c r="G66">
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B67" t="b">
         <v>0</v>
       </c>
-      <c r="C67" t="b">
-        <v>0</v>
+      <c r="C67" t="s">
+        <v>34</v>
       </c>
       <c r="D67" t="s">
         <v>34</v>
       </c>
-      <c r="E67" t="s">
-        <v>34</v>
+      <c r="E67">
+        <v>29</v>
       </c>
       <c r="F67">
-        <v>29</v>
-      </c>
-      <c r="G67">
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B68" t="b">
         <v>0</v>
       </c>
-      <c r="C68" t="b">
-        <v>0</v>
+      <c r="C68" t="s">
+        <v>34</v>
       </c>
       <c r="D68" t="s">
         <v>34</v>
       </c>
-      <c r="E68" t="s">
-        <v>34</v>
+      <c r="E68">
+        <v>30</v>
       </c>
       <c r="F68">
-        <v>30</v>
-      </c>
-      <c r="G68">
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B69" t="b">
         <v>0</v>
       </c>
-      <c r="C69" t="b">
-        <v>0</v>
+      <c r="C69" t="s">
+        <v>34</v>
       </c>
       <c r="D69" t="s">
         <v>34</v>
       </c>
-      <c r="E69" t="s">
-        <v>34</v>
+      <c r="E69">
+        <v>31</v>
       </c>
       <c r="F69">
-        <v>31</v>
-      </c>
-      <c r="G69">
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B70" t="b">
         <v>0</v>
       </c>
-      <c r="C70" t="b">
-        <v>0</v>
+      <c r="C70" t="s">
+        <v>34</v>
       </c>
       <c r="D70" t="s">
         <v>34</v>
       </c>
-      <c r="E70" t="s">
-        <v>34</v>
+      <c r="E70">
+        <v>32</v>
       </c>
       <c r="F70">
-        <v>32</v>
-      </c>
-      <c r="G70">
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B71" t="b">
         <v>0</v>
       </c>
-      <c r="C71" t="b">
-        <v>0</v>
+      <c r="C71" t="s">
+        <v>34</v>
       </c>
       <c r="D71" t="s">
         <v>34</v>
       </c>
-      <c r="E71" t="s">
-        <v>34</v>
+      <c r="E71">
+        <v>33</v>
       </c>
       <c r="F71">
-        <v>33</v>
-      </c>
-      <c r="G71">
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B72" t="b">
         <v>0</v>
       </c>
-      <c r="C72" t="b">
-        <v>0</v>
+      <c r="C72" t="s">
+        <v>34</v>
       </c>
       <c r="D72" t="s">
         <v>34</v>
       </c>
-      <c r="E72" t="s">
+      <c r="E72">
         <v>34</v>
       </c>
       <c r="F72">
-        <v>34</v>
-      </c>
-      <c r="G72">
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B73" t="b">
         <v>0</v>
       </c>
-      <c r="C73" t="b">
-        <v>0</v>
+      <c r="C73" t="s">
+        <v>34</v>
       </c>
       <c r="D73" t="s">
         <v>34</v>
       </c>
-      <c r="E73" t="s">
-        <v>34</v>
+      <c r="E73">
+        <v>35</v>
       </c>
       <c r="F73">
-        <v>35</v>
-      </c>
-      <c r="G73">
         <v>2</v>
       </c>
     </row>
@@ -14640,724 +14602,818 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:H33"/>
+  <dimension ref="B3:I33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:H33"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4:I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>5</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>6</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>339</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B4">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4">
         <v>0.30000000000000004</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>1</v>
       </c>
-      <c r="D4" t="s">
-        <v>34</v>
-      </c>
       <c r="E4" t="s">
         <v>34</v>
       </c>
       <c r="F4" t="s">
         <v>34</v>
       </c>
-      <c r="G4">
-        <v>1</v>
+      <c r="G4" t="s">
+        <v>34</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B5">
+      <c r="I4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B5" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5">
         <v>0.30000000000000004</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>1</v>
       </c>
-      <c r="D5" t="s">
-        <v>34</v>
-      </c>
       <c r="E5" t="s">
         <v>34</v>
       </c>
       <c r="F5" t="s">
         <v>34</v>
       </c>
-      <c r="G5">
+      <c r="G5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5">
         <v>2</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B6">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6">
         <v>0.2</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>1</v>
       </c>
-      <c r="D6" t="s">
-        <v>34</v>
-      </c>
       <c r="E6" t="s">
         <v>34</v>
       </c>
       <c r="F6" t="s">
         <v>34</v>
       </c>
-      <c r="G6">
+      <c r="G6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6">
         <v>3</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B7">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B7" t="b">
+        <v>0</v>
+      </c>
+      <c r="C7">
         <v>0.8</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>1</v>
       </c>
-      <c r="D7" t="s">
-        <v>34</v>
-      </c>
       <c r="E7" t="s">
         <v>34</v>
       </c>
       <c r="F7" t="s">
         <v>34</v>
       </c>
-      <c r="G7">
+      <c r="G7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7">
         <v>4</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B8">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8">
         <v>0.60000000000000009</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>1</v>
       </c>
-      <c r="D8" t="s">
-        <v>34</v>
-      </c>
       <c r="E8" t="s">
         <v>34</v>
       </c>
       <c r="F8" t="s">
         <v>34</v>
       </c>
-      <c r="G8">
+      <c r="G8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8">
         <v>5</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B9">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B9" t="b">
+        <v>0</v>
+      </c>
+      <c r="C9">
         <v>0.30000000000000004</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>1</v>
       </c>
-      <c r="D9" t="s">
-        <v>34</v>
-      </c>
       <c r="E9" t="s">
         <v>34</v>
       </c>
       <c r="F9" t="s">
         <v>34</v>
       </c>
-      <c r="G9">
+      <c r="G9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9">
         <v>6</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B10">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B10" t="b">
+        <v>0</v>
+      </c>
+      <c r="C10">
         <v>0.60000000000000009</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>1</v>
       </c>
-      <c r="D10" t="s">
-        <v>34</v>
-      </c>
       <c r="E10" t="s">
         <v>34</v>
       </c>
       <c r="F10" t="s">
         <v>34</v>
       </c>
-      <c r="G10">
+      <c r="G10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10">
         <v>7</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B11">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B11" t="b">
+        <v>0</v>
+      </c>
+      <c r="C11">
         <v>0.4</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>1</v>
       </c>
-      <c r="D11" t="s">
-        <v>34</v>
-      </c>
       <c r="E11" t="s">
         <v>34</v>
       </c>
       <c r="F11" t="s">
         <v>34</v>
       </c>
-      <c r="G11">
+      <c r="G11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11">
         <v>8</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B12">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B12" t="b">
+        <v>0</v>
+      </c>
+      <c r="C12">
         <v>0.9</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>1</v>
       </c>
-      <c r="D12" t="s">
-        <v>34</v>
-      </c>
       <c r="E12" t="s">
         <v>34</v>
       </c>
       <c r="F12" t="s">
         <v>34</v>
       </c>
-      <c r="G12">
+      <c r="G12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12">
         <v>9</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B13">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B13" t="b">
+        <v>0</v>
+      </c>
+      <c r="C13">
         <v>0.70000000000000007</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>1</v>
       </c>
-      <c r="D13" t="s">
-        <v>34</v>
-      </c>
       <c r="E13" t="s">
         <v>34</v>
       </c>
       <c r="F13" t="s">
         <v>34</v>
       </c>
-      <c r="G13">
+      <c r="G13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13">
         <v>10</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B14">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B14" t="b">
+        <v>0</v>
+      </c>
+      <c r="C14">
         <v>0.2</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>1</v>
       </c>
-      <c r="D14" t="s">
-        <v>34</v>
-      </c>
       <c r="E14" t="s">
         <v>34</v>
       </c>
       <c r="F14" t="s">
         <v>34</v>
       </c>
-      <c r="G14">
+      <c r="G14" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14">
         <v>1</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B15">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B15" t="b">
+        <v>0</v>
+      </c>
+      <c r="C15">
         <v>0.2</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>1</v>
       </c>
-      <c r="D15" t="s">
-        <v>34</v>
-      </c>
       <c r="E15" t="s">
         <v>34</v>
       </c>
       <c r="F15" t="s">
         <v>34</v>
       </c>
-      <c r="G15">
-        <v>2</v>
+      <c r="G15" t="s">
+        <v>34</v>
       </c>
       <c r="H15">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B16">
+      <c r="I15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C16">
         <v>0.2</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>1</v>
       </c>
-      <c r="D16" t="s">
-        <v>34</v>
-      </c>
       <c r="E16" t="s">
         <v>34</v>
       </c>
       <c r="F16" t="s">
         <v>34</v>
       </c>
-      <c r="G16">
+      <c r="G16" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16">
         <v>3</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B17">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B17" t="b">
+        <v>0</v>
+      </c>
+      <c r="C17">
         <v>0.2</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>1</v>
       </c>
-      <c r="D17" t="s">
-        <v>34</v>
-      </c>
       <c r="E17" t="s">
         <v>34</v>
       </c>
       <c r="F17" t="s">
         <v>34</v>
       </c>
-      <c r="G17">
+      <c r="G17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17">
         <v>4</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B18">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B18" t="b">
+        <v>0</v>
+      </c>
+      <c r="C18">
         <v>0.4</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>1</v>
       </c>
-      <c r="D18" t="s">
-        <v>34</v>
-      </c>
       <c r="E18" t="s">
         <v>34</v>
       </c>
       <c r="F18" t="s">
         <v>34</v>
       </c>
-      <c r="G18">
+      <c r="G18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18">
         <v>5</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B19">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B19" t="b">
+        <v>0</v>
+      </c>
+      <c r="C19">
         <v>0.9</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>1</v>
       </c>
-      <c r="D19" t="s">
-        <v>34</v>
-      </c>
       <c r="E19" t="s">
         <v>34</v>
       </c>
       <c r="F19" t="s">
         <v>34</v>
       </c>
-      <c r="G19">
+      <c r="G19" t="s">
+        <v>34</v>
+      </c>
+      <c r="H19">
         <v>6</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B20">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B20" t="b">
+        <v>0</v>
+      </c>
+      <c r="C20">
         <v>0.30000000000000004</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>1</v>
       </c>
-      <c r="D20" t="s">
-        <v>34</v>
-      </c>
       <c r="E20" t="s">
         <v>34</v>
       </c>
       <c r="F20" t="s">
         <v>34</v>
       </c>
-      <c r="G20">
+      <c r="G20" t="s">
+        <v>34</v>
+      </c>
+      <c r="H20">
         <v>7</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B21">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B21" t="b">
+        <v>0</v>
+      </c>
+      <c r="C21">
         <v>0.5</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>1</v>
       </c>
-      <c r="D21" t="s">
-        <v>34</v>
-      </c>
       <c r="E21" t="s">
         <v>34</v>
       </c>
       <c r="F21" t="s">
         <v>34</v>
       </c>
-      <c r="G21">
+      <c r="G21" t="s">
+        <v>34</v>
+      </c>
+      <c r="H21">
         <v>8</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B22">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B22" t="b">
+        <v>0</v>
+      </c>
+      <c r="C22">
         <v>0.1</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>1</v>
       </c>
-      <c r="D22" t="s">
-        <v>34</v>
-      </c>
       <c r="E22" t="s">
         <v>34</v>
       </c>
       <c r="F22" t="s">
         <v>34</v>
       </c>
-      <c r="G22">
+      <c r="G22" t="s">
+        <v>34</v>
+      </c>
+      <c r="H22">
         <v>9</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B23">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B23" t="b">
+        <v>0</v>
+      </c>
+      <c r="C23">
         <v>0.1</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>1</v>
       </c>
-      <c r="D23" t="s">
-        <v>34</v>
-      </c>
       <c r="E23" t="s">
         <v>34</v>
       </c>
       <c r="F23" t="s">
         <v>34</v>
       </c>
-      <c r="G23">
+      <c r="G23" t="s">
+        <v>34</v>
+      </c>
+      <c r="H23">
         <v>10</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B24">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C24">
         <v>0.8</v>
       </c>
-      <c r="C24" s="10">
+      <c r="D24" s="10">
         <v>1</v>
       </c>
-      <c r="D24" s="10" t="s">
-        <v>34</v>
-      </c>
       <c r="E24" s="10" t="s">
         <v>34</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="G24" s="10">
+      <c r="G24" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H24" s="10">
         <v>1</v>
       </c>
-      <c r="H24" s="10">
+      <c r="I24" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B25" t="b">
+        <v>0</v>
+      </c>
+      <c r="C25">
         <v>0.4</v>
       </c>
-      <c r="C25" s="10">
+      <c r="D25" s="10">
         <v>1</v>
       </c>
-      <c r="D25" s="10" t="s">
-        <v>34</v>
-      </c>
       <c r="E25" s="10" t="s">
         <v>34</v>
       </c>
       <c r="F25" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="G25" s="10">
+      <c r="G25" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H25" s="10">
         <v>2</v>
       </c>
-      <c r="H25" s="10">
+      <c r="I25" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B26">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B26" t="b">
+        <v>0</v>
+      </c>
+      <c r="C26">
         <v>0.5</v>
       </c>
-      <c r="C26" s="10">
+      <c r="D26" s="10">
         <v>1</v>
       </c>
-      <c r="D26" s="10" t="s">
-        <v>34</v>
-      </c>
       <c r="E26" s="10" t="s">
         <v>34</v>
       </c>
       <c r="F26" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="G26" s="10">
-        <v>3</v>
+      <c r="G26" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="H26" s="10">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B27">
+      <c r="I26" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B27" t="b">
+        <v>0</v>
+      </c>
+      <c r="C27">
         <v>0.5</v>
       </c>
-      <c r="C27" s="10">
+      <c r="D27" s="10">
         <v>1</v>
       </c>
-      <c r="D27" s="10" t="s">
-        <v>34</v>
-      </c>
       <c r="E27" s="10" t="s">
         <v>34</v>
       </c>
       <c r="F27" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="G27" s="10">
+      <c r="G27" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H27" s="10">
         <v>4</v>
       </c>
-      <c r="H27" s="10">
+      <c r="I27" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B28">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B28" t="b">
+        <v>0</v>
+      </c>
+      <c r="C28">
         <v>0.5</v>
       </c>
-      <c r="C28" s="10">
+      <c r="D28" s="10">
         <v>1</v>
       </c>
-      <c r="D28" s="10" t="s">
-        <v>34</v>
-      </c>
       <c r="E28" s="10" t="s">
         <v>34</v>
       </c>
       <c r="F28" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="G28" s="10">
+      <c r="G28" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H28" s="10">
         <v>5</v>
       </c>
-      <c r="H28" s="10">
+      <c r="I28" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B29">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B29" t="b">
+        <v>0</v>
+      </c>
+      <c r="C29">
         <v>0.2</v>
       </c>
-      <c r="C29" s="10">
+      <c r="D29" s="10">
         <v>1</v>
       </c>
-      <c r="D29" s="10" t="s">
-        <v>34</v>
-      </c>
       <c r="E29" s="10" t="s">
         <v>34</v>
       </c>
       <c r="F29" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="G29" s="10">
+      <c r="G29" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H29" s="10">
         <v>6</v>
       </c>
-      <c r="H29" s="10">
+      <c r="I29" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B30">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B30" t="b">
+        <v>0</v>
+      </c>
+      <c r="C30">
         <v>0.30000000000000004</v>
       </c>
-      <c r="C30" s="10">
+      <c r="D30" s="10">
         <v>1</v>
       </c>
-      <c r="D30" s="10" t="s">
-        <v>34</v>
-      </c>
       <c r="E30" s="10" t="s">
         <v>34</v>
       </c>
       <c r="F30" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="G30" s="10">
+      <c r="G30" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H30" s="10">
         <v>7</v>
       </c>
-      <c r="H30" s="10">
+      <c r="I30" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B31">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C31">
         <v>0.5</v>
       </c>
-      <c r="C31" s="10">
+      <c r="D31" s="10">
         <v>1</v>
       </c>
-      <c r="D31" s="10" t="s">
-        <v>34</v>
-      </c>
       <c r="E31" s="10" t="s">
         <v>34</v>
       </c>
       <c r="F31" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="G31" s="10">
+      <c r="G31" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H31" s="10">
         <v>8</v>
       </c>
-      <c r="H31" s="10">
+      <c r="I31" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B32">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B32" t="b">
+        <v>0</v>
+      </c>
+      <c r="C32">
         <v>0.30000000000000004</v>
       </c>
-      <c r="C32" s="10">
+      <c r="D32" s="10">
         <v>1</v>
       </c>
-      <c r="D32" s="10" t="s">
-        <v>34</v>
-      </c>
       <c r="E32" s="10" t="s">
         <v>34</v>
       </c>
       <c r="F32" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="G32" s="10">
+      <c r="G32" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H32" s="10">
         <v>9</v>
       </c>
-      <c r="H32" s="10">
+      <c r="I32" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B33">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B33" t="b">
+        <v>0</v>
+      </c>
+      <c r="C33">
         <v>0.1</v>
       </c>
-      <c r="C33" s="10">
+      <c r="D33" s="10">
         <v>1</v>
       </c>
-      <c r="D33" s="10" t="s">
-        <v>34</v>
-      </c>
       <c r="E33" s="10" t="s">
         <v>34</v>
       </c>
       <c r="F33" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="G33" s="10">
+      <c r="G33" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H33" s="10">
         <v>10</v>
       </c>
-      <c r="H33" s="10">
+      <c r="I33" s="10">
         <v>3</v>
       </c>
     </row>

--- a/seed.xlsx
+++ b/seed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zacharymargolies/Desktop/coding/coding-question-trivia-server/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C1D871A-0B19-5E40-9F99-4DEFC33D139E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53FE1861-4A83-9547-A808-A4426DA9EF8B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="topics" sheetId="4" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3687" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3699" uniqueCount="418">
   <si>
     <t>id</t>
   </si>
@@ -1314,6 +1314,9 @@
   </si>
   <si>
     <t>The 'this' keyword refers to a fuction's invocation context.</t>
+  </si>
+  <si>
+    <t>FILLER FACT</t>
   </si>
 </sst>
 </file>
@@ -2577,18 +2580,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C2:L207"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="J91" sqref="J91"/>
+      <selection pane="bottomLeft" activeCell="C91" sqref="C91:J102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="65.6640625" customWidth="1"/>
-    <col min="5" max="5" width="72.83203125" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="31.33203125" hidden="1" customWidth="1"/>
-    <col min="8" max="9" width="0" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="72.83203125" customWidth="1"/>
+    <col min="6" max="6" width="31.33203125" customWidth="1"/>
+    <col min="8" max="9" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:12" x14ac:dyDescent="0.2">
@@ -5122,220 +5125,328 @@
         <v>60</v>
       </c>
     </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:12" ht="17" x14ac:dyDescent="0.2">
       <c r="C91" s="2">
         <v>89</v>
       </c>
+      <c r="D91" s="3" t="s">
+        <v>417</v>
+      </c>
       <c r="E91" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="G91">
+        <v>0.1</v>
+      </c>
       <c r="H91" t="s">
         <v>34</v>
       </c>
       <c r="I91" t="s">
         <v>34</v>
+      </c>
+      <c r="J91" s="2">
+        <v>10</v>
       </c>
       <c r="L91">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" ht="17" x14ac:dyDescent="0.2">
       <c r="C92" s="2">
         <v>90</v>
       </c>
+      <c r="D92" s="3" t="s">
+        <v>417</v>
+      </c>
       <c r="E92" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="G92">
+        <v>0.1</v>
+      </c>
       <c r="H92" t="s">
         <v>34</v>
       </c>
       <c r="I92" t="s">
         <v>34</v>
+      </c>
+      <c r="J92" s="2">
+        <v>11</v>
       </c>
       <c r="L92">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" ht="17" x14ac:dyDescent="0.2">
       <c r="C93" s="2">
         <v>91</v>
       </c>
+      <c r="D93" s="3" t="s">
+        <v>417</v>
+      </c>
       <c r="E93" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="G93">
+        <v>0.1</v>
+      </c>
       <c r="H93" t="s">
         <v>34</v>
       </c>
       <c r="I93" t="s">
         <v>34</v>
+      </c>
+      <c r="J93" s="2">
+        <v>12</v>
       </c>
       <c r="L93">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" ht="17" x14ac:dyDescent="0.2">
       <c r="C94" s="2">
         <v>92</v>
       </c>
+      <c r="D94" s="3" t="s">
+        <v>417</v>
+      </c>
       <c r="E94" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="G94">
+        <v>0.1</v>
+      </c>
       <c r="H94" t="s">
         <v>34</v>
       </c>
       <c r="I94" t="s">
         <v>34</v>
+      </c>
+      <c r="J94" s="2">
+        <v>13</v>
       </c>
       <c r="L94">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" ht="17" x14ac:dyDescent="0.2">
       <c r="C95" s="2">
         <v>93</v>
       </c>
+      <c r="D95" s="3" t="s">
+        <v>417</v>
+      </c>
       <c r="E95" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="G95">
+        <v>0.1</v>
+      </c>
       <c r="H95" t="s">
         <v>34</v>
       </c>
       <c r="I95" t="s">
         <v>34</v>
+      </c>
+      <c r="J95" s="2">
+        <v>14</v>
       </c>
       <c r="L95">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="96" spans="3:12" ht="17" x14ac:dyDescent="0.2">
       <c r="C96" s="2">
         <v>94</v>
       </c>
+      <c r="D96" s="3" t="s">
+        <v>417</v>
+      </c>
       <c r="E96" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="G96">
+        <v>0.1</v>
+      </c>
       <c r="H96" t="s">
         <v>34</v>
       </c>
       <c r="I96" t="s">
         <v>34</v>
+      </c>
+      <c r="J96" s="2">
+        <v>15</v>
       </c>
       <c r="L96">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" ht="17" x14ac:dyDescent="0.2">
       <c r="C97" s="2">
         <v>95</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>417</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="G97">
+        <v>0.1</v>
+      </c>
       <c r="H97" t="s">
         <v>34</v>
       </c>
       <c r="I97" t="s">
         <v>34</v>
+      </c>
+      <c r="J97" s="2">
+        <v>16</v>
       </c>
       <c r="L97">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" ht="17" x14ac:dyDescent="0.2">
       <c r="C98" s="2">
         <v>96</v>
       </c>
+      <c r="D98" s="3" t="s">
+        <v>417</v>
+      </c>
       <c r="E98" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="G98">
+        <v>0.1</v>
+      </c>
       <c r="H98" t="s">
         <v>34</v>
       </c>
       <c r="I98" t="s">
         <v>34</v>
+      </c>
+      <c r="J98" s="2">
+        <v>17</v>
       </c>
       <c r="L98">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" ht="17" x14ac:dyDescent="0.2">
       <c r="C99" s="2">
         <v>97</v>
       </c>
+      <c r="D99" s="3" t="s">
+        <v>417</v>
+      </c>
       <c r="E99" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="G99">
+        <v>0.1</v>
+      </c>
       <c r="H99" t="s">
         <v>34</v>
       </c>
       <c r="I99" t="s">
         <v>34</v>
+      </c>
+      <c r="J99" s="2">
+        <v>18</v>
       </c>
       <c r="L99">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" ht="17" x14ac:dyDescent="0.2">
       <c r="C100" s="2">
         <v>98</v>
       </c>
+      <c r="D100" s="3" t="s">
+        <v>417</v>
+      </c>
       <c r="E100" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="G100">
+        <v>0.1</v>
+      </c>
       <c r="H100" t="s">
         <v>34</v>
       </c>
       <c r="I100" t="s">
         <v>34</v>
+      </c>
+      <c r="J100" s="2">
+        <v>7</v>
       </c>
       <c r="L100">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" ht="17" x14ac:dyDescent="0.2">
       <c r="C101" s="2">
         <v>99</v>
       </c>
+      <c r="D101" s="3" t="s">
+        <v>417</v>
+      </c>
       <c r="E101" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="G101">
+        <v>0.1</v>
+      </c>
       <c r="H101" t="s">
         <v>34</v>
       </c>
       <c r="I101" t="s">
         <v>34</v>
+      </c>
+      <c r="J101" s="2">
+        <v>9</v>
       </c>
       <c r="L101">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" ht="17" x14ac:dyDescent="0.2">
       <c r="C102" s="2">
         <v>100</v>
       </c>
+      <c r="D102" s="3" t="s">
+        <v>417</v>
+      </c>
       <c r="E102" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="G102">
+        <v>0.1</v>
+      </c>
       <c r="H102" t="s">
         <v>34</v>
       </c>
       <c r="I102" t="s">
         <v>34</v>
+      </c>
+      <c r="J102" s="2">
+        <v>8</v>
       </c>
       <c r="L102">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="103" spans="3:12" x14ac:dyDescent="0.2">
@@ -11126,17 +11237,17 @@
   <dimension ref="B3:J209"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H20" sqref="H20"/>
+      <pane ySplit="3" topLeftCell="A207" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4:J209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="93" customWidth="1"/>
-    <col min="4" max="4" width="18.1640625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="28.1640625" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="10" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="18.1640625" customWidth="1"/>
+    <col min="5" max="5" width="28.1640625" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" customWidth="1"/>
     <col min="8" max="11" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -16977,8 +17088,8 @@
   <dimension ref="B3:F203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H102" sqref="H102"/>
+      <pane ySplit="3" topLeftCell="A182" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4:F203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20410,9 +20521,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B3:I415"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D423" sqref="D423"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4:I415"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
